--- a/Test Execution/Rijo/Test Case - Theatre.xlsx
+++ b/Test Execution/Rijo/Test Case - Theatre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B83A520-37C9-4EFA-BABE-1319DA89702E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBC803-8F9A-4B4A-8578-B40B57AA3AEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="620">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2417,12 +2417,47 @@
   <si>
     <t>Nithya V S</t>
   </si>
+  <si>
+    <t>Navigate to Surgery Time&gt;&gt;Surgery Time Path&gt;&gt;Enter Entry and Arrival time</t>
+  </si>
+  <si>
+    <t>Data saved successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the Start Time and click on Started button
+Enter End Time and click on completed </t>
+  </si>
+  <si>
+    <t>EQ1-I577</t>
+  </si>
+  <si>
+    <t>Unable to enter data in the following fields
+1.From
+2.To
+3.Hours
+Oper%</t>
+  </si>
+  <si>
+    <t>EQ1-I586</t>
+  </si>
+  <si>
+    <t>Unable to select range in A S and A G</t>
+  </si>
+  <si>
+    <t>Unable to save vitals</t>
+  </si>
+  <si>
+    <t>Unable to remove attached file</t>
+  </si>
+  <si>
+    <t>EQ1-I591</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2476,6 +2511,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2555,7 +2597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2677,6 +2719,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2689,7 +2734,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2867,7 +2915,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2932,7 +2980,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,7 +3045,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,7 +3175,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3618,15 +3666,15 @@
       </c>
       <c r="C2" s="18">
         <f>Theatre!P3</f>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D2" s="18">
         <f>Theatre!S2</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E2" s="18">
         <f>Theatre!S3</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F2" s="18">
         <f>Theatre!S4</f>
@@ -3634,7 +3682,7 @@
       </c>
       <c r="G2" s="18">
         <f>Theatre!S5</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3647,15 +3695,15 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
@@ -3663,7 +3711,7 @@
       </c>
       <c r="G3" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3679,16 +3727,16 @@
       <c r="B6" s="15"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3704,9 +3752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,7 +3832,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="19">
@@ -3816,14 +3864,14 @@
       </c>
       <c r="S2" s="27">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="44"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -3848,21 +3896,21 @@
       </c>
       <c r="P3" s="17">
         <f>COUNTA(L:L)-1</f>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="27">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -3895,7 +3943,7 @@
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="44"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -3918,13 +3966,13 @@
       </c>
       <c r="S5" s="27">
         <f>COUNTA(M:M)-1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -4060,7 +4108,7 @@
       <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="19">
@@ -4074,7 +4122,7 @@
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="D14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
@@ -4092,7 +4140,7 @@
     </row>
     <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="19">
         <v>3</v>
       </c>
@@ -4113,7 +4161,7 @@
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="19">
         <v>5</v>
       </c>
@@ -4148,7 +4196,7 @@
       <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="19">
@@ -4163,7 +4211,7 @@
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="32"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="19">
         <v>2</v>
       </c>
@@ -4182,7 +4230,7 @@
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="19">
         <v>3</v>
       </c>
@@ -4204,7 +4252,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="32"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="19">
         <v>4</v>
       </c>
@@ -4223,7 +4271,7 @@
     <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="32"/>
-      <c r="D22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="19">
         <v>5</v>
       </c>
@@ -4258,7 +4306,7 @@
       <c r="C24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="19">
@@ -4275,7 +4323,7 @@
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
-      <c r="D25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="19">
         <v>2</v>
       </c>
@@ -4293,7 +4341,7 @@
     </row>
     <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
-      <c r="D26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="19">
         <v>3</v>
       </c>
@@ -4314,7 +4362,7 @@
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="19">
         <v>4</v>
       </c>
@@ -4332,7 +4380,7 @@
     </row>
     <row r="28" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
-      <c r="D28" s="42"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="19">
         <v>5</v>
       </c>
@@ -4350,7 +4398,7 @@
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
-      <c r="D29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="19">
         <v>6</v>
       </c>
@@ -4368,7 +4416,7 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
-      <c r="D30" s="42"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="19">
         <v>7</v>
       </c>
@@ -4403,7 +4451,7 @@
       <c r="C32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="19">
@@ -4417,7 +4465,7 @@
     </row>
     <row r="33" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
-      <c r="D33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4435,7 +4483,7 @@
     </row>
     <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
-      <c r="D34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4456,7 +4504,7 @@
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
-      <c r="D35" s="42"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4474,7 +4522,7 @@
     </row>
     <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
-      <c r="D36" s="42"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -4492,7 +4540,7 @@
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
-      <c r="D37" s="42"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -4510,7 +4558,7 @@
     </row>
     <row r="38" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
-      <c r="D38" s="42"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -4528,7 +4576,7 @@
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
-      <c r="D39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -4546,7 +4594,7 @@
     </row>
     <row r="40" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
-      <c r="D40" s="42"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -4581,7 +4629,7 @@
       <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="43" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="19">
@@ -4595,7 +4643,7 @@
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
-      <c r="D43" s="42"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="19">
         <v>2</v>
       </c>
@@ -4613,7 +4661,7 @@
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
-      <c r="D44" s="42"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="19">
         <v>3</v>
       </c>
@@ -4631,7 +4679,7 @@
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
-      <c r="D45" s="42"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="19">
         <v>4</v>
       </c>
@@ -4649,7 +4697,7 @@
     </row>
     <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
-      <c r="D46" s="42"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4675,7 +4723,7 @@
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
-      <c r="D47" s="42"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="19">
         <v>6</v>
       </c>
@@ -4693,7 +4741,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="19">
         <v>7</v>
       </c>
@@ -4708,7 +4756,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="19">
         <v>8</v>
       </c>
@@ -4723,7 +4771,7 @@
     </row>
     <row r="50" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="19">
         <v>9</v>
       </c>
@@ -4753,7 +4801,7 @@
       <c r="C52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="19">
@@ -4767,7 +4815,7 @@
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
-      <c r="D53" s="42"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -4785,7 +4833,7 @@
     </row>
     <row r="54" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32"/>
-      <c r="D54" s="42"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="19">
         <v>3</v>
       </c>
@@ -4803,7 +4851,7 @@
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
-      <c r="D55" s="42"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="19">
         <v>4</v>
       </c>
@@ -4821,7 +4869,7 @@
     </row>
     <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="32"/>
-      <c r="D56" s="42"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="19">
         <v>5</v>
       </c>
@@ -4842,7 +4890,7 @@
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="32"/>
-      <c r="D57" s="42"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="19">
         <v>6</v>
       </c>
@@ -4868,7 +4916,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="32"/>
-      <c r="D58" s="42"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="19">
         <v>7</v>
       </c>
@@ -4883,7 +4931,7 @@
     </row>
     <row r="59" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="32"/>
-      <c r="D59" s="42"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -4898,7 +4946,7 @@
     </row>
     <row r="60" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="32"/>
-      <c r="D60" s="42"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="19">
         <v>9</v>
       </c>
@@ -4913,7 +4961,7 @@
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
-      <c r="D61" s="42"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="19">
         <v>10</v>
       </c>
@@ -4943,7 +4991,7 @@
       <c r="C63" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="43" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="19">
@@ -4957,7 +5005,7 @@
     </row>
     <row r="64" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="32"/>
-      <c r="D64" s="42"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="19">
         <v>2</v>
       </c>
@@ -4975,7 +5023,7 @@
     </row>
     <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
-      <c r="D65" s="42"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="19">
         <v>3</v>
       </c>
@@ -4993,7 +5041,7 @@
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
-      <c r="D66" s="42"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="19">
         <v>4</v>
       </c>
@@ -5011,7 +5059,7 @@
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="32"/>
-      <c r="D67" s="42"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -5046,7 +5094,7 @@
       <c r="C69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="43" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="19">
@@ -5060,7 +5108,7 @@
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="32"/>
-      <c r="D70" s="42"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="19">
         <v>2</v>
       </c>
@@ -5078,7 +5126,7 @@
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="32"/>
-      <c r="D71" s="42"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="19">
         <v>3</v>
       </c>
@@ -5096,7 +5144,7 @@
     </row>
     <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="32"/>
-      <c r="D72" s="42"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="19">
         <v>4</v>
       </c>
@@ -5114,7 +5162,7 @@
     </row>
     <row r="73" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32"/>
-      <c r="D73" s="42"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="19">
         <v>5</v>
       </c>
@@ -5132,7 +5180,7 @@
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
-      <c r="D74" s="42"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="19">
         <v>6</v>
       </c>
@@ -5165,7 +5213,7 @@
       <c r="C76" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="43" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="19">
@@ -5179,7 +5227,7 @@
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="32"/>
-      <c r="D77" s="42"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -5189,12 +5237,15 @@
       <c r="G77" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I77" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K77" s="25"/>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32"/>
-      <c r="D78" s="42"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -5204,12 +5255,15 @@
       <c r="G78" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I78" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K78" s="25"/>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="32"/>
-      <c r="D79" s="42"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -5219,8 +5273,15 @@
       <c r="G79" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="K79" s="25"/>
-      <c r="L79" s="2"/>
+      <c r="I79" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K79" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" s="32"/>
@@ -5237,7 +5298,7 @@
       <c r="C81" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="43" t="s">
         <v>97</v>
       </c>
       <c r="E81" s="19">
@@ -5251,7 +5312,7 @@
     </row>
     <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
-      <c r="D82" s="42"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
@@ -5261,12 +5322,15 @@
       <c r="G82" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I82" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K82" s="25"/>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
-      <c r="D83" s="42"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="19">
         <v>3</v>
       </c>
@@ -5276,12 +5340,15 @@
       <c r="G83" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I83" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K83" s="25"/>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
-      <c r="D84" s="42"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="19">
         <v>4</v>
       </c>
@@ -5291,8 +5358,15 @@
       <c r="G84" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="K84" s="25"/>
-      <c r="L84" s="2"/>
+      <c r="I84" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K84" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B85" s="32"/>
@@ -5301,7 +5375,7 @@
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="41" t="s">
         <v>101</v>
       </c>
       <c r="B86" s="32" t="s">
@@ -5310,7 +5384,7 @@
       <c r="C86" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="43" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="19">
@@ -5324,7 +5398,7 @@
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
-      <c r="D87" s="42"/>
+      <c r="D87" s="43"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -5339,7 +5413,7 @@
     </row>
     <row r="88" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
-      <c r="D88" s="42"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -5354,7 +5428,7 @@
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
-      <c r="D89" s="42"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="19">
         <v>4</v>
       </c>
@@ -5369,7 +5443,7 @@
     </row>
     <row r="90" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
-      <c r="D90" s="42"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="19">
         <v>5</v>
       </c>
@@ -5387,7 +5461,7 @@
     </row>
     <row r="91" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="32"/>
-      <c r="D91" s="42"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="19">
         <v>6</v>
       </c>
@@ -5405,7 +5479,7 @@
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
-      <c r="D92" s="42"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="19">
         <v>7</v>
       </c>
@@ -5424,7 +5498,7 @@
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="41" t="s">
         <v>110</v>
       </c>
       <c r="B94" s="32" t="s">
@@ -5433,7 +5507,7 @@
       <c r="C94" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="D94" s="43" t="s">
         <v>111</v>
       </c>
       <c r="E94" s="19">
@@ -5447,7 +5521,7 @@
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
-      <c r="D95" s="42"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="19">
         <v>2</v>
       </c>
@@ -5462,7 +5536,7 @@
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
-      <c r="D96" s="42"/>
+      <c r="D96" s="43"/>
       <c r="E96" s="19">
         <v>3</v>
       </c>
@@ -5477,7 +5551,7 @@
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
-      <c r="D97" s="42"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="19">
         <v>4</v>
       </c>
@@ -5492,7 +5566,7 @@
     </row>
     <row r="98" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
-      <c r="D98" s="42"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="19">
         <v>5</v>
       </c>
@@ -5510,7 +5584,7 @@
     </row>
     <row r="99" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
-      <c r="D99" s="42"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="19">
         <v>6</v>
       </c>
@@ -5528,7 +5602,7 @@
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
-      <c r="D100" s="42"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="19">
         <v>7</v>
       </c>
@@ -5543,7 +5617,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
-      <c r="D101" s="42"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="19">
         <v>8</v>
       </c>
@@ -5562,7 +5636,7 @@
       <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="45" t="s">
+      <c r="A103" s="41" t="s">
         <v>114</v>
       </c>
       <c r="B103" s="32" t="s">
@@ -5571,7 +5645,7 @@
       <c r="C103" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="43" t="s">
         <v>111</v>
       </c>
       <c r="E103" s="19">
@@ -5585,7 +5659,7 @@
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="32"/>
-      <c r="D104" s="42"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="19">
         <v>2</v>
       </c>
@@ -5600,7 +5674,7 @@
     </row>
     <row r="105" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
-      <c r="D105" s="42"/>
+      <c r="D105" s="43"/>
       <c r="E105" s="19">
         <v>3</v>
       </c>
@@ -5615,7 +5689,7 @@
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
-      <c r="D106" s="42"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="19">
         <v>4</v>
       </c>
@@ -5630,7 +5704,7 @@
     </row>
     <row r="107" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
-      <c r="D107" s="42"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="19">
         <v>5</v>
       </c>
@@ -5648,7 +5722,7 @@
     </row>
     <row r="108" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="D108" s="42"/>
+      <c r="D108" s="43"/>
       <c r="E108" s="19">
         <v>6</v>
       </c>
@@ -5666,7 +5740,7 @@
     </row>
     <row r="109" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-      <c r="D109" s="42"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="19">
         <v>7</v>
       </c>
@@ -5681,7 +5755,7 @@
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
-      <c r="D110" s="42"/>
+      <c r="D110" s="43"/>
       <c r="E110" s="19">
         <v>8</v>
       </c>
@@ -5700,7 +5774,7 @@
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="45" t="s">
+      <c r="A112" s="41" t="s">
         <v>124</v>
       </c>
       <c r="B112" s="32" t="s">
@@ -5709,7 +5783,7 @@
       <c r="C112" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="42" t="s">
+      <c r="D112" s="43" t="s">
         <v>117</v>
       </c>
       <c r="E112" s="19">
@@ -5723,7 +5797,7 @@
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="32"/>
-      <c r="D113" s="42"/>
+      <c r="D113" s="43"/>
       <c r="E113" s="19">
         <v>2</v>
       </c>
@@ -5738,7 +5812,7 @@
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
-      <c r="D114" s="42"/>
+      <c r="D114" s="43"/>
       <c r="E114" s="19">
         <v>3</v>
       </c>
@@ -5753,7 +5827,7 @@
     </row>
     <row r="115" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
-      <c r="D115" s="42"/>
+      <c r="D115" s="43"/>
       <c r="E115" s="19">
         <v>4</v>
       </c>
@@ -5768,7 +5842,7 @@
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
-      <c r="D116" s="42"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="19">
         <v>5</v>
       </c>
@@ -5783,7 +5857,7 @@
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
-      <c r="D117" s="42"/>
+      <c r="D117" s="43"/>
       <c r="E117" s="19">
         <v>6</v>
       </c>
@@ -5802,7 +5876,7 @@
       <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="45" t="s">
+      <c r="A119" s="41" t="s">
         <v>121</v>
       </c>
       <c r="B119" s="32" t="s">
@@ -5811,7 +5885,7 @@
       <c r="C119" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="42" t="s">
+      <c r="D119" s="43" t="s">
         <v>119</v>
       </c>
       <c r="E119" s="19">
@@ -5825,7 +5899,7 @@
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
-      <c r="D120" s="42"/>
+      <c r="D120" s="43"/>
       <c r="E120" s="19">
         <v>2</v>
       </c>
@@ -5840,7 +5914,7 @@
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="32"/>
-      <c r="D121" s="42"/>
+      <c r="D121" s="43"/>
       <c r="E121" s="19">
         <v>3</v>
       </c>
@@ -5855,7 +5929,7 @@
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
-      <c r="D122" s="42"/>
+      <c r="D122" s="43"/>
       <c r="E122" s="19">
         <v>4</v>
       </c>
@@ -5870,7 +5944,7 @@
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
-      <c r="D123" s="42"/>
+      <c r="D123" s="43"/>
       <c r="E123" s="19">
         <v>5</v>
       </c>
@@ -5885,7 +5959,7 @@
     </row>
     <row r="124" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
-      <c r="D124" s="42"/>
+      <c r="D124" s="43"/>
       <c r="E124" s="19">
         <v>6</v>
       </c>
@@ -5900,7 +5974,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
-      <c r="D125" s="42"/>
+      <c r="D125" s="43"/>
       <c r="E125" s="19">
         <v>7</v>
       </c>
@@ -5919,7 +5993,7 @@
       <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="45" t="s">
+      <c r="A127" s="41" t="s">
         <v>122</v>
       </c>
       <c r="B127" s="32" t="s">
@@ -5928,7 +6002,7 @@
       <c r="C127" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="42" t="s">
+      <c r="D127" s="43" t="s">
         <v>119</v>
       </c>
       <c r="E127" s="19">
@@ -5942,7 +6016,7 @@
     </row>
     <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="32"/>
-      <c r="D128" s="42"/>
+      <c r="D128" s="43"/>
       <c r="E128" s="19">
         <v>2</v>
       </c>
@@ -5957,7 +6031,7 @@
     </row>
     <row r="129" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="32"/>
-      <c r="D129" s="42"/>
+      <c r="D129" s="43"/>
       <c r="E129" s="19">
         <v>3</v>
       </c>
@@ -5972,7 +6046,7 @@
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="32"/>
-      <c r="D130" s="42"/>
+      <c r="D130" s="43"/>
       <c r="E130" s="19">
         <v>4</v>
       </c>
@@ -5987,7 +6061,7 @@
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="32"/>
-      <c r="D131" s="42"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="19">
         <v>5</v>
       </c>
@@ -6002,7 +6076,7 @@
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="32"/>
-      <c r="D132" s="42"/>
+      <c r="D132" s="43"/>
       <c r="E132" s="19">
         <v>6</v>
       </c>
@@ -6017,7 +6091,7 @@
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="32"/>
-      <c r="D133" s="42"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="19">
         <v>7</v>
       </c>
@@ -6036,7 +6110,7 @@
       <c r="L134" s="2"/>
     </row>
     <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="45" t="s">
+      <c r="A135" s="41" t="s">
         <v>123</v>
       </c>
       <c r="B135" s="32" t="s">
@@ -6045,7 +6119,7 @@
       <c r="C135" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="42" t="s">
+      <c r="D135" s="43" t="s">
         <v>129</v>
       </c>
       <c r="E135" s="19">
@@ -6059,7 +6133,7 @@
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="32"/>
-      <c r="D136" s="42"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="19">
         <v>2</v>
       </c>
@@ -6074,7 +6148,7 @@
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="32"/>
-      <c r="D137" s="42"/>
+      <c r="D137" s="43"/>
       <c r="E137" s="19">
         <v>3</v>
       </c>
@@ -6089,7 +6163,7 @@
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="32"/>
-      <c r="D138" s="42"/>
+      <c r="D138" s="43"/>
       <c r="E138" s="19">
         <v>4</v>
       </c>
@@ -6104,7 +6178,7 @@
     </row>
     <row r="139" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" s="32"/>
-      <c r="D139" s="42"/>
+      <c r="D139" s="43"/>
       <c r="E139" s="19">
         <v>5</v>
       </c>
@@ -6122,7 +6196,7 @@
     </row>
     <row r="140" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B140" s="32"/>
-      <c r="D140" s="42"/>
+      <c r="D140" s="43"/>
       <c r="E140" s="19">
         <v>6</v>
       </c>
@@ -6140,7 +6214,7 @@
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="32"/>
-      <c r="D141" s="42"/>
+      <c r="D141" s="43"/>
       <c r="E141" s="19">
         <v>7</v>
       </c>
@@ -6158,7 +6232,7 @@
     </row>
     <row r="142" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B142" s="32"/>
-      <c r="D142" s="42"/>
+      <c r="D142" s="43"/>
       <c r="E142" s="19">
         <v>8</v>
       </c>
@@ -6176,7 +6250,7 @@
     </row>
     <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="32"/>
-      <c r="D143" s="42"/>
+      <c r="D143" s="43"/>
       <c r="E143" s="19">
         <v>9</v>
       </c>
@@ -6194,7 +6268,7 @@
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="32"/>
-      <c r="D144" s="42"/>
+      <c r="D144" s="43"/>
       <c r="E144" s="19">
         <v>10</v>
       </c>
@@ -6213,7 +6287,7 @@
       <c r="L145" s="2"/>
     </row>
     <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="45" t="s">
+      <c r="A146" s="41" t="s">
         <v>147</v>
       </c>
       <c r="B146" s="32" t="s">
@@ -6222,7 +6296,7 @@
       <c r="C146" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="42" t="s">
+      <c r="D146" s="43" t="s">
         <v>133</v>
       </c>
       <c r="E146" s="19">
@@ -6236,7 +6310,7 @@
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="32"/>
-      <c r="D147" s="42"/>
+      <c r="D147" s="43"/>
       <c r="E147" s="19">
         <v>2</v>
       </c>
@@ -6251,7 +6325,7 @@
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="32"/>
-      <c r="D148" s="42"/>
+      <c r="D148" s="43"/>
       <c r="E148" s="19">
         <v>3</v>
       </c>
@@ -6266,7 +6340,7 @@
     </row>
     <row r="149" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="32"/>
-      <c r="D149" s="42"/>
+      <c r="D149" s="43"/>
       <c r="E149" s="19">
         <v>4</v>
       </c>
@@ -6281,7 +6355,7 @@
     </row>
     <row r="150" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="32"/>
-      <c r="D150" s="42"/>
+      <c r="D150" s="43"/>
       <c r="E150" s="19">
         <v>5</v>
       </c>
@@ -6299,7 +6373,7 @@
     </row>
     <row r="151" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="32"/>
-      <c r="D151" s="42"/>
+      <c r="D151" s="43"/>
       <c r="E151" s="19">
         <v>6</v>
       </c>
@@ -6317,7 +6391,7 @@
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="32"/>
-      <c r="D152" s="42"/>
+      <c r="D152" s="43"/>
       <c r="E152" s="19">
         <v>7</v>
       </c>
@@ -6335,7 +6409,7 @@
     </row>
     <row r="153" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="32"/>
-      <c r="D153" s="42"/>
+      <c r="D153" s="43"/>
       <c r="E153" s="19">
         <v>8</v>
       </c>
@@ -6353,7 +6427,7 @@
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="32"/>
-      <c r="D154" s="42"/>
+      <c r="D154" s="43"/>
       <c r="E154" s="19">
         <v>9</v>
       </c>
@@ -6371,7 +6445,7 @@
     </row>
     <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="32"/>
-      <c r="D155" s="42"/>
+      <c r="D155" s="43"/>
       <c r="E155" s="19">
         <v>10</v>
       </c>
@@ -6386,7 +6460,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B156" s="32"/>
-      <c r="D156" s="42"/>
+      <c r="D156" s="43"/>
       <c r="E156" s="19">
         <v>11</v>
       </c>
@@ -6407,7 +6481,7 @@
       <c r="L157" s="2"/>
     </row>
     <row r="158" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="45" t="s">
+      <c r="A158" s="41" t="s">
         <v>151</v>
       </c>
       <c r="B158" s="32" t="s">
@@ -6416,7 +6490,7 @@
       <c r="C158" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="42" t="s">
+      <c r="D158" s="43" t="s">
         <v>150</v>
       </c>
       <c r="E158" s="19">
@@ -6430,7 +6504,7 @@
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="32"/>
-      <c r="D159" s="42"/>
+      <c r="D159" s="43"/>
       <c r="E159" s="19">
         <v>2</v>
       </c>
@@ -6445,7 +6519,7 @@
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="32"/>
-      <c r="D160" s="42"/>
+      <c r="D160" s="43"/>
       <c r="E160" s="19">
         <v>3</v>
       </c>
@@ -6460,7 +6534,7 @@
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="32"/>
-      <c r="D161" s="42"/>
+      <c r="D161" s="43"/>
       <c r="E161" s="19">
         <v>4</v>
       </c>
@@ -6475,7 +6549,7 @@
     </row>
     <row r="162" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" s="32"/>
-      <c r="D162" s="42"/>
+      <c r="D162" s="43"/>
       <c r="E162" s="19">
         <v>5</v>
       </c>
@@ -6493,7 +6567,7 @@
     </row>
     <row r="163" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B163" s="32"/>
-      <c r="D163" s="42"/>
+      <c r="D163" s="43"/>
       <c r="E163" s="19">
         <v>6</v>
       </c>
@@ -6511,7 +6585,7 @@
     </row>
     <row r="164" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="32"/>
-      <c r="D164" s="42"/>
+      <c r="D164" s="43"/>
       <c r="E164" s="19">
         <v>7</v>
       </c>
@@ -6531,7 +6605,7 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="42"/>
+      <c r="D165" s="43"/>
       <c r="E165" s="19">
         <v>8</v>
       </c>
@@ -6551,7 +6625,7 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="42"/>
+      <c r="D166" s="43"/>
       <c r="E166" s="19">
         <v>9</v>
       </c>
@@ -6571,7 +6645,7 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="42"/>
+      <c r="D167" s="43"/>
       <c r="E167" s="19">
         <v>10</v>
       </c>
@@ -6588,7 +6662,7 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="42"/>
+      <c r="D168" s="43"/>
       <c r="E168" s="19">
         <v>11</v>
       </c>
@@ -6609,7 +6683,7 @@
       <c r="L169" s="2"/>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="45" t="s">
+      <c r="A170" s="41" t="s">
         <v>152</v>
       </c>
       <c r="B170" s="32" t="s">
@@ -6618,7 +6692,7 @@
       <c r="C170" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="42" t="s">
+      <c r="D170" s="43" t="s">
         <v>195</v>
       </c>
       <c r="E170" s="19">
@@ -6632,7 +6706,7 @@
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="32"/>
-      <c r="D171" s="42"/>
+      <c r="D171" s="43"/>
       <c r="E171" s="19">
         <v>2</v>
       </c>
@@ -6647,7 +6721,7 @@
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="32"/>
-      <c r="D172" s="42"/>
+      <c r="D172" s="43"/>
       <c r="E172" s="19">
         <v>3</v>
       </c>
@@ -6662,7 +6736,7 @@
     </row>
     <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="32"/>
-      <c r="D173" s="42"/>
+      <c r="D173" s="43"/>
       <c r="E173" s="19">
         <v>4</v>
       </c>
@@ -6677,7 +6751,7 @@
     </row>
     <row r="174" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B174" s="32"/>
-      <c r="D174" s="42"/>
+      <c r="D174" s="43"/>
       <c r="E174" s="19">
         <v>5</v>
       </c>
@@ -6695,7 +6769,7 @@
     </row>
     <row r="175" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B175" s="32"/>
-      <c r="D175" s="42"/>
+      <c r="D175" s="43"/>
       <c r="E175" s="19">
         <v>6</v>
       </c>
@@ -6713,7 +6787,7 @@
     </row>
     <row r="176" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="32"/>
-      <c r="D176" s="42"/>
+      <c r="D176" s="43"/>
       <c r="E176" s="19">
         <v>7</v>
       </c>
@@ -6731,7 +6805,7 @@
     </row>
     <row r="177" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="32"/>
-      <c r="D177" s="42"/>
+      <c r="D177" s="43"/>
       <c r="E177" s="19">
         <v>8</v>
       </c>
@@ -6749,7 +6823,7 @@
     </row>
     <row r="178" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="32"/>
-      <c r="D178" s="42"/>
+      <c r="D178" s="43"/>
       <c r="E178" s="19">
         <v>9</v>
       </c>
@@ -6767,7 +6841,7 @@
     </row>
     <row r="179" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="32"/>
-      <c r="D179" s="42"/>
+      <c r="D179" s="43"/>
       <c r="E179" s="19">
         <v>10</v>
       </c>
@@ -6782,7 +6856,7 @@
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="32"/>
-      <c r="D180" s="42"/>
+      <c r="D180" s="43"/>
       <c r="E180" s="19">
         <v>11</v>
       </c>
@@ -6801,7 +6875,7 @@
       <c r="L181" s="2"/>
     </row>
     <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="45" t="s">
+      <c r="A182" s="41" t="s">
         <v>153</v>
       </c>
       <c r="B182" s="32" t="s">
@@ -6810,7 +6884,7 @@
       <c r="C182" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="42" t="s">
+      <c r="D182" s="43" t="s">
         <v>198</v>
       </c>
       <c r="E182" s="19">
@@ -6824,7 +6898,7 @@
     </row>
     <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="32"/>
-      <c r="D183" s="42"/>
+      <c r="D183" s="43"/>
       <c r="E183" s="19">
         <v>2</v>
       </c>
@@ -6839,7 +6913,7 @@
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="32"/>
-      <c r="D184" s="42"/>
+      <c r="D184" s="43"/>
       <c r="E184" s="19">
         <v>3</v>
       </c>
@@ -6854,7 +6928,7 @@
     </row>
     <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="32"/>
-      <c r="D185" s="42"/>
+      <c r="D185" s="43"/>
       <c r="E185" s="19">
         <v>4</v>
       </c>
@@ -6869,7 +6943,7 @@
     </row>
     <row r="186" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B186" s="32"/>
-      <c r="D186" s="42"/>
+      <c r="D186" s="43"/>
       <c r="E186" s="19">
         <v>5</v>
       </c>
@@ -6887,7 +6961,7 @@
     </row>
     <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="32"/>
-      <c r="D187" s="42"/>
+      <c r="D187" s="43"/>
       <c r="E187" s="19">
         <v>6</v>
       </c>
@@ -6905,7 +6979,7 @@
     </row>
     <row r="188" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B188" s="32"/>
-      <c r="D188" s="42"/>
+      <c r="D188" s="43"/>
       <c r="E188" s="19">
         <v>7</v>
       </c>
@@ -6923,7 +6997,7 @@
     </row>
     <row r="189" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="32"/>
-      <c r="D189" s="42"/>
+      <c r="D189" s="43"/>
       <c r="E189" s="19">
         <v>8</v>
       </c>
@@ -6941,7 +7015,7 @@
     </row>
     <row r="190" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="32"/>
-      <c r="D190" s="42"/>
+      <c r="D190" s="43"/>
       <c r="E190" s="19">
         <v>9</v>
       </c>
@@ -6959,7 +7033,7 @@
     </row>
     <row r="191" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B191" s="32"/>
-      <c r="D191" s="42"/>
+      <c r="D191" s="43"/>
       <c r="E191" s="19">
         <v>10</v>
       </c>
@@ -6974,7 +7048,7 @@
     </row>
     <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="32"/>
-      <c r="D192" s="42"/>
+      <c r="D192" s="43"/>
       <c r="E192" s="19">
         <v>11</v>
       </c>
@@ -6989,7 +7063,7 @@
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="32"/>
-      <c r="D193" s="42"/>
+      <c r="D193" s="43"/>
       <c r="E193" s="19">
         <v>11</v>
       </c>
@@ -7010,7 +7084,7 @@
       <c r="L194" s="2"/>
     </row>
     <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="45" t="s">
+      <c r="A195" s="41" t="s">
         <v>154</v>
       </c>
       <c r="B195" s="32" t="s">
@@ -7019,7 +7093,7 @@
       <c r="C195" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="42" t="s">
+      <c r="D195" s="43" t="s">
         <v>199</v>
       </c>
       <c r="E195" s="19">
@@ -7033,7 +7107,7 @@
     </row>
     <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="32"/>
-      <c r="D196" s="42"/>
+      <c r="D196" s="43"/>
       <c r="E196" s="19">
         <v>2</v>
       </c>
@@ -7048,7 +7122,7 @@
     </row>
     <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="32"/>
-      <c r="D197" s="42"/>
+      <c r="D197" s="43"/>
       <c r="E197" s="19">
         <v>3</v>
       </c>
@@ -7063,7 +7137,7 @@
     </row>
     <row r="198" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="32"/>
-      <c r="D198" s="42"/>
+      <c r="D198" s="43"/>
       <c r="E198" s="19">
         <v>4</v>
       </c>
@@ -7078,7 +7152,7 @@
     </row>
     <row r="199" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B199" s="32"/>
-      <c r="D199" s="42"/>
+      <c r="D199" s="43"/>
       <c r="E199" s="19">
         <v>5</v>
       </c>
@@ -7096,7 +7170,7 @@
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="32"/>
-      <c r="D200" s="42"/>
+      <c r="D200" s="43"/>
       <c r="E200" s="19">
         <v>6</v>
       </c>
@@ -7114,7 +7188,7 @@
     </row>
     <row r="201" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B201" s="32"/>
-      <c r="D201" s="42"/>
+      <c r="D201" s="43"/>
       <c r="E201" s="19">
         <v>7</v>
       </c>
@@ -7134,7 +7208,7 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="42"/>
+      <c r="D202" s="43"/>
       <c r="E202" s="19">
         <v>8</v>
       </c>
@@ -7154,7 +7228,7 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="42"/>
+      <c r="D203" s="43"/>
       <c r="E203" s="19">
         <v>9</v>
       </c>
@@ -7174,7 +7248,7 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="42"/>
+      <c r="D204" s="43"/>
       <c r="E204" s="19">
         <v>10</v>
       </c>
@@ -7191,7 +7265,7 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="42"/>
+      <c r="D205" s="43"/>
       <c r="E205" s="19">
         <v>11</v>
       </c>
@@ -7208,7 +7282,7 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="42"/>
+      <c r="D206" s="43"/>
       <c r="E206" s="19">
         <v>12</v>
       </c>
@@ -7229,7 +7303,7 @@
       <c r="L207" s="2"/>
     </row>
     <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="45" t="s">
+      <c r="A208" s="41" t="s">
         <v>182</v>
       </c>
       <c r="B208" s="32" t="s">
@@ -7238,7 +7312,7 @@
       <c r="C208" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D208" s="42" t="s">
+      <c r="D208" s="43" t="s">
         <v>201</v>
       </c>
       <c r="E208" s="19">
@@ -7252,7 +7326,7 @@
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="32"/>
-      <c r="D209" s="42"/>
+      <c r="D209" s="43"/>
       <c r="E209" s="19">
         <v>2</v>
       </c>
@@ -7267,7 +7341,7 @@
     </row>
     <row r="210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="32"/>
-      <c r="D210" s="42"/>
+      <c r="D210" s="43"/>
       <c r="E210" s="19">
         <v>3</v>
       </c>
@@ -7282,7 +7356,7 @@
     </row>
     <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="32"/>
-      <c r="D211" s="42"/>
+      <c r="D211" s="43"/>
       <c r="E211" s="19">
         <v>4</v>
       </c>
@@ -7297,7 +7371,7 @@
     </row>
     <row r="212" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B212" s="32"/>
-      <c r="D212" s="42"/>
+      <c r="D212" s="43"/>
       <c r="E212" s="19">
         <v>5</v>
       </c>
@@ -7315,7 +7389,7 @@
     </row>
     <row r="213" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B213" s="32"/>
-      <c r="D213" s="42"/>
+      <c r="D213" s="43"/>
       <c r="E213" s="19">
         <v>6</v>
       </c>
@@ -7333,7 +7407,7 @@
     </row>
     <row r="214" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="32"/>
-      <c r="D214" s="42"/>
+      <c r="D214" s="43"/>
       <c r="E214" s="19">
         <v>7</v>
       </c>
@@ -7348,7 +7422,7 @@
     </row>
     <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="32"/>
-      <c r="D215" s="42"/>
+      <c r="D215" s="43"/>
       <c r="E215" s="19">
         <v>8</v>
       </c>
@@ -7363,7 +7437,7 @@
     </row>
     <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="32"/>
-      <c r="D216" s="42"/>
+      <c r="D216" s="43"/>
       <c r="E216" s="19">
         <v>9</v>
       </c>
@@ -7382,7 +7456,7 @@
       <c r="L217" s="2"/>
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="45" t="s">
+      <c r="A218" s="41" t="s">
         <v>183</v>
       </c>
       <c r="B218" s="32" t="s">
@@ -7391,7 +7465,7 @@
       <c r="C218" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D218" s="42" t="s">
+      <c r="D218" s="43" t="s">
         <v>204</v>
       </c>
       <c r="E218" s="19">
@@ -7405,7 +7479,7 @@
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="32"/>
-      <c r="D219" s="42"/>
+      <c r="D219" s="43"/>
       <c r="E219" s="19">
         <v>2</v>
       </c>
@@ -7420,7 +7494,7 @@
     </row>
     <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="32"/>
-      <c r="D220" s="42"/>
+      <c r="D220" s="43"/>
       <c r="E220" s="19">
         <v>3</v>
       </c>
@@ -7435,7 +7509,7 @@
     </row>
     <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="32"/>
-      <c r="D221" s="42"/>
+      <c r="D221" s="43"/>
       <c r="E221" s="19">
         <v>4</v>
       </c>
@@ -7450,7 +7524,7 @@
     </row>
     <row r="222" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" s="32"/>
-      <c r="D222" s="42"/>
+      <c r="D222" s="43"/>
       <c r="E222" s="19">
         <v>5</v>
       </c>
@@ -7468,7 +7542,7 @@
     </row>
     <row r="223" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="32"/>
-      <c r="D223" s="42"/>
+      <c r="D223" s="43"/>
       <c r="E223" s="19">
         <v>6</v>
       </c>
@@ -7486,7 +7560,7 @@
     </row>
     <row r="224" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="32"/>
-      <c r="D224" s="42"/>
+      <c r="D224" s="43"/>
       <c r="E224" s="19">
         <v>7</v>
       </c>
@@ -7501,7 +7575,7 @@
     </row>
     <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="32"/>
-      <c r="D225" s="42"/>
+      <c r="D225" s="43"/>
       <c r="E225" s="19">
         <v>8</v>
       </c>
@@ -7516,7 +7590,7 @@
     </row>
     <row r="226" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="32"/>
-      <c r="D226" s="42"/>
+      <c r="D226" s="43"/>
       <c r="E226" s="19">
         <v>9</v>
       </c>
@@ -7531,7 +7605,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B227" s="32"/>
-      <c r="D227" s="42"/>
+      <c r="D227" s="43"/>
       <c r="E227" s="19">
         <v>10</v>
       </c>
@@ -7552,7 +7626,7 @@
       <c r="L228" s="2"/>
     </row>
     <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="45" t="s">
+      <c r="A229" s="41" t="s">
         <v>184</v>
       </c>
       <c r="B229" s="32" t="s">
@@ -7561,7 +7635,7 @@
       <c r="C229" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D229" s="42" t="s">
+      <c r="D229" s="43" t="s">
         <v>205</v>
       </c>
       <c r="E229" s="19">
@@ -7575,7 +7649,7 @@
     </row>
     <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="32"/>
-      <c r="D230" s="42"/>
+      <c r="D230" s="43"/>
       <c r="E230" s="19">
         <v>2</v>
       </c>
@@ -7590,7 +7664,7 @@
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="32"/>
-      <c r="D231" s="42"/>
+      <c r="D231" s="43"/>
       <c r="E231" s="19">
         <v>3</v>
       </c>
@@ -7605,7 +7679,7 @@
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="32"/>
-      <c r="D232" s="42"/>
+      <c r="D232" s="43"/>
       <c r="E232" s="19">
         <v>4</v>
       </c>
@@ -7620,7 +7694,7 @@
     </row>
     <row r="233" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B233" s="32"/>
-      <c r="D233" s="42"/>
+      <c r="D233" s="43"/>
       <c r="E233" s="19">
         <v>5</v>
       </c>
@@ -7638,7 +7712,7 @@
     </row>
     <row r="234" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B234" s="32"/>
-      <c r="D234" s="42"/>
+      <c r="D234" s="43"/>
       <c r="E234" s="19">
         <v>6</v>
       </c>
@@ -7656,7 +7730,7 @@
     </row>
     <row r="235" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B235" s="32"/>
-      <c r="D235" s="42"/>
+      <c r="D235" s="43"/>
       <c r="E235" s="19">
         <v>7</v>
       </c>
@@ -7673,7 +7747,7 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="42"/>
+      <c r="D236" s="43"/>
       <c r="E236" s="19">
         <v>8</v>
       </c>
@@ -7690,7 +7764,7 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="42"/>
+      <c r="D237" s="43"/>
       <c r="E237" s="19">
         <v>9</v>
       </c>
@@ -7707,7 +7781,7 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="42"/>
+      <c r="D238" s="43"/>
       <c r="E238" s="19">
         <v>10</v>
       </c>
@@ -7728,7 +7802,7 @@
       <c r="L239" s="2"/>
     </row>
     <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="45" t="s">
+      <c r="A240" s="41" t="s">
         <v>185</v>
       </c>
       <c r="B240" s="32" t="s">
@@ -7737,7 +7811,7 @@
       <c r="C240" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D240" s="42" t="s">
+      <c r="D240" s="43" t="s">
         <v>188</v>
       </c>
       <c r="E240" s="19">
@@ -7751,7 +7825,7 @@
     </row>
     <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="32"/>
-      <c r="D241" s="42"/>
+      <c r="D241" s="43"/>
       <c r="E241" s="19">
         <v>2</v>
       </c>
@@ -7766,7 +7840,7 @@
     </row>
     <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="32"/>
-      <c r="D242" s="42"/>
+      <c r="D242" s="43"/>
       <c r="E242" s="19">
         <v>3</v>
       </c>
@@ -7781,7 +7855,7 @@
     </row>
     <row r="243" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="32"/>
-      <c r="D243" s="42"/>
+      <c r="D243" s="43"/>
       <c r="E243" s="19">
         <v>4</v>
       </c>
@@ -7796,7 +7870,7 @@
     </row>
     <row r="244" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B244" s="32"/>
-      <c r="D244" s="42"/>
+      <c r="D244" s="43"/>
       <c r="E244" s="19">
         <v>5</v>
       </c>
@@ -7814,7 +7888,7 @@
     </row>
     <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="32"/>
-      <c r="D245" s="42"/>
+      <c r="D245" s="43"/>
       <c r="E245" s="19">
         <v>6</v>
       </c>
@@ -7833,7 +7907,7 @@
       <c r="L246" s="2"/>
     </row>
     <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="45" t="s">
+      <c r="A247" s="41" t="s">
         <v>186</v>
       </c>
       <c r="B247" s="32" t="s">
@@ -7842,7 +7916,7 @@
       <c r="C247" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D247" s="42" t="s">
+      <c r="D247" s="43" t="s">
         <v>192</v>
       </c>
       <c r="E247" s="19">
@@ -7856,7 +7930,7 @@
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="32"/>
-      <c r="D248" s="42"/>
+      <c r="D248" s="43"/>
       <c r="E248" s="19">
         <v>2</v>
       </c>
@@ -7871,7 +7945,7 @@
     </row>
     <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="32"/>
-      <c r="D249" s="42"/>
+      <c r="D249" s="43"/>
       <c r="E249" s="19">
         <v>3</v>
       </c>
@@ -7886,7 +7960,7 @@
     </row>
     <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="32"/>
-      <c r="D250" s="42"/>
+      <c r="D250" s="43"/>
       <c r="E250" s="19">
         <v>4</v>
       </c>
@@ -7901,7 +7975,7 @@
     </row>
     <row r="251" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B251" s="32"/>
-      <c r="D251" s="42"/>
+      <c r="D251" s="43"/>
       <c r="E251" s="19">
         <v>5</v>
       </c>
@@ -7919,7 +7993,7 @@
     </row>
     <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="32"/>
-      <c r="D252" s="42"/>
+      <c r="D252" s="43"/>
       <c r="E252" s="19">
         <v>6</v>
       </c>
@@ -7934,7 +8008,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B253" s="32"/>
-      <c r="D253" s="42"/>
+      <c r="D253" s="43"/>
       <c r="E253" s="19">
         <v>7</v>
       </c>
@@ -7955,7 +8029,7 @@
       <c r="L254" s="2"/>
     </row>
     <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="45" t="s">
+      <c r="A255" s="41" t="s">
         <v>187</v>
       </c>
       <c r="B255" s="32" t="s">
@@ -7964,7 +8038,7 @@
       <c r="C255" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D255" s="42" t="s">
+      <c r="D255" s="43" t="s">
         <v>193</v>
       </c>
       <c r="E255" s="19">
@@ -7978,7 +8052,7 @@
     </row>
     <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="32"/>
-      <c r="D256" s="42"/>
+      <c r="D256" s="43"/>
       <c r="E256" s="19">
         <v>2</v>
       </c>
@@ -7993,7 +8067,7 @@
     </row>
     <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="32"/>
-      <c r="D257" s="42"/>
+      <c r="D257" s="43"/>
       <c r="E257" s="19">
         <v>3</v>
       </c>
@@ -8008,7 +8082,7 @@
     </row>
     <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="32"/>
-      <c r="D258" s="42"/>
+      <c r="D258" s="43"/>
       <c r="E258" s="19">
         <v>4</v>
       </c>
@@ -8023,7 +8097,7 @@
     </row>
     <row r="259" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B259" s="32"/>
-      <c r="D259" s="42"/>
+      <c r="D259" s="43"/>
       <c r="E259" s="19">
         <v>5</v>
       </c>
@@ -8041,7 +8115,7 @@
     </row>
     <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B260" s="32"/>
-      <c r="D260" s="42"/>
+      <c r="D260" s="43"/>
       <c r="E260" s="19">
         <v>6</v>
       </c>
@@ -8058,7 +8132,7 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="42"/>
+      <c r="D261" s="43"/>
       <c r="E261" s="19">
         <v>7</v>
       </c>
@@ -8079,7 +8153,7 @@
       <c r="L262" s="2"/>
     </row>
     <row r="263" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="45" t="s">
+      <c r="A263" s="41" t="s">
         <v>210</v>
       </c>
       <c r="B263" s="32" t="s">
@@ -8088,7 +8162,7 @@
       <c r="C263" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D263" s="42" t="s">
+      <c r="D263" s="43" t="s">
         <v>213</v>
       </c>
       <c r="E263" s="19">
@@ -8102,7 +8176,7 @@
     </row>
     <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="32"/>
-      <c r="D264" s="42"/>
+      <c r="D264" s="43"/>
       <c r="E264" s="19">
         <v>2</v>
       </c>
@@ -8117,7 +8191,7 @@
     </row>
     <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="32"/>
-      <c r="D265" s="42"/>
+      <c r="D265" s="43"/>
       <c r="E265" s="19">
         <v>3</v>
       </c>
@@ -8132,7 +8206,7 @@
     </row>
     <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="32"/>
-      <c r="D266" s="42"/>
+      <c r="D266" s="43"/>
       <c r="E266" s="19">
         <v>4</v>
       </c>
@@ -8147,7 +8221,7 @@
     </row>
     <row r="267" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B267" s="32"/>
-      <c r="D267" s="42"/>
+      <c r="D267" s="43"/>
       <c r="E267" s="19">
         <v>5</v>
       </c>
@@ -8165,7 +8239,7 @@
     </row>
     <row r="268" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B268" s="32"/>
-      <c r="D268" s="42"/>
+      <c r="D268" s="43"/>
       <c r="E268" s="19">
         <v>6</v>
       </c>
@@ -8180,7 +8254,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B269" s="32"/>
-      <c r="D269" s="42"/>
+      <c r="D269" s="43"/>
       <c r="E269" s="19">
         <v>7</v>
       </c>
@@ -8199,7 +8273,7 @@
       <c r="L270" s="2"/>
     </row>
     <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="45" t="s">
+      <c r="A271" s="41" t="s">
         <v>211</v>
       </c>
       <c r="B271" s="32" t="s">
@@ -8208,7 +8282,7 @@
       <c r="C271" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D271" s="42" t="s">
+      <c r="D271" s="43" t="s">
         <v>216</v>
       </c>
       <c r="E271" s="19">
@@ -8222,7 +8296,7 @@
     </row>
     <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="32"/>
-      <c r="D272" s="42"/>
+      <c r="D272" s="43"/>
       <c r="E272" s="19">
         <v>2</v>
       </c>
@@ -8237,7 +8311,7 @@
     </row>
     <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="32"/>
-      <c r="D273" s="42"/>
+      <c r="D273" s="43"/>
       <c r="E273" s="19">
         <v>3</v>
       </c>
@@ -8252,7 +8326,7 @@
     </row>
     <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="32"/>
-      <c r="D274" s="42"/>
+      <c r="D274" s="43"/>
       <c r="E274" s="19">
         <v>4</v>
       </c>
@@ -8267,7 +8341,7 @@
     </row>
     <row r="275" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B275" s="32"/>
-      <c r="D275" s="42"/>
+      <c r="D275" s="43"/>
       <c r="E275" s="19">
         <v>5</v>
       </c>
@@ -8285,7 +8359,7 @@
     </row>
     <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B276" s="32"/>
-      <c r="D276" s="42"/>
+      <c r="D276" s="43"/>
       <c r="E276" s="19">
         <v>6</v>
       </c>
@@ -8300,7 +8374,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B277" s="32"/>
-      <c r="D277" s="42"/>
+      <c r="D277" s="43"/>
       <c r="E277" s="19">
         <v>7</v>
       </c>
@@ -8315,7 +8389,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B278" s="32"/>
-      <c r="D278" s="42"/>
+      <c r="D278" s="43"/>
       <c r="E278" s="19">
         <v>8</v>
       </c>
@@ -8336,7 +8410,7 @@
       <c r="L279" s="2"/>
     </row>
     <row r="280" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="45" t="s">
+      <c r="A280" s="41" t="s">
         <v>212</v>
       </c>
       <c r="B280" s="32" t="s">
@@ -8345,7 +8419,7 @@
       <c r="C280" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D280" s="42" t="s">
+      <c r="D280" s="43" t="s">
         <v>217</v>
       </c>
       <c r="E280" s="19">
@@ -8359,7 +8433,7 @@
     </row>
     <row r="281" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="32"/>
-      <c r="D281" s="42"/>
+      <c r="D281" s="43"/>
       <c r="E281" s="19">
         <v>2</v>
       </c>
@@ -8374,7 +8448,7 @@
     </row>
     <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="32"/>
-      <c r="D282" s="42"/>
+      <c r="D282" s="43"/>
       <c r="E282" s="19">
         <v>3</v>
       </c>
@@ -8389,7 +8463,7 @@
     </row>
     <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="32"/>
-      <c r="D283" s="42"/>
+      <c r="D283" s="43"/>
       <c r="E283" s="19">
         <v>4</v>
       </c>
@@ -8404,7 +8478,7 @@
     </row>
     <row r="284" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B284" s="32"/>
-      <c r="D284" s="42"/>
+      <c r="D284" s="43"/>
       <c r="E284" s="19">
         <v>5</v>
       </c>
@@ -8422,7 +8496,7 @@
     </row>
     <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="32"/>
-      <c r="D285" s="42"/>
+      <c r="D285" s="43"/>
       <c r="E285" s="19">
         <v>6</v>
       </c>
@@ -8437,7 +8511,7 @@
     </row>
     <row r="286" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="32"/>
-      <c r="D286" s="42"/>
+      <c r="D286" s="43"/>
       <c r="E286" s="19">
         <v>7</v>
       </c>
@@ -8454,7 +8528,7 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="42"/>
+      <c r="D287" s="43"/>
       <c r="E287" s="19">
         <v>8</v>
       </c>
@@ -8475,7 +8549,7 @@
       <c r="L288" s="2"/>
     </row>
     <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="45" t="s">
+      <c r="A289" s="41" t="s">
         <v>230</v>
       </c>
       <c r="B289" s="32" t="s">
@@ -8484,7 +8558,7 @@
       <c r="C289" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D289" s="42" t="s">
+      <c r="D289" s="43" t="s">
         <v>224</v>
       </c>
       <c r="E289" s="19">
@@ -8498,7 +8572,7 @@
     </row>
     <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="32"/>
-      <c r="D290" s="42"/>
+      <c r="D290" s="43"/>
       <c r="E290" s="19">
         <v>2</v>
       </c>
@@ -8513,7 +8587,7 @@
     </row>
     <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="32"/>
-      <c r="D291" s="42"/>
+      <c r="D291" s="43"/>
       <c r="E291" s="19">
         <v>3</v>
       </c>
@@ -8528,7 +8602,7 @@
     </row>
     <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="32"/>
-      <c r="D292" s="42"/>
+      <c r="D292" s="43"/>
       <c r="E292" s="19">
         <v>4</v>
       </c>
@@ -8543,7 +8617,7 @@
     </row>
     <row r="293" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B293" s="32"/>
-      <c r="D293" s="42"/>
+      <c r="D293" s="43"/>
       <c r="E293" s="19">
         <v>5</v>
       </c>
@@ -8558,7 +8632,7 @@
     </row>
     <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="32"/>
-      <c r="D294" s="42"/>
+      <c r="D294" s="43"/>
       <c r="E294" s="19">
         <v>6</v>
       </c>
@@ -8577,7 +8651,7 @@
       <c r="L295" s="2"/>
     </row>
     <row r="296" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="45" t="s">
+      <c r="A296" s="41" t="s">
         <v>231</v>
       </c>
       <c r="B296" s="32" t="s">
@@ -8586,7 +8660,7 @@
       <c r="C296" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D296" s="42" t="s">
+      <c r="D296" s="43" t="s">
         <v>227</v>
       </c>
       <c r="E296" s="19">
@@ -8600,7 +8674,7 @@
     </row>
     <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B297" s="32"/>
-      <c r="D297" s="42"/>
+      <c r="D297" s="43"/>
       <c r="E297" s="19">
         <v>2</v>
       </c>
@@ -8615,7 +8689,7 @@
     </row>
     <row r="298" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="32"/>
-      <c r="D298" s="42"/>
+      <c r="D298" s="43"/>
       <c r="E298" s="19">
         <v>3</v>
       </c>
@@ -8630,7 +8704,7 @@
     </row>
     <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="32"/>
-      <c r="D299" s="42"/>
+      <c r="D299" s="43"/>
       <c r="E299" s="19">
         <v>4</v>
       </c>
@@ -8645,7 +8719,7 @@
     </row>
     <row r="300" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B300" s="32"/>
-      <c r="D300" s="42"/>
+      <c r="D300" s="43"/>
       <c r="E300" s="19">
         <v>5</v>
       </c>
@@ -8660,7 +8734,7 @@
     </row>
     <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="32"/>
-      <c r="D301" s="42"/>
+      <c r="D301" s="43"/>
       <c r="E301" s="19">
         <v>6</v>
       </c>
@@ -8675,7 +8749,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B302" s="32"/>
-      <c r="D302" s="42"/>
+      <c r="D302" s="43"/>
       <c r="E302" s="19">
         <v>7</v>
       </c>
@@ -8696,7 +8770,7 @@
       <c r="L303" s="2"/>
     </row>
     <row r="304" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="45" t="s">
+      <c r="A304" s="41" t="s">
         <v>232</v>
       </c>
       <c r="B304" s="32" t="s">
@@ -8705,7 +8779,7 @@
       <c r="C304" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="42" t="s">
+      <c r="D304" s="43" t="s">
         <v>228</v>
       </c>
       <c r="E304" s="19">
@@ -8719,7 +8793,7 @@
     </row>
     <row r="305" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="32"/>
-      <c r="D305" s="42"/>
+      <c r="D305" s="43"/>
       <c r="E305" s="19">
         <v>2</v>
       </c>
@@ -8734,7 +8808,7 @@
     </row>
     <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="32"/>
-      <c r="D306" s="42"/>
+      <c r="D306" s="43"/>
       <c r="E306" s="19">
         <v>3</v>
       </c>
@@ -8749,7 +8823,7 @@
     </row>
     <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="32"/>
-      <c r="D307" s="42"/>
+      <c r="D307" s="43"/>
       <c r="E307" s="19">
         <v>4</v>
       </c>
@@ -8764,7 +8838,7 @@
     </row>
     <row r="308" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B308" s="32"/>
-      <c r="D308" s="42"/>
+      <c r="D308" s="43"/>
       <c r="E308" s="19">
         <v>5</v>
       </c>
@@ -8779,7 +8853,7 @@
     </row>
     <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="32"/>
-      <c r="D309" s="42"/>
+      <c r="D309" s="43"/>
       <c r="E309" s="19">
         <v>6</v>
       </c>
@@ -8796,7 +8870,7 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="42"/>
+      <c r="D310" s="43"/>
       <c r="E310" s="19">
         <v>7</v>
       </c>
@@ -8825,7 +8899,7 @@
       <c r="L311" s="2"/>
     </row>
     <row r="312" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="45" t="s">
+      <c r="A312" s="41" t="s">
         <v>235</v>
       </c>
       <c r="B312" s="32" t="s">
@@ -8834,7 +8908,7 @@
       <c r="C312" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="42" t="s">
+      <c r="D312" s="43" t="s">
         <v>238</v>
       </c>
       <c r="E312" s="19">
@@ -8848,7 +8922,7 @@
     </row>
     <row r="313" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="32"/>
-      <c r="D313" s="42"/>
+      <c r="D313" s="43"/>
       <c r="E313" s="19">
         <v>2</v>
       </c>
@@ -8863,7 +8937,7 @@
     </row>
     <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="32"/>
-      <c r="D314" s="42"/>
+      <c r="D314" s="43"/>
       <c r="E314" s="19">
         <v>3</v>
       </c>
@@ -8878,7 +8952,7 @@
     </row>
     <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="32"/>
-      <c r="D315" s="42"/>
+      <c r="D315" s="43"/>
       <c r="E315" s="19">
         <v>4</v>
       </c>
@@ -8893,7 +8967,7 @@
     </row>
     <row r="316" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B316" s="32"/>
-      <c r="D316" s="42"/>
+      <c r="D316" s="43"/>
       <c r="E316" s="19">
         <v>5</v>
       </c>
@@ -8911,7 +8985,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B317" s="32"/>
-      <c r="D317" s="42"/>
+      <c r="D317" s="43"/>
       <c r="E317" s="19">
         <v>6</v>
       </c>
@@ -8930,7 +9004,7 @@
       <c r="L318" s="2"/>
     </row>
     <row r="319" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="45" t="s">
+      <c r="A319" s="41" t="s">
         <v>236</v>
       </c>
       <c r="B319" s="32" t="s">
@@ -8939,7 +9013,7 @@
       <c r="C319" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D319" s="42" t="s">
+      <c r="D319" s="43" t="s">
         <v>241</v>
       </c>
       <c r="E319" s="19">
@@ -8953,7 +9027,7 @@
     </row>
     <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B320" s="32"/>
-      <c r="D320" s="42"/>
+      <c r="D320" s="43"/>
       <c r="E320" s="19">
         <v>2</v>
       </c>
@@ -8968,7 +9042,7 @@
     </row>
     <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="32"/>
-      <c r="D321" s="42"/>
+      <c r="D321" s="43"/>
       <c r="E321" s="19">
         <v>3</v>
       </c>
@@ -8983,7 +9057,7 @@
     </row>
     <row r="322" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="32"/>
-      <c r="D322" s="42"/>
+      <c r="D322" s="43"/>
       <c r="E322" s="19">
         <v>4</v>
       </c>
@@ -8998,7 +9072,7 @@
     </row>
     <row r="323" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B323" s="32"/>
-      <c r="D323" s="42"/>
+      <c r="D323" s="43"/>
       <c r="E323" s="19">
         <v>5</v>
       </c>
@@ -9016,7 +9090,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B324" s="32"/>
-      <c r="D324" s="42"/>
+      <c r="D324" s="43"/>
       <c r="E324" s="19">
         <v>6</v>
       </c>
@@ -9031,7 +9105,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B325" s="32"/>
-      <c r="D325" s="42"/>
+      <c r="D325" s="43"/>
       <c r="E325" s="19">
         <v>7</v>
       </c>
@@ -9052,7 +9126,7 @@
       <c r="L326" s="2"/>
     </row>
     <row r="327" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="45" t="s">
+      <c r="A327" s="41" t="s">
         <v>237</v>
       </c>
       <c r="B327" s="32" t="s">
@@ -9061,7 +9135,7 @@
       <c r="C327" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D327" s="42" t="s">
+      <c r="D327" s="43" t="s">
         <v>242</v>
       </c>
       <c r="E327" s="19">
@@ -9075,7 +9149,7 @@
     </row>
     <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="32"/>
-      <c r="D328" s="42"/>
+      <c r="D328" s="43"/>
       <c r="E328" s="19">
         <v>2</v>
       </c>
@@ -9090,7 +9164,7 @@
     </row>
     <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="32"/>
-      <c r="D329" s="42"/>
+      <c r="D329" s="43"/>
       <c r="E329" s="19">
         <v>3</v>
       </c>
@@ -9105,7 +9179,7 @@
     </row>
     <row r="330" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="32"/>
-      <c r="D330" s="42"/>
+      <c r="D330" s="43"/>
       <c r="E330" s="19">
         <v>4</v>
       </c>
@@ -9120,7 +9194,7 @@
     </row>
     <row r="331" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B331" s="32"/>
-      <c r="D331" s="42"/>
+      <c r="D331" s="43"/>
       <c r="E331" s="19">
         <v>5</v>
       </c>
@@ -9138,7 +9212,7 @@
     </row>
     <row r="332" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="32"/>
-      <c r="D332" s="42"/>
+      <c r="D332" s="43"/>
       <c r="E332" s="19">
         <v>6</v>
       </c>
@@ -9155,7 +9229,7 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="42"/>
+      <c r="D333" s="43"/>
       <c r="E333" s="19">
         <v>7</v>
       </c>
@@ -9176,7 +9250,7 @@
       <c r="L334" s="2"/>
     </row>
     <row r="335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A335" s="45" t="s">
+      <c r="A335" s="41" t="s">
         <v>255</v>
       </c>
       <c r="B335" s="32" t="s">
@@ -9185,7 +9259,7 @@
       <c r="C335" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D335" s="42" t="s">
+      <c r="D335" s="43" t="s">
         <v>247</v>
       </c>
       <c r="E335" s="19">
@@ -9199,7 +9273,7 @@
     </row>
     <row r="336" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="32"/>
-      <c r="D336" s="42"/>
+      <c r="D336" s="43"/>
       <c r="E336" s="19">
         <v>2</v>
       </c>
@@ -9214,7 +9288,7 @@
     </row>
     <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="32"/>
-      <c r="D337" s="42"/>
+      <c r="D337" s="43"/>
       <c r="E337" s="19">
         <v>3</v>
       </c>
@@ -9229,7 +9303,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B338" s="32"/>
-      <c r="D338" s="42"/>
+      <c r="D338" s="43"/>
       <c r="E338" s="19">
         <v>4</v>
       </c>
@@ -9244,7 +9318,7 @@
     </row>
     <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="32"/>
-      <c r="D339" s="42"/>
+      <c r="D339" s="43"/>
       <c r="E339" s="19">
         <v>5</v>
       </c>
@@ -9259,7 +9333,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B340" s="32"/>
-      <c r="D340" s="42"/>
+      <c r="D340" s="43"/>
       <c r="E340" s="19">
         <v>6</v>
       </c>
@@ -9278,7 +9352,7 @@
       <c r="L341" s="2"/>
     </row>
     <row r="342" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A342" s="45" t="s">
+      <c r="A342" s="41" t="s">
         <v>256</v>
       </c>
       <c r="B342" s="32" t="s">
@@ -9287,7 +9361,7 @@
       <c r="C342" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D342" s="42" t="s">
+      <c r="D342" s="43" t="s">
         <v>249</v>
       </c>
       <c r="E342" s="19">
@@ -9301,7 +9375,7 @@
     </row>
     <row r="343" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="32"/>
-      <c r="D343" s="42"/>
+      <c r="D343" s="43"/>
       <c r="E343" s="19">
         <v>2</v>
       </c>
@@ -9316,7 +9390,7 @@
     </row>
     <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="32"/>
-      <c r="D344" s="42"/>
+      <c r="D344" s="43"/>
       <c r="E344" s="19">
         <v>3</v>
       </c>
@@ -9331,7 +9405,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B345" s="32"/>
-      <c r="D345" s="42"/>
+      <c r="D345" s="43"/>
       <c r="E345" s="19">
         <v>4</v>
       </c>
@@ -9346,7 +9420,7 @@
     </row>
     <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="32"/>
-      <c r="D346" s="42"/>
+      <c r="D346" s="43"/>
       <c r="E346" s="19">
         <v>5</v>
       </c>
@@ -9361,7 +9435,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B347" s="32"/>
-      <c r="D347" s="42"/>
+      <c r="D347" s="43"/>
       <c r="E347" s="19">
         <v>6</v>
       </c>
@@ -9376,7 +9450,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B348" s="32"/>
-      <c r="D348" s="42"/>
+      <c r="D348" s="43"/>
       <c r="E348" s="19">
         <v>7</v>
       </c>
@@ -9397,7 +9471,7 @@
       <c r="L349" s="2"/>
     </row>
     <row r="350" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A350" s="45" t="s">
+      <c r="A350" s="41" t="s">
         <v>257</v>
       </c>
       <c r="B350" s="32" t="s">
@@ -9406,7 +9480,7 @@
       <c r="C350" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="42" t="s">
+      <c r="D350" s="43" t="s">
         <v>250</v>
       </c>
       <c r="E350" s="19">
@@ -9420,7 +9494,7 @@
     </row>
     <row r="351" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="32"/>
-      <c r="D351" s="42"/>
+      <c r="D351" s="43"/>
       <c r="E351" s="19">
         <v>2</v>
       </c>
@@ -9435,7 +9509,7 @@
     </row>
     <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="32"/>
-      <c r="D352" s="42"/>
+      <c r="D352" s="43"/>
       <c r="E352" s="19">
         <v>3</v>
       </c>
@@ -9450,7 +9524,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B353" s="32"/>
-      <c r="D353" s="42"/>
+      <c r="D353" s="43"/>
       <c r="E353" s="19">
         <v>4</v>
       </c>
@@ -9465,7 +9539,7 @@
     </row>
     <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="32"/>
-      <c r="D354" s="42"/>
+      <c r="D354" s="43"/>
       <c r="E354" s="19">
         <v>5</v>
       </c>
@@ -9480,7 +9554,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B355" s="32"/>
-      <c r="D355" s="42"/>
+      <c r="D355" s="43"/>
       <c r="E355" s="19">
         <v>6</v>
       </c>
@@ -9497,7 +9571,7 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="42"/>
+      <c r="D356" s="43"/>
       <c r="E356" s="19">
         <v>7</v>
       </c>
@@ -9516,7 +9590,7 @@
       <c r="L357" s="2"/>
     </row>
     <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A358" s="45" t="s">
+      <c r="A358" s="41" t="s">
         <v>266</v>
       </c>
       <c r="B358" s="32" t="s">
@@ -9525,7 +9599,7 @@
       <c r="C358" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D358" s="42" t="s">
+      <c r="D358" s="43" t="s">
         <v>258</v>
       </c>
       <c r="E358" s="19">
@@ -9539,7 +9613,7 @@
     </row>
     <row r="359" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="32"/>
-      <c r="D359" s="42"/>
+      <c r="D359" s="43"/>
       <c r="E359" s="19">
         <v>2</v>
       </c>
@@ -9554,7 +9628,7 @@
     </row>
     <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="32"/>
-      <c r="D360" s="42"/>
+      <c r="D360" s="43"/>
       <c r="E360" s="19">
         <v>3</v>
       </c>
@@ -9569,7 +9643,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B361" s="32"/>
-      <c r="D361" s="42"/>
+      <c r="D361" s="43"/>
       <c r="E361" s="19">
         <v>4</v>
       </c>
@@ -9584,7 +9658,7 @@
     </row>
     <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="32"/>
-      <c r="D362" s="42"/>
+      <c r="D362" s="43"/>
       <c r="E362" s="19">
         <v>5</v>
       </c>
@@ -9599,7 +9673,7 @@
     </row>
     <row r="363" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="32"/>
-      <c r="D363" s="42"/>
+      <c r="D363" s="43"/>
       <c r="E363" s="19">
         <v>6</v>
       </c>
@@ -9618,7 +9692,7 @@
       <c r="L364" s="2"/>
     </row>
     <row r="365" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A365" s="45" t="s">
+      <c r="A365" s="41" t="s">
         <v>267</v>
       </c>
       <c r="B365" s="32" t="s">
@@ -9627,7 +9701,7 @@
       <c r="C365" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D365" s="42" t="s">
+      <c r="D365" s="43" t="s">
         <v>263</v>
       </c>
       <c r="E365" s="19">
@@ -9641,7 +9715,7 @@
     </row>
     <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="32"/>
-      <c r="D366" s="42"/>
+      <c r="D366" s="43"/>
       <c r="E366" s="19">
         <v>2</v>
       </c>
@@ -9656,7 +9730,7 @@
     </row>
     <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="32"/>
-      <c r="D367" s="42"/>
+      <c r="D367" s="43"/>
       <c r="E367" s="19">
         <v>3</v>
       </c>
@@ -9671,7 +9745,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B368" s="32"/>
-      <c r="D368" s="42"/>
+      <c r="D368" s="43"/>
       <c r="E368" s="19">
         <v>4</v>
       </c>
@@ -9686,7 +9760,7 @@
     </row>
     <row r="369" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="32"/>
-      <c r="D369" s="42"/>
+      <c r="D369" s="43"/>
       <c r="E369" s="19">
         <v>5</v>
       </c>
@@ -9701,7 +9775,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B370" s="32"/>
-      <c r="D370" s="42"/>
+      <c r="D370" s="43"/>
       <c r="E370" s="19">
         <v>6</v>
       </c>
@@ -9716,7 +9790,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B371" s="32"/>
-      <c r="D371" s="42"/>
+      <c r="D371" s="43"/>
       <c r="E371" s="19">
         <v>7</v>
       </c>
@@ -9737,7 +9811,7 @@
       <c r="L372" s="2"/>
     </row>
     <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A373" s="45" t="s">
+      <c r="A373" s="41" t="s">
         <v>268</v>
       </c>
       <c r="B373" s="32" t="s">
@@ -9746,7 +9820,7 @@
       <c r="C373" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D373" s="42" t="s">
+      <c r="D373" s="43" t="s">
         <v>264</v>
       </c>
       <c r="E373" s="19">
@@ -9760,7 +9834,7 @@
     </row>
     <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="32"/>
-      <c r="D374" s="42"/>
+      <c r="D374" s="43"/>
       <c r="E374" s="19">
         <v>2</v>
       </c>
@@ -9775,7 +9849,7 @@
     </row>
     <row r="375" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B375" s="32"/>
-      <c r="D375" s="42"/>
+      <c r="D375" s="43"/>
       <c r="E375" s="19">
         <v>3</v>
       </c>
@@ -9790,7 +9864,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B376" s="32"/>
-      <c r="D376" s="42"/>
+      <c r="D376" s="43"/>
       <c r="E376" s="19">
         <v>4</v>
       </c>
@@ -9805,7 +9879,7 @@
     </row>
     <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B377" s="32"/>
-      <c r="D377" s="42"/>
+      <c r="D377" s="43"/>
       <c r="E377" s="19">
         <v>5</v>
       </c>
@@ -9820,7 +9894,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B378" s="32"/>
-      <c r="D378" s="42"/>
+      <c r="D378" s="43"/>
       <c r="E378" s="19">
         <v>6</v>
       </c>
@@ -9837,7 +9911,7 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="42"/>
+      <c r="D379" s="43"/>
       <c r="E379" s="19">
         <v>7</v>
       </c>
@@ -9856,7 +9930,7 @@
       <c r="L380" s="2"/>
     </row>
     <row r="381" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A381" s="45" t="s">
+      <c r="A381" s="41" t="s">
         <v>294</v>
       </c>
       <c r="B381" s="32" t="s">
@@ -9865,7 +9939,7 @@
       <c r="C381" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D381" s="42" t="s">
+      <c r="D381" s="43" t="s">
         <v>283</v>
       </c>
       <c r="E381" s="19">
@@ -9879,7 +9953,7 @@
     </row>
     <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="32"/>
-      <c r="D382" s="42"/>
+      <c r="D382" s="43"/>
       <c r="E382" s="19">
         <v>2</v>
       </c>
@@ -9894,7 +9968,7 @@
     </row>
     <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="32"/>
-      <c r="D383" s="42"/>
+      <c r="D383" s="43"/>
       <c r="E383" s="19">
         <v>3</v>
       </c>
@@ -9909,7 +9983,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B384" s="32"/>
-      <c r="D384" s="42"/>
+      <c r="D384" s="43"/>
       <c r="E384" s="19">
         <v>4</v>
       </c>
@@ -9924,7 +9998,7 @@
     </row>
     <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="32"/>
-      <c r="D385" s="42"/>
+      <c r="D385" s="43"/>
       <c r="E385" s="19">
         <v>5</v>
       </c>
@@ -9939,7 +10013,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B386" s="32"/>
-      <c r="D386" s="42"/>
+      <c r="D386" s="43"/>
       <c r="E386" s="19">
         <v>6</v>
       </c>
@@ -9958,7 +10032,7 @@
       <c r="L387" s="2"/>
     </row>
     <row r="388" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="45" t="s">
+      <c r="A388" s="41" t="s">
         <v>293</v>
       </c>
       <c r="B388" s="32" t="s">
@@ -9967,7 +10041,7 @@
       <c r="C388" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D388" s="42" t="s">
+      <c r="D388" s="43" t="s">
         <v>287</v>
       </c>
       <c r="E388" s="19">
@@ -9981,7 +10055,7 @@
     </row>
     <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="32"/>
-      <c r="D389" s="42"/>
+      <c r="D389" s="43"/>
       <c r="E389" s="19">
         <v>2</v>
       </c>
@@ -9996,7 +10070,7 @@
     </row>
     <row r="390" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="32"/>
-      <c r="D390" s="42"/>
+      <c r="D390" s="43"/>
       <c r="E390" s="19">
         <v>3</v>
       </c>
@@ -10011,7 +10085,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B391" s="32"/>
-      <c r="D391" s="42"/>
+      <c r="D391" s="43"/>
       <c r="E391" s="19">
         <v>4</v>
       </c>
@@ -10026,7 +10100,7 @@
     </row>
     <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="32"/>
-      <c r="D392" s="42"/>
+      <c r="D392" s="43"/>
       <c r="E392" s="19">
         <v>5</v>
       </c>
@@ -10041,7 +10115,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B393" s="32"/>
-      <c r="D393" s="42"/>
+      <c r="D393" s="43"/>
       <c r="E393" s="19">
         <v>6</v>
       </c>
@@ -10056,7 +10130,7 @@
     </row>
     <row r="394" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="32"/>
-      <c r="D394" s="42"/>
+      <c r="D394" s="43"/>
       <c r="E394" s="19">
         <v>7</v>
       </c>
@@ -10077,7 +10151,7 @@
       <c r="L395" s="2"/>
     </row>
     <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A396" s="45" t="s">
+      <c r="A396" s="41" t="s">
         <v>292</v>
       </c>
       <c r="B396" s="32" t="s">
@@ -10086,7 +10160,7 @@
       <c r="C396" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D396" s="42" t="s">
+      <c r="D396" s="43" t="s">
         <v>290</v>
       </c>
       <c r="E396" s="19">
@@ -10100,7 +10174,7 @@
     </row>
     <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="32"/>
-      <c r="D397" s="42"/>
+      <c r="D397" s="43"/>
       <c r="E397" s="19">
         <v>2</v>
       </c>
@@ -10115,7 +10189,7 @@
     </row>
     <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="32"/>
-      <c r="D398" s="42"/>
+      <c r="D398" s="43"/>
       <c r="E398" s="19">
         <v>3</v>
       </c>
@@ -10130,7 +10204,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B399" s="32"/>
-      <c r="D399" s="42"/>
+      <c r="D399" s="43"/>
       <c r="E399" s="19">
         <v>4</v>
       </c>
@@ -10145,7 +10219,7 @@
     </row>
     <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="32"/>
-      <c r="D400" s="42"/>
+      <c r="D400" s="43"/>
       <c r="E400" s="19">
         <v>5</v>
       </c>
@@ -10160,7 +10234,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B401" s="32"/>
-      <c r="D401" s="42"/>
+      <c r="D401" s="43"/>
       <c r="E401" s="19">
         <v>6</v>
       </c>
@@ -10177,7 +10251,7 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="42"/>
+      <c r="D402" s="43"/>
       <c r="E402" s="19">
         <v>7</v>
       </c>
@@ -10205,7 +10279,7 @@
       <c r="C404" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D404" s="42" t="s">
+      <c r="D404" s="43" t="s">
         <v>296</v>
       </c>
       <c r="E404" s="19">
@@ -10220,7 +10294,7 @@
     <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28"/>
       <c r="B405" s="32"/>
-      <c r="D405" s="42"/>
+      <c r="D405" s="43"/>
       <c r="E405" s="19">
         <v>2</v>
       </c>
@@ -10239,7 +10313,7 @@
     <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="28"/>
       <c r="B406" s="32"/>
-      <c r="D406" s="42"/>
+      <c r="D406" s="43"/>
       <c r="E406" s="19">
         <v>3</v>
       </c>
@@ -10258,7 +10332,7 @@
     <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="28"/>
       <c r="B407" s="32"/>
-      <c r="D407" s="42"/>
+      <c r="D407" s="43"/>
       <c r="E407" s="19">
         <v>4</v>
       </c>
@@ -10277,7 +10351,7 @@
     <row r="408" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28"/>
       <c r="B408" s="32"/>
-      <c r="D408" s="42"/>
+      <c r="D408" s="43"/>
       <c r="E408" s="19">
         <v>5</v>
       </c>
@@ -10313,7 +10387,7 @@
       <c r="C410" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D410" s="42" t="s">
+      <c r="D410" s="43" t="s">
         <v>302</v>
       </c>
       <c r="E410" s="19">
@@ -10328,7 +10402,7 @@
     <row r="411" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="28"/>
       <c r="B411" s="32"/>
-      <c r="D411" s="42"/>
+      <c r="D411" s="43"/>
       <c r="E411" s="19">
         <v>2</v>
       </c>
@@ -10347,7 +10421,7 @@
     <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="28"/>
       <c r="B412" s="32"/>
-      <c r="D412" s="42"/>
+      <c r="D412" s="43"/>
       <c r="E412" s="19">
         <v>3</v>
       </c>
@@ -10366,7 +10440,7 @@
     <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28"/>
       <c r="B413" s="32"/>
-      <c r="D413" s="42"/>
+      <c r="D413" s="43"/>
       <c r="E413" s="19">
         <v>4</v>
       </c>
@@ -10385,7 +10459,7 @@
     <row r="414" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="28"/>
       <c r="B414" s="32"/>
-      <c r="D414" s="42"/>
+      <c r="D414" s="43"/>
       <c r="E414" s="19">
         <v>5</v>
       </c>
@@ -10422,7 +10496,7 @@
       <c r="C416" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D416" s="42" t="s">
+      <c r="D416" s="43" t="s">
         <v>325</v>
       </c>
       <c r="E416" s="19">
@@ -10437,7 +10511,7 @@
     <row r="417" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="28"/>
       <c r="B417" s="32"/>
-      <c r="D417" s="42"/>
+      <c r="D417" s="43"/>
       <c r="E417" s="19">
         <v>2</v>
       </c>
@@ -10456,7 +10530,7 @@
     <row r="418" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="28"/>
       <c r="B418" s="32"/>
-      <c r="D418" s="42"/>
+      <c r="D418" s="43"/>
       <c r="E418" s="19">
         <v>3</v>
       </c>
@@ -10475,7 +10549,7 @@
     <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="28"/>
       <c r="B419" s="32"/>
-      <c r="D419" s="42"/>
+      <c r="D419" s="43"/>
       <c r="E419" s="19">
         <v>4</v>
       </c>
@@ -10494,7 +10568,7 @@
     <row r="420" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="28"/>
       <c r="B420" s="32"/>
-      <c r="D420" s="42"/>
+      <c r="D420" s="43"/>
       <c r="E420" s="19">
         <v>5</v>
       </c>
@@ -10529,7 +10603,7 @@
       <c r="C422" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D422" s="42" t="s">
+      <c r="D422" s="43" t="s">
         <v>308</v>
       </c>
       <c r="E422" s="19">
@@ -10544,7 +10618,7 @@
     <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="28"/>
       <c r="B423" s="32"/>
-      <c r="D423" s="42"/>
+      <c r="D423" s="43"/>
       <c r="E423" s="19">
         <v>2</v>
       </c>
@@ -10563,7 +10637,7 @@
     <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="28"/>
       <c r="B424" s="32"/>
-      <c r="D424" s="42"/>
+      <c r="D424" s="43"/>
       <c r="E424" s="19">
         <v>3</v>
       </c>
@@ -10582,7 +10656,7 @@
     <row r="425" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="28"/>
       <c r="B425" s="32"/>
-      <c r="D425" s="42"/>
+      <c r="D425" s="43"/>
       <c r="E425" s="19">
         <v>4</v>
       </c>
@@ -10601,7 +10675,7 @@
     <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="28"/>
       <c r="B426" s="32"/>
-      <c r="D426" s="42"/>
+      <c r="D426" s="43"/>
       <c r="E426" s="19">
         <v>5</v>
       </c>
@@ -10636,7 +10710,7 @@
       <c r="C428" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D428" s="42" t="s">
+      <c r="D428" s="43" t="s">
         <v>311</v>
       </c>
       <c r="E428" s="19">
@@ -10651,7 +10725,7 @@
     <row r="429" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="28"/>
       <c r="B429" s="32"/>
-      <c r="D429" s="42"/>
+      <c r="D429" s="43"/>
       <c r="E429" s="19">
         <v>2</v>
       </c>
@@ -10660,6 +10734,9 @@
       </c>
       <c r="G429" s="19" t="s">
         <v>61</v>
+      </c>
+      <c r="I429" s="19" t="s">
+        <v>590</v>
       </c>
       <c r="K429" s="25"/>
       <c r="L429" s="2"/>
@@ -10667,7 +10744,7 @@
     <row r="430" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="28"/>
       <c r="B430" s="32"/>
-      <c r="D430" s="42"/>
+      <c r="D430" s="43"/>
       <c r="E430" s="19">
         <v>3</v>
       </c>
@@ -10676,6 +10753,9 @@
       </c>
       <c r="G430" s="19" t="s">
         <v>63</v>
+      </c>
+      <c r="I430" s="19" t="s">
+        <v>590</v>
       </c>
       <c r="K430" s="25"/>
       <c r="L430" s="2"/>
@@ -10683,15 +10763,18 @@
     <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="28"/>
       <c r="B431" s="32"/>
-      <c r="D431" s="42"/>
+      <c r="D431" s="43"/>
       <c r="E431" s="19">
         <v>4</v>
       </c>
       <c r="F431" s="19" t="s">
-        <v>297</v>
+        <v>610</v>
       </c>
       <c r="G431" s="19" t="s">
         <v>298</v>
+      </c>
+      <c r="I431" s="19" t="s">
+        <v>590</v>
       </c>
       <c r="K431" s="25"/>
       <c r="L431" s="2"/>
@@ -10699,7 +10782,7 @@
     <row r="432" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="28"/>
       <c r="B432" s="32"/>
-      <c r="D432" s="42"/>
+      <c r="D432" s="43"/>
       <c r="E432" s="19">
         <v>5</v>
       </c>
@@ -10709,8 +10792,15 @@
       <c r="G432" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="K432" s="25"/>
-      <c r="L432" s="2"/>
+      <c r="I432" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K432" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L432" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="28"/>
@@ -10729,7 +10819,7 @@
       <c r="C434" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D434" s="42" t="s">
+      <c r="D434" s="43" t="s">
         <v>306</v>
       </c>
       <c r="E434" s="19">
@@ -10743,7 +10833,7 @@
     </row>
     <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="32"/>
-      <c r="D435" s="42"/>
+      <c r="D435" s="43"/>
       <c r="E435" s="19">
         <v>2</v>
       </c>
@@ -10753,12 +10843,15 @@
       <c r="G435" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I435" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K435" s="25"/>
       <c r="L435" s="2"/>
     </row>
     <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="32"/>
-      <c r="D436" s="42"/>
+      <c r="D436" s="43"/>
       <c r="E436" s="19">
         <v>3</v>
       </c>
@@ -10768,12 +10861,15 @@
       <c r="G436" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I436" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K436" s="25"/>
       <c r="L436" s="2"/>
     </row>
     <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="32"/>
-      <c r="D437" s="42"/>
+      <c r="D437" s="43"/>
       <c r="E437" s="19">
         <v>4</v>
       </c>
@@ -10783,12 +10879,15 @@
       <c r="G437" s="19" t="s">
         <v>298</v>
       </c>
+      <c r="I437" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K437" s="25"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B438" s="32"/>
-      <c r="D438" s="42"/>
+      <c r="D438" s="43"/>
       <c r="E438" s="19">
         <v>5</v>
       </c>
@@ -10798,8 +10897,15 @@
       <c r="G438" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="K438" s="25"/>
-      <c r="L438" s="2"/>
+      <c r="I438" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K438" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L438" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="30"/>
@@ -10817,7 +10923,7 @@
       <c r="C440" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D440" s="42" t="s">
+      <c r="D440" s="43" t="s">
         <v>321</v>
       </c>
       <c r="E440" s="19">
@@ -10831,7 +10937,7 @@
     </row>
     <row r="441" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="32"/>
-      <c r="D441" s="42"/>
+      <c r="D441" s="43"/>
       <c r="E441" s="19">
         <v>2</v>
       </c>
@@ -10841,12 +10947,15 @@
       <c r="G441" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I441" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K441" s="25"/>
       <c r="L441" s="2"/>
     </row>
     <row r="442" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="32"/>
-      <c r="D442" s="42"/>
+      <c r="D442" s="43"/>
       <c r="E442" s="19">
         <v>3</v>
       </c>
@@ -10856,12 +10965,15 @@
       <c r="G442" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I442" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K442" s="25"/>
       <c r="L442" s="2"/>
     </row>
     <row r="443" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="32"/>
-      <c r="D443" s="42"/>
+      <c r="D443" s="43"/>
       <c r="E443" s="19">
         <v>4</v>
       </c>
@@ -10871,12 +10983,15 @@
       <c r="G443" s="19" t="s">
         <v>298</v>
       </c>
+      <c r="I443" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K443" s="25"/>
       <c r="L443" s="2"/>
     </row>
     <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="32"/>
-      <c r="D444" s="42"/>
+      <c r="D444" s="43"/>
       <c r="E444" s="19">
         <v>5</v>
       </c>
@@ -10886,8 +11001,15 @@
       <c r="G444" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="K444" s="25"/>
-      <c r="L444" s="2"/>
+      <c r="I444" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="K444" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L444" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B445" s="32"/>
@@ -10904,7 +11026,7 @@
       <c r="C446" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D446" s="42" t="s">
+      <c r="D446" s="43" t="s">
         <v>316</v>
       </c>
       <c r="E446" s="19">
@@ -10918,7 +11040,7 @@
     </row>
     <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="32"/>
-      <c r="D447" s="42"/>
+      <c r="D447" s="43"/>
       <c r="E447" s="19">
         <v>2</v>
       </c>
@@ -10928,12 +11050,15 @@
       <c r="G447" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I447" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K447" s="25"/>
       <c r="L447" s="2"/>
     </row>
     <row r="448" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="32"/>
-      <c r="D448" s="42"/>
+      <c r="D448" s="43"/>
       <c r="E448" s="19">
         <v>3</v>
       </c>
@@ -10943,12 +11068,15 @@
       <c r="G448" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I448" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K448" s="25"/>
       <c r="L448" s="2"/>
     </row>
     <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="32"/>
-      <c r="D449" s="42"/>
+      <c r="D449" s="43"/>
       <c r="E449" s="19">
         <v>4</v>
       </c>
@@ -10958,12 +11086,15 @@
       <c r="G449" s="19" t="s">
         <v>298</v>
       </c>
+      <c r="I449" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K449" s="25"/>
       <c r="L449" s="2"/>
     </row>
     <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="32"/>
-      <c r="D450" s="42"/>
+      <c r="D450" s="43"/>
       <c r="E450" s="19">
         <v>5</v>
       </c>
@@ -10973,8 +11104,15 @@
       <c r="G450" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="K450" s="25"/>
-      <c r="L450" s="2"/>
+      <c r="I450" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="K450" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L450" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B451" s="32"/>
@@ -10991,7 +11129,7 @@
       <c r="C452" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D452" s="42" t="s">
+      <c r="D452" s="43" t="s">
         <v>323</v>
       </c>
       <c r="E452" s="19">
@@ -11005,7 +11143,7 @@
     </row>
     <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="32"/>
-      <c r="D453" s="42"/>
+      <c r="D453" s="43"/>
       <c r="E453" s="19">
         <v>2</v>
       </c>
@@ -11015,12 +11153,15 @@
       <c r="G453" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I453" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K453" s="25"/>
       <c r="L453" s="2"/>
     </row>
     <row r="454" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="32"/>
-      <c r="D454" s="42"/>
+      <c r="D454" s="43"/>
       <c r="E454" s="19">
         <v>3</v>
       </c>
@@ -11030,12 +11171,15 @@
       <c r="G454" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I454" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K454" s="25"/>
       <c r="L454" s="2"/>
     </row>
     <row r="455" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="32"/>
-      <c r="D455" s="42"/>
+      <c r="D455" s="43"/>
       <c r="E455" s="19">
         <v>4</v>
       </c>
@@ -11045,23 +11189,33 @@
       <c r="G455" s="19" t="s">
         <v>298</v>
       </c>
+      <c r="I455" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K455" s="25"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B456" s="32"/>
-      <c r="D456" s="42"/>
+      <c r="D456" s="43"/>
       <c r="E456" s="19">
         <v>5</v>
       </c>
       <c r="F456" s="19" t="s">
-        <v>317</v>
+        <v>612</v>
       </c>
       <c r="G456" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="K456" s="25"/>
-      <c r="L456" s="2"/>
+      <c r="I456" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K456" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L456" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B457" s="32"/>
@@ -11078,7 +11232,7 @@
       <c r="C458" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D458" s="42" t="s">
+      <c r="D458" s="43" t="s">
         <v>331</v>
       </c>
       <c r="E458" s="19">
@@ -11092,7 +11246,7 @@
     </row>
     <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="32"/>
-      <c r="D459" s="42"/>
+      <c r="D459" s="43"/>
       <c r="E459" s="19">
         <v>2</v>
       </c>
@@ -11102,12 +11256,15 @@
       <c r="G459" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I459" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K459" s="25"/>
       <c r="L459" s="2"/>
     </row>
     <row r="460" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="32"/>
-      <c r="D460" s="42"/>
+      <c r="D460" s="43"/>
       <c r="E460" s="19">
         <v>3</v>
       </c>
@@ -11117,12 +11274,15 @@
       <c r="G460" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I460" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K460" s="25"/>
       <c r="L460" s="2"/>
     </row>
     <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="32"/>
-      <c r="D461" s="42"/>
+      <c r="D461" s="43"/>
       <c r="E461" s="19">
         <v>4</v>
       </c>
@@ -11132,12 +11292,15 @@
       <c r="G461" s="19" t="s">
         <v>298</v>
       </c>
+      <c r="I461" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K461" s="25"/>
       <c r="L461" s="2"/>
     </row>
     <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="32"/>
-      <c r="D462" s="42"/>
+      <c r="D462" s="43"/>
       <c r="E462" s="19">
         <v>5</v>
       </c>
@@ -11147,8 +11310,15 @@
       <c r="G462" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="K462" s="25"/>
-      <c r="L462" s="2"/>
+      <c r="I462" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K462" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L462" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="463" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="30"/>
@@ -11166,7 +11336,7 @@
       <c r="C464" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D464" s="42" t="s">
+      <c r="D464" s="43" t="s">
         <v>335</v>
       </c>
       <c r="E464" s="19">
@@ -11178,9 +11348,9 @@
       <c r="K464" s="25"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="32"/>
-      <c r="D465" s="42"/>
+      <c r="D465" s="43"/>
       <c r="E465" s="19">
         <v>2</v>
       </c>
@@ -11190,12 +11360,15 @@
       <c r="G465" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I465" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K465" s="25"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="32"/>
-      <c r="D466" s="42"/>
+      <c r="D466" s="43"/>
       <c r="E466" s="19">
         <v>3</v>
       </c>
@@ -11205,12 +11378,15 @@
       <c r="G466" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I466" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K466" s="25"/>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="32"/>
-      <c r="D467" s="42"/>
+      <c r="D467" s="43"/>
       <c r="E467" s="19">
         <v>4</v>
       </c>
@@ -11220,12 +11396,15 @@
       <c r="G467" s="19" t="s">
         <v>298</v>
       </c>
+      <c r="I467" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K467" s="25"/>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="32"/>
-      <c r="D468" s="42"/>
+      <c r="D468" s="43"/>
       <c r="E468" s="19">
         <v>5</v>
       </c>
@@ -11235,15 +11414,22 @@
       <c r="G468" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="K468" s="25"/>
-      <c r="L468" s="2"/>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K468" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L468" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M468" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B469" s="32"/>
       <c r="K469" s="25"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="28" t="s">
         <v>338</v>
       </c>
@@ -11253,7 +11439,7 @@
       <c r="C470" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D470" s="42" t="s">
+      <c r="D470" s="43" t="s">
         <v>339</v>
       </c>
       <c r="E470" s="19">
@@ -11262,12 +11448,15 @@
       <c r="F470" s="19" t="s">
         <v>33</v>
       </c>
+      <c r="I470" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K470" s="25"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="32"/>
-      <c r="D471" s="42"/>
+      <c r="D471" s="43"/>
       <c r="E471" s="19">
         <v>2</v>
       </c>
@@ -11277,12 +11466,15 @@
       <c r="G471" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I471" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K471" s="25"/>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="32"/>
-      <c r="D472" s="42"/>
+      <c r="D472" s="43"/>
       <c r="E472" s="19">
         <v>3</v>
       </c>
@@ -11292,12 +11484,15 @@
       <c r="G472" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I472" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K472" s="25"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="32"/>
-      <c r="D473" s="42"/>
+      <c r="D473" s="43"/>
       <c r="E473" s="19">
         <v>4</v>
       </c>
@@ -11307,12 +11502,15 @@
       <c r="G473" s="19" t="s">
         <v>298</v>
       </c>
+      <c r="I473" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K473" s="25"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="32"/>
-      <c r="D474" s="42"/>
+      <c r="D474" s="43"/>
       <c r="E474" s="19">
         <v>5</v>
       </c>
@@ -11322,16 +11520,23 @@
       <c r="G474" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="K474" s="25"/>
-      <c r="L474" s="2"/>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I474" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K474" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L474" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="30"/>
       <c r="B475" s="32"/>
       <c r="K475" s="25"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="28" t="s">
         <v>342</v>
       </c>
@@ -11341,7 +11546,7 @@
       <c r="C476" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D476" s="42" t="s">
+      <c r="D476" s="43" t="s">
         <v>343</v>
       </c>
       <c r="E476" s="19">
@@ -11353,9 +11558,9 @@
       <c r="K476" s="25"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="32"/>
-      <c r="D477" s="42"/>
+      <c r="D477" s="43"/>
       <c r="E477" s="19">
         <v>2</v>
       </c>
@@ -11365,12 +11570,15 @@
       <c r="G477" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I477" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K477" s="25"/>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="32"/>
-      <c r="D478" s="42"/>
+      <c r="D478" s="43"/>
       <c r="E478" s="19">
         <v>3</v>
       </c>
@@ -11380,12 +11588,15 @@
       <c r="G478" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I478" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K478" s="25"/>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B479" s="32"/>
-      <c r="D479" s="42"/>
+      <c r="D479" s="43"/>
       <c r="E479" s="19">
         <v>4</v>
       </c>
@@ -11395,12 +11606,15 @@
       <c r="G479" s="19" t="s">
         <v>346</v>
       </c>
+      <c r="I479" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K479" s="25"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B480" s="32"/>
-      <c r="D480" s="42"/>
+      <c r="D480" s="43"/>
       <c r="E480" s="19">
         <v>5</v>
       </c>
@@ -11413,12 +11627,15 @@
       <c r="H480" s="19" t="s">
         <v>351</v>
       </c>
+      <c r="I480" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K480" s="25"/>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B481" s="32"/>
-      <c r="D481" s="42"/>
+      <c r="D481" s="43"/>
       <c r="E481" s="19">
         <v>6</v>
       </c>
@@ -11431,13 +11648,16 @@
       <c r="H481" s="19" t="s">
         <v>349</v>
       </c>
+      <c r="I481" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K481" s="25"/>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A482" s="30"/>
       <c r="B482" s="32"/>
-      <c r="D482" s="42"/>
+      <c r="D482" s="43"/>
       <c r="E482" s="19">
         <v>7</v>
       </c>
@@ -11450,15 +11670,25 @@
       <c r="H482" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="K482" s="25"/>
-      <c r="L482" s="2"/>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I482" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="K482" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L482" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M482" s="19" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B483" s="32"/>
       <c r="K483" s="25"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" s="28" t="s">
         <v>356</v>
       </c>
@@ -11468,7 +11698,7 @@
       <c r="C484" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D484" s="42" t="s">
+      <c r="D484" s="43" t="s">
         <v>357</v>
       </c>
       <c r="E484" s="19">
@@ -11480,9 +11710,9 @@
       <c r="K484" s="25"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="32"/>
-      <c r="D485" s="42"/>
+      <c r="D485" s="43"/>
       <c r="E485" s="19">
         <v>2</v>
       </c>
@@ -11492,12 +11722,15 @@
       <c r="G485" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I485" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K485" s="25"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="32"/>
-      <c r="D486" s="42"/>
+      <c r="D486" s="43"/>
       <c r="E486" s="19">
         <v>3</v>
       </c>
@@ -11507,12 +11740,15 @@
       <c r="G486" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I486" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K486" s="25"/>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B487" s="32"/>
-      <c r="D487" s="42"/>
+      <c r="D487" s="43"/>
       <c r="E487" s="19">
         <v>4</v>
       </c>
@@ -11522,12 +11758,15 @@
       <c r="G487" s="19" t="s">
         <v>346</v>
       </c>
+      <c r="I487" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B488" s="32"/>
-      <c r="D488" s="42"/>
+      <c r="D488" s="43"/>
       <c r="E488" s="19">
         <v>5</v>
       </c>
@@ -11540,12 +11779,15 @@
       <c r="H488" s="19" t="s">
         <v>351</v>
       </c>
+      <c r="I488" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="32"/>
-      <c r="D489" s="42"/>
+      <c r="D489" s="43"/>
       <c r="E489" s="19">
         <v>6</v>
       </c>
@@ -11558,13 +11800,16 @@
       <c r="H489" s="19" t="s">
         <v>349</v>
       </c>
+      <c r="I489" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A490" s="30"/>
       <c r="B490" s="32"/>
-      <c r="D490" s="42"/>
+      <c r="D490" s="43"/>
       <c r="E490" s="19">
         <v>7</v>
       </c>
@@ -11577,15 +11822,25 @@
       <c r="H490" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="K490" s="2"/>
-      <c r="L490" s="2"/>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I490" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="J490" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="K490" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L490" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B491" s="32"/>
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" s="28" t="s">
         <v>359</v>
       </c>
@@ -11595,7 +11850,7 @@
       <c r="C492" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D492" s="42" t="s">
+      <c r="D492" s="43" t="s">
         <v>360</v>
       </c>
       <c r="E492" s="19">
@@ -11607,9 +11862,9 @@
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="32"/>
-      <c r="D493" s="42"/>
+      <c r="D493" s="43"/>
       <c r="E493" s="19">
         <v>2</v>
       </c>
@@ -11619,12 +11874,15 @@
       <c r="G493" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I493" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="32"/>
-      <c r="D494" s="42"/>
+      <c r="D494" s="43"/>
       <c r="E494" s="19">
         <v>3</v>
       </c>
@@ -11634,12 +11892,15 @@
       <c r="G494" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I494" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B495" s="32"/>
-      <c r="D495" s="42"/>
+      <c r="D495" s="43"/>
       <c r="E495" s="19">
         <v>4</v>
       </c>
@@ -11649,12 +11910,15 @@
       <c r="G495" s="19" t="s">
         <v>363</v>
       </c>
+      <c r="I495" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B496" s="32"/>
-      <c r="D496" s="42"/>
+      <c r="D496" s="43"/>
       <c r="E496" s="19">
         <v>5</v>
       </c>
@@ -11664,12 +11928,15 @@
       <c r="G496" s="19" t="s">
         <v>365</v>
       </c>
+      <c r="I496" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="32"/>
-      <c r="D497" s="42"/>
+      <c r="D497" s="43"/>
       <c r="E497" s="19">
         <v>6</v>
       </c>
@@ -11679,13 +11946,16 @@
       <c r="G497" s="19" t="s">
         <v>366</v>
       </c>
+      <c r="I497" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="30"/>
       <c r="B498" s="32"/>
-      <c r="D498" s="42"/>
+      <c r="D498" s="43"/>
       <c r="E498" s="19">
         <v>7</v>
       </c>
@@ -11695,16 +11965,23 @@
       <c r="G498" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="K498" s="2"/>
-      <c r="L498" s="2"/>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I498" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K498" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L498" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B499" s="32"/>
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A500" s="28" t="s">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A500" s="47" t="s">
         <v>368</v>
       </c>
       <c r="B500" s="32" t="s">
@@ -11713,7 +11990,7 @@
       <c r="C500" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D500" s="42" t="s">
+      <c r="D500" s="43" t="s">
         <v>371</v>
       </c>
       <c r="E500" s="19">
@@ -11725,9 +12002,9 @@
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="32"/>
-      <c r="D501" s="42"/>
+      <c r="D501" s="43"/>
       <c r="E501" s="19">
         <v>2</v>
       </c>
@@ -11737,12 +12014,15 @@
       <c r="G501" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I501" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B502" s="32"/>
-      <c r="D502" s="42"/>
+      <c r="D502" s="43"/>
       <c r="E502" s="19">
         <v>3</v>
       </c>
@@ -11752,12 +12032,15 @@
       <c r="G502" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I502" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="32"/>
-      <c r="D503" s="42"/>
+      <c r="D503" s="43"/>
       <c r="E503" s="19">
         <v>4</v>
       </c>
@@ -11767,12 +12050,15 @@
       <c r="G503" s="19" t="s">
         <v>370</v>
       </c>
+      <c r="I503" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="32"/>
-      <c r="D504" s="42"/>
+      <c r="D504" s="43"/>
       <c r="E504" s="19">
         <v>5</v>
       </c>
@@ -11782,31 +12068,40 @@
       <c r="G504" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="K504" s="2"/>
-      <c r="L504" s="2"/>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I504" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="L504" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M504" s="19" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B505" s="32"/>
-      <c r="D505" s="42"/>
-      <c r="E505" s="19">
+      <c r="D505" s="43"/>
+      <c r="E505" s="46">
         <v>6</v>
       </c>
-      <c r="F505" s="19" t="s">
+      <c r="F505" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G505" s="19" t="s">
+      <c r="G505" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="K505" s="2"/>
+      <c r="K505" s="25" t="s">
+        <v>593</v>
+      </c>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" s="30"/>
       <c r="B506" s="32"/>
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" s="28" t="s">
         <v>377</v>
       </c>
@@ -11816,7 +12111,7 @@
       <c r="C507" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D507" s="42" t="s">
+      <c r="D507" s="43" t="s">
         <v>375</v>
       </c>
       <c r="E507" s="19">
@@ -11828,9 +12123,9 @@
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="32"/>
-      <c r="D508" s="42"/>
+      <c r="D508" s="43"/>
       <c r="E508" s="19">
         <v>2</v>
       </c>
@@ -11840,12 +12135,15 @@
       <c r="G508" s="19" t="s">
         <v>61</v>
       </c>
+      <c r="I508" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="32"/>
-      <c r="D509" s="42"/>
+      <c r="D509" s="43"/>
       <c r="E509" s="19">
         <v>3</v>
       </c>
@@ -11855,12 +12153,15 @@
       <c r="G509" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="I509" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="32"/>
-      <c r="D510" s="42"/>
+      <c r="D510" s="43"/>
       <c r="E510" s="19">
         <v>4</v>
       </c>
@@ -11870,12 +12171,15 @@
       <c r="G510" s="19" t="s">
         <v>370</v>
       </c>
+      <c r="I510" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="32"/>
-      <c r="D511" s="42"/>
+      <c r="D511" s="43"/>
       <c r="E511" s="19">
         <v>5</v>
       </c>
@@ -11885,12 +12189,15 @@
       <c r="G511" s="19" t="s">
         <v>373</v>
       </c>
+      <c r="I511" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B512" s="32"/>
-      <c r="D512" s="42"/>
+      <c r="D512" s="43"/>
       <c r="E512" s="19">
         <v>6</v>
       </c>
@@ -11900,8 +12207,15 @@
       <c r="G512" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="K512" s="2"/>
-      <c r="L512" s="2"/>
+      <c r="I512" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="K512" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L512" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B513" s="32"/>
@@ -11918,7 +12232,7 @@
       <c r="C514" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D514" s="42" t="s">
+      <c r="D514" s="43" t="s">
         <v>396</v>
       </c>
       <c r="E514" s="19">
@@ -11930,12 +12244,15 @@
       <c r="G514" s="19" t="s">
         <v>381</v>
       </c>
+      <c r="I514" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
     </row>
     <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="32"/>
-      <c r="D515" s="42"/>
+      <c r="D515" s="43"/>
       <c r="E515" s="19">
         <v>2</v>
       </c>
@@ -11948,12 +12265,15 @@
       <c r="H515" s="19" t="s">
         <v>384</v>
       </c>
+      <c r="I515" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
     </row>
     <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="32"/>
-      <c r="D516" s="42"/>
+      <c r="D516" s="43"/>
       <c r="E516" s="19">
         <v>3</v>
       </c>
@@ -11963,8 +12283,15 @@
       <c r="G516" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="K516" s="2"/>
-      <c r="L516" s="2"/>
+      <c r="I516" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K516" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L516" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B517" s="32"/>
@@ -11981,7 +12308,7 @@
       <c r="C518" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D518" s="42" t="s">
+      <c r="D518" s="43" t="s">
         <v>406</v>
       </c>
       <c r="E518" s="19">
@@ -11993,12 +12320,15 @@
       <c r="G518" s="19" t="s">
         <v>381</v>
       </c>
+      <c r="I518" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
     <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="32"/>
-      <c r="D519" s="42"/>
+      <c r="D519" s="43"/>
       <c r="E519" s="19">
         <v>2</v>
       </c>
@@ -12011,12 +12341,15 @@
       <c r="H519" s="19" t="s">
         <v>384</v>
       </c>
+      <c r="I519" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
     <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="32"/>
-      <c r="D520" s="42"/>
+      <c r="D520" s="43"/>
       <c r="E520" s="19">
         <v>3</v>
       </c>
@@ -12026,23 +12359,29 @@
       <c r="G520" s="19" t="s">
         <v>386</v>
       </c>
+      <c r="I520" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B521" s="32"/>
-      <c r="D521" s="42"/>
+      <c r="D521" s="43"/>
       <c r="E521" s="19">
         <v>4</v>
       </c>
       <c r="F521" s="19" t="s">
-        <v>387</v>
+        <v>591</v>
       </c>
       <c r="G521" s="19" t="s">
         <v>36</v>
       </c>
       <c r="H521" s="19" t="s">
         <v>388</v>
+      </c>
+      <c r="I521" s="19" t="s">
+        <v>590</v>
       </c>
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
@@ -12050,7 +12389,7 @@
     <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="30"/>
       <c r="B522" s="32"/>
-      <c r="D522" s="42"/>
+      <c r="D522" s="43"/>
       <c r="E522" s="19">
         <v>5</v>
       </c>
@@ -12060,12 +12399,15 @@
       <c r="G522" s="19" t="s">
         <v>400</v>
       </c>
+      <c r="I522" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
     <row r="523" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B523" s="32"/>
-      <c r="D523" s="42"/>
+      <c r="D523" s="43"/>
       <c r="E523" s="19">
         <v>6</v>
       </c>
@@ -12078,12 +12420,15 @@
       <c r="H523" s="19" t="s">
         <v>403</v>
       </c>
+      <c r="I523" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B524" s="32"/>
-      <c r="D524" s="42"/>
+      <c r="D524" s="43"/>
       <c r="E524" s="19">
         <v>7</v>
       </c>
@@ -12093,8 +12438,15 @@
       <c r="G524" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="K524" s="2"/>
-      <c r="L524" s="2"/>
+      <c r="I524" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K524" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L524" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B525" s="32"/>
@@ -12111,7 +12463,7 @@
       <c r="C526" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D526" s="42" t="s">
+      <c r="D526" s="43" t="s">
         <v>409</v>
       </c>
       <c r="E526" s="19">
@@ -12123,12 +12475,15 @@
       <c r="G526" s="19" t="s">
         <v>381</v>
       </c>
+      <c r="I526" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
     <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="32"/>
-      <c r="D527" s="42"/>
+      <c r="D527" s="43"/>
       <c r="E527" s="19">
         <v>2</v>
       </c>
@@ -12141,12 +12496,15 @@
       <c r="H527" s="19" t="s">
         <v>384</v>
       </c>
+      <c r="I527" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
     <row r="528" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="32"/>
-      <c r="D528" s="42"/>
+      <c r="D528" s="43"/>
       <c r="E528" s="19">
         <v>3</v>
       </c>
@@ -12156,15 +12514,22 @@
       <c r="G528" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="K528" s="2"/>
-      <c r="L528" s="2"/>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I528" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="K528" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L528" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B529" s="32"/>
       <c r="K529" s="2"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" s="28" t="s">
         <v>411</v>
       </c>
@@ -12174,7 +12539,7 @@
       <c r="C530" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D530" s="42" t="s">
+      <c r="D530" s="43" t="s">
         <v>412</v>
       </c>
       <c r="E530" s="19">
@@ -12186,12 +12551,15 @@
       <c r="G530" s="19" t="s">
         <v>381</v>
       </c>
+      <c r="I530" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
     </row>
-    <row r="531" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="32"/>
-      <c r="D531" s="42"/>
+      <c r="D531" s="43"/>
       <c r="E531" s="19">
         <v>2</v>
       </c>
@@ -12204,12 +12572,15 @@
       <c r="H531" s="19" t="s">
         <v>384</v>
       </c>
+      <c r="I531" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K531" s="2"/>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B532" s="32"/>
-      <c r="D532" s="42"/>
+      <c r="D532" s="43"/>
       <c r="E532" s="19">
         <v>5</v>
       </c>
@@ -12219,12 +12590,15 @@
       <c r="G532" s="19" t="s">
         <v>414</v>
       </c>
+      <c r="I532" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B533" s="32"/>
-      <c r="D533" s="42"/>
+      <c r="D533" s="43"/>
       <c r="E533" s="19">
         <v>6</v>
       </c>
@@ -12234,13 +12608,16 @@
       <c r="G533" s="19" t="s">
         <v>416</v>
       </c>
+      <c r="I533" s="19" t="s">
+        <v>590</v>
+      </c>
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="30"/>
       <c r="B534" s="32"/>
-      <c r="D534" s="42"/>
+      <c r="D534" s="43"/>
       <c r="E534" s="19">
         <v>7</v>
       </c>
@@ -12250,15 +12627,25 @@
       <c r="G534" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="K534" s="2"/>
-      <c r="L534" s="2"/>
-    </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I534" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="K534" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="L534" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M534" s="19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B535" s="32"/>
       <c r="K535" s="2"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="28" t="s">
         <v>419</v>
       </c>
@@ -12268,7 +12655,7 @@
       <c r="C536" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D536" s="42" t="s">
+      <c r="D536" s="43" t="s">
         <v>420</v>
       </c>
       <c r="E536" s="19">
@@ -12283,9 +12670,9 @@
       <c r="K536" s="2"/>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B537" s="32"/>
-      <c r="D537" s="42"/>
+      <c r="D537" s="43"/>
       <c r="E537" s="19">
         <v>2</v>
       </c>
@@ -12304,9 +12691,9 @@
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="32"/>
-      <c r="D538" s="42"/>
+      <c r="D538" s="43"/>
       <c r="E538" s="19">
         <v>3</v>
       </c>
@@ -12322,9 +12709,9 @@
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B539" s="32"/>
-      <c r="D539" s="42"/>
+      <c r="D539" s="43"/>
       <c r="E539" s="19">
         <v>4</v>
       </c>
@@ -12343,10 +12730,10 @@
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
     </row>
-    <row r="540" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="30"/>
       <c r="B540" s="32"/>
-      <c r="D540" s="42"/>
+      <c r="D540" s="43"/>
       <c r="E540" s="19">
         <v>5</v>
       </c>
@@ -12362,10 +12749,10 @@
       <c r="K540" s="2"/>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="30"/>
       <c r="B541" s="32"/>
-      <c r="D541" s="42"/>
+      <c r="D541" s="43"/>
       <c r="E541" s="19">
         <v>6</v>
       </c>
@@ -12385,12 +12772,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B542" s="32"/>
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="28" t="s">
         <v>423</v>
       </c>
@@ -12400,7 +12787,7 @@
       <c r="C543" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D543" s="42" t="s">
+      <c r="D543" s="43" t="s">
         <v>424</v>
       </c>
       <c r="E543" s="19">
@@ -12418,9 +12805,9 @@
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="32"/>
-      <c r="D544" s="42"/>
+      <c r="D544" s="43"/>
       <c r="E544" s="19">
         <v>2</v>
       </c>
@@ -12441,7 +12828,7 @@
     </row>
     <row r="545" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B545" s="32"/>
-      <c r="D545" s="42"/>
+      <c r="D545" s="43"/>
       <c r="E545" s="19">
         <v>3</v>
       </c>
@@ -12462,7 +12849,7 @@
     </row>
     <row r="546" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B546" s="32"/>
-      <c r="D546" s="42"/>
+      <c r="D546" s="43"/>
       <c r="E546" s="19">
         <v>4</v>
       </c>
@@ -12484,7 +12871,7 @@
     <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="30"/>
       <c r="B547" s="32"/>
-      <c r="D547" s="42"/>
+      <c r="D547" s="43"/>
       <c r="E547" s="19">
         <v>5</v>
       </c>
@@ -12503,7 +12890,7 @@
     <row r="548" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="30"/>
       <c r="B548" s="32"/>
-      <c r="D548" s="42"/>
+      <c r="D548" s="43"/>
       <c r="E548" s="19">
         <v>6</v>
       </c>
@@ -12544,7 +12931,7 @@
       <c r="C550" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D550" s="42" t="s">
+      <c r="D550" s="43" t="s">
         <v>432</v>
       </c>
       <c r="E550" s="19">
@@ -12561,7 +12948,7 @@
     </row>
     <row r="551" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="32"/>
-      <c r="D551" s="42"/>
+      <c r="D551" s="43"/>
       <c r="E551" s="19">
         <v>2</v>
       </c>
@@ -12579,7 +12966,7 @@
     </row>
     <row r="552" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="32"/>
-      <c r="D552" s="42"/>
+      <c r="D552" s="43"/>
       <c r="E552" s="19">
         <v>3</v>
       </c>
@@ -12597,7 +12984,7 @@
     </row>
     <row r="553" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B553" s="32"/>
-      <c r="D553" s="42"/>
+      <c r="D553" s="43"/>
       <c r="E553" s="19">
         <v>4</v>
       </c>
@@ -12616,7 +13003,7 @@
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="30"/>
       <c r="B554" s="32"/>
-      <c r="D554" s="42"/>
+      <c r="D554" s="43"/>
       <c r="E554" s="19">
         <v>5</v>
       </c>
@@ -12632,7 +13019,7 @@
     <row r="555" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="30"/>
       <c r="B555" s="32"/>
-      <c r="D555" s="42"/>
+      <c r="D555" s="43"/>
       <c r="E555" s="19">
         <v>6</v>
       </c>
@@ -12647,7 +13034,7 @@
     </row>
     <row r="556" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="32"/>
-      <c r="D556" s="42"/>
+      <c r="D556" s="43"/>
       <c r="E556" s="19">
         <v>7</v>
       </c>
@@ -12665,7 +13052,7 @@
     </row>
     <row r="557" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B557" s="32"/>
-      <c r="D557" s="42"/>
+      <c r="D557" s="43"/>
       <c r="E557" s="19">
         <v>8</v>
       </c>
@@ -12684,7 +13071,7 @@
     <row r="558" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="30"/>
       <c r="B558" s="32"/>
-      <c r="D558" s="42"/>
+      <c r="D558" s="43"/>
       <c r="E558" s="19">
         <v>9</v>
       </c>
@@ -12702,7 +13089,7 @@
     </row>
     <row r="559" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B559" s="32"/>
-      <c r="D559" s="42"/>
+      <c r="D559" s="43"/>
       <c r="E559" s="19">
         <v>10</v>
       </c>
@@ -12740,7 +13127,7 @@
       <c r="C561" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D561" s="42" t="s">
+      <c r="D561" s="43" t="s">
         <v>434</v>
       </c>
       <c r="E561" s="19">
@@ -12760,7 +13147,7 @@
     </row>
     <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B562" s="32"/>
-      <c r="D562" s="42"/>
+      <c r="D562" s="43"/>
       <c r="E562" s="19">
         <v>2</v>
       </c>
@@ -12781,7 +13168,7 @@
     </row>
     <row r="563" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="32"/>
-      <c r="D563" s="42"/>
+      <c r="D563" s="43"/>
       <c r="E563" s="19">
         <v>3</v>
       </c>
@@ -12802,7 +13189,7 @@
     </row>
     <row r="564" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B564" s="32"/>
-      <c r="D564" s="42"/>
+      <c r="D564" s="43"/>
       <c r="E564" s="19">
         <v>4</v>
       </c>
@@ -12824,7 +13211,7 @@
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="30"/>
       <c r="B565" s="32"/>
-      <c r="D565" s="42"/>
+      <c r="D565" s="43"/>
       <c r="E565" s="19">
         <v>5</v>
       </c>
@@ -12843,7 +13230,7 @@
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="30"/>
       <c r="B566" s="32"/>
-      <c r="D566" s="42"/>
+      <c r="D566" s="43"/>
       <c r="E566" s="19">
         <v>6</v>
       </c>
@@ -12861,7 +13248,7 @@
     </row>
     <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="32"/>
-      <c r="D567" s="42"/>
+      <c r="D567" s="43"/>
       <c r="E567" s="19">
         <v>7</v>
       </c>
@@ -12879,7 +13266,7 @@
     </row>
     <row r="568" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B568" s="32"/>
-      <c r="D568" s="42"/>
+      <c r="D568" s="43"/>
       <c r="E568" s="19">
         <v>8</v>
       </c>
@@ -12914,7 +13301,7 @@
       <c r="C570" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D570" s="42" t="s">
+      <c r="D570" s="43" t="s">
         <v>446</v>
       </c>
       <c r="E570" s="19">
@@ -12934,7 +13321,7 @@
     </row>
     <row r="571" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B571" s="32"/>
-      <c r="D571" s="42"/>
+      <c r="D571" s="43"/>
       <c r="E571" s="19">
         <v>2</v>
       </c>
@@ -12952,7 +13339,7 @@
     </row>
     <row r="572" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B572" s="32"/>
-      <c r="D572" s="42"/>
+      <c r="D572" s="43"/>
       <c r="E572" s="19">
         <v>3</v>
       </c>
@@ -12967,7 +13354,7 @@
     </row>
     <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="32"/>
-      <c r="D573" s="42"/>
+      <c r="D573" s="43"/>
       <c r="E573" s="19">
         <v>4</v>
       </c>
@@ -12995,7 +13382,7 @@
       <c r="C575" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D575" s="42" t="s">
+      <c r="D575" s="43" t="s">
         <v>450</v>
       </c>
       <c r="E575" s="19">
@@ -13012,7 +13399,7 @@
     </row>
     <row r="576" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="32"/>
-      <c r="D576" s="42"/>
+      <c r="D576" s="43"/>
       <c r="E576" s="19">
         <v>2</v>
       </c>
@@ -13030,7 +13417,7 @@
     </row>
     <row r="577" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B577" s="32"/>
-      <c r="D577" s="42"/>
+      <c r="D577" s="43"/>
       <c r="E577" s="19">
         <v>3</v>
       </c>
@@ -13045,7 +13432,7 @@
     </row>
     <row r="578" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B578" s="32"/>
-      <c r="D578" s="42"/>
+      <c r="D578" s="43"/>
       <c r="E578" s="19">
         <v>4</v>
       </c>
@@ -13060,7 +13447,7 @@
     </row>
     <row r="579" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="32"/>
-      <c r="D579" s="42"/>
+      <c r="D579" s="43"/>
       <c r="E579" s="19">
         <v>5</v>
       </c>
@@ -13088,7 +13475,7 @@
       <c r="C581" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D581" s="42" t="s">
+      <c r="D581" s="43" t="s">
         <v>456</v>
       </c>
       <c r="E581" s="19">
@@ -13105,7 +13492,7 @@
     </row>
     <row r="582" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="32"/>
-      <c r="D582" s="42"/>
+      <c r="D582" s="43"/>
       <c r="E582" s="19">
         <v>2</v>
       </c>
@@ -13123,7 +13510,7 @@
     </row>
     <row r="583" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B583" s="32"/>
-      <c r="D583" s="42"/>
+      <c r="D583" s="43"/>
       <c r="E583" s="19">
         <v>3</v>
       </c>
@@ -13141,7 +13528,7 @@
     </row>
     <row r="584" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B584" s="32"/>
-      <c r="D584" s="42"/>
+      <c r="D584" s="43"/>
       <c r="E584" s="19">
         <v>4</v>
       </c>
@@ -13156,7 +13543,7 @@
     </row>
     <row r="585" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B585" s="32"/>
-      <c r="D585" s="42"/>
+      <c r="D585" s="43"/>
       <c r="E585" s="19">
         <v>5</v>
       </c>
@@ -13184,7 +13571,7 @@
       <c r="C587" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D587" s="42" t="s">
+      <c r="D587" s="43" t="s">
         <v>462</v>
       </c>
       <c r="E587" s="19">
@@ -13201,7 +13588,7 @@
     </row>
     <row r="588" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B588" s="32"/>
-      <c r="D588" s="42"/>
+      <c r="D588" s="43"/>
       <c r="E588" s="19">
         <v>2</v>
       </c>
@@ -13219,7 +13606,7 @@
     </row>
     <row r="589" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B589" s="32"/>
-      <c r="D589" s="42"/>
+      <c r="D589" s="43"/>
       <c r="E589" s="19">
         <v>3</v>
       </c>
@@ -13234,7 +13621,7 @@
     </row>
     <row r="590" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="32"/>
-      <c r="D590" s="42"/>
+      <c r="D590" s="43"/>
       <c r="E590" s="19">
         <v>4</v>
       </c>
@@ -13249,7 +13636,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B591" s="32"/>
-      <c r="D591" s="42"/>
+      <c r="D591" s="43"/>
       <c r="E591" s="19">
         <v>5</v>
       </c>
@@ -13264,7 +13651,7 @@
     </row>
     <row r="592" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="32"/>
-      <c r="D592" s="42"/>
+      <c r="D592" s="43"/>
       <c r="E592" s="19">
         <v>6</v>
       </c>
@@ -13292,7 +13679,7 @@
       <c r="C594" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D594" s="42" t="s">
+      <c r="D594" s="43" t="s">
         <v>467</v>
       </c>
       <c r="E594" s="19">
@@ -13309,7 +13696,7 @@
     </row>
     <row r="595" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B595" s="32"/>
-      <c r="D595" s="42"/>
+      <c r="D595" s="43"/>
       <c r="E595" s="19">
         <v>2</v>
       </c>
@@ -13327,7 +13714,7 @@
     </row>
     <row r="596" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B596" s="32"/>
-      <c r="D596" s="42"/>
+      <c r="D596" s="43"/>
       <c r="E596" s="19">
         <v>3</v>
       </c>
@@ -13342,7 +13729,7 @@
     </row>
     <row r="597" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B597" s="32"/>
-      <c r="D597" s="42"/>
+      <c r="D597" s="43"/>
       <c r="E597" s="19">
         <v>4</v>
       </c>
@@ -13357,7 +13744,7 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B598" s="32"/>
-      <c r="D598" s="42"/>
+      <c r="D598" s="43"/>
       <c r="E598" s="19">
         <v>5</v>
       </c>
@@ -13372,7 +13759,7 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B599" s="31"/>
-      <c r="D599" s="42"/>
+      <c r="D599" s="43"/>
       <c r="E599" s="19">
         <v>6</v>
       </c>
@@ -13400,7 +13787,7 @@
       <c r="C601" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D601" s="42" t="s">
+      <c r="D601" s="43" t="s">
         <v>471</v>
       </c>
       <c r="E601" s="19">
@@ -13417,7 +13804,7 @@
     </row>
     <row r="602" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B602" s="38"/>
-      <c r="D602" s="42"/>
+      <c r="D602" s="43"/>
       <c r="E602" s="19">
         <v>2</v>
       </c>
@@ -13432,7 +13819,7 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B603" s="38"/>
-      <c r="D603" s="42"/>
+      <c r="D603" s="43"/>
       <c r="E603" s="19">
         <v>3</v>
       </c>
@@ -13460,7 +13847,7 @@
       <c r="C605" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D605" s="42" t="s">
+      <c r="D605" s="43" t="s">
         <v>479</v>
       </c>
       <c r="E605" s="19">
@@ -13477,7 +13864,7 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B606" s="38"/>
-      <c r="D606" s="42"/>
+      <c r="D606" s="43"/>
       <c r="E606" s="19">
         <v>2</v>
       </c>
@@ -13495,7 +13882,7 @@
     </row>
     <row r="607" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B607" s="38"/>
-      <c r="D607" s="42"/>
+      <c r="D607" s="43"/>
       <c r="E607" s="19">
         <v>3</v>
       </c>
@@ -13510,7 +13897,7 @@
     </row>
     <row r="608" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="31"/>
-      <c r="D608" s="42"/>
+      <c r="D608" s="43"/>
       <c r="E608" s="19">
         <v>4</v>
       </c>
@@ -13539,7 +13926,7 @@
       <c r="C610" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D610" s="42" t="s">
+      <c r="D610" s="43" t="s">
         <v>490</v>
       </c>
       <c r="E610" s="19">
@@ -13556,7 +13943,7 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B611" s="38"/>
-      <c r="D611" s="42"/>
+      <c r="D611" s="43"/>
       <c r="E611" s="19">
         <v>2</v>
       </c>
@@ -13574,7 +13961,7 @@
     </row>
     <row r="612" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B612" s="38"/>
-      <c r="D612" s="42"/>
+      <c r="D612" s="43"/>
       <c r="E612" s="19">
         <v>3</v>
       </c>
@@ -13589,7 +13976,7 @@
     </row>
     <row r="613" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="31"/>
-      <c r="D613" s="42"/>
+      <c r="D613" s="43"/>
       <c r="E613" s="19">
         <v>4</v>
       </c>
@@ -13604,7 +13991,7 @@
     </row>
     <row r="614" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="31"/>
-      <c r="D614" s="42"/>
+      <c r="D614" s="43"/>
       <c r="E614" s="19">
         <v>5</v>
       </c>
@@ -13632,7 +14019,7 @@
       <c r="C616" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D616" s="42" t="s">
+      <c r="D616" s="43" t="s">
         <v>495</v>
       </c>
       <c r="E616" s="19">
@@ -13649,7 +14036,7 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B617" s="38"/>
-      <c r="D617" s="42"/>
+      <c r="D617" s="43"/>
       <c r="E617" s="19">
         <v>2</v>
       </c>
@@ -13664,7 +14051,7 @@
     </row>
     <row r="618" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B618" s="38"/>
-      <c r="D618" s="42"/>
+      <c r="D618" s="43"/>
       <c r="E618" s="19">
         <v>3</v>
       </c>
@@ -13679,7 +14066,7 @@
     </row>
     <row r="619" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B619" s="37"/>
-      <c r="D619" s="42"/>
+      <c r="D619" s="43"/>
       <c r="E619" s="19">
         <v>4</v>
       </c>
@@ -13694,7 +14081,7 @@
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B620" s="37"/>
-      <c r="D620" s="42"/>
+      <c r="D620" s="43"/>
       <c r="K620" s="2"/>
       <c r="L620" s="2"/>
     </row>
@@ -13713,7 +14100,7 @@
       <c r="C622" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D622" s="42" t="s">
+      <c r="D622" s="43" t="s">
         <v>502</v>
       </c>
       <c r="E622" s="19">
@@ -13730,7 +14117,7 @@
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B623" s="40"/>
-      <c r="D623" s="42"/>
+      <c r="D623" s="43"/>
       <c r="E623" s="19">
         <v>2</v>
       </c>
@@ -13745,7 +14132,7 @@
     </row>
     <row r="624" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B624" s="40"/>
-      <c r="D624" s="42"/>
+      <c r="D624" s="43"/>
       <c r="E624" s="19">
         <v>3</v>
       </c>
@@ -13760,7 +14147,7 @@
     </row>
     <row r="625" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B625" s="39"/>
-      <c r="D625" s="42"/>
+      <c r="D625" s="43"/>
       <c r="E625" s="19">
         <v>4</v>
       </c>
@@ -13775,7 +14162,7 @@
     </row>
     <row r="626" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B626" s="39"/>
-      <c r="D626" s="42"/>
+      <c r="D626" s="43"/>
       <c r="E626" s="19">
         <v>5</v>
       </c>
@@ -13790,7 +14177,7 @@
     </row>
     <row r="627" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="31"/>
-      <c r="D627" s="42"/>
+      <c r="D627" s="43"/>
       <c r="E627" s="19">
         <v>6</v>
       </c>
@@ -13818,7 +14205,7 @@
       <c r="C629" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D629" s="42" t="s">
+      <c r="D629" s="43" t="s">
         <v>508</v>
       </c>
       <c r="E629" s="19">
@@ -13835,7 +14222,7 @@
     </row>
     <row r="630" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B630" s="40"/>
-      <c r="D630" s="42"/>
+      <c r="D630" s="43"/>
       <c r="E630" s="19">
         <v>2</v>
       </c>
@@ -13850,7 +14237,7 @@
     </row>
     <row r="631" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B631" s="40"/>
-      <c r="D631" s="42"/>
+      <c r="D631" s="43"/>
       <c r="E631" s="19">
         <v>3</v>
       </c>
@@ -13865,7 +14252,7 @@
     </row>
     <row r="632" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B632" s="39"/>
-      <c r="D632" s="42"/>
+      <c r="D632" s="43"/>
       <c r="E632" s="19">
         <v>4</v>
       </c>
@@ -13893,7 +14280,7 @@
       <c r="C634" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D634" s="42" t="s">
+      <c r="D634" s="43" t="s">
         <v>516</v>
       </c>
       <c r="E634" s="19">
@@ -13910,7 +14297,7 @@
     </row>
     <row r="635" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B635" s="40"/>
-      <c r="D635" s="42"/>
+      <c r="D635" s="43"/>
       <c r="E635" s="19">
         <v>2</v>
       </c>
@@ -13925,7 +14312,7 @@
     </row>
     <row r="636" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B636" s="40"/>
-      <c r="D636" s="42"/>
+      <c r="D636" s="43"/>
       <c r="E636" s="19">
         <v>3</v>
       </c>
@@ -13940,7 +14327,7 @@
     </row>
     <row r="637" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B637" s="39"/>
-      <c r="D637" s="42"/>
+      <c r="D637" s="43"/>
       <c r="E637" s="19">
         <v>4</v>
       </c>
@@ -13955,7 +14342,7 @@
     </row>
     <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B638" s="39"/>
-      <c r="D638" s="42"/>
+      <c r="D638" s="43"/>
       <c r="E638" s="19">
         <v>5</v>
       </c>
@@ -13983,7 +14370,7 @@
       <c r="C640" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D640" s="42" t="s">
+      <c r="D640" s="43" t="s">
         <v>520</v>
       </c>
       <c r="E640" s="19">
@@ -14001,7 +14388,7 @@
     <row r="641" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="28"/>
       <c r="B641" s="40"/>
-      <c r="D641" s="42"/>
+      <c r="D641" s="43"/>
       <c r="E641" s="19">
         <v>2</v>
       </c>
@@ -14017,7 +14404,7 @@
     <row r="642" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A642" s="28"/>
       <c r="B642" s="40"/>
-      <c r="D642" s="42"/>
+      <c r="D642" s="43"/>
       <c r="E642" s="19">
         <v>3</v>
       </c>
@@ -14032,7 +14419,7 @@
     </row>
     <row r="643" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B643" s="40"/>
-      <c r="D643" s="42"/>
+      <c r="D643" s="43"/>
       <c r="E643" s="19">
         <v>4</v>
       </c>
@@ -14047,7 +14434,7 @@
     </row>
     <row r="644" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B644" s="40"/>
-      <c r="D644" s="42"/>
+      <c r="D644" s="43"/>
       <c r="E644" s="19">
         <v>5</v>
       </c>
@@ -14062,7 +14449,7 @@
     </row>
     <row r="645" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B645" s="39"/>
-      <c r="D645" s="42"/>
+      <c r="D645" s="43"/>
       <c r="E645" s="19">
         <v>6</v>
       </c>
@@ -14077,7 +14464,7 @@
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B646" s="39"/>
-      <c r="D646" s="42"/>
+      <c r="D646" s="43"/>
       <c r="E646" s="19">
         <v>7</v>
       </c>
@@ -14105,7 +14492,7 @@
       <c r="C648" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D648" s="42" t="s">
+      <c r="D648" s="43" t="s">
         <v>534</v>
       </c>
       <c r="E648" s="19">
@@ -14122,7 +14509,7 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B649" s="40"/>
-      <c r="D649" s="42"/>
+      <c r="D649" s="43"/>
       <c r="E649" s="19">
         <v>2</v>
       </c>
@@ -14137,7 +14524,7 @@
     </row>
     <row r="650" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="40"/>
-      <c r="D650" s="42"/>
+      <c r="D650" s="43"/>
       <c r="E650" s="19">
         <v>3</v>
       </c>
@@ -14165,7 +14552,7 @@
       <c r="C652" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D652" s="42" t="s">
+      <c r="D652" s="43" t="s">
         <v>541</v>
       </c>
       <c r="E652" s="19">
@@ -14182,7 +14569,7 @@
     </row>
     <row r="653" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B653" s="40"/>
-      <c r="D653" s="42"/>
+      <c r="D653" s="43"/>
       <c r="E653" s="19">
         <v>2</v>
       </c>
@@ -14197,7 +14584,7 @@
     </row>
     <row r="654" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B654" s="40"/>
-      <c r="D654" s="42"/>
+      <c r="D654" s="43"/>
       <c r="E654" s="19">
         <v>3</v>
       </c>
@@ -14225,7 +14612,7 @@
       <c r="C656" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D656" s="42" t="s">
+      <c r="D656" s="43" t="s">
         <v>549</v>
       </c>
       <c r="E656" s="19">
@@ -14242,7 +14629,7 @@
     </row>
     <row r="657" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B657" s="40"/>
-      <c r="D657" s="42"/>
+      <c r="D657" s="43"/>
       <c r="E657" s="19">
         <v>2</v>
       </c>
@@ -14257,7 +14644,7 @@
     </row>
     <row r="658" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B658" s="40"/>
-      <c r="D658" s="42"/>
+      <c r="D658" s="43"/>
       <c r="E658" s="19">
         <v>3</v>
       </c>
@@ -14272,7 +14659,7 @@
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B659" s="39"/>
-      <c r="D659" s="42"/>
+      <c r="D659" s="43"/>
       <c r="E659" s="19">
         <v>4</v>
       </c>
@@ -14300,7 +14687,7 @@
       <c r="C661" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D661" s="42" t="s">
+      <c r="D661" s="43" t="s">
         <v>555</v>
       </c>
       <c r="E661" s="19">
@@ -14317,7 +14704,7 @@
     </row>
     <row r="662" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B662" s="40"/>
-      <c r="D662" s="42"/>
+      <c r="D662" s="43"/>
       <c r="E662" s="19">
         <v>2</v>
       </c>
@@ -14332,7 +14719,7 @@
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B663" s="40"/>
-      <c r="D663" s="42"/>
+      <c r="D663" s="43"/>
       <c r="E663" s="19">
         <v>3</v>
       </c>
@@ -14355,7 +14742,7 @@
       <c r="C664" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D664" s="42" t="s">
+      <c r="D664" s="43" t="s">
         <v>558</v>
       </c>
       <c r="E664" s="19">
@@ -14372,7 +14759,7 @@
     </row>
     <row r="665" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="40"/>
-      <c r="D665" s="42"/>
+      <c r="D665" s="43"/>
       <c r="E665" s="19">
         <v>2</v>
       </c>
@@ -14387,7 +14774,7 @@
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B666" s="40"/>
-      <c r="D666" s="42"/>
+      <c r="D666" s="43"/>
       <c r="E666" s="19">
         <v>3</v>
       </c>
@@ -14413,7 +14800,7 @@
       <c r="C668" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D668" s="42" t="s">
+      <c r="D668" s="43" t="s">
         <v>561</v>
       </c>
       <c r="E668" s="19">
@@ -14429,7 +14816,7 @@
     </row>
     <row r="669" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B669" s="40"/>
-      <c r="D669" s="42"/>
+      <c r="D669" s="43"/>
       <c r="E669" s="19">
         <v>2</v>
       </c>
@@ -14443,7 +14830,7 @@
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B670" s="40"/>
-      <c r="D670" s="42"/>
+      <c r="D670" s="43"/>
       <c r="E670" s="19">
         <v>3</v>
       </c>
@@ -14469,7 +14856,7 @@
       <c r="C672" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D672" s="42" t="s">
+      <c r="D672" s="43" t="s">
         <v>564</v>
       </c>
       <c r="E672" s="19">
@@ -14485,7 +14872,7 @@
     </row>
     <row r="673" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B673" s="40"/>
-      <c r="D673" s="42"/>
+      <c r="D673" s="43"/>
       <c r="E673" s="19">
         <v>2</v>
       </c>
@@ -14502,7 +14889,7 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B674" s="40"/>
-      <c r="D674" s="42"/>
+      <c r="D674" s="43"/>
       <c r="E674" s="19">
         <v>3</v>
       </c>
@@ -14528,7 +14915,7 @@
       <c r="C676" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D676" s="42" t="s">
+      <c r="D676" s="43" t="s">
         <v>572</v>
       </c>
       <c r="E676" s="19">
@@ -14544,7 +14931,7 @@
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B677" s="40"/>
-      <c r="D677" s="42"/>
+      <c r="D677" s="43"/>
       <c r="E677" s="19">
         <v>2</v>
       </c>
@@ -14558,7 +14945,7 @@
     </row>
     <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B678" s="40"/>
-      <c r="D678" s="42"/>
+      <c r="D678" s="43"/>
       <c r="E678" s="19">
         <v>3</v>
       </c>
@@ -14589,7 +14976,7 @@
       <c r="C680" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D680" s="42" t="s">
+      <c r="D680" s="43" t="s">
         <v>580</v>
       </c>
       <c r="E680" s="19">
@@ -14605,7 +14992,7 @@
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B681" s="40"/>
-      <c r="D681" s="42"/>
+      <c r="D681" s="43"/>
       <c r="E681" s="19">
         <v>2</v>
       </c>
@@ -14619,7 +15006,7 @@
     </row>
     <row r="682" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B682" s="40"/>
-      <c r="D682" s="42"/>
+      <c r="D682" s="43"/>
       <c r="E682" s="19">
         <v>3</v>
       </c>
@@ -14650,7 +15037,7 @@
       <c r="C684" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D684" s="42" t="s">
+      <c r="D684" s="43" t="s">
         <v>585</v>
       </c>
       <c r="E684" s="19">
@@ -14666,7 +15053,7 @@
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B685" s="40"/>
-      <c r="D685" s="42"/>
+      <c r="D685" s="43"/>
       <c r="E685" s="19">
         <v>2</v>
       </c>
@@ -14680,7 +15067,7 @@
     </row>
     <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B686" s="40"/>
-      <c r="D686" s="42"/>
+      <c r="D686" s="43"/>
       <c r="E686" s="19">
         <v>3</v>
       </c>
@@ -14780,25 +15167,66 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="D680:D682"/>
-    <mergeCell ref="D684:D686"/>
-    <mergeCell ref="D661:D663"/>
-    <mergeCell ref="D664:D666"/>
-    <mergeCell ref="D668:D670"/>
-    <mergeCell ref="D672:D674"/>
-    <mergeCell ref="D676:D678"/>
-    <mergeCell ref="D640:D646"/>
-    <mergeCell ref="D648:D650"/>
-    <mergeCell ref="D652:D654"/>
-    <mergeCell ref="D656:D659"/>
-    <mergeCell ref="D581:D585"/>
-    <mergeCell ref="D622:D627"/>
-    <mergeCell ref="D629:D632"/>
-    <mergeCell ref="D634:D638"/>
-    <mergeCell ref="D616:D620"/>
-    <mergeCell ref="D601:D603"/>
-    <mergeCell ref="D605:D608"/>
-    <mergeCell ref="D610:D614"/>
+    <mergeCell ref="D543:D548"/>
+    <mergeCell ref="D550:D559"/>
+    <mergeCell ref="D587:D592"/>
+    <mergeCell ref="D594:D599"/>
+    <mergeCell ref="D561:D568"/>
+    <mergeCell ref="D570:D573"/>
+    <mergeCell ref="D575:D579"/>
+    <mergeCell ref="D492:D498"/>
+    <mergeCell ref="D500:D505"/>
+    <mergeCell ref="D507:D512"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="D536:D541"/>
+    <mergeCell ref="D470:D474"/>
+    <mergeCell ref="D476:D482"/>
+    <mergeCell ref="D484:D490"/>
+    <mergeCell ref="D446:D450"/>
+    <mergeCell ref="D452:D456"/>
+    <mergeCell ref="D458:D462"/>
+    <mergeCell ref="D464:D468"/>
+    <mergeCell ref="D434:D438"/>
+    <mergeCell ref="D428:D432"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D317"/>
+    <mergeCell ref="D416:D420"/>
+    <mergeCell ref="D319:D325"/>
+    <mergeCell ref="D327:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="D296:D302"/>
+    <mergeCell ref="D263:D269"/>
+    <mergeCell ref="D271:D278"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="D218:D227"/>
+    <mergeCell ref="D229:D238"/>
+    <mergeCell ref="D240:D245"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="D255:D261"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="D182:D193"/>
+    <mergeCell ref="D195:D206"/>
+    <mergeCell ref="D208:D216"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="D440:D444"/>
+    <mergeCell ref="D170:D180"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="D127:D133"/>
+    <mergeCell ref="D135:D144"/>
+    <mergeCell ref="D146:D156"/>
+    <mergeCell ref="D158:D168"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="D103:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D280:D287"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D518:D524"/>
     <mergeCell ref="D526:D528"/>
@@ -14815,66 +15243,25 @@
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="D440:D444"/>
-    <mergeCell ref="D170:D180"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="D127:D133"/>
-    <mergeCell ref="D135:D144"/>
-    <mergeCell ref="D146:D156"/>
-    <mergeCell ref="D158:D168"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D280:D287"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="D296:D302"/>
-    <mergeCell ref="D263:D269"/>
-    <mergeCell ref="D271:D278"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="D218:D227"/>
-    <mergeCell ref="D229:D238"/>
-    <mergeCell ref="D240:D245"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="D255:D261"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="D182:D193"/>
-    <mergeCell ref="D195:D206"/>
-    <mergeCell ref="D208:D216"/>
-    <mergeCell ref="D434:D438"/>
-    <mergeCell ref="D428:D432"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D317"/>
-    <mergeCell ref="D416:D420"/>
-    <mergeCell ref="D319:D325"/>
-    <mergeCell ref="D327:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="D470:D474"/>
-    <mergeCell ref="D476:D482"/>
-    <mergeCell ref="D484:D490"/>
-    <mergeCell ref="D446:D450"/>
-    <mergeCell ref="D452:D456"/>
-    <mergeCell ref="D458:D462"/>
-    <mergeCell ref="D464:D468"/>
-    <mergeCell ref="D492:D498"/>
-    <mergeCell ref="D500:D505"/>
-    <mergeCell ref="D507:D512"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="D536:D541"/>
-    <mergeCell ref="D543:D548"/>
-    <mergeCell ref="D550:D559"/>
-    <mergeCell ref="D587:D592"/>
-    <mergeCell ref="D594:D599"/>
-    <mergeCell ref="D561:D568"/>
-    <mergeCell ref="D570:D573"/>
-    <mergeCell ref="D575:D579"/>
+    <mergeCell ref="D640:D646"/>
+    <mergeCell ref="D648:D650"/>
+    <mergeCell ref="D652:D654"/>
+    <mergeCell ref="D656:D659"/>
+    <mergeCell ref="D581:D585"/>
+    <mergeCell ref="D622:D627"/>
+    <mergeCell ref="D629:D632"/>
+    <mergeCell ref="D634:D638"/>
+    <mergeCell ref="D616:D620"/>
+    <mergeCell ref="D601:D603"/>
+    <mergeCell ref="D605:D608"/>
+    <mergeCell ref="D610:D614"/>
+    <mergeCell ref="D680:D682"/>
+    <mergeCell ref="D684:D686"/>
+    <mergeCell ref="D661:D663"/>
+    <mergeCell ref="D664:D666"/>
+    <mergeCell ref="D668:D670"/>
+    <mergeCell ref="D672:D674"/>
+    <mergeCell ref="D676:D678"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="5">
@@ -14884,10 +15271,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C169:C201 C207:C235 C239:C260 C262:C286 C288:C309 C312:C332 C334:C355 C357:C378 C380:C401 C2:C164 C403:C1048576" xr:uid="{4613EE89-5E19-42FA-AB1F-2526DEDE59AC}">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K487:K540 K542:K547 K549:K558 K560:K567 K569:K665" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K569:K665 K542:K547 K549:K558 K560:K567 K487:K489 K491:K503 K505:K540" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K76:K486 K2:K74 K541 K548 K559 K568" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K76:K486 K2:K74 K541 K548 K559 K568 K490 K505 K498 K512 K516 K524 K528 K534" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L74 L76:L710" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -14925,7 +15312,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>283</v>
       </c>
       <c r="E2" s="19">
@@ -14941,7 +15328,7 @@
       <c r="A3" s="29"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -14957,7 +15344,7 @@
       <c r="A4" s="29"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -14973,7 +15360,7 @@
       <c r="A5" s="29"/>
       <c r="B5" s="32"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -14989,7 +15376,7 @@
       <c r="A6" s="29"/>
       <c r="B6" s="32"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="42"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -15005,7 +15392,7 @@
       <c r="A7" s="29"/>
       <c r="B7" s="32"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="19">
         <v>6</v>
       </c>
@@ -15037,7 +15424,7 @@
       <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>287</v>
       </c>
       <c r="E9" s="19">
@@ -15053,7 +15440,7 @@
       <c r="A10" s="29"/>
       <c r="B10" s="32"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="42"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="19">
         <v>2</v>
       </c>
@@ -15069,7 +15456,7 @@
       <c r="A11" s="29"/>
       <c r="B11" s="32"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="19">
         <v>3</v>
       </c>
@@ -15085,7 +15472,7 @@
       <c r="A12" s="29"/>
       <c r="B12" s="32"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="19">
         <v>4</v>
       </c>
@@ -15101,7 +15488,7 @@
       <c r="A13" s="29"/>
       <c r="B13" s="32"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="19">
         <v>5</v>
       </c>
@@ -15117,7 +15504,7 @@
       <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="19">
         <v>6</v>
       </c>
@@ -15133,7 +15520,7 @@
       <c r="A15" s="29"/>
       <c r="B15" s="32"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="19">
         <v>7</v>
       </c>
@@ -15163,7 +15550,7 @@
       <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>290</v>
       </c>
       <c r="E17" s="19">
@@ -15179,7 +15566,7 @@
       <c r="A18" s="29"/>
       <c r="B18" s="32"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="19">
         <v>2</v>
       </c>
@@ -15195,7 +15582,7 @@
       <c r="A19" s="29"/>
       <c r="B19" s="32"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="19">
         <v>3</v>
       </c>
@@ -15211,7 +15598,7 @@
       <c r="A20" s="29"/>
       <c r="B20" s="32"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="19">
         <v>4</v>
       </c>
@@ -15227,7 +15614,7 @@
       <c r="A21" s="29"/>
       <c r="B21" s="32"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="19">
         <v>5</v>
       </c>
@@ -15243,7 +15630,7 @@
       <c r="A22" s="29"/>
       <c r="B22" s="32"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="19">
         <v>6</v>
       </c>
@@ -15256,7 +15643,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="42"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="19">
         <v>7</v>
       </c>

--- a/Test Execution/Rijo/Test Case - Theatre.xlsx
+++ b/Test Execution/Rijo/Test Case - Theatre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBC803-8F9A-4B4A-8578-B40B57AA3AEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522217DF-BC07-436A-839B-55CA0CC4C515}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="635">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2053,9 +2053,6 @@
     <t xml:space="preserve">Verify whether user is able to record the medicines issued to the patient </t>
   </si>
   <si>
-    <t xml:space="preserve">Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Issued To Patient </t>
-  </si>
-  <si>
     <t>Issued To Patient entry form should be displayed</t>
   </si>
   <si>
@@ -2451,6 +2448,54 @@
   </si>
   <si>
     <t>EQ1-I591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transactions&gt;&gt;Surgery Request </t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Issued To Patient &gt;&gt;Enter Patient Id</t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Issued To Patient &gt;&gt;Enter Patient Id of IN-Patient</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>Doubt(Loose?)</t>
+  </si>
+  <si>
+    <t>Unable to enter quantity</t>
+  </si>
+  <si>
+    <t>EQ1-I604</t>
+  </si>
+  <si>
+    <t>Unable to save store requisition</t>
+  </si>
+  <si>
+    <t>EQ1-I609</t>
+  </si>
+  <si>
+    <t>unable to select item for search</t>
+  </si>
+  <si>
+    <t>Alt+D Not working</t>
+  </si>
+  <si>
+    <t>EQ1-I610</t>
+  </si>
+  <si>
+    <t>EQ1-I616</t>
+  </si>
+  <si>
+    <t>Couter for Outlet is not present hence uabale to save data</t>
+  </si>
+  <si>
+    <t>EQ1-I622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to select from and to date </t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2557,6 +2602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2597,7 +2648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2722,6 +2773,21 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2733,12 +2799,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2850,7 +2910,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2915,7 +2975,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2980,7 +3040,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3045,7 +3105,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,7 +3235,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,19 +3722,19 @@
       </c>
       <c r="B2" s="18">
         <f>Theatre!P2</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="18">
         <f>Theatre!P3</f>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D2" s="18">
         <f>Theatre!S2</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E2" s="18">
         <f>Theatre!S3</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="18">
         <f>Theatre!S4</f>
@@ -3682,7 +3742,7 @@
       </c>
       <c r="G2" s="18">
         <f>Theatre!S5</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3691,19 +3751,19 @@
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:G3" si="0">SUM(B2:B2)</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
@@ -3711,7 +3771,7 @@
       </c>
       <c r="G3" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3727,16 +3787,16 @@
       <c r="B6" s="15"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3750,11 +3810,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S710"/>
+  <dimension ref="A1:S707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>5</v>
@@ -3832,7 +3892,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="19">
@@ -3846,7 +3906,7 @@
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="25"/>
@@ -3857,21 +3917,21 @@
       </c>
       <c r="P2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="27">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="45"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -3885,7 +3945,7 @@
         <v>384</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="25"/>
@@ -3896,21 +3956,21 @@
       </c>
       <c r="P3" s="17">
         <f>COUNTA(L:L)-1</f>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="27">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="45"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -3922,7 +3982,7 @@
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="25"/>
@@ -3943,21 +4003,21 @@
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="45"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="2"/>
@@ -3966,13 +4026,13 @@
       </c>
       <c r="S5" s="27">
         <f>COUNTA(M:M)-1</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="45"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -3983,16 +4043,16 @@
         <v>389</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4027,7 +4087,7 @@
         <v>381</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="2"/>
@@ -4047,7 +4107,7 @@
         <v>384</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="2"/>
@@ -4064,7 +4124,7 @@
         <v>392</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="2"/>
@@ -4081,16 +4141,16 @@
         <v>395</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4108,7 +4168,7 @@
       <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="19">
@@ -4122,25 +4182,25 @@
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K14" s="25"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
-      <c r="D15" s="43"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="19">
         <v>3</v>
       </c>
@@ -4154,14 +4214,14 @@
         <v>42</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="19">
         <v>5</v>
       </c>
@@ -4172,10 +4232,10 @@
         <v>38</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>12</v>
@@ -4196,7 +4256,7 @@
       <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="48" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="19">
@@ -4211,18 +4271,18 @@
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="32"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="19">
         <v>2</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="2"/>
@@ -4230,7 +4290,7 @@
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="19">
         <v>3</v>
       </c>
@@ -4244,7 +4304,7 @@
         <v>42</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="2"/>
@@ -4252,7 +4312,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="32"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="19">
         <v>4</v>
       </c>
@@ -4263,7 +4323,7 @@
         <v>37</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="2"/>
@@ -4271,7 +4331,7 @@
     <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="32"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="19">
         <v>5</v>
       </c>
@@ -4282,10 +4342,10 @@
         <v>38</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>12</v>
@@ -4306,24 +4366,24 @@
       <c r="C24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="48" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="19">
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K24" s="25"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
-      <c r="D25" s="43"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="19">
         <v>2</v>
       </c>
@@ -4334,14 +4394,14 @@
         <v>35</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="19">
         <v>3</v>
       </c>
@@ -4355,14 +4415,14 @@
         <v>42</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
-      <c r="D27" s="43"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="19">
         <v>4</v>
       </c>
@@ -4373,14 +4433,14 @@
         <v>48</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
-      <c r="D28" s="43"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="19">
         <v>5</v>
       </c>
@@ -4391,14 +4451,14 @@
         <v>50</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
-      <c r="D29" s="43"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="19">
         <v>6</v>
       </c>
@@ -4409,14 +4469,14 @@
         <v>52</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K29" s="25"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="19">
         <v>7</v>
       </c>
@@ -4427,10 +4487,10 @@
         <v>38</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>12</v>
@@ -4451,7 +4511,7 @@
       <c r="C32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="48" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="19">
@@ -4465,7 +4525,7 @@
     </row>
     <row r="33" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
-      <c r="D33" s="43"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4476,14 +4536,14 @@
         <v>35</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K33" s="25"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4497,14 +4557,14 @@
         <v>56</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K34" s="25"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
-      <c r="D35" s="43"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4515,14 +4575,14 @@
         <v>48</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K35" s="25"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -4533,14 +4593,14 @@
         <v>50</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K36" s="25"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
-      <c r="D37" s="43"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -4551,14 +4611,14 @@
         <v>52</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K37" s="25"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
-      <c r="D38" s="43"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -4569,14 +4629,14 @@
         <v>58</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K38" s="25"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
-      <c r="D39" s="43"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -4587,14 +4647,14 @@
         <v>52</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
-      <c r="D40" s="43"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -4605,10 +4665,10 @@
         <v>38</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>12</v>
@@ -4629,7 +4689,7 @@
       <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="48" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="19">
@@ -4643,7 +4703,7 @@
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
-      <c r="D43" s="43"/>
+      <c r="D43" s="48"/>
       <c r="E43" s="19">
         <v>2</v>
       </c>
@@ -4654,14 +4714,14 @@
         <v>61</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="19">
         <v>3</v>
       </c>
@@ -4672,14 +4732,14 @@
         <v>63</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="19">
         <v>4</v>
       </c>
@@ -4690,14 +4750,14 @@
         <v>65</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
-      <c r="D46" s="43"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4711,19 +4771,19 @@
         <v>69</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
-      <c r="D47" s="43"/>
+      <c r="D47" s="48"/>
       <c r="E47" s="19">
         <v>6</v>
       </c>
@@ -4741,7 +4801,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
-      <c r="D48" s="43"/>
+      <c r="D48" s="48"/>
       <c r="E48" s="19">
         <v>7</v>
       </c>
@@ -4756,7 +4816,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
-      <c r="D49" s="43"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="19">
         <v>8</v>
       </c>
@@ -4771,7 +4831,7 @@
     </row>
     <row r="50" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="19">
         <v>9</v>
       </c>
@@ -4782,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L50" s="2"/>
     </row>
@@ -4801,7 +4861,7 @@
       <c r="C52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="48" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="19">
@@ -4815,7 +4875,7 @@
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
-      <c r="D53" s="43"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -4826,14 +4886,14 @@
         <v>61</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32"/>
-      <c r="D54" s="43"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="19">
         <v>3</v>
       </c>
@@ -4844,14 +4904,14 @@
         <v>63</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K54" s="25"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
-      <c r="D55" s="43"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="19">
         <v>4</v>
       </c>
@@ -4862,14 +4922,14 @@
         <v>65</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="32"/>
-      <c r="D56" s="43"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="19">
         <v>5</v>
       </c>
@@ -4883,14 +4943,14 @@
         <v>69</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K56" s="25"/>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="32"/>
-      <c r="D57" s="43"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="19">
         <v>6</v>
       </c>
@@ -4904,10 +4964,10 @@
         <v>71</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K57" s="25"/>
       <c r="L57" s="2" t="s">
@@ -4916,7 +4976,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="32"/>
-      <c r="D58" s="43"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="19">
         <v>7</v>
       </c>
@@ -4931,7 +4991,7 @@
     </row>
     <row r="59" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="32"/>
-      <c r="D59" s="43"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -4946,7 +5006,7 @@
     </row>
     <row r="60" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="32"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="19">
         <v>9</v>
       </c>
@@ -4961,7 +5021,7 @@
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
-      <c r="D61" s="43"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="19">
         <v>10</v>
       </c>
@@ -4972,7 +5032,7 @@
         <v>92</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L61" s="2"/>
     </row>
@@ -4991,7 +5051,7 @@
       <c r="C63" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="48" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="19">
@@ -5005,7 +5065,7 @@
     </row>
     <row r="64" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="32"/>
-      <c r="D64" s="43"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="19">
         <v>2</v>
       </c>
@@ -5016,14 +5076,14 @@
         <v>61</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K64" s="25"/>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
-      <c r="D65" s="43"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="19">
         <v>3</v>
       </c>
@@ -5034,14 +5094,14 @@
         <v>63</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K65" s="25"/>
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
-      <c r="D66" s="43"/>
+      <c r="D66" s="48"/>
       <c r="E66" s="19">
         <v>4</v>
       </c>
@@ -5052,14 +5112,14 @@
         <v>82</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K66" s="25"/>
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="32"/>
-      <c r="D67" s="43"/>
+      <c r="D67" s="48"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -5070,10 +5130,10 @@
         <v>85</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>12</v>
@@ -5094,7 +5154,7 @@
       <c r="C69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="48" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="19">
@@ -5108,7 +5168,7 @@
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="32"/>
-      <c r="D70" s="43"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="19">
         <v>2</v>
       </c>
@@ -5119,14 +5179,14 @@
         <v>61</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K70" s="25"/>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="32"/>
-      <c r="D71" s="43"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="19">
         <v>3</v>
       </c>
@@ -5137,14 +5197,14 @@
         <v>63</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K71" s="25"/>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="32"/>
-      <c r="D72" s="43"/>
+      <c r="D72" s="48"/>
       <c r="E72" s="19">
         <v>4</v>
       </c>
@@ -5155,14 +5215,14 @@
         <v>82</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K72" s="25"/>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32"/>
-      <c r="D73" s="43"/>
+      <c r="D73" s="48"/>
       <c r="E73" s="19">
         <v>5</v>
       </c>
@@ -5173,14 +5233,14 @@
         <v>85</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K73" s="25"/>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
-      <c r="D74" s="43"/>
+      <c r="D74" s="48"/>
       <c r="E74" s="19">
         <v>6</v>
       </c>
@@ -5191,10 +5251,10 @@
         <v>91</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>12</v>
@@ -5213,7 +5273,7 @@
       <c r="C76" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="48" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="19">
@@ -5227,7 +5287,7 @@
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="32"/>
-      <c r="D77" s="43"/>
+      <c r="D77" s="48"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -5238,14 +5298,14 @@
         <v>61</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K77" s="25"/>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32"/>
-      <c r="D78" s="43"/>
+      <c r="D78" s="48"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -5256,14 +5316,14 @@
         <v>63</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K78" s="25"/>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="32"/>
-      <c r="D79" s="43"/>
+      <c r="D79" s="48"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -5274,10 +5334,10 @@
         <v>98</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>12</v>
@@ -5298,7 +5358,7 @@
       <c r="C81" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="43" t="s">
+      <c r="D81" s="48" t="s">
         <v>97</v>
       </c>
       <c r="E81" s="19">
@@ -5312,7 +5372,7 @@
     </row>
     <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
-      <c r="D82" s="43"/>
+      <c r="D82" s="48"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
@@ -5323,14 +5383,14 @@
         <v>61</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K82" s="25"/>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
-      <c r="D83" s="43"/>
+      <c r="D83" s="48"/>
       <c r="E83" s="19">
         <v>3</v>
       </c>
@@ -5341,14 +5401,14 @@
         <v>63</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K83" s="25"/>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
-      <c r="D84" s="43"/>
+      <c r="D84" s="48"/>
       <c r="E84" s="19">
         <v>4</v>
       </c>
@@ -5359,10 +5419,10 @@
         <v>99</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>12</v>
@@ -5384,7 +5444,7 @@
       <c r="C86" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="43" t="s">
+      <c r="D86" s="48" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="19">
@@ -5398,7 +5458,7 @@
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
-      <c r="D87" s="43"/>
+      <c r="D87" s="48"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -5413,7 +5473,7 @@
     </row>
     <row r="88" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
-      <c r="D88" s="43"/>
+      <c r="D88" s="48"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -5428,7 +5488,7 @@
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
-      <c r="D89" s="43"/>
+      <c r="D89" s="48"/>
       <c r="E89" s="19">
         <v>4</v>
       </c>
@@ -5443,7 +5503,7 @@
     </row>
     <row r="90" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
-      <c r="D90" s="43"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="19">
         <v>5</v>
       </c>
@@ -5461,7 +5521,7 @@
     </row>
     <row r="91" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="32"/>
-      <c r="D91" s="43"/>
+      <c r="D91" s="48"/>
       <c r="E91" s="19">
         <v>6</v>
       </c>
@@ -5479,7 +5539,7 @@
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
-      <c r="D92" s="43"/>
+      <c r="D92" s="48"/>
       <c r="E92" s="19">
         <v>7</v>
       </c>
@@ -5507,7 +5567,7 @@
       <c r="C94" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="48" t="s">
         <v>111</v>
       </c>
       <c r="E94" s="19">
@@ -5521,7 +5581,7 @@
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
-      <c r="D95" s="43"/>
+      <c r="D95" s="48"/>
       <c r="E95" s="19">
         <v>2</v>
       </c>
@@ -5536,7 +5596,7 @@
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
-      <c r="D96" s="43"/>
+      <c r="D96" s="48"/>
       <c r="E96" s="19">
         <v>3</v>
       </c>
@@ -5551,7 +5611,7 @@
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
-      <c r="D97" s="43"/>
+      <c r="D97" s="48"/>
       <c r="E97" s="19">
         <v>4</v>
       </c>
@@ -5566,7 +5626,7 @@
     </row>
     <row r="98" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
-      <c r="D98" s="43"/>
+      <c r="D98" s="48"/>
       <c r="E98" s="19">
         <v>5</v>
       </c>
@@ -5584,7 +5644,7 @@
     </row>
     <row r="99" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
-      <c r="D99" s="43"/>
+      <c r="D99" s="48"/>
       <c r="E99" s="19">
         <v>6</v>
       </c>
@@ -5602,7 +5662,7 @@
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
-      <c r="D100" s="43"/>
+      <c r="D100" s="48"/>
       <c r="E100" s="19">
         <v>7</v>
       </c>
@@ -5617,7 +5677,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
-      <c r="D101" s="43"/>
+      <c r="D101" s="48"/>
       <c r="E101" s="19">
         <v>8</v>
       </c>
@@ -5645,7 +5705,7 @@
       <c r="C103" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="48" t="s">
         <v>111</v>
       </c>
       <c r="E103" s="19">
@@ -5659,7 +5719,7 @@
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="32"/>
-      <c r="D104" s="43"/>
+      <c r="D104" s="48"/>
       <c r="E104" s="19">
         <v>2</v>
       </c>
@@ -5674,7 +5734,7 @@
     </row>
     <row r="105" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
-      <c r="D105" s="43"/>
+      <c r="D105" s="48"/>
       <c r="E105" s="19">
         <v>3</v>
       </c>
@@ -5689,7 +5749,7 @@
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
-      <c r="D106" s="43"/>
+      <c r="D106" s="48"/>
       <c r="E106" s="19">
         <v>4</v>
       </c>
@@ -5704,7 +5764,7 @@
     </row>
     <row r="107" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
-      <c r="D107" s="43"/>
+      <c r="D107" s="48"/>
       <c r="E107" s="19">
         <v>5</v>
       </c>
@@ -5722,7 +5782,7 @@
     </row>
     <row r="108" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="D108" s="43"/>
+      <c r="D108" s="48"/>
       <c r="E108" s="19">
         <v>6</v>
       </c>
@@ -5740,7 +5800,7 @@
     </row>
     <row r="109" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-      <c r="D109" s="43"/>
+      <c r="D109" s="48"/>
       <c r="E109" s="19">
         <v>7</v>
       </c>
@@ -5755,7 +5815,7 @@
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
-      <c r="D110" s="43"/>
+      <c r="D110" s="48"/>
       <c r="E110" s="19">
         <v>8</v>
       </c>
@@ -5783,7 +5843,7 @@
       <c r="C112" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="43" t="s">
+      <c r="D112" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E112" s="19">
@@ -5797,7 +5857,7 @@
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="32"/>
-      <c r="D113" s="43"/>
+      <c r="D113" s="48"/>
       <c r="E113" s="19">
         <v>2</v>
       </c>
@@ -5812,7 +5872,7 @@
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
-      <c r="D114" s="43"/>
+      <c r="D114" s="48"/>
       <c r="E114" s="19">
         <v>3</v>
       </c>
@@ -5827,7 +5887,7 @@
     </row>
     <row r="115" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
-      <c r="D115" s="43"/>
+      <c r="D115" s="48"/>
       <c r="E115" s="19">
         <v>4</v>
       </c>
@@ -5842,7 +5902,7 @@
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
-      <c r="D116" s="43"/>
+      <c r="D116" s="48"/>
       <c r="E116" s="19">
         <v>5</v>
       </c>
@@ -5857,7 +5917,7 @@
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
-      <c r="D117" s="43"/>
+      <c r="D117" s="48"/>
       <c r="E117" s="19">
         <v>6</v>
       </c>
@@ -5885,7 +5945,7 @@
       <c r="C119" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="43" t="s">
+      <c r="D119" s="48" t="s">
         <v>119</v>
       </c>
       <c r="E119" s="19">
@@ -5899,7 +5959,7 @@
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
-      <c r="D120" s="43"/>
+      <c r="D120" s="48"/>
       <c r="E120" s="19">
         <v>2</v>
       </c>
@@ -5914,7 +5974,7 @@
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="32"/>
-      <c r="D121" s="43"/>
+      <c r="D121" s="48"/>
       <c r="E121" s="19">
         <v>3</v>
       </c>
@@ -5929,7 +5989,7 @@
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
-      <c r="D122" s="43"/>
+      <c r="D122" s="48"/>
       <c r="E122" s="19">
         <v>4</v>
       </c>
@@ -5944,7 +6004,7 @@
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
-      <c r="D123" s="43"/>
+      <c r="D123" s="48"/>
       <c r="E123" s="19">
         <v>5</v>
       </c>
@@ -5959,7 +6019,7 @@
     </row>
     <row r="124" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
-      <c r="D124" s="43"/>
+      <c r="D124" s="48"/>
       <c r="E124" s="19">
         <v>6</v>
       </c>
@@ -5974,7 +6034,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
-      <c r="D125" s="43"/>
+      <c r="D125" s="48"/>
       <c r="E125" s="19">
         <v>7</v>
       </c>
@@ -6002,7 +6062,7 @@
       <c r="C127" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="43" t="s">
+      <c r="D127" s="48" t="s">
         <v>119</v>
       </c>
       <c r="E127" s="19">
@@ -6016,7 +6076,7 @@
     </row>
     <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="32"/>
-      <c r="D128" s="43"/>
+      <c r="D128" s="48"/>
       <c r="E128" s="19">
         <v>2</v>
       </c>
@@ -6031,7 +6091,7 @@
     </row>
     <row r="129" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="32"/>
-      <c r="D129" s="43"/>
+      <c r="D129" s="48"/>
       <c r="E129" s="19">
         <v>3</v>
       </c>
@@ -6046,7 +6106,7 @@
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="32"/>
-      <c r="D130" s="43"/>
+      <c r="D130" s="48"/>
       <c r="E130" s="19">
         <v>4</v>
       </c>
@@ -6061,7 +6121,7 @@
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="32"/>
-      <c r="D131" s="43"/>
+      <c r="D131" s="48"/>
       <c r="E131" s="19">
         <v>5</v>
       </c>
@@ -6076,7 +6136,7 @@
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="32"/>
-      <c r="D132" s="43"/>
+      <c r="D132" s="48"/>
       <c r="E132" s="19">
         <v>6</v>
       </c>
@@ -6091,7 +6151,7 @@
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="32"/>
-      <c r="D133" s="43"/>
+      <c r="D133" s="48"/>
       <c r="E133" s="19">
         <v>7</v>
       </c>
@@ -6119,7 +6179,7 @@
       <c r="C135" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="43" t="s">
+      <c r="D135" s="48" t="s">
         <v>129</v>
       </c>
       <c r="E135" s="19">
@@ -6133,7 +6193,7 @@
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="32"/>
-      <c r="D136" s="43"/>
+      <c r="D136" s="48"/>
       <c r="E136" s="19">
         <v>2</v>
       </c>
@@ -6148,7 +6208,7 @@
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="32"/>
-      <c r="D137" s="43"/>
+      <c r="D137" s="48"/>
       <c r="E137" s="19">
         <v>3</v>
       </c>
@@ -6163,7 +6223,7 @@
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="32"/>
-      <c r="D138" s="43"/>
+      <c r="D138" s="48"/>
       <c r="E138" s="19">
         <v>4</v>
       </c>
@@ -6178,7 +6238,7 @@
     </row>
     <row r="139" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" s="32"/>
-      <c r="D139" s="43"/>
+      <c r="D139" s="48"/>
       <c r="E139" s="19">
         <v>5</v>
       </c>
@@ -6196,7 +6256,7 @@
     </row>
     <row r="140" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B140" s="32"/>
-      <c r="D140" s="43"/>
+      <c r="D140" s="48"/>
       <c r="E140" s="19">
         <v>6</v>
       </c>
@@ -6214,7 +6274,7 @@
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="32"/>
-      <c r="D141" s="43"/>
+      <c r="D141" s="48"/>
       <c r="E141" s="19">
         <v>7</v>
       </c>
@@ -6232,7 +6292,7 @@
     </row>
     <row r="142" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B142" s="32"/>
-      <c r="D142" s="43"/>
+      <c r="D142" s="48"/>
       <c r="E142" s="19">
         <v>8</v>
       </c>
@@ -6250,7 +6310,7 @@
     </row>
     <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="32"/>
-      <c r="D143" s="43"/>
+      <c r="D143" s="48"/>
       <c r="E143" s="19">
         <v>9</v>
       </c>
@@ -6268,7 +6328,7 @@
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="32"/>
-      <c r="D144" s="43"/>
+      <c r="D144" s="48"/>
       <c r="E144" s="19">
         <v>10</v>
       </c>
@@ -6296,7 +6356,7 @@
       <c r="C146" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="43" t="s">
+      <c r="D146" s="48" t="s">
         <v>133</v>
       </c>
       <c r="E146" s="19">
@@ -6310,7 +6370,7 @@
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="32"/>
-      <c r="D147" s="43"/>
+      <c r="D147" s="48"/>
       <c r="E147" s="19">
         <v>2</v>
       </c>
@@ -6325,7 +6385,7 @@
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="32"/>
-      <c r="D148" s="43"/>
+      <c r="D148" s="48"/>
       <c r="E148" s="19">
         <v>3</v>
       </c>
@@ -6340,7 +6400,7 @@
     </row>
     <row r="149" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="32"/>
-      <c r="D149" s="43"/>
+      <c r="D149" s="48"/>
       <c r="E149" s="19">
         <v>4</v>
       </c>
@@ -6355,7 +6415,7 @@
     </row>
     <row r="150" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="32"/>
-      <c r="D150" s="43"/>
+      <c r="D150" s="48"/>
       <c r="E150" s="19">
         <v>5</v>
       </c>
@@ -6373,7 +6433,7 @@
     </row>
     <row r="151" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="32"/>
-      <c r="D151" s="43"/>
+      <c r="D151" s="48"/>
       <c r="E151" s="19">
         <v>6</v>
       </c>
@@ -6391,7 +6451,7 @@
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="32"/>
-      <c r="D152" s="43"/>
+      <c r="D152" s="48"/>
       <c r="E152" s="19">
         <v>7</v>
       </c>
@@ -6409,7 +6469,7 @@
     </row>
     <row r="153" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="32"/>
-      <c r="D153" s="43"/>
+      <c r="D153" s="48"/>
       <c r="E153" s="19">
         <v>8</v>
       </c>
@@ -6427,7 +6487,7 @@
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="32"/>
-      <c r="D154" s="43"/>
+      <c r="D154" s="48"/>
       <c r="E154" s="19">
         <v>9</v>
       </c>
@@ -6445,7 +6505,7 @@
     </row>
     <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="32"/>
-      <c r="D155" s="43"/>
+      <c r="D155" s="48"/>
       <c r="E155" s="19">
         <v>10</v>
       </c>
@@ -6460,7 +6520,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B156" s="32"/>
-      <c r="D156" s="43"/>
+      <c r="D156" s="48"/>
       <c r="E156" s="19">
         <v>11</v>
       </c>
@@ -6490,7 +6550,7 @@
       <c r="C158" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="43" t="s">
+      <c r="D158" s="48" t="s">
         <v>150</v>
       </c>
       <c r="E158" s="19">
@@ -6504,7 +6564,7 @@
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="32"/>
-      <c r="D159" s="43"/>
+      <c r="D159" s="48"/>
       <c r="E159" s="19">
         <v>2</v>
       </c>
@@ -6519,7 +6579,7 @@
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="32"/>
-      <c r="D160" s="43"/>
+      <c r="D160" s="48"/>
       <c r="E160" s="19">
         <v>3</v>
       </c>
@@ -6534,7 +6594,7 @@
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="32"/>
-      <c r="D161" s="43"/>
+      <c r="D161" s="48"/>
       <c r="E161" s="19">
         <v>4</v>
       </c>
@@ -6549,7 +6609,7 @@
     </row>
     <row r="162" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" s="32"/>
-      <c r="D162" s="43"/>
+      <c r="D162" s="48"/>
       <c r="E162" s="19">
         <v>5</v>
       </c>
@@ -6567,7 +6627,7 @@
     </row>
     <row r="163" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B163" s="32"/>
-      <c r="D163" s="43"/>
+      <c r="D163" s="48"/>
       <c r="E163" s="19">
         <v>6</v>
       </c>
@@ -6585,7 +6645,7 @@
     </row>
     <row r="164" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="32"/>
-      <c r="D164" s="43"/>
+      <c r="D164" s="48"/>
       <c r="E164" s="19">
         <v>7</v>
       </c>
@@ -6605,7 +6665,7 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="43"/>
+      <c r="D165" s="48"/>
       <c r="E165" s="19">
         <v>8</v>
       </c>
@@ -6625,7 +6685,7 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="43"/>
+      <c r="D166" s="48"/>
       <c r="E166" s="19">
         <v>9</v>
       </c>
@@ -6645,7 +6705,7 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="43"/>
+      <c r="D167" s="48"/>
       <c r="E167" s="19">
         <v>10</v>
       </c>
@@ -6662,7 +6722,7 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="43"/>
+      <c r="D168" s="48"/>
       <c r="E168" s="19">
         <v>11</v>
       </c>
@@ -6692,7 +6752,7 @@
       <c r="C170" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="43" t="s">
+      <c r="D170" s="48" t="s">
         <v>195</v>
       </c>
       <c r="E170" s="19">
@@ -6706,7 +6766,7 @@
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="32"/>
-      <c r="D171" s="43"/>
+      <c r="D171" s="48"/>
       <c r="E171" s="19">
         <v>2</v>
       </c>
@@ -6721,7 +6781,7 @@
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="32"/>
-      <c r="D172" s="43"/>
+      <c r="D172" s="48"/>
       <c r="E172" s="19">
         <v>3</v>
       </c>
@@ -6736,7 +6796,7 @@
     </row>
     <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="32"/>
-      <c r="D173" s="43"/>
+      <c r="D173" s="48"/>
       <c r="E173" s="19">
         <v>4</v>
       </c>
@@ -6751,7 +6811,7 @@
     </row>
     <row r="174" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B174" s="32"/>
-      <c r="D174" s="43"/>
+      <c r="D174" s="48"/>
       <c r="E174" s="19">
         <v>5</v>
       </c>
@@ -6769,7 +6829,7 @@
     </row>
     <row r="175" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B175" s="32"/>
-      <c r="D175" s="43"/>
+      <c r="D175" s="48"/>
       <c r="E175" s="19">
         <v>6</v>
       </c>
@@ -6787,7 +6847,7 @@
     </row>
     <row r="176" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="32"/>
-      <c r="D176" s="43"/>
+      <c r="D176" s="48"/>
       <c r="E176" s="19">
         <v>7</v>
       </c>
@@ -6805,7 +6865,7 @@
     </row>
     <row r="177" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="32"/>
-      <c r="D177" s="43"/>
+      <c r="D177" s="48"/>
       <c r="E177" s="19">
         <v>8</v>
       </c>
@@ -6823,7 +6883,7 @@
     </row>
     <row r="178" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="32"/>
-      <c r="D178" s="43"/>
+      <c r="D178" s="48"/>
       <c r="E178" s="19">
         <v>9</v>
       </c>
@@ -6841,7 +6901,7 @@
     </row>
     <row r="179" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="32"/>
-      <c r="D179" s="43"/>
+      <c r="D179" s="48"/>
       <c r="E179" s="19">
         <v>10</v>
       </c>
@@ -6856,7 +6916,7 @@
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="32"/>
-      <c r="D180" s="43"/>
+      <c r="D180" s="48"/>
       <c r="E180" s="19">
         <v>11</v>
       </c>
@@ -6884,7 +6944,7 @@
       <c r="C182" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="43" t="s">
+      <c r="D182" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E182" s="19">
@@ -6898,7 +6958,7 @@
     </row>
     <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="32"/>
-      <c r="D183" s="43"/>
+      <c r="D183" s="48"/>
       <c r="E183" s="19">
         <v>2</v>
       </c>
@@ -6913,7 +6973,7 @@
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="32"/>
-      <c r="D184" s="43"/>
+      <c r="D184" s="48"/>
       <c r="E184" s="19">
         <v>3</v>
       </c>
@@ -6928,7 +6988,7 @@
     </row>
     <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="32"/>
-      <c r="D185" s="43"/>
+      <c r="D185" s="48"/>
       <c r="E185" s="19">
         <v>4</v>
       </c>
@@ -6943,7 +7003,7 @@
     </row>
     <row r="186" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B186" s="32"/>
-      <c r="D186" s="43"/>
+      <c r="D186" s="48"/>
       <c r="E186" s="19">
         <v>5</v>
       </c>
@@ -6961,7 +7021,7 @@
     </row>
     <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="32"/>
-      <c r="D187" s="43"/>
+      <c r="D187" s="48"/>
       <c r="E187" s="19">
         <v>6</v>
       </c>
@@ -6979,7 +7039,7 @@
     </row>
     <row r="188" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B188" s="32"/>
-      <c r="D188" s="43"/>
+      <c r="D188" s="48"/>
       <c r="E188" s="19">
         <v>7</v>
       </c>
@@ -6997,7 +7057,7 @@
     </row>
     <row r="189" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="32"/>
-      <c r="D189" s="43"/>
+      <c r="D189" s="48"/>
       <c r="E189" s="19">
         <v>8</v>
       </c>
@@ -7015,7 +7075,7 @@
     </row>
     <row r="190" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="32"/>
-      <c r="D190" s="43"/>
+      <c r="D190" s="48"/>
       <c r="E190" s="19">
         <v>9</v>
       </c>
@@ -7033,7 +7093,7 @@
     </row>
     <row r="191" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B191" s="32"/>
-      <c r="D191" s="43"/>
+      <c r="D191" s="48"/>
       <c r="E191" s="19">
         <v>10</v>
       </c>
@@ -7048,7 +7108,7 @@
     </row>
     <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="32"/>
-      <c r="D192" s="43"/>
+      <c r="D192" s="48"/>
       <c r="E192" s="19">
         <v>11</v>
       </c>
@@ -7063,7 +7123,7 @@
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="32"/>
-      <c r="D193" s="43"/>
+      <c r="D193" s="48"/>
       <c r="E193" s="19">
         <v>11</v>
       </c>
@@ -7093,7 +7153,7 @@
       <c r="C195" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="43" t="s">
+      <c r="D195" s="48" t="s">
         <v>199</v>
       </c>
       <c r="E195" s="19">
@@ -7107,7 +7167,7 @@
     </row>
     <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="32"/>
-      <c r="D196" s="43"/>
+      <c r="D196" s="48"/>
       <c r="E196" s="19">
         <v>2</v>
       </c>
@@ -7122,7 +7182,7 @@
     </row>
     <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="32"/>
-      <c r="D197" s="43"/>
+      <c r="D197" s="48"/>
       <c r="E197" s="19">
         <v>3</v>
       </c>
@@ -7137,7 +7197,7 @@
     </row>
     <row r="198" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="32"/>
-      <c r="D198" s="43"/>
+      <c r="D198" s="48"/>
       <c r="E198" s="19">
         <v>4</v>
       </c>
@@ -7152,7 +7212,7 @@
     </row>
     <row r="199" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B199" s="32"/>
-      <c r="D199" s="43"/>
+      <c r="D199" s="48"/>
       <c r="E199" s="19">
         <v>5</v>
       </c>
@@ -7170,7 +7230,7 @@
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="32"/>
-      <c r="D200" s="43"/>
+      <c r="D200" s="48"/>
       <c r="E200" s="19">
         <v>6</v>
       </c>
@@ -7188,7 +7248,7 @@
     </row>
     <row r="201" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B201" s="32"/>
-      <c r="D201" s="43"/>
+      <c r="D201" s="48"/>
       <c r="E201" s="19">
         <v>7</v>
       </c>
@@ -7208,7 +7268,7 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="43"/>
+      <c r="D202" s="48"/>
       <c r="E202" s="19">
         <v>8</v>
       </c>
@@ -7228,7 +7288,7 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="43"/>
+      <c r="D203" s="48"/>
       <c r="E203" s="19">
         <v>9</v>
       </c>
@@ -7248,7 +7308,7 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="43"/>
+      <c r="D204" s="48"/>
       <c r="E204" s="19">
         <v>10</v>
       </c>
@@ -7265,7 +7325,7 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="43"/>
+      <c r="D205" s="48"/>
       <c r="E205" s="19">
         <v>11</v>
       </c>
@@ -7282,7 +7342,7 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="43"/>
+      <c r="D206" s="48"/>
       <c r="E206" s="19">
         <v>12</v>
       </c>
@@ -7312,7 +7372,7 @@
       <c r="C208" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D208" s="43" t="s">
+      <c r="D208" s="48" t="s">
         <v>201</v>
       </c>
       <c r="E208" s="19">
@@ -7326,7 +7386,7 @@
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="32"/>
-      <c r="D209" s="43"/>
+      <c r="D209" s="48"/>
       <c r="E209" s="19">
         <v>2</v>
       </c>
@@ -7341,7 +7401,7 @@
     </row>
     <row r="210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="32"/>
-      <c r="D210" s="43"/>
+      <c r="D210" s="48"/>
       <c r="E210" s="19">
         <v>3</v>
       </c>
@@ -7356,7 +7416,7 @@
     </row>
     <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="32"/>
-      <c r="D211" s="43"/>
+      <c r="D211" s="48"/>
       <c r="E211" s="19">
         <v>4</v>
       </c>
@@ -7371,7 +7431,7 @@
     </row>
     <row r="212" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B212" s="32"/>
-      <c r="D212" s="43"/>
+      <c r="D212" s="48"/>
       <c r="E212" s="19">
         <v>5</v>
       </c>
@@ -7389,7 +7449,7 @@
     </row>
     <row r="213" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B213" s="32"/>
-      <c r="D213" s="43"/>
+      <c r="D213" s="48"/>
       <c r="E213" s="19">
         <v>6</v>
       </c>
@@ -7407,7 +7467,7 @@
     </row>
     <row r="214" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="32"/>
-      <c r="D214" s="43"/>
+      <c r="D214" s="48"/>
       <c r="E214" s="19">
         <v>7</v>
       </c>
@@ -7422,7 +7482,7 @@
     </row>
     <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="32"/>
-      <c r="D215" s="43"/>
+      <c r="D215" s="48"/>
       <c r="E215" s="19">
         <v>8</v>
       </c>
@@ -7437,7 +7497,7 @@
     </row>
     <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="32"/>
-      <c r="D216" s="43"/>
+      <c r="D216" s="48"/>
       <c r="E216" s="19">
         <v>9</v>
       </c>
@@ -7465,7 +7525,7 @@
       <c r="C218" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D218" s="43" t="s">
+      <c r="D218" s="48" t="s">
         <v>204</v>
       </c>
       <c r="E218" s="19">
@@ -7479,7 +7539,7 @@
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="32"/>
-      <c r="D219" s="43"/>
+      <c r="D219" s="48"/>
       <c r="E219" s="19">
         <v>2</v>
       </c>
@@ -7494,7 +7554,7 @@
     </row>
     <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="32"/>
-      <c r="D220" s="43"/>
+      <c r="D220" s="48"/>
       <c r="E220" s="19">
         <v>3</v>
       </c>
@@ -7509,7 +7569,7 @@
     </row>
     <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="32"/>
-      <c r="D221" s="43"/>
+      <c r="D221" s="48"/>
       <c r="E221" s="19">
         <v>4</v>
       </c>
@@ -7524,7 +7584,7 @@
     </row>
     <row r="222" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" s="32"/>
-      <c r="D222" s="43"/>
+      <c r="D222" s="48"/>
       <c r="E222" s="19">
         <v>5</v>
       </c>
@@ -7542,7 +7602,7 @@
     </row>
     <row r="223" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="32"/>
-      <c r="D223" s="43"/>
+      <c r="D223" s="48"/>
       <c r="E223" s="19">
         <v>6</v>
       </c>
@@ -7560,7 +7620,7 @@
     </row>
     <row r="224" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="32"/>
-      <c r="D224" s="43"/>
+      <c r="D224" s="48"/>
       <c r="E224" s="19">
         <v>7</v>
       </c>
@@ -7575,7 +7635,7 @@
     </row>
     <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="32"/>
-      <c r="D225" s="43"/>
+      <c r="D225" s="48"/>
       <c r="E225" s="19">
         <v>8</v>
       </c>
@@ -7590,7 +7650,7 @@
     </row>
     <row r="226" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="32"/>
-      <c r="D226" s="43"/>
+      <c r="D226" s="48"/>
       <c r="E226" s="19">
         <v>9</v>
       </c>
@@ -7605,7 +7665,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B227" s="32"/>
-      <c r="D227" s="43"/>
+      <c r="D227" s="48"/>
       <c r="E227" s="19">
         <v>10</v>
       </c>
@@ -7635,7 +7695,7 @@
       <c r="C229" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D229" s="43" t="s">
+      <c r="D229" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E229" s="19">
@@ -7649,7 +7709,7 @@
     </row>
     <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="32"/>
-      <c r="D230" s="43"/>
+      <c r="D230" s="48"/>
       <c r="E230" s="19">
         <v>2</v>
       </c>
@@ -7664,7 +7724,7 @@
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="32"/>
-      <c r="D231" s="43"/>
+      <c r="D231" s="48"/>
       <c r="E231" s="19">
         <v>3</v>
       </c>
@@ -7679,7 +7739,7 @@
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="32"/>
-      <c r="D232" s="43"/>
+      <c r="D232" s="48"/>
       <c r="E232" s="19">
         <v>4</v>
       </c>
@@ -7694,7 +7754,7 @@
     </row>
     <row r="233" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B233" s="32"/>
-      <c r="D233" s="43"/>
+      <c r="D233" s="48"/>
       <c r="E233" s="19">
         <v>5</v>
       </c>
@@ -7712,7 +7772,7 @@
     </row>
     <row r="234" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B234" s="32"/>
-      <c r="D234" s="43"/>
+      <c r="D234" s="48"/>
       <c r="E234" s="19">
         <v>6</v>
       </c>
@@ -7730,7 +7790,7 @@
     </row>
     <row r="235" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B235" s="32"/>
-      <c r="D235" s="43"/>
+      <c r="D235" s="48"/>
       <c r="E235" s="19">
         <v>7</v>
       </c>
@@ -7747,7 +7807,7 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="43"/>
+      <c r="D236" s="48"/>
       <c r="E236" s="19">
         <v>8</v>
       </c>
@@ -7764,7 +7824,7 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="43"/>
+      <c r="D237" s="48"/>
       <c r="E237" s="19">
         <v>9</v>
       </c>
@@ -7781,7 +7841,7 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="43"/>
+      <c r="D238" s="48"/>
       <c r="E238" s="19">
         <v>10</v>
       </c>
@@ -7811,7 +7871,7 @@
       <c r="C240" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D240" s="43" t="s">
+      <c r="D240" s="48" t="s">
         <v>188</v>
       </c>
       <c r="E240" s="19">
@@ -7825,7 +7885,7 @@
     </row>
     <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="32"/>
-      <c r="D241" s="43"/>
+      <c r="D241" s="48"/>
       <c r="E241" s="19">
         <v>2</v>
       </c>
@@ -7840,7 +7900,7 @@
     </row>
     <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="32"/>
-      <c r="D242" s="43"/>
+      <c r="D242" s="48"/>
       <c r="E242" s="19">
         <v>3</v>
       </c>
@@ -7855,7 +7915,7 @@
     </row>
     <row r="243" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="32"/>
-      <c r="D243" s="43"/>
+      <c r="D243" s="48"/>
       <c r="E243" s="19">
         <v>4</v>
       </c>
@@ -7870,7 +7930,7 @@
     </row>
     <row r="244" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B244" s="32"/>
-      <c r="D244" s="43"/>
+      <c r="D244" s="48"/>
       <c r="E244" s="19">
         <v>5</v>
       </c>
@@ -7888,7 +7948,7 @@
     </row>
     <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="32"/>
-      <c r="D245" s="43"/>
+      <c r="D245" s="48"/>
       <c r="E245" s="19">
         <v>6</v>
       </c>
@@ -7916,7 +7976,7 @@
       <c r="C247" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D247" s="43" t="s">
+      <c r="D247" s="48" t="s">
         <v>192</v>
       </c>
       <c r="E247" s="19">
@@ -7930,7 +7990,7 @@
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="32"/>
-      <c r="D248" s="43"/>
+      <c r="D248" s="48"/>
       <c r="E248" s="19">
         <v>2</v>
       </c>
@@ -7945,7 +8005,7 @@
     </row>
     <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="32"/>
-      <c r="D249" s="43"/>
+      <c r="D249" s="48"/>
       <c r="E249" s="19">
         <v>3</v>
       </c>
@@ -7960,7 +8020,7 @@
     </row>
     <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="32"/>
-      <c r="D250" s="43"/>
+      <c r="D250" s="48"/>
       <c r="E250" s="19">
         <v>4</v>
       </c>
@@ -7975,7 +8035,7 @@
     </row>
     <row r="251" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B251" s="32"/>
-      <c r="D251" s="43"/>
+      <c r="D251" s="48"/>
       <c r="E251" s="19">
         <v>5</v>
       </c>
@@ -7993,7 +8053,7 @@
     </row>
     <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="32"/>
-      <c r="D252" s="43"/>
+      <c r="D252" s="48"/>
       <c r="E252" s="19">
         <v>6</v>
       </c>
@@ -8008,7 +8068,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B253" s="32"/>
-      <c r="D253" s="43"/>
+      <c r="D253" s="48"/>
       <c r="E253" s="19">
         <v>7</v>
       </c>
@@ -8038,7 +8098,7 @@
       <c r="C255" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D255" s="43" t="s">
+      <c r="D255" s="48" t="s">
         <v>193</v>
       </c>
       <c r="E255" s="19">
@@ -8052,7 +8112,7 @@
     </row>
     <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="32"/>
-      <c r="D256" s="43"/>
+      <c r="D256" s="48"/>
       <c r="E256" s="19">
         <v>2</v>
       </c>
@@ -8067,7 +8127,7 @@
     </row>
     <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="32"/>
-      <c r="D257" s="43"/>
+      <c r="D257" s="48"/>
       <c r="E257" s="19">
         <v>3</v>
       </c>
@@ -8082,7 +8142,7 @@
     </row>
     <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="32"/>
-      <c r="D258" s="43"/>
+      <c r="D258" s="48"/>
       <c r="E258" s="19">
         <v>4</v>
       </c>
@@ -8097,7 +8157,7 @@
     </row>
     <row r="259" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B259" s="32"/>
-      <c r="D259" s="43"/>
+      <c r="D259" s="48"/>
       <c r="E259" s="19">
         <v>5</v>
       </c>
@@ -8115,7 +8175,7 @@
     </row>
     <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B260" s="32"/>
-      <c r="D260" s="43"/>
+      <c r="D260" s="48"/>
       <c r="E260" s="19">
         <v>6</v>
       </c>
@@ -8132,7 +8192,7 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="43"/>
+      <c r="D261" s="48"/>
       <c r="E261" s="19">
         <v>7</v>
       </c>
@@ -8162,7 +8222,7 @@
       <c r="C263" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D263" s="43" t="s">
+      <c r="D263" s="48" t="s">
         <v>213</v>
       </c>
       <c r="E263" s="19">
@@ -8176,7 +8236,7 @@
     </row>
     <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="32"/>
-      <c r="D264" s="43"/>
+      <c r="D264" s="48"/>
       <c r="E264" s="19">
         <v>2</v>
       </c>
@@ -8191,7 +8251,7 @@
     </row>
     <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="32"/>
-      <c r="D265" s="43"/>
+      <c r="D265" s="48"/>
       <c r="E265" s="19">
         <v>3</v>
       </c>
@@ -8206,7 +8266,7 @@
     </row>
     <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="32"/>
-      <c r="D266" s="43"/>
+      <c r="D266" s="48"/>
       <c r="E266" s="19">
         <v>4</v>
       </c>
@@ -8221,7 +8281,7 @@
     </row>
     <row r="267" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B267" s="32"/>
-      <c r="D267" s="43"/>
+      <c r="D267" s="48"/>
       <c r="E267" s="19">
         <v>5</v>
       </c>
@@ -8239,7 +8299,7 @@
     </row>
     <row r="268" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B268" s="32"/>
-      <c r="D268" s="43"/>
+      <c r="D268" s="48"/>
       <c r="E268" s="19">
         <v>6</v>
       </c>
@@ -8254,7 +8314,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B269" s="32"/>
-      <c r="D269" s="43"/>
+      <c r="D269" s="48"/>
       <c r="E269" s="19">
         <v>7</v>
       </c>
@@ -8282,7 +8342,7 @@
       <c r="C271" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D271" s="43" t="s">
+      <c r="D271" s="48" t="s">
         <v>216</v>
       </c>
       <c r="E271" s="19">
@@ -8296,7 +8356,7 @@
     </row>
     <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="32"/>
-      <c r="D272" s="43"/>
+      <c r="D272" s="48"/>
       <c r="E272" s="19">
         <v>2</v>
       </c>
@@ -8311,7 +8371,7 @@
     </row>
     <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="32"/>
-      <c r="D273" s="43"/>
+      <c r="D273" s="48"/>
       <c r="E273" s="19">
         <v>3</v>
       </c>
@@ -8326,7 +8386,7 @@
     </row>
     <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="32"/>
-      <c r="D274" s="43"/>
+      <c r="D274" s="48"/>
       <c r="E274" s="19">
         <v>4</v>
       </c>
@@ -8341,7 +8401,7 @@
     </row>
     <row r="275" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B275" s="32"/>
-      <c r="D275" s="43"/>
+      <c r="D275" s="48"/>
       <c r="E275" s="19">
         <v>5</v>
       </c>
@@ -8359,7 +8419,7 @@
     </row>
     <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B276" s="32"/>
-      <c r="D276" s="43"/>
+      <c r="D276" s="48"/>
       <c r="E276" s="19">
         <v>6</v>
       </c>
@@ -8374,7 +8434,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B277" s="32"/>
-      <c r="D277" s="43"/>
+      <c r="D277" s="48"/>
       <c r="E277" s="19">
         <v>7</v>
       </c>
@@ -8389,7 +8449,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B278" s="32"/>
-      <c r="D278" s="43"/>
+      <c r="D278" s="48"/>
       <c r="E278" s="19">
         <v>8</v>
       </c>
@@ -8419,7 +8479,7 @@
       <c r="C280" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D280" s="43" t="s">
+      <c r="D280" s="48" t="s">
         <v>217</v>
       </c>
       <c r="E280" s="19">
@@ -8433,7 +8493,7 @@
     </row>
     <row r="281" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="32"/>
-      <c r="D281" s="43"/>
+      <c r="D281" s="48"/>
       <c r="E281" s="19">
         <v>2</v>
       </c>
@@ -8448,7 +8508,7 @@
     </row>
     <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="32"/>
-      <c r="D282" s="43"/>
+      <c r="D282" s="48"/>
       <c r="E282" s="19">
         <v>3</v>
       </c>
@@ -8463,7 +8523,7 @@
     </row>
     <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="32"/>
-      <c r="D283" s="43"/>
+      <c r="D283" s="48"/>
       <c r="E283" s="19">
         <v>4</v>
       </c>
@@ -8478,7 +8538,7 @@
     </row>
     <row r="284" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B284" s="32"/>
-      <c r="D284" s="43"/>
+      <c r="D284" s="48"/>
       <c r="E284" s="19">
         <v>5</v>
       </c>
@@ -8496,7 +8556,7 @@
     </row>
     <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="32"/>
-      <c r="D285" s="43"/>
+      <c r="D285" s="48"/>
       <c r="E285" s="19">
         <v>6</v>
       </c>
@@ -8511,7 +8571,7 @@
     </row>
     <row r="286" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="32"/>
-      <c r="D286" s="43"/>
+      <c r="D286" s="48"/>
       <c r="E286" s="19">
         <v>7</v>
       </c>
@@ -8528,7 +8588,7 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="43"/>
+      <c r="D287" s="48"/>
       <c r="E287" s="19">
         <v>8</v>
       </c>
@@ -8558,7 +8618,7 @@
       <c r="C289" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D289" s="43" t="s">
+      <c r="D289" s="48" t="s">
         <v>224</v>
       </c>
       <c r="E289" s="19">
@@ -8572,7 +8632,7 @@
     </row>
     <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="32"/>
-      <c r="D290" s="43"/>
+      <c r="D290" s="48"/>
       <c r="E290" s="19">
         <v>2</v>
       </c>
@@ -8587,7 +8647,7 @@
     </row>
     <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="32"/>
-      <c r="D291" s="43"/>
+      <c r="D291" s="48"/>
       <c r="E291" s="19">
         <v>3</v>
       </c>
@@ -8602,7 +8662,7 @@
     </row>
     <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="32"/>
-      <c r="D292" s="43"/>
+      <c r="D292" s="48"/>
       <c r="E292" s="19">
         <v>4</v>
       </c>
@@ -8617,7 +8677,7 @@
     </row>
     <row r="293" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B293" s="32"/>
-      <c r="D293" s="43"/>
+      <c r="D293" s="48"/>
       <c r="E293" s="19">
         <v>5</v>
       </c>
@@ -8632,7 +8692,7 @@
     </row>
     <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="32"/>
-      <c r="D294" s="43"/>
+      <c r="D294" s="48"/>
       <c r="E294" s="19">
         <v>6</v>
       </c>
@@ -8660,7 +8720,7 @@
       <c r="C296" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D296" s="43" t="s">
+      <c r="D296" s="48" t="s">
         <v>227</v>
       </c>
       <c r="E296" s="19">
@@ -8674,7 +8734,7 @@
     </row>
     <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B297" s="32"/>
-      <c r="D297" s="43"/>
+      <c r="D297" s="48"/>
       <c r="E297" s="19">
         <v>2</v>
       </c>
@@ -8689,7 +8749,7 @@
     </row>
     <row r="298" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="32"/>
-      <c r="D298" s="43"/>
+      <c r="D298" s="48"/>
       <c r="E298" s="19">
         <v>3</v>
       </c>
@@ -8704,7 +8764,7 @@
     </row>
     <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="32"/>
-      <c r="D299" s="43"/>
+      <c r="D299" s="48"/>
       <c r="E299" s="19">
         <v>4</v>
       </c>
@@ -8719,7 +8779,7 @@
     </row>
     <row r="300" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B300" s="32"/>
-      <c r="D300" s="43"/>
+      <c r="D300" s="48"/>
       <c r="E300" s="19">
         <v>5</v>
       </c>
@@ -8734,7 +8794,7 @@
     </row>
     <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="32"/>
-      <c r="D301" s="43"/>
+      <c r="D301" s="48"/>
       <c r="E301" s="19">
         <v>6</v>
       </c>
@@ -8749,7 +8809,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B302" s="32"/>
-      <c r="D302" s="43"/>
+      <c r="D302" s="48"/>
       <c r="E302" s="19">
         <v>7</v>
       </c>
@@ -8779,7 +8839,7 @@
       <c r="C304" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="43" t="s">
+      <c r="D304" s="48" t="s">
         <v>228</v>
       </c>
       <c r="E304" s="19">
@@ -8793,7 +8853,7 @@
     </row>
     <row r="305" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="32"/>
-      <c r="D305" s="43"/>
+      <c r="D305" s="48"/>
       <c r="E305" s="19">
         <v>2</v>
       </c>
@@ -8808,7 +8868,7 @@
     </row>
     <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="32"/>
-      <c r="D306" s="43"/>
+      <c r="D306" s="48"/>
       <c r="E306" s="19">
         <v>3</v>
       </c>
@@ -8823,7 +8883,7 @@
     </row>
     <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="32"/>
-      <c r="D307" s="43"/>
+      <c r="D307" s="48"/>
       <c r="E307" s="19">
         <v>4</v>
       </c>
@@ -8838,7 +8898,7 @@
     </row>
     <row r="308" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B308" s="32"/>
-      <c r="D308" s="43"/>
+      <c r="D308" s="48"/>
       <c r="E308" s="19">
         <v>5</v>
       </c>
@@ -8853,7 +8913,7 @@
     </row>
     <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="32"/>
-      <c r="D309" s="43"/>
+      <c r="D309" s="48"/>
       <c r="E309" s="19">
         <v>6</v>
       </c>
@@ -8870,7 +8930,7 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="43"/>
+      <c r="D310" s="48"/>
       <c r="E310" s="19">
         <v>7</v>
       </c>
@@ -8908,7 +8968,7 @@
       <c r="C312" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="43" t="s">
+      <c r="D312" s="48" t="s">
         <v>238</v>
       </c>
       <c r="E312" s="19">
@@ -8922,7 +8982,7 @@
     </row>
     <row r="313" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="32"/>
-      <c r="D313" s="43"/>
+      <c r="D313" s="48"/>
       <c r="E313" s="19">
         <v>2</v>
       </c>
@@ -8937,7 +8997,7 @@
     </row>
     <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="32"/>
-      <c r="D314" s="43"/>
+      <c r="D314" s="48"/>
       <c r="E314" s="19">
         <v>3</v>
       </c>
@@ -8952,7 +9012,7 @@
     </row>
     <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="32"/>
-      <c r="D315" s="43"/>
+      <c r="D315" s="48"/>
       <c r="E315" s="19">
         <v>4</v>
       </c>
@@ -8967,7 +9027,7 @@
     </row>
     <row r="316" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B316" s="32"/>
-      <c r="D316" s="43"/>
+      <c r="D316" s="48"/>
       <c r="E316" s="19">
         <v>5</v>
       </c>
@@ -8985,7 +9045,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B317" s="32"/>
-      <c r="D317" s="43"/>
+      <c r="D317" s="48"/>
       <c r="E317" s="19">
         <v>6</v>
       </c>
@@ -9013,7 +9073,7 @@
       <c r="C319" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D319" s="43" t="s">
+      <c r="D319" s="48" t="s">
         <v>241</v>
       </c>
       <c r="E319" s="19">
@@ -9027,7 +9087,7 @@
     </row>
     <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B320" s="32"/>
-      <c r="D320" s="43"/>
+      <c r="D320" s="48"/>
       <c r="E320" s="19">
         <v>2</v>
       </c>
@@ -9042,7 +9102,7 @@
     </row>
     <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="32"/>
-      <c r="D321" s="43"/>
+      <c r="D321" s="48"/>
       <c r="E321" s="19">
         <v>3</v>
       </c>
@@ -9057,7 +9117,7 @@
     </row>
     <row r="322" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="32"/>
-      <c r="D322" s="43"/>
+      <c r="D322" s="48"/>
       <c r="E322" s="19">
         <v>4</v>
       </c>
@@ -9072,7 +9132,7 @@
     </row>
     <row r="323" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B323" s="32"/>
-      <c r="D323" s="43"/>
+      <c r="D323" s="48"/>
       <c r="E323" s="19">
         <v>5</v>
       </c>
@@ -9090,7 +9150,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B324" s="32"/>
-      <c r="D324" s="43"/>
+      <c r="D324" s="48"/>
       <c r="E324" s="19">
         <v>6</v>
       </c>
@@ -9105,7 +9165,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B325" s="32"/>
-      <c r="D325" s="43"/>
+      <c r="D325" s="48"/>
       <c r="E325" s="19">
         <v>7</v>
       </c>
@@ -9135,7 +9195,7 @@
       <c r="C327" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D327" s="43" t="s">
+      <c r="D327" s="48" t="s">
         <v>242</v>
       </c>
       <c r="E327" s="19">
@@ -9149,7 +9209,7 @@
     </row>
     <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="32"/>
-      <c r="D328" s="43"/>
+      <c r="D328" s="48"/>
       <c r="E328" s="19">
         <v>2</v>
       </c>
@@ -9164,7 +9224,7 @@
     </row>
     <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="32"/>
-      <c r="D329" s="43"/>
+      <c r="D329" s="48"/>
       <c r="E329" s="19">
         <v>3</v>
       </c>
@@ -9179,7 +9239,7 @@
     </row>
     <row r="330" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="32"/>
-      <c r="D330" s="43"/>
+      <c r="D330" s="48"/>
       <c r="E330" s="19">
         <v>4</v>
       </c>
@@ -9194,7 +9254,7 @@
     </row>
     <row r="331" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B331" s="32"/>
-      <c r="D331" s="43"/>
+      <c r="D331" s="48"/>
       <c r="E331" s="19">
         <v>5</v>
       </c>
@@ -9212,7 +9272,7 @@
     </row>
     <row r="332" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="32"/>
-      <c r="D332" s="43"/>
+      <c r="D332" s="48"/>
       <c r="E332" s="19">
         <v>6</v>
       </c>
@@ -9229,7 +9289,7 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="43"/>
+      <c r="D333" s="48"/>
       <c r="E333" s="19">
         <v>7</v>
       </c>
@@ -9259,7 +9319,7 @@
       <c r="C335" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D335" s="43" t="s">
+      <c r="D335" s="48" t="s">
         <v>247</v>
       </c>
       <c r="E335" s="19">
@@ -9273,7 +9333,7 @@
     </row>
     <row r="336" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="32"/>
-      <c r="D336" s="43"/>
+      <c r="D336" s="48"/>
       <c r="E336" s="19">
         <v>2</v>
       </c>
@@ -9288,7 +9348,7 @@
     </row>
     <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="32"/>
-      <c r="D337" s="43"/>
+      <c r="D337" s="48"/>
       <c r="E337" s="19">
         <v>3</v>
       </c>
@@ -9303,7 +9363,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B338" s="32"/>
-      <c r="D338" s="43"/>
+      <c r="D338" s="48"/>
       <c r="E338" s="19">
         <v>4</v>
       </c>
@@ -9318,7 +9378,7 @@
     </row>
     <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="32"/>
-      <c r="D339" s="43"/>
+      <c r="D339" s="48"/>
       <c r="E339" s="19">
         <v>5</v>
       </c>
@@ -9333,7 +9393,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B340" s="32"/>
-      <c r="D340" s="43"/>
+      <c r="D340" s="48"/>
       <c r="E340" s="19">
         <v>6</v>
       </c>
@@ -9361,7 +9421,7 @@
       <c r="C342" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D342" s="43" t="s">
+      <c r="D342" s="48" t="s">
         <v>249</v>
       </c>
       <c r="E342" s="19">
@@ -9375,7 +9435,7 @@
     </row>
     <row r="343" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="32"/>
-      <c r="D343" s="43"/>
+      <c r="D343" s="48"/>
       <c r="E343" s="19">
         <v>2</v>
       </c>
@@ -9390,7 +9450,7 @@
     </row>
     <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="32"/>
-      <c r="D344" s="43"/>
+      <c r="D344" s="48"/>
       <c r="E344" s="19">
         <v>3</v>
       </c>
@@ -9405,7 +9465,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B345" s="32"/>
-      <c r="D345" s="43"/>
+      <c r="D345" s="48"/>
       <c r="E345" s="19">
         <v>4</v>
       </c>
@@ -9420,7 +9480,7 @@
     </row>
     <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="32"/>
-      <c r="D346" s="43"/>
+      <c r="D346" s="48"/>
       <c r="E346" s="19">
         <v>5</v>
       </c>
@@ -9435,7 +9495,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B347" s="32"/>
-      <c r="D347" s="43"/>
+      <c r="D347" s="48"/>
       <c r="E347" s="19">
         <v>6</v>
       </c>
@@ -9450,7 +9510,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B348" s="32"/>
-      <c r="D348" s="43"/>
+      <c r="D348" s="48"/>
       <c r="E348" s="19">
         <v>7</v>
       </c>
@@ -9480,7 +9540,7 @@
       <c r="C350" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="43" t="s">
+      <c r="D350" s="48" t="s">
         <v>250</v>
       </c>
       <c r="E350" s="19">
@@ -9494,7 +9554,7 @@
     </row>
     <row r="351" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="32"/>
-      <c r="D351" s="43"/>
+      <c r="D351" s="48"/>
       <c r="E351" s="19">
         <v>2</v>
       </c>
@@ -9509,7 +9569,7 @@
     </row>
     <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="32"/>
-      <c r="D352" s="43"/>
+      <c r="D352" s="48"/>
       <c r="E352" s="19">
         <v>3</v>
       </c>
@@ -9524,7 +9584,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B353" s="32"/>
-      <c r="D353" s="43"/>
+      <c r="D353" s="48"/>
       <c r="E353" s="19">
         <v>4</v>
       </c>
@@ -9539,7 +9599,7 @@
     </row>
     <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="32"/>
-      <c r="D354" s="43"/>
+      <c r="D354" s="48"/>
       <c r="E354" s="19">
         <v>5</v>
       </c>
@@ -9554,7 +9614,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B355" s="32"/>
-      <c r="D355" s="43"/>
+      <c r="D355" s="48"/>
       <c r="E355" s="19">
         <v>6</v>
       </c>
@@ -9571,7 +9631,7 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="43"/>
+      <c r="D356" s="48"/>
       <c r="E356" s="19">
         <v>7</v>
       </c>
@@ -9599,7 +9659,7 @@
       <c r="C358" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D358" s="43" t="s">
+      <c r="D358" s="48" t="s">
         <v>258</v>
       </c>
       <c r="E358" s="19">
@@ -9613,7 +9673,7 @@
     </row>
     <row r="359" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="32"/>
-      <c r="D359" s="43"/>
+      <c r="D359" s="48"/>
       <c r="E359" s="19">
         <v>2</v>
       </c>
@@ -9628,7 +9688,7 @@
     </row>
     <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="32"/>
-      <c r="D360" s="43"/>
+      <c r="D360" s="48"/>
       <c r="E360" s="19">
         <v>3</v>
       </c>
@@ -9643,7 +9703,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B361" s="32"/>
-      <c r="D361" s="43"/>
+      <c r="D361" s="48"/>
       <c r="E361" s="19">
         <v>4</v>
       </c>
@@ -9658,7 +9718,7 @@
     </row>
     <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="32"/>
-      <c r="D362" s="43"/>
+      <c r="D362" s="48"/>
       <c r="E362" s="19">
         <v>5</v>
       </c>
@@ -9673,7 +9733,7 @@
     </row>
     <row r="363" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="32"/>
-      <c r="D363" s="43"/>
+      <c r="D363" s="48"/>
       <c r="E363" s="19">
         <v>6</v>
       </c>
@@ -9701,7 +9761,7 @@
       <c r="C365" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D365" s="43" t="s">
+      <c r="D365" s="48" t="s">
         <v>263</v>
       </c>
       <c r="E365" s="19">
@@ -9715,7 +9775,7 @@
     </row>
     <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="32"/>
-      <c r="D366" s="43"/>
+      <c r="D366" s="48"/>
       <c r="E366" s="19">
         <v>2</v>
       </c>
@@ -9730,7 +9790,7 @@
     </row>
     <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="32"/>
-      <c r="D367" s="43"/>
+      <c r="D367" s="48"/>
       <c r="E367" s="19">
         <v>3</v>
       </c>
@@ -9745,7 +9805,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B368" s="32"/>
-      <c r="D368" s="43"/>
+      <c r="D368" s="48"/>
       <c r="E368" s="19">
         <v>4</v>
       </c>
@@ -9760,7 +9820,7 @@
     </row>
     <row r="369" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="32"/>
-      <c r="D369" s="43"/>
+      <c r="D369" s="48"/>
       <c r="E369" s="19">
         <v>5</v>
       </c>
@@ -9775,7 +9835,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B370" s="32"/>
-      <c r="D370" s="43"/>
+      <c r="D370" s="48"/>
       <c r="E370" s="19">
         <v>6</v>
       </c>
@@ -9790,7 +9850,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B371" s="32"/>
-      <c r="D371" s="43"/>
+      <c r="D371" s="48"/>
       <c r="E371" s="19">
         <v>7</v>
       </c>
@@ -9820,7 +9880,7 @@
       <c r="C373" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D373" s="43" t="s">
+      <c r="D373" s="48" t="s">
         <v>264</v>
       </c>
       <c r="E373" s="19">
@@ -9834,7 +9894,7 @@
     </row>
     <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="32"/>
-      <c r="D374" s="43"/>
+      <c r="D374" s="48"/>
       <c r="E374" s="19">
         <v>2</v>
       </c>
@@ -9849,7 +9909,7 @@
     </row>
     <row r="375" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B375" s="32"/>
-      <c r="D375" s="43"/>
+      <c r="D375" s="48"/>
       <c r="E375" s="19">
         <v>3</v>
       </c>
@@ -9864,7 +9924,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B376" s="32"/>
-      <c r="D376" s="43"/>
+      <c r="D376" s="48"/>
       <c r="E376" s="19">
         <v>4</v>
       </c>
@@ -9879,7 +9939,7 @@
     </row>
     <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B377" s="32"/>
-      <c r="D377" s="43"/>
+      <c r="D377" s="48"/>
       <c r="E377" s="19">
         <v>5</v>
       </c>
@@ -9894,7 +9954,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B378" s="32"/>
-      <c r="D378" s="43"/>
+      <c r="D378" s="48"/>
       <c r="E378" s="19">
         <v>6</v>
       </c>
@@ -9911,7 +9971,7 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="43"/>
+      <c r="D379" s="48"/>
       <c r="E379" s="19">
         <v>7</v>
       </c>
@@ -9939,7 +9999,7 @@
       <c r="C381" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D381" s="43" t="s">
+      <c r="D381" s="48" t="s">
         <v>283</v>
       </c>
       <c r="E381" s="19">
@@ -9953,7 +10013,7 @@
     </row>
     <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="32"/>
-      <c r="D382" s="43"/>
+      <c r="D382" s="48"/>
       <c r="E382" s="19">
         <v>2</v>
       </c>
@@ -9968,7 +10028,7 @@
     </row>
     <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="32"/>
-      <c r="D383" s="43"/>
+      <c r="D383" s="48"/>
       <c r="E383" s="19">
         <v>3</v>
       </c>
@@ -9983,7 +10043,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B384" s="32"/>
-      <c r="D384" s="43"/>
+      <c r="D384" s="48"/>
       <c r="E384" s="19">
         <v>4</v>
       </c>
@@ -9998,7 +10058,7 @@
     </row>
     <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="32"/>
-      <c r="D385" s="43"/>
+      <c r="D385" s="48"/>
       <c r="E385" s="19">
         <v>5</v>
       </c>
@@ -10013,7 +10073,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B386" s="32"/>
-      <c r="D386" s="43"/>
+      <c r="D386" s="48"/>
       <c r="E386" s="19">
         <v>6</v>
       </c>
@@ -10041,7 +10101,7 @@
       <c r="C388" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D388" s="43" t="s">
+      <c r="D388" s="48" t="s">
         <v>287</v>
       </c>
       <c r="E388" s="19">
@@ -10055,7 +10115,7 @@
     </row>
     <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="32"/>
-      <c r="D389" s="43"/>
+      <c r="D389" s="48"/>
       <c r="E389" s="19">
         <v>2</v>
       </c>
@@ -10070,7 +10130,7 @@
     </row>
     <row r="390" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="32"/>
-      <c r="D390" s="43"/>
+      <c r="D390" s="48"/>
       <c r="E390" s="19">
         <v>3</v>
       </c>
@@ -10085,7 +10145,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B391" s="32"/>
-      <c r="D391" s="43"/>
+      <c r="D391" s="48"/>
       <c r="E391" s="19">
         <v>4</v>
       </c>
@@ -10100,7 +10160,7 @@
     </row>
     <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="32"/>
-      <c r="D392" s="43"/>
+      <c r="D392" s="48"/>
       <c r="E392" s="19">
         <v>5</v>
       </c>
@@ -10115,7 +10175,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B393" s="32"/>
-      <c r="D393" s="43"/>
+      <c r="D393" s="48"/>
       <c r="E393" s="19">
         <v>6</v>
       </c>
@@ -10130,7 +10190,7 @@
     </row>
     <row r="394" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="32"/>
-      <c r="D394" s="43"/>
+      <c r="D394" s="48"/>
       <c r="E394" s="19">
         <v>7</v>
       </c>
@@ -10160,7 +10220,7 @@
       <c r="C396" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D396" s="43" t="s">
+      <c r="D396" s="48" t="s">
         <v>290</v>
       </c>
       <c r="E396" s="19">
@@ -10174,7 +10234,7 @@
     </row>
     <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="32"/>
-      <c r="D397" s="43"/>
+      <c r="D397" s="48"/>
       <c r="E397" s="19">
         <v>2</v>
       </c>
@@ -10189,7 +10249,7 @@
     </row>
     <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="32"/>
-      <c r="D398" s="43"/>
+      <c r="D398" s="48"/>
       <c r="E398" s="19">
         <v>3</v>
       </c>
@@ -10204,7 +10264,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B399" s="32"/>
-      <c r="D399" s="43"/>
+      <c r="D399" s="48"/>
       <c r="E399" s="19">
         <v>4</v>
       </c>
@@ -10219,7 +10279,7 @@
     </row>
     <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="32"/>
-      <c r="D400" s="43"/>
+      <c r="D400" s="48"/>
       <c r="E400" s="19">
         <v>5</v>
       </c>
@@ -10234,7 +10294,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B401" s="32"/>
-      <c r="D401" s="43"/>
+      <c r="D401" s="48"/>
       <c r="E401" s="19">
         <v>6</v>
       </c>
@@ -10251,7 +10311,7 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="43"/>
+      <c r="D402" s="48"/>
       <c r="E402" s="19">
         <v>7</v>
       </c>
@@ -10279,7 +10339,7 @@
       <c r="C404" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D404" s="43" t="s">
+      <c r="D404" s="48" t="s">
         <v>296</v>
       </c>
       <c r="E404" s="19">
@@ -10294,7 +10354,7 @@
     <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28"/>
       <c r="B405" s="32"/>
-      <c r="D405" s="43"/>
+      <c r="D405" s="48"/>
       <c r="E405" s="19">
         <v>2</v>
       </c>
@@ -10305,7 +10365,7 @@
         <v>61</v>
       </c>
       <c r="I405" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K405" s="25"/>
       <c r="L405" s="2"/>
@@ -10313,7 +10373,7 @@
     <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="28"/>
       <c r="B406" s="32"/>
-      <c r="D406" s="43"/>
+      <c r="D406" s="48"/>
       <c r="E406" s="19">
         <v>3</v>
       </c>
@@ -10324,7 +10384,7 @@
         <v>63</v>
       </c>
       <c r="I406" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K406" s="25"/>
       <c r="L406" s="2"/>
@@ -10332,7 +10392,7 @@
     <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="28"/>
       <c r="B407" s="32"/>
-      <c r="D407" s="43"/>
+      <c r="D407" s="48"/>
       <c r="E407" s="19">
         <v>4</v>
       </c>
@@ -10343,7 +10403,7 @@
         <v>298</v>
       </c>
       <c r="I407" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K407" s="25"/>
       <c r="L407" s="2"/>
@@ -10351,7 +10411,7 @@
     <row r="408" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28"/>
       <c r="B408" s="32"/>
-      <c r="D408" s="43"/>
+      <c r="D408" s="48"/>
       <c r="E408" s="19">
         <v>5</v>
       </c>
@@ -10362,10 +10422,10 @@
         <v>300</v>
       </c>
       <c r="I408" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K408" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L408" s="2" t="s">
         <v>12</v>
@@ -10387,7 +10447,7 @@
       <c r="C410" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D410" s="43" t="s">
+      <c r="D410" s="48" t="s">
         <v>302</v>
       </c>
       <c r="E410" s="19">
@@ -10402,7 +10462,7 @@
     <row r="411" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="28"/>
       <c r="B411" s="32"/>
-      <c r="D411" s="43"/>
+      <c r="D411" s="48"/>
       <c r="E411" s="19">
         <v>2</v>
       </c>
@@ -10413,7 +10473,7 @@
         <v>61</v>
       </c>
       <c r="I411" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K411" s="25"/>
       <c r="L411" s="2"/>
@@ -10421,7 +10481,7 @@
     <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="28"/>
       <c r="B412" s="32"/>
-      <c r="D412" s="43"/>
+      <c r="D412" s="48"/>
       <c r="E412" s="19">
         <v>3</v>
       </c>
@@ -10432,7 +10492,7 @@
         <v>63</v>
       </c>
       <c r="I412" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K412" s="25"/>
       <c r="L412" s="2"/>
@@ -10440,7 +10500,7 @@
     <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28"/>
       <c r="B413" s="32"/>
-      <c r="D413" s="43"/>
+      <c r="D413" s="48"/>
       <c r="E413" s="19">
         <v>4</v>
       </c>
@@ -10451,7 +10511,7 @@
         <v>298</v>
       </c>
       <c r="I413" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K413" s="25"/>
       <c r="L413" s="2"/>
@@ -10459,7 +10519,7 @@
     <row r="414" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="28"/>
       <c r="B414" s="32"/>
-      <c r="D414" s="43"/>
+      <c r="D414" s="48"/>
       <c r="E414" s="19">
         <v>5</v>
       </c>
@@ -10470,10 +10530,10 @@
         <v>304</v>
       </c>
       <c r="I414" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K414" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L414" s="2" t="s">
         <v>12</v>
@@ -10496,7 +10556,7 @@
       <c r="C416" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D416" s="43" t="s">
+      <c r="D416" s="48" t="s">
         <v>325</v>
       </c>
       <c r="E416" s="19">
@@ -10511,7 +10571,7 @@
     <row r="417" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="28"/>
       <c r="B417" s="32"/>
-      <c r="D417" s="43"/>
+      <c r="D417" s="48"/>
       <c r="E417" s="19">
         <v>2</v>
       </c>
@@ -10522,7 +10582,7 @@
         <v>61</v>
       </c>
       <c r="I417" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K417" s="25"/>
       <c r="L417" s="2"/>
@@ -10530,7 +10590,7 @@
     <row r="418" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="28"/>
       <c r="B418" s="32"/>
-      <c r="D418" s="43"/>
+      <c r="D418" s="48"/>
       <c r="E418" s="19">
         <v>3</v>
       </c>
@@ -10541,7 +10601,7 @@
         <v>63</v>
       </c>
       <c r="I418" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K418" s="25"/>
       <c r="L418" s="2"/>
@@ -10549,7 +10609,7 @@
     <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="28"/>
       <c r="B419" s="32"/>
-      <c r="D419" s="43"/>
+      <c r="D419" s="48"/>
       <c r="E419" s="19">
         <v>4</v>
       </c>
@@ -10560,7 +10620,7 @@
         <v>298</v>
       </c>
       <c r="I419" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K419" s="25"/>
       <c r="L419" s="2"/>
@@ -10568,7 +10628,7 @@
     <row r="420" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="28"/>
       <c r="B420" s="32"/>
-      <c r="D420" s="43"/>
+      <c r="D420" s="48"/>
       <c r="E420" s="19">
         <v>5</v>
       </c>
@@ -10579,10 +10639,10 @@
         <v>327</v>
       </c>
       <c r="I420" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K420" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L420" s="2" t="s">
         <v>12</v>
@@ -10603,7 +10663,7 @@
       <c r="C422" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D422" s="43" t="s">
+      <c r="D422" s="48" t="s">
         <v>308</v>
       </c>
       <c r="E422" s="19">
@@ -10618,7 +10678,7 @@
     <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="28"/>
       <c r="B423" s="32"/>
-      <c r="D423" s="43"/>
+      <c r="D423" s="48"/>
       <c r="E423" s="19">
         <v>2</v>
       </c>
@@ -10629,7 +10689,7 @@
         <v>61</v>
       </c>
       <c r="I423" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K423" s="25"/>
       <c r="L423" s="2"/>
@@ -10637,7 +10697,7 @@
     <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="28"/>
       <c r="B424" s="32"/>
-      <c r="D424" s="43"/>
+      <c r="D424" s="48"/>
       <c r="E424" s="19">
         <v>3</v>
       </c>
@@ -10648,7 +10708,7 @@
         <v>63</v>
       </c>
       <c r="I424" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K424" s="25"/>
       <c r="L424" s="2"/>
@@ -10656,7 +10716,7 @@
     <row r="425" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="28"/>
       <c r="B425" s="32"/>
-      <c r="D425" s="43"/>
+      <c r="D425" s="48"/>
       <c r="E425" s="19">
         <v>4</v>
       </c>
@@ -10667,7 +10727,7 @@
         <v>298</v>
       </c>
       <c r="I425" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K425" s="25"/>
       <c r="L425" s="2"/>
@@ -10675,7 +10735,7 @@
     <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="28"/>
       <c r="B426" s="32"/>
-      <c r="D426" s="43"/>
+      <c r="D426" s="48"/>
       <c r="E426" s="19">
         <v>5</v>
       </c>
@@ -10686,10 +10746,10 @@
         <v>309</v>
       </c>
       <c r="I426" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K426" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L426" s="2" t="s">
         <v>12</v>
@@ -10710,14 +10770,14 @@
       <c r="C428" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D428" s="43" t="s">
+      <c r="D428" s="48" t="s">
         <v>311</v>
       </c>
       <c r="E428" s="19">
         <v>1</v>
       </c>
       <c r="F428" s="19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K428" s="25"/>
       <c r="L428" s="2"/>
@@ -10725,7 +10785,7 @@
     <row r="429" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="28"/>
       <c r="B429" s="32"/>
-      <c r="D429" s="43"/>
+      <c r="D429" s="48"/>
       <c r="E429" s="19">
         <v>2</v>
       </c>
@@ -10736,7 +10796,7 @@
         <v>61</v>
       </c>
       <c r="I429" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K429" s="25"/>
       <c r="L429" s="2"/>
@@ -10744,7 +10804,7 @@
     <row r="430" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="28"/>
       <c r="B430" s="32"/>
-      <c r="D430" s="43"/>
+      <c r="D430" s="48"/>
       <c r="E430" s="19">
         <v>3</v>
       </c>
@@ -10755,7 +10815,7 @@
         <v>63</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K430" s="25"/>
       <c r="L430" s="2"/>
@@ -10763,18 +10823,18 @@
     <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="28"/>
       <c r="B431" s="32"/>
-      <c r="D431" s="43"/>
+      <c r="D431" s="48"/>
       <c r="E431" s="19">
         <v>4</v>
       </c>
       <c r="F431" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G431" s="19" t="s">
         <v>298</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K431" s="25"/>
       <c r="L431" s="2"/>
@@ -10782,7 +10842,7 @@
     <row r="432" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="28"/>
       <c r="B432" s="32"/>
-      <c r="D432" s="43"/>
+      <c r="D432" s="48"/>
       <c r="E432" s="19">
         <v>5</v>
       </c>
@@ -10793,10 +10853,10 @@
         <v>313</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K432" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L432" s="2" t="s">
         <v>12</v>
@@ -10819,7 +10879,7 @@
       <c r="C434" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D434" s="43" t="s">
+      <c r="D434" s="48" t="s">
         <v>306</v>
       </c>
       <c r="E434" s="19">
@@ -10833,7 +10893,7 @@
     </row>
     <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="32"/>
-      <c r="D435" s="43"/>
+      <c r="D435" s="48"/>
       <c r="E435" s="19">
         <v>2</v>
       </c>
@@ -10844,14 +10904,14 @@
         <v>61</v>
       </c>
       <c r="I435" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K435" s="25"/>
       <c r="L435" s="2"/>
     </row>
     <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="32"/>
-      <c r="D436" s="43"/>
+      <c r="D436" s="48"/>
       <c r="E436" s="19">
         <v>3</v>
       </c>
@@ -10862,14 +10922,14 @@
         <v>63</v>
       </c>
       <c r="I436" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K436" s="25"/>
       <c r="L436" s="2"/>
     </row>
     <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="32"/>
-      <c r="D437" s="43"/>
+      <c r="D437" s="48"/>
       <c r="E437" s="19">
         <v>4</v>
       </c>
@@ -10880,14 +10940,14 @@
         <v>298</v>
       </c>
       <c r="I437" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K437" s="25"/>
       <c r="L437" s="2"/>
     </row>
     <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B438" s="32"/>
-      <c r="D438" s="43"/>
+      <c r="D438" s="48"/>
       <c r="E438" s="19">
         <v>5</v>
       </c>
@@ -10898,10 +10958,10 @@
         <v>318</v>
       </c>
       <c r="I438" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K438" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L438" s="2" t="s">
         <v>12</v>
@@ -10923,7 +10983,7 @@
       <c r="C440" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D440" s="43" t="s">
+      <c r="D440" s="48" t="s">
         <v>321</v>
       </c>
       <c r="E440" s="19">
@@ -10937,7 +10997,7 @@
     </row>
     <row r="441" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="32"/>
-      <c r="D441" s="43"/>
+      <c r="D441" s="48"/>
       <c r="E441" s="19">
         <v>2</v>
       </c>
@@ -10948,14 +11008,14 @@
         <v>61</v>
       </c>
       <c r="I441" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K441" s="25"/>
       <c r="L441" s="2"/>
     </row>
     <row r="442" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="32"/>
-      <c r="D442" s="43"/>
+      <c r="D442" s="48"/>
       <c r="E442" s="19">
         <v>3</v>
       </c>
@@ -10966,14 +11026,14 @@
         <v>63</v>
       </c>
       <c r="I442" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K442" s="25"/>
       <c r="L442" s="2"/>
     </row>
     <row r="443" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="32"/>
-      <c r="D443" s="43"/>
+      <c r="D443" s="48"/>
       <c r="E443" s="19">
         <v>4</v>
       </c>
@@ -10984,14 +11044,14 @@
         <v>298</v>
       </c>
       <c r="I443" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K443" s="25"/>
       <c r="L443" s="2"/>
     </row>
     <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="32"/>
-      <c r="D444" s="43"/>
+      <c r="D444" s="48"/>
       <c r="E444" s="19">
         <v>5</v>
       </c>
@@ -11002,10 +11062,10 @@
         <v>322</v>
       </c>
       <c r="I444" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K444" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L444" s="2" t="s">
         <v>14</v>
@@ -11026,7 +11086,7 @@
       <c r="C446" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D446" s="43" t="s">
+      <c r="D446" s="48" t="s">
         <v>316</v>
       </c>
       <c r="E446" s="19">
@@ -11040,7 +11100,7 @@
     </row>
     <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="32"/>
-      <c r="D447" s="43"/>
+      <c r="D447" s="48"/>
       <c r="E447" s="19">
         <v>2</v>
       </c>
@@ -11051,14 +11111,14 @@
         <v>61</v>
       </c>
       <c r="I447" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K447" s="25"/>
       <c r="L447" s="2"/>
     </row>
     <row r="448" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="32"/>
-      <c r="D448" s="43"/>
+      <c r="D448" s="48"/>
       <c r="E448" s="19">
         <v>3</v>
       </c>
@@ -11069,14 +11129,14 @@
         <v>63</v>
       </c>
       <c r="I448" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K448" s="25"/>
       <c r="L448" s="2"/>
     </row>
     <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="32"/>
-      <c r="D449" s="43"/>
+      <c r="D449" s="48"/>
       <c r="E449" s="19">
         <v>4</v>
       </c>
@@ -11087,14 +11147,14 @@
         <v>298</v>
       </c>
       <c r="I449" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K449" s="25"/>
       <c r="L449" s="2"/>
     </row>
     <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="32"/>
-      <c r="D450" s="43"/>
+      <c r="D450" s="48"/>
       <c r="E450" s="19">
         <v>5</v>
       </c>
@@ -11105,10 +11165,10 @@
         <v>319</v>
       </c>
       <c r="I450" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K450" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L450" s="2" t="s">
         <v>14</v>
@@ -11129,7 +11189,7 @@
       <c r="C452" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D452" s="43" t="s">
+      <c r="D452" s="48" t="s">
         <v>323</v>
       </c>
       <c r="E452" s="19">
@@ -11143,7 +11203,7 @@
     </row>
     <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="32"/>
-      <c r="D453" s="43"/>
+      <c r="D453" s="48"/>
       <c r="E453" s="19">
         <v>2</v>
       </c>
@@ -11154,14 +11214,14 @@
         <v>61</v>
       </c>
       <c r="I453" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K453" s="25"/>
       <c r="L453" s="2"/>
     </row>
     <row r="454" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="32"/>
-      <c r="D454" s="43"/>
+      <c r="D454" s="48"/>
       <c r="E454" s="19">
         <v>3</v>
       </c>
@@ -11172,14 +11232,14 @@
         <v>63</v>
       </c>
       <c r="I454" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K454" s="25"/>
       <c r="L454" s="2"/>
     </row>
     <row r="455" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="32"/>
-      <c r="D455" s="43"/>
+      <c r="D455" s="48"/>
       <c r="E455" s="19">
         <v>4</v>
       </c>
@@ -11190,28 +11250,28 @@
         <v>298</v>
       </c>
       <c r="I455" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K455" s="25"/>
       <c r="L455" s="2"/>
     </row>
     <row r="456" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B456" s="32"/>
-      <c r="D456" s="43"/>
+      <c r="D456" s="48"/>
       <c r="E456" s="19">
         <v>5</v>
       </c>
       <c r="F456" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G456" s="19" t="s">
         <v>324</v>
       </c>
       <c r="I456" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K456" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L456" s="2" t="s">
         <v>12</v>
@@ -11232,7 +11292,7 @@
       <c r="C458" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D458" s="43" t="s">
+      <c r="D458" s="48" t="s">
         <v>331</v>
       </c>
       <c r="E458" s="19">
@@ -11246,7 +11306,7 @@
     </row>
     <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="32"/>
-      <c r="D459" s="43"/>
+      <c r="D459" s="48"/>
       <c r="E459" s="19">
         <v>2</v>
       </c>
@@ -11257,14 +11317,14 @@
         <v>61</v>
       </c>
       <c r="I459" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K459" s="25"/>
       <c r="L459" s="2"/>
     </row>
     <row r="460" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="32"/>
-      <c r="D460" s="43"/>
+      <c r="D460" s="48"/>
       <c r="E460" s="19">
         <v>3</v>
       </c>
@@ -11275,14 +11335,14 @@
         <v>63</v>
       </c>
       <c r="I460" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K460" s="25"/>
       <c r="L460" s="2"/>
     </row>
     <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="32"/>
-      <c r="D461" s="43"/>
+      <c r="D461" s="48"/>
       <c r="E461" s="19">
         <v>4</v>
       </c>
@@ -11293,14 +11353,14 @@
         <v>298</v>
       </c>
       <c r="I461" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K461" s="25"/>
       <c r="L461" s="2"/>
     </row>
     <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="32"/>
-      <c r="D462" s="43"/>
+      <c r="D462" s="48"/>
       <c r="E462" s="19">
         <v>5</v>
       </c>
@@ -11311,10 +11371,10 @@
         <v>333</v>
       </c>
       <c r="I462" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K462" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L462" s="2" t="s">
         <v>12</v>
@@ -11336,7 +11396,7 @@
       <c r="C464" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D464" s="43" t="s">
+      <c r="D464" s="48" t="s">
         <v>335</v>
       </c>
       <c r="E464" s="19">
@@ -11350,7 +11410,7 @@
     </row>
     <row r="465" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="32"/>
-      <c r="D465" s="43"/>
+      <c r="D465" s="48"/>
       <c r="E465" s="19">
         <v>2</v>
       </c>
@@ -11361,14 +11421,14 @@
         <v>61</v>
       </c>
       <c r="I465" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K465" s="25"/>
       <c r="L465" s="2"/>
     </row>
     <row r="466" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="32"/>
-      <c r="D466" s="43"/>
+      <c r="D466" s="48"/>
       <c r="E466" s="19">
         <v>3</v>
       </c>
@@ -11379,14 +11439,14 @@
         <v>63</v>
       </c>
       <c r="I466" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K466" s="25"/>
       <c r="L466" s="2"/>
     </row>
     <row r="467" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="32"/>
-      <c r="D467" s="43"/>
+      <c r="D467" s="48"/>
       <c r="E467" s="19">
         <v>4</v>
       </c>
@@ -11397,14 +11457,14 @@
         <v>298</v>
       </c>
       <c r="I467" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K467" s="25"/>
       <c r="L467" s="2"/>
     </row>
     <row r="468" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="32"/>
-      <c r="D468" s="43"/>
+      <c r="D468" s="48"/>
       <c r="E468" s="19">
         <v>5</v>
       </c>
@@ -11415,13 +11475,13 @@
         <v>337</v>
       </c>
       <c r="K468" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L468" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M468" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
@@ -11439,7 +11499,7 @@
       <c r="C470" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D470" s="43" t="s">
+      <c r="D470" s="48" t="s">
         <v>339</v>
       </c>
       <c r="E470" s="19">
@@ -11449,14 +11509,14 @@
         <v>33</v>
       </c>
       <c r="I470" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K470" s="25"/>
       <c r="L470" s="2"/>
     </row>
     <row r="471" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="32"/>
-      <c r="D471" s="43"/>
+      <c r="D471" s="48"/>
       <c r="E471" s="19">
         <v>2</v>
       </c>
@@ -11467,14 +11527,14 @@
         <v>61</v>
       </c>
       <c r="I471" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K471" s="25"/>
       <c r="L471" s="2"/>
     </row>
     <row r="472" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="32"/>
-      <c r="D472" s="43"/>
+      <c r="D472" s="48"/>
       <c r="E472" s="19">
         <v>3</v>
       </c>
@@ -11485,14 +11545,14 @@
         <v>63</v>
       </c>
       <c r="I472" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K472" s="25"/>
       <c r="L472" s="2"/>
     </row>
     <row r="473" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="32"/>
-      <c r="D473" s="43"/>
+      <c r="D473" s="48"/>
       <c r="E473" s="19">
         <v>4</v>
       </c>
@@ -11503,14 +11563,14 @@
         <v>298</v>
       </c>
       <c r="I473" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K473" s="25"/>
       <c r="L473" s="2"/>
     </row>
     <row r="474" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="32"/>
-      <c r="D474" s="43"/>
+      <c r="D474" s="48"/>
       <c r="E474" s="19">
         <v>5</v>
       </c>
@@ -11521,10 +11581,10 @@
         <v>341</v>
       </c>
       <c r="I474" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K474" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L474" s="2" t="s">
         <v>12</v>
@@ -11546,7 +11606,7 @@
       <c r="C476" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D476" s="43" t="s">
+      <c r="D476" s="48" t="s">
         <v>343</v>
       </c>
       <c r="E476" s="19">
@@ -11560,7 +11620,7 @@
     </row>
     <row r="477" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="32"/>
-      <c r="D477" s="43"/>
+      <c r="D477" s="48"/>
       <c r="E477" s="19">
         <v>2</v>
       </c>
@@ -11571,14 +11631,14 @@
         <v>61</v>
       </c>
       <c r="I477" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K477" s="25"/>
       <c r="L477" s="2"/>
     </row>
     <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="32"/>
-      <c r="D478" s="43"/>
+      <c r="D478" s="48"/>
       <c r="E478" s="19">
         <v>3</v>
       </c>
@@ -11589,14 +11649,14 @@
         <v>63</v>
       </c>
       <c r="I478" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K478" s="25"/>
       <c r="L478" s="2"/>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B479" s="32"/>
-      <c r="D479" s="43"/>
+      <c r="D479" s="48"/>
       <c r="E479" s="19">
         <v>4</v>
       </c>
@@ -11607,14 +11667,14 @@
         <v>346</v>
       </c>
       <c r="I479" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K479" s="25"/>
       <c r="L479" s="2"/>
     </row>
     <row r="480" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B480" s="32"/>
-      <c r="D480" s="43"/>
+      <c r="D480" s="48"/>
       <c r="E480" s="19">
         <v>5</v>
       </c>
@@ -11628,14 +11688,14 @@
         <v>351</v>
       </c>
       <c r="I480" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K480" s="25"/>
       <c r="L480" s="2"/>
     </row>
     <row r="481" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B481" s="32"/>
-      <c r="D481" s="43"/>
+      <c r="D481" s="48"/>
       <c r="E481" s="19">
         <v>6</v>
       </c>
@@ -11649,7 +11709,7 @@
         <v>349</v>
       </c>
       <c r="I481" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K481" s="25"/>
       <c r="L481" s="2"/>
@@ -11657,7 +11717,7 @@
     <row r="482" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A482" s="30"/>
       <c r="B482" s="32"/>
-      <c r="D482" s="43"/>
+      <c r="D482" s="48"/>
       <c r="E482" s="19">
         <v>7</v>
       </c>
@@ -11671,16 +11731,16 @@
         <v>355</v>
       </c>
       <c r="I482" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K482" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L482" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M482" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -11698,7 +11758,7 @@
       <c r="C484" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D484" s="43" t="s">
+      <c r="D484" s="48" t="s">
         <v>357</v>
       </c>
       <c r="E484" s="19">
@@ -11712,7 +11772,7 @@
     </row>
     <row r="485" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="32"/>
-      <c r="D485" s="43"/>
+      <c r="D485" s="48"/>
       <c r="E485" s="19">
         <v>2</v>
       </c>
@@ -11723,14 +11783,14 @@
         <v>61</v>
       </c>
       <c r="I485" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K485" s="25"/>
       <c r="L485" s="2"/>
     </row>
     <row r="486" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="32"/>
-      <c r="D486" s="43"/>
+      <c r="D486" s="48"/>
       <c r="E486" s="19">
         <v>3</v>
       </c>
@@ -11741,14 +11801,14 @@
         <v>63</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K486" s="25"/>
       <c r="L486" s="2"/>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B487" s="32"/>
-      <c r="D487" s="43"/>
+      <c r="D487" s="48"/>
       <c r="E487" s="19">
         <v>4</v>
       </c>
@@ -11759,14 +11819,14 @@
         <v>346</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
     </row>
     <row r="488" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B488" s="32"/>
-      <c r="D488" s="43"/>
+      <c r="D488" s="48"/>
       <c r="E488" s="19">
         <v>5</v>
       </c>
@@ -11780,14 +11840,14 @@
         <v>351</v>
       </c>
       <c r="I488" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
     </row>
     <row r="489" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="32"/>
-      <c r="D489" s="43"/>
+      <c r="D489" s="48"/>
       <c r="E489" s="19">
         <v>6</v>
       </c>
@@ -11801,7 +11861,7 @@
         <v>349</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
@@ -11809,7 +11869,7 @@
     <row r="490" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A490" s="30"/>
       <c r="B490" s="32"/>
-      <c r="D490" s="43"/>
+      <c r="D490" s="48"/>
       <c r="E490" s="19">
         <v>7</v>
       </c>
@@ -11823,13 +11883,13 @@
         <v>355</v>
       </c>
       <c r="I490" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="J490" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="J490" s="19" t="s">
-        <v>615</v>
-      </c>
       <c r="K490" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L490" s="2" t="s">
         <v>14</v>
@@ -11850,7 +11910,7 @@
       <c r="C492" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D492" s="43" t="s">
+      <c r="D492" s="48" t="s">
         <v>360</v>
       </c>
       <c r="E492" s="19">
@@ -11864,7 +11924,7 @@
     </row>
     <row r="493" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="32"/>
-      <c r="D493" s="43"/>
+      <c r="D493" s="48"/>
       <c r="E493" s="19">
         <v>2</v>
       </c>
@@ -11875,14 +11935,14 @@
         <v>61</v>
       </c>
       <c r="I493" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
     <row r="494" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="32"/>
-      <c r="D494" s="43"/>
+      <c r="D494" s="48"/>
       <c r="E494" s="19">
         <v>3</v>
       </c>
@@ -11893,14 +11953,14 @@
         <v>63</v>
       </c>
       <c r="I494" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
     <row r="495" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B495" s="32"/>
-      <c r="D495" s="43"/>
+      <c r="D495" s="48"/>
       <c r="E495" s="19">
         <v>4</v>
       </c>
@@ -11911,14 +11971,14 @@
         <v>363</v>
       </c>
       <c r="I495" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B496" s="32"/>
-      <c r="D496" s="43"/>
+      <c r="D496" s="48"/>
       <c r="E496" s="19">
         <v>5</v>
       </c>
@@ -11929,14 +11989,14 @@
         <v>365</v>
       </c>
       <c r="I496" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
     </row>
     <row r="497" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="32"/>
-      <c r="D497" s="43"/>
+      <c r="D497" s="48"/>
       <c r="E497" s="19">
         <v>6</v>
       </c>
@@ -11947,7 +12007,7 @@
         <v>366</v>
       </c>
       <c r="I497" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
@@ -11955,7 +12015,7 @@
     <row r="498" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="30"/>
       <c r="B498" s="32"/>
-      <c r="D498" s="43"/>
+      <c r="D498" s="48"/>
       <c r="E498" s="19">
         <v>7</v>
       </c>
@@ -11966,10 +12026,10 @@
         <v>367</v>
       </c>
       <c r="I498" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K498" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L498" s="2" t="s">
         <v>12</v>
@@ -11981,7 +12041,7 @@
       <c r="L499" s="2"/>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A500" s="47" t="s">
+      <c r="A500" s="43" t="s">
         <v>368</v>
       </c>
       <c r="B500" s="32" t="s">
@@ -11990,7 +12050,7 @@
       <c r="C500" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D500" s="43" t="s">
+      <c r="D500" s="48" t="s">
         <v>371</v>
       </c>
       <c r="E500" s="19">
@@ -12004,7 +12064,7 @@
     </row>
     <row r="501" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="32"/>
-      <c r="D501" s="43"/>
+      <c r="D501" s="48"/>
       <c r="E501" s="19">
         <v>2</v>
       </c>
@@ -12015,14 +12075,14 @@
         <v>61</v>
       </c>
       <c r="I501" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
     <row r="502" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B502" s="32"/>
-      <c r="D502" s="43"/>
+      <c r="D502" s="48"/>
       <c r="E502" s="19">
         <v>3</v>
       </c>
@@ -12033,14 +12093,14 @@
         <v>63</v>
       </c>
       <c r="I502" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
     <row r="503" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="32"/>
-      <c r="D503" s="43"/>
+      <c r="D503" s="48"/>
       <c r="E503" s="19">
         <v>4</v>
       </c>
@@ -12051,14 +12111,14 @@
         <v>370</v>
       </c>
       <c r="I503" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
     <row r="504" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="32"/>
-      <c r="D504" s="43"/>
+      <c r="D504" s="48"/>
       <c r="E504" s="19">
         <v>5</v>
       </c>
@@ -12069,29 +12129,29 @@
         <v>373</v>
       </c>
       <c r="I504" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L504" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M504" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="505" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B505" s="32"/>
-      <c r="D505" s="43"/>
-      <c r="E505" s="46">
+      <c r="D505" s="48"/>
+      <c r="E505" s="42">
         <v>6</v>
       </c>
-      <c r="F505" s="46" t="s">
+      <c r="F505" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G505" s="46" t="s">
+      <c r="G505" s="42" t="s">
         <v>374</v>
       </c>
       <c r="K505" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L505" s="2"/>
     </row>
@@ -12111,7 +12171,7 @@
       <c r="C507" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D507" s="43" t="s">
+      <c r="D507" s="48" t="s">
         <v>375</v>
       </c>
       <c r="E507" s="19">
@@ -12125,7 +12185,7 @@
     </row>
     <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="32"/>
-      <c r="D508" s="43"/>
+      <c r="D508" s="48"/>
       <c r="E508" s="19">
         <v>2</v>
       </c>
@@ -12136,14 +12196,14 @@
         <v>61</v>
       </c>
       <c r="I508" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
     <row r="509" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="32"/>
-      <c r="D509" s="43"/>
+      <c r="D509" s="48"/>
       <c r="E509" s="19">
         <v>3</v>
       </c>
@@ -12154,14 +12214,14 @@
         <v>63</v>
       </c>
       <c r="I509" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
     <row r="510" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="32"/>
-      <c r="D510" s="43"/>
+      <c r="D510" s="48"/>
       <c r="E510" s="19">
         <v>4</v>
       </c>
@@ -12172,14 +12232,14 @@
         <v>370</v>
       </c>
       <c r="I510" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K510" s="2"/>
       <c r="L510" s="2"/>
     </row>
     <row r="511" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="32"/>
-      <c r="D511" s="43"/>
+      <c r="D511" s="48"/>
       <c r="E511" s="19">
         <v>5</v>
       </c>
@@ -12190,14 +12250,14 @@
         <v>373</v>
       </c>
       <c r="I511" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
     </row>
     <row r="512" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B512" s="32"/>
-      <c r="D512" s="43"/>
+      <c r="D512" s="48"/>
       <c r="E512" s="19">
         <v>6</v>
       </c>
@@ -12208,10 +12268,10 @@
         <v>374</v>
       </c>
       <c r="I512" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K512" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L512" s="2" t="s">
         <v>14</v>
@@ -12232,7 +12292,7 @@
       <c r="C514" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D514" s="43" t="s">
+      <c r="D514" s="48" t="s">
         <v>396</v>
       </c>
       <c r="E514" s="19">
@@ -12245,14 +12305,14 @@
         <v>381</v>
       </c>
       <c r="I514" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
     </row>
     <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="32"/>
-      <c r="D515" s="43"/>
+      <c r="D515" s="48"/>
       <c r="E515" s="19">
         <v>2</v>
       </c>
@@ -12266,14 +12326,14 @@
         <v>384</v>
       </c>
       <c r="I515" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
     </row>
     <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="32"/>
-      <c r="D516" s="43"/>
+      <c r="D516" s="48"/>
       <c r="E516" s="19">
         <v>3</v>
       </c>
@@ -12284,10 +12344,10 @@
         <v>398</v>
       </c>
       <c r="I516" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K516" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L516" s="2" t="s">
         <v>12</v>
@@ -12308,7 +12368,7 @@
       <c r="C518" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D518" s="43" t="s">
+      <c r="D518" s="48" t="s">
         <v>406</v>
       </c>
       <c r="E518" s="19">
@@ -12321,14 +12381,14 @@
         <v>381</v>
       </c>
       <c r="I518" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
     <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="32"/>
-      <c r="D519" s="43"/>
+      <c r="D519" s="48"/>
       <c r="E519" s="19">
         <v>2</v>
       </c>
@@ -12342,14 +12402,14 @@
         <v>384</v>
       </c>
       <c r="I519" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
     <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="32"/>
-      <c r="D520" s="43"/>
+      <c r="D520" s="48"/>
       <c r="E520" s="19">
         <v>3</v>
       </c>
@@ -12360,19 +12420,19 @@
         <v>386</v>
       </c>
       <c r="I520" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
     <row r="521" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B521" s="32"/>
-      <c r="D521" s="43"/>
+      <c r="D521" s="48"/>
       <c r="E521" s="19">
         <v>4</v>
       </c>
       <c r="F521" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G521" s="19" t="s">
         <v>36</v>
@@ -12381,7 +12441,7 @@
         <v>388</v>
       </c>
       <c r="I521" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
@@ -12389,7 +12449,7 @@
     <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="30"/>
       <c r="B522" s="32"/>
-      <c r="D522" s="43"/>
+      <c r="D522" s="48"/>
       <c r="E522" s="19">
         <v>5</v>
       </c>
@@ -12400,14 +12460,14 @@
         <v>400</v>
       </c>
       <c r="I522" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
     <row r="523" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B523" s="32"/>
-      <c r="D523" s="43"/>
+      <c r="D523" s="48"/>
       <c r="E523" s="19">
         <v>6</v>
       </c>
@@ -12421,14 +12481,14 @@
         <v>403</v>
       </c>
       <c r="I523" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
     </row>
     <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B524" s="32"/>
-      <c r="D524" s="43"/>
+      <c r="D524" s="48"/>
       <c r="E524" s="19">
         <v>7</v>
       </c>
@@ -12439,10 +12499,10 @@
         <v>404</v>
       </c>
       <c r="I524" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K524" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L524" s="2" t="s">
         <v>12</v>
@@ -12463,7 +12523,7 @@
       <c r="C526" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D526" s="43" t="s">
+      <c r="D526" s="48" t="s">
         <v>409</v>
       </c>
       <c r="E526" s="19">
@@ -12476,14 +12536,14 @@
         <v>381</v>
       </c>
       <c r="I526" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
     <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="32"/>
-      <c r="D527" s="43"/>
+      <c r="D527" s="48"/>
       <c r="E527" s="19">
         <v>2</v>
       </c>
@@ -12497,14 +12557,14 @@
         <v>384</v>
       </c>
       <c r="I527" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
     <row r="528" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="32"/>
-      <c r="D528" s="43"/>
+      <c r="D528" s="48"/>
       <c r="E528" s="19">
         <v>3</v>
       </c>
@@ -12515,10 +12575,10 @@
         <v>408</v>
       </c>
       <c r="I528" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K528" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L528" s="2" t="s">
         <v>12</v>
@@ -12539,7 +12599,7 @@
       <c r="C530" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D530" s="43" t="s">
+      <c r="D530" s="48" t="s">
         <v>412</v>
       </c>
       <c r="E530" s="19">
@@ -12552,14 +12612,14 @@
         <v>381</v>
       </c>
       <c r="I530" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
     </row>
     <row r="531" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="32"/>
-      <c r="D531" s="43"/>
+      <c r="D531" s="48"/>
       <c r="E531" s="19">
         <v>2</v>
       </c>
@@ -12573,14 +12633,14 @@
         <v>384</v>
       </c>
       <c r="I531" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K531" s="2"/>
       <c r="L531" s="2"/>
     </row>
     <row r="532" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B532" s="32"/>
-      <c r="D532" s="43"/>
+      <c r="D532" s="48"/>
       <c r="E532" s="19">
         <v>5</v>
       </c>
@@ -12591,14 +12651,14 @@
         <v>414</v>
       </c>
       <c r="I532" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B533" s="32"/>
-      <c r="D533" s="43"/>
+      <c r="D533" s="48"/>
       <c r="E533" s="19">
         <v>6</v>
       </c>
@@ -12609,7 +12669,7 @@
         <v>416</v>
       </c>
       <c r="I533" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
@@ -12617,7 +12677,7 @@
     <row r="534" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="30"/>
       <c r="B534" s="32"/>
-      <c r="D534" s="43"/>
+      <c r="D534" s="48"/>
       <c r="E534" s="19">
         <v>7</v>
       </c>
@@ -12628,16 +12688,16 @@
         <v>418</v>
       </c>
       <c r="I534" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K534" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L534" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M534" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
@@ -12655,7 +12715,7 @@
       <c r="C536" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D536" s="43" t="s">
+      <c r="D536" s="48" t="s">
         <v>420</v>
       </c>
       <c r="E536" s="19">
@@ -12672,7 +12732,7 @@
     </row>
     <row r="537" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B537" s="32"/>
-      <c r="D537" s="43"/>
+      <c r="D537" s="48"/>
       <c r="E537" s="19">
         <v>2</v>
       </c>
@@ -12686,14 +12746,14 @@
         <v>384</v>
       </c>
       <c r="I537" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
     </row>
     <row r="538" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="32"/>
-      <c r="D538" s="43"/>
+      <c r="D538" s="48"/>
       <c r="E538" s="19">
         <v>3</v>
       </c>
@@ -12704,28 +12764,28 @@
         <v>386</v>
       </c>
       <c r="I538" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
     <row r="539" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B539" s="32"/>
-      <c r="D539" s="43"/>
+      <c r="D539" s="48"/>
       <c r="E539" s="19">
         <v>4</v>
       </c>
       <c r="F539" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G539" s="19" t="s">
         <v>36</v>
       </c>
       <c r="H539" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I539" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
@@ -12733,7 +12793,7 @@
     <row r="540" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="30"/>
       <c r="B540" s="32"/>
-      <c r="D540" s="43"/>
+      <c r="D540" s="48"/>
       <c r="E540" s="19">
         <v>5</v>
       </c>
@@ -12744,7 +12804,7 @@
         <v>422</v>
       </c>
       <c r="I540" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K540" s="2"/>
       <c r="L540" s="2"/>
@@ -12752,7 +12812,7 @@
     <row r="541" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="30"/>
       <c r="B541" s="32"/>
-      <c r="D541" s="43"/>
+      <c r="D541" s="48"/>
       <c r="E541" s="19">
         <v>6</v>
       </c>
@@ -12760,13 +12820,13 @@
         <v>76</v>
       </c>
       <c r="G541" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I541" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K541" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L541" s="2" t="s">
         <v>12</v>
@@ -12787,7 +12847,7 @@
       <c r="C543" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D543" s="43" t="s">
+      <c r="D543" s="48" t="s">
         <v>424</v>
       </c>
       <c r="E543" s="19">
@@ -12800,14 +12860,14 @@
         <v>381</v>
       </c>
       <c r="I543" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
     <row r="544" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="32"/>
-      <c r="D544" s="43"/>
+      <c r="D544" s="48"/>
       <c r="E544" s="19">
         <v>2</v>
       </c>
@@ -12821,14 +12881,14 @@
         <v>384</v>
       </c>
       <c r="I544" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
     </row>
     <row r="545" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B545" s="32"/>
-      <c r="D545" s="43"/>
+      <c r="D545" s="48"/>
       <c r="E545" s="19">
         <v>3</v>
       </c>
@@ -12842,14 +12902,14 @@
         <v>426</v>
       </c>
       <c r="I545" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
     <row r="546" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B546" s="32"/>
-      <c r="D546" s="43"/>
+      <c r="D546" s="48"/>
       <c r="E546" s="19">
         <v>4</v>
       </c>
@@ -12863,7 +12923,7 @@
         <v>425</v>
       </c>
       <c r="I546" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
@@ -12871,7 +12931,7 @@
     <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="30"/>
       <c r="B547" s="32"/>
-      <c r="D547" s="43"/>
+      <c r="D547" s="48"/>
       <c r="E547" s="19">
         <v>5</v>
       </c>
@@ -12882,7 +12942,7 @@
         <v>427</v>
       </c>
       <c r="I547" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
@@ -12890,7 +12950,7 @@
     <row r="548" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="30"/>
       <c r="B548" s="32"/>
-      <c r="D548" s="43"/>
+      <c r="D548" s="48"/>
       <c r="E548" s="19">
         <v>6</v>
       </c>
@@ -12904,13 +12964,13 @@
         <v>426</v>
       </c>
       <c r="I548" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J548" s="19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K548" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L548" s="2" t="s">
         <v>14</v>
@@ -12931,7 +12991,7 @@
       <c r="C550" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D550" s="43" t="s">
+      <c r="D550" s="48" t="s">
         <v>432</v>
       </c>
       <c r="E550" s="19">
@@ -12943,12 +13003,15 @@
       <c r="G550" s="19" t="s">
         <v>381</v>
       </c>
+      <c r="I550" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
     <row r="551" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="32"/>
-      <c r="D551" s="43"/>
+      <c r="D551" s="48"/>
       <c r="E551" s="19">
         <v>2</v>
       </c>
@@ -12961,12 +13024,15 @@
       <c r="H551" s="19" t="s">
         <v>384</v>
       </c>
+      <c r="I551" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
     </row>
     <row r="552" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="32"/>
-      <c r="D552" s="43"/>
+      <c r="D552" s="48"/>
       <c r="E552" s="19">
         <v>3</v>
       </c>
@@ -12979,12 +13045,15 @@
       <c r="H552" s="19" t="s">
         <v>426</v>
       </c>
+      <c r="I552" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
     </row>
     <row r="553" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B553" s="32"/>
-      <c r="D553" s="43"/>
+      <c r="D553" s="48"/>
       <c r="E553" s="19">
         <v>4</v>
       </c>
@@ -12996,6 +13065,9 @@
       </c>
       <c r="H553" s="19" t="s">
         <v>431</v>
+      </c>
+      <c r="I553" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
@@ -13003,7 +13075,7 @@
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="30"/>
       <c r="B554" s="32"/>
-      <c r="D554" s="43"/>
+      <c r="D554" s="48"/>
       <c r="E554" s="19">
         <v>5</v>
       </c>
@@ -13012,6 +13084,9 @@
       </c>
       <c r="G554" s="19" t="s">
         <v>427</v>
+      </c>
+      <c r="I554" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
@@ -13019,7 +13094,7 @@
     <row r="555" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="30"/>
       <c r="B555" s="32"/>
-      <c r="D555" s="43"/>
+      <c r="D555" s="48"/>
       <c r="E555" s="19">
         <v>6</v>
       </c>
@@ -13029,12 +13104,15 @@
       <c r="G555" s="19" t="s">
         <v>381</v>
       </c>
+      <c r="I555" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
     </row>
     <row r="556" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="32"/>
-      <c r="D556" s="43"/>
+      <c r="D556" s="48"/>
       <c r="E556" s="19">
         <v>7</v>
       </c>
@@ -13047,12 +13125,15 @@
       <c r="H556" s="19" t="s">
         <v>384</v>
       </c>
+      <c r="I556" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K556" s="2"/>
       <c r="L556" s="2"/>
     </row>
     <row r="557" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B557" s="32"/>
-      <c r="D557" s="43"/>
+      <c r="D557" s="48"/>
       <c r="E557" s="19">
         <v>8</v>
       </c>
@@ -13064,6 +13145,9 @@
       </c>
       <c r="H557" s="19" t="s">
         <v>426</v>
+      </c>
+      <c r="I557" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K557" s="2"/>
       <c r="L557" s="2"/>
@@ -13071,7 +13155,7 @@
     <row r="558" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="30"/>
       <c r="B558" s="32"/>
-      <c r="D558" s="43"/>
+      <c r="D558" s="48"/>
       <c r="E558" s="19">
         <v>9</v>
       </c>
@@ -13084,12 +13168,15 @@
       <c r="H558" s="19" t="s">
         <v>431</v>
       </c>
+      <c r="I558" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
     </row>
     <row r="559" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B559" s="32"/>
-      <c r="D559" s="43"/>
+      <c r="D559" s="48"/>
       <c r="E559" s="19">
         <v>10</v>
       </c>
@@ -13097,19 +13184,19 @@
         <v>76</v>
       </c>
       <c r="G559" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="I559" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="I559" s="19" t="s">
-        <v>606</v>
-      </c>
       <c r="K559" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L559" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M559" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
@@ -13127,27 +13214,27 @@
       <c r="C561" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D561" s="43" t="s">
+      <c r="D561" s="48" t="s">
         <v>434</v>
       </c>
       <c r="E561" s="19">
         <v>1</v>
       </c>
       <c r="F561" s="19" t="s">
-        <v>380</v>
+        <v>619</v>
       </c>
       <c r="G561" s="19" t="s">
         <v>381</v>
       </c>
       <c r="I561" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
     <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B562" s="32"/>
-      <c r="D562" s="43"/>
+      <c r="D562" s="48"/>
       <c r="E562" s="19">
         <v>2</v>
       </c>
@@ -13161,14 +13248,14 @@
         <v>384</v>
       </c>
       <c r="I562" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
     <row r="563" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="32"/>
-      <c r="D563" s="43"/>
+      <c r="D563" s="48"/>
       <c r="E563" s="19">
         <v>3</v>
       </c>
@@ -13182,14 +13269,14 @@
         <v>426</v>
       </c>
       <c r="I563" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
     <row r="564" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B564" s="32"/>
-      <c r="D564" s="43"/>
+      <c r="D564" s="48"/>
       <c r="E564" s="19">
         <v>4</v>
       </c>
@@ -13203,7 +13290,7 @@
         <v>431</v>
       </c>
       <c r="I564" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
@@ -13211,7 +13298,7 @@
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="30"/>
       <c r="B565" s="32"/>
-      <c r="D565" s="43"/>
+      <c r="D565" s="48"/>
       <c r="E565" s="19">
         <v>5</v>
       </c>
@@ -13222,7 +13309,7 @@
         <v>427</v>
       </c>
       <c r="I565" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
@@ -13230,7 +13317,7 @@
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="30"/>
       <c r="B566" s="32"/>
-      <c r="D566" s="43"/>
+      <c r="D566" s="48"/>
       <c r="E566" s="19">
         <v>6</v>
       </c>
@@ -13241,14 +13328,14 @@
         <v>436</v>
       </c>
       <c r="I566" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
     </row>
     <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="32"/>
-      <c r="D567" s="43"/>
+      <c r="D567" s="48"/>
       <c r="E567" s="19">
         <v>7</v>
       </c>
@@ -13259,14 +13346,14 @@
         <v>438</v>
       </c>
       <c r="I567" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
     <row r="568" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B568" s="32"/>
-      <c r="D568" s="43"/>
+      <c r="D568" s="48"/>
       <c r="E568" s="19">
         <v>8</v>
       </c>
@@ -13277,10 +13364,10 @@
         <v>439</v>
       </c>
       <c r="I568" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K568" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L568" s="2" t="s">
         <v>12</v>
@@ -13301,7 +13388,7 @@
       <c r="C570" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D570" s="43" t="s">
+      <c r="D570" s="48" t="s">
         <v>446</v>
       </c>
       <c r="E570" s="19">
@@ -13314,14 +13401,14 @@
         <v>442</v>
       </c>
       <c r="I570" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
     </row>
     <row r="571" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B571" s="32"/>
-      <c r="D571" s="43"/>
+      <c r="D571" s="48"/>
       <c r="E571" s="19">
         <v>2</v>
       </c>
@@ -13334,12 +13421,15 @@
       <c r="H571" s="19" t="s">
         <v>445</v>
       </c>
+      <c r="I571" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
     </row>
     <row r="572" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B572" s="32"/>
-      <c r="D572" s="43"/>
+      <c r="D572" s="48"/>
       <c r="E572" s="19">
         <v>3</v>
       </c>
@@ -13349,12 +13439,15 @@
       <c r="G572" s="19" t="s">
         <v>448</v>
       </c>
+      <c r="I572" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
     <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="32"/>
-      <c r="D573" s="43"/>
+      <c r="D573" s="48"/>
       <c r="E573" s="19">
         <v>4</v>
       </c>
@@ -13364,8 +13457,15 @@
       <c r="G573" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="K573" s="2"/>
-      <c r="L573" s="2"/>
+      <c r="I573" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="K573" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L573" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B574" s="32"/>
@@ -13382,7 +13482,7 @@
       <c r="C575" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D575" s="43" t="s">
+      <c r="D575" s="48" t="s">
         <v>450</v>
       </c>
       <c r="E575" s="19">
@@ -13399,7 +13499,7 @@
     </row>
     <row r="576" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="32"/>
-      <c r="D576" s="43"/>
+      <c r="D576" s="48"/>
       <c r="E576" s="19">
         <v>2</v>
       </c>
@@ -13415,9 +13515,9 @@
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
     </row>
-    <row r="577" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B577" s="32"/>
-      <c r="D577" s="43"/>
+      <c r="D577" s="48"/>
       <c r="E577" s="19">
         <v>3</v>
       </c>
@@ -13430,9 +13530,9 @@
       <c r="K577" s="2"/>
       <c r="L577" s="2"/>
     </row>
-    <row r="578" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B578" s="32"/>
-      <c r="D578" s="43"/>
+      <c r="D578" s="48"/>
       <c r="E578" s="19">
         <v>4</v>
       </c>
@@ -13445,9 +13545,9 @@
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="32"/>
-      <c r="D579" s="43"/>
+      <c r="D579" s="48"/>
       <c r="E579" s="19">
         <v>5</v>
       </c>
@@ -13460,12 +13560,12 @@
       <c r="K579" s="2"/>
       <c r="L579" s="2"/>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B580" s="32"/>
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
     </row>
-    <row r="581" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="28" t="s">
         <v>461</v>
       </c>
@@ -13475,7 +13575,7 @@
       <c r="C581" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D581" s="43" t="s">
+      <c r="D581" s="48" t="s">
         <v>456</v>
       </c>
       <c r="E581" s="19">
@@ -13490,9 +13590,9 @@
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
     </row>
-    <row r="582" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="32"/>
-      <c r="D582" s="43"/>
+      <c r="D582" s="48"/>
       <c r="E582" s="19">
         <v>2</v>
       </c>
@@ -13508,9 +13608,9 @@
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
     </row>
-    <row r="583" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B583" s="32"/>
-      <c r="D583" s="43"/>
+      <c r="D583" s="48"/>
       <c r="E583" s="19">
         <v>3</v>
       </c>
@@ -13526,9 +13626,9 @@
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
-    <row r="584" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B584" s="32"/>
-      <c r="D584" s="43"/>
+      <c r="D584" s="48"/>
       <c r="E584" s="19">
         <v>4</v>
       </c>
@@ -13541,9 +13641,9 @@
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
-    <row r="585" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B585" s="32"/>
-      <c r="D585" s="43"/>
+      <c r="D585" s="48"/>
       <c r="E585" s="19">
         <v>5</v>
       </c>
@@ -13556,12 +13656,12 @@
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B586" s="32"/>
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="28" t="s">
         <v>469</v>
       </c>
@@ -13571,7 +13671,7 @@
       <c r="C587" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D587" s="43" t="s">
+      <c r="D587" s="48" t="s">
         <v>462</v>
       </c>
       <c r="E587" s="19">
@@ -13583,12 +13683,15 @@
       <c r="G587" s="19" t="s">
         <v>442</v>
       </c>
+      <c r="I587" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
     </row>
-    <row r="588" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B588" s="32"/>
-      <c r="D588" s="43"/>
+      <c r="D588" s="48"/>
       <c r="E588" s="19">
         <v>2</v>
       </c>
@@ -13601,12 +13704,15 @@
       <c r="H588" s="19" t="s">
         <v>445</v>
       </c>
+      <c r="I588" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K588" s="2"/>
       <c r="L588" s="2"/>
     </row>
-    <row r="589" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B589" s="32"/>
-      <c r="D589" s="43"/>
+      <c r="D589" s="48"/>
       <c r="E589" s="19">
         <v>3</v>
       </c>
@@ -13616,12 +13722,19 @@
       <c r="G589" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="K589" s="2"/>
-      <c r="L589" s="2"/>
-    </row>
-    <row r="590" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I589" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="L589" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M589" s="19" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="32"/>
-      <c r="D590" s="43"/>
+      <c r="D590" s="48"/>
       <c r="E590" s="19">
         <v>4</v>
       </c>
@@ -13634,9 +13747,9 @@
       <c r="K590" s="2"/>
       <c r="L590" s="2"/>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B591" s="32"/>
-      <c r="D591" s="43"/>
+      <c r="D591" s="48"/>
       <c r="E591" s="19">
         <v>5</v>
       </c>
@@ -13649,9 +13762,9 @@
       <c r="K591" s="2"/>
       <c r="L591" s="2"/>
     </row>
-    <row r="592" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="32"/>
-      <c r="D592" s="43"/>
+      <c r="D592" s="48"/>
       <c r="E592" s="19">
         <v>6</v>
       </c>
@@ -13661,15 +13774,17 @@
       <c r="G592" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="K592" s="2"/>
+      <c r="K592" s="25" t="s">
+        <v>592</v>
+      </c>
       <c r="L592" s="2"/>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B593" s="31"/>
       <c r="K593" s="2"/>
       <c r="L593" s="2"/>
     </row>
-    <row r="594" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="28" t="s">
         <v>470</v>
       </c>
@@ -13679,7 +13794,7 @@
       <c r="C594" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D594" s="43" t="s">
+      <c r="D594" s="48" t="s">
         <v>467</v>
       </c>
       <c r="E594" s="19">
@@ -13691,12 +13806,15 @@
       <c r="G594" s="19" t="s">
         <v>442</v>
       </c>
+      <c r="I594" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K594" s="2"/>
       <c r="L594" s="2"/>
     </row>
-    <row r="595" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B595" s="32"/>
-      <c r="D595" s="43"/>
+      <c r="D595" s="48"/>
       <c r="E595" s="19">
         <v>2</v>
       </c>
@@ -13709,12 +13827,15 @@
       <c r="H595" s="19" t="s">
         <v>445</v>
       </c>
+      <c r="I595" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K595" s="2"/>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B596" s="32"/>
-      <c r="D596" s="43"/>
+      <c r="D596" s="48"/>
       <c r="E596" s="19">
         <v>3</v>
       </c>
@@ -13724,12 +13845,20 @@
       <c r="G596" s="19" t="s">
         <v>448</v>
       </c>
+      <c r="I596" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="J596" s="19" t="s">
+        <v>625</v>
+      </c>
       <c r="K596" s="2"/>
-      <c r="L596" s="2"/>
-    </row>
-    <row r="597" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L596" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B597" s="32"/>
-      <c r="D597" s="43"/>
+      <c r="D597" s="48"/>
       <c r="E597" s="19">
         <v>4</v>
       </c>
@@ -13742,9 +13871,9 @@
       <c r="K597" s="2"/>
       <c r="L597" s="2"/>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B598" s="32"/>
-      <c r="D598" s="43"/>
+      <c r="D598" s="48"/>
       <c r="E598" s="19">
         <v>5</v>
       </c>
@@ -13757,9 +13886,9 @@
       <c r="K598" s="2"/>
       <c r="L598" s="2"/>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B599" s="31"/>
-      <c r="D599" s="43"/>
+      <c r="D599" s="48"/>
       <c r="E599" s="19">
         <v>6</v>
       </c>
@@ -13769,15 +13898,17 @@
       <c r="G599" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="K599" s="2"/>
+      <c r="K599" s="25" t="s">
+        <v>592</v>
+      </c>
       <c r="L599" s="2"/>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B600" s="31"/>
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
     </row>
-    <row r="601" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="28" t="s">
         <v>478</v>
       </c>
@@ -13787,7 +13918,7 @@
       <c r="C601" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D601" s="43" t="s">
+      <c r="D601" s="48" t="s">
         <v>471</v>
       </c>
       <c r="E601" s="19">
@@ -13799,12 +13930,15 @@
       <c r="G601" s="19" t="s">
         <v>473</v>
       </c>
+      <c r="I601" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
     </row>
-    <row r="602" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B602" s="38"/>
-      <c r="D602" s="43"/>
+      <c r="D602" s="48"/>
       <c r="E602" s="19">
         <v>2</v>
       </c>
@@ -13814,12 +13948,18 @@
       <c r="G602" s="19" t="s">
         <v>475</v>
       </c>
+      <c r="J602" s="19" t="s">
+        <v>628</v>
+      </c>
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
-    </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M602" s="19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B603" s="38"/>
-      <c r="D603" s="43"/>
+      <c r="D603" s="48"/>
       <c r="E603" s="19">
         <v>3</v>
       </c>
@@ -13829,15 +13969,22 @@
       <c r="G603" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="K603" s="2"/>
-      <c r="L603" s="2"/>
-    </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J603" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="K603" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L603" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B604" s="31"/>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
-    <row r="605" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="28" t="s">
         <v>487</v>
       </c>
@@ -13847,7 +13994,7 @@
       <c r="C605" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D605" s="43" t="s">
+      <c r="D605" s="48" t="s">
         <v>479</v>
       </c>
       <c r="E605" s="19">
@@ -13859,12 +14006,15 @@
       <c r="G605" s="19" t="s">
         <v>481</v>
       </c>
+      <c r="I605" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B606" s="38"/>
-      <c r="D606" s="43"/>
+      <c r="D606" s="48"/>
       <c r="E606" s="19">
         <v>2</v>
       </c>
@@ -13877,12 +14027,15 @@
       <c r="H606" s="19" t="s">
         <v>484</v>
       </c>
+      <c r="I606" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K606" s="2"/>
       <c r="L606" s="2"/>
     </row>
-    <row r="607" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B607" s="38"/>
-      <c r="D607" s="43"/>
+      <c r="D607" s="48"/>
       <c r="E607" s="19">
         <v>3</v>
       </c>
@@ -13892,12 +14045,15 @@
       <c r="G607" s="19" t="s">
         <v>486</v>
       </c>
+      <c r="I607" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K607" s="2"/>
       <c r="L607" s="2"/>
     </row>
-    <row r="608" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="31"/>
-      <c r="D608" s="43"/>
+      <c r="D608" s="48"/>
       <c r="E608" s="19">
         <v>4</v>
       </c>
@@ -13907,16 +14063,23 @@
       <c r="G608" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="K608" s="2"/>
-      <c r="L608" s="2"/>
-    </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I608" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="K608" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L608" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B609" s="37"/>
       <c r="D609" s="37"/>
       <c r="K609" s="2"/>
       <c r="L609" s="2"/>
     </row>
-    <row r="610" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="28" t="s">
         <v>494</v>
       </c>
@@ -13926,7 +14089,7 @@
       <c r="C610" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D610" s="43" t="s">
+      <c r="D610" s="48" t="s">
         <v>490</v>
       </c>
       <c r="E610" s="19">
@@ -13938,12 +14101,15 @@
       <c r="G610" s="19" t="s">
         <v>481</v>
       </c>
+      <c r="I610" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K610" s="2"/>
       <c r="L610" s="2"/>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B611" s="38"/>
-      <c r="D611" s="43"/>
+      <c r="D611" s="48"/>
       <c r="E611" s="19">
         <v>2</v>
       </c>
@@ -13956,12 +14122,15 @@
       <c r="H611" s="19" t="s">
         <v>484</v>
       </c>
+      <c r="I611" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K611" s="2"/>
       <c r="L611" s="2"/>
     </row>
-    <row r="612" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B612" s="38"/>
-      <c r="D612" s="43"/>
+      <c r="D612" s="48"/>
       <c r="E612" s="19">
         <v>3</v>
       </c>
@@ -13971,715 +14140,872 @@
       <c r="G612" s="19" t="s">
         <v>488</v>
       </c>
+      <c r="I612" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K612" s="2"/>
       <c r="L612" s="2"/>
     </row>
-    <row r="613" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="31"/>
-      <c r="D613" s="43"/>
+      <c r="D613" s="48"/>
       <c r="E613" s="19">
         <v>4</v>
       </c>
       <c r="F613" s="19" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G613" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="K613" s="2"/>
-      <c r="L613" s="2"/>
-    </row>
-    <row r="614" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="I613" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="K613" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L613" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M613" s="19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B614" s="31"/>
-      <c r="D614" s="43"/>
-      <c r="E614" s="19">
-        <v>5</v>
-      </c>
-      <c r="F614" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="G614" s="19" t="s">
-        <v>493</v>
-      </c>
       <c r="K614" s="2"/>
       <c r="L614" s="2"/>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B615" s="31"/>
+    <row r="615" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A615" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="B615" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C615" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D615" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="E615" s="19">
+        <v>1</v>
+      </c>
+      <c r="F615" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="G615" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="I615" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K615" s="2"/>
       <c r="L615" s="2"/>
     </row>
-    <row r="616" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A616" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="B616" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C616" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D616" s="43" t="s">
-        <v>495</v>
-      </c>
+    <row r="616" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B616" s="38"/>
+      <c r="D616" s="48"/>
       <c r="E616" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F616" s="19" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G616" s="19" t="s">
-        <v>497</v>
+        <v>499</v>
+      </c>
+      <c r="I616" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K616" s="2"/>
       <c r="L616" s="2"/>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B617" s="38"/>
-      <c r="D617" s="43"/>
+    <row r="617" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B617" s="37"/>
+      <c r="D617" s="48"/>
       <c r="E617" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F617" s="19" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="G617" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="K617" s="2"/>
-      <c r="L617" s="2"/>
-    </row>
-    <row r="618" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B618" s="38"/>
-      <c r="D618" s="43"/>
-      <c r="E618" s="19">
-        <v>3</v>
-      </c>
-      <c r="F618" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="G618" s="19" t="s">
-        <v>499</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="I617" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="K617" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L617" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B618" s="37"/>
+      <c r="D618" s="48"/>
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
-    <row r="619" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B619" s="37"/>
-      <c r="D619" s="43"/>
-      <c r="E619" s="19">
-        <v>4</v>
-      </c>
-      <c r="F619" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="G619" s="19" t="s">
-        <v>500</v>
-      </c>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B619" s="31"/>
       <c r="K619" s="2"/>
       <c r="L619" s="2"/>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B620" s="37"/>
-      <c r="D620" s="43"/>
+    <row r="620" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="B620" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C620" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D620" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="E620" s="19">
+        <v>1</v>
+      </c>
+      <c r="F620" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="G620" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="I620" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K620" s="2"/>
       <c r="L620" s="2"/>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B621" s="31"/>
+    <row r="621" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B621" s="40"/>
+      <c r="D621" s="48"/>
+      <c r="E621" s="19">
+        <v>2</v>
+      </c>
+      <c r="F621" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G621" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I621" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K621" s="2"/>
       <c r="L621" s="2"/>
     </row>
-    <row r="622" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="B622" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C622" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D622" s="43" t="s">
-        <v>502</v>
-      </c>
+    <row r="622" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B622" s="39"/>
+      <c r="D622" s="48"/>
       <c r="E622" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F622" s="19" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G622" s="19" t="s">
-        <v>497</v>
+        <v>500</v>
+      </c>
+      <c r="I622" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K622" s="2"/>
       <c r="L622" s="2"/>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B623" s="40"/>
-      <c r="D623" s="43"/>
+    <row r="623" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B623" s="39"/>
+      <c r="D623" s="48"/>
       <c r="E623" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F623" s="19" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="G623" s="19" t="s">
-        <v>483</v>
+        <v>504</v>
+      </c>
+      <c r="I623" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K623" s="2"/>
       <c r="L623" s="2"/>
     </row>
-    <row r="624" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B624" s="40"/>
-      <c r="D624" s="43"/>
+    <row r="624" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B624" s="31"/>
+      <c r="D624" s="48"/>
       <c r="E624" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F624" s="19" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="G624" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="K624" s="2"/>
-      <c r="L624" s="2"/>
-    </row>
-    <row r="625" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B625" s="39"/>
-      <c r="D625" s="43"/>
-      <c r="E625" s="19">
-        <v>4</v>
-      </c>
-      <c r="F625" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="G625" s="19" t="s">
-        <v>500</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="I624" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="K624" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L624" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B625" s="31"/>
       <c r="K625" s="2"/>
       <c r="L625" s="2"/>
     </row>
-    <row r="626" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B626" s="39"/>
-      <c r="D626" s="43"/>
+    <row r="626" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A626" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="B626" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C626" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D626" s="48" t="s">
+        <v>508</v>
+      </c>
       <c r="E626" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F626" s="19" t="s">
-        <v>503</v>
+        <v>621</v>
       </c>
       <c r="G626" s="19" t="s">
-        <v>504</v>
+        <v>509</v>
+      </c>
+      <c r="I626" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K626" s="2"/>
       <c r="L626" s="2"/>
     </row>
-    <row r="627" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B627" s="31"/>
-      <c r="D627" s="43"/>
+    <row r="627" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B627" s="40"/>
+      <c r="D627" s="48"/>
       <c r="E627" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F627" s="19" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G627" s="19" t="s">
-        <v>506</v>
+        <v>511</v>
+      </c>
+      <c r="I627" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K627" s="2"/>
       <c r="L627" s="2"/>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B628" s="31"/>
+    <row r="628" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A628" s="45" t="s">
+        <v>623</v>
+      </c>
+      <c r="B628" s="40"/>
+      <c r="D628" s="48"/>
+      <c r="E628" s="19">
+        <v>3</v>
+      </c>
+      <c r="F628" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="G628" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="I628" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K628" s="2"/>
       <c r="L628" s="2"/>
     </row>
-    <row r="629" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A629" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="B629" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C629" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D629" s="43" t="s">
-        <v>508</v>
-      </c>
+    <row r="629" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B629" s="39"/>
+      <c r="D629" s="48"/>
       <c r="E629" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F629" s="19" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="G629" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="K629" s="2"/>
-      <c r="L629" s="2"/>
-    </row>
-    <row r="630" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B630" s="40"/>
-      <c r="D630" s="43"/>
-      <c r="E630" s="19">
-        <v>2</v>
-      </c>
-      <c r="F630" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="G630" s="19" t="s">
-        <v>512</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="I629" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="K629" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L629" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B630" s="31"/>
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
-    <row r="631" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B631" s="40"/>
-      <c r="D631" s="43"/>
+    <row r="631" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A631" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="B631" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C631" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D631" s="48" t="s">
+        <v>515</v>
+      </c>
       <c r="E631" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F631" s="19" t="s">
-        <v>513</v>
+        <v>620</v>
       </c>
       <c r="G631" s="19" t="s">
-        <v>514</v>
+        <v>509</v>
+      </c>
+      <c r="I631" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K631" s="2"/>
       <c r="L631" s="2"/>
     </row>
-    <row r="632" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B632" s="39"/>
-      <c r="D632" s="43"/>
+    <row r="632" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B632" s="40"/>
+      <c r="D632" s="48"/>
       <c r="E632" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F632" s="19" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="G632" s="19" t="s">
-        <v>515</v>
+        <v>511</v>
+      </c>
+      <c r="I632" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K632" s="2"/>
       <c r="L632" s="2"/>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B633" s="31"/>
+    <row r="633" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B633" s="40"/>
+      <c r="D633" s="48"/>
+      <c r="E633" s="19">
+        <v>3</v>
+      </c>
+      <c r="F633" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="G633" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="I633" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K633" s="2"/>
       <c r="L633" s="2"/>
     </row>
-    <row r="634" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A634" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="B634" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C634" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D634" s="43" t="s">
+    <row r="634" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B634" s="39"/>
+      <c r="D634" s="48"/>
+      <c r="E634" s="19">
+        <v>4</v>
+      </c>
+      <c r="F634" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G634" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="I634" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="K634" s="25"/>
+      <c r="L634" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M634" s="19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B635" s="39"/>
+      <c r="D635" s="48"/>
+      <c r="E635" s="19">
+        <v>5</v>
+      </c>
+      <c r="F635" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="G635" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="E634" s="19">
-        <v>1</v>
-      </c>
-      <c r="F634" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="G634" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="K634" s="2"/>
-      <c r="L634" s="2"/>
-    </row>
-    <row r="635" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B635" s="40"/>
-      <c r="D635" s="43"/>
-      <c r="E635" s="19">
-        <v>2</v>
-      </c>
-      <c r="F635" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="G635" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="K635" s="2"/>
-      <c r="L635" s="2"/>
-    </row>
-    <row r="636" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B636" s="40"/>
-      <c r="D636" s="43"/>
-      <c r="E636" s="19">
-        <v>3</v>
-      </c>
-      <c r="F636" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="G636" s="19" t="s">
-        <v>514</v>
-      </c>
+      <c r="K635" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B636" s="31"/>
       <c r="K636" s="2"/>
       <c r="L636" s="2"/>
     </row>
-    <row r="637" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B637" s="39"/>
-      <c r="D637" s="43"/>
+    <row r="637" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="B637" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C637" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D637" s="48" t="s">
+        <v>519</v>
+      </c>
       <c r="E637" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F637" s="19" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="G637" s="19" t="s">
-        <v>515</v>
+        <v>509</v>
+      </c>
+      <c r="I637" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K637" s="2"/>
       <c r="L637" s="2"/>
     </row>
-    <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B638" s="39"/>
-      <c r="D638" s="43"/>
+    <row r="638" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="28"/>
+      <c r="B638" s="40"/>
+      <c r="D638" s="48"/>
       <c r="E638" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F638" s="19" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="G638" s="19" t="s">
-        <v>517</v>
+        <v>530</v>
+      </c>
+      <c r="I638" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K638" s="2"/>
       <c r="L638" s="2"/>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B639" s="31"/>
+    <row r="639" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A639" s="28"/>
+      <c r="B639" s="40"/>
+      <c r="D639" s="48"/>
+      <c r="E639" s="19">
+        <v>3</v>
+      </c>
+      <c r="F639" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="G639" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="I639" s="19" t="s">
+        <v>589</v>
+      </c>
       <c r="K639" s="2"/>
       <c r="L639" s="2"/>
     </row>
-    <row r="640" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="B640" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C640" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D640" s="43" t="s">
-        <v>520</v>
-      </c>
+    <row r="640" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="B640" s="40"/>
+      <c r="D640" s="48"/>
       <c r="E640" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F640" s="19" t="s">
         <v>521</v>
       </c>
       <c r="G640" s="19" t="s">
-        <v>510</v>
+        <v>522</v>
+      </c>
+      <c r="I640" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K640" s="2"/>
       <c r="L640" s="2"/>
     </row>
-    <row r="641" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="28"/>
+    <row r="641" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B641" s="40"/>
-      <c r="D641" s="43"/>
+      <c r="D641" s="48"/>
       <c r="E641" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F641" s="19" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G641" s="19" t="s">
-        <v>531</v>
+        <v>524</v>
+      </c>
+      <c r="I641" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K641" s="2"/>
       <c r="L641" s="2"/>
     </row>
-    <row r="642" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A642" s="28"/>
-      <c r="B642" s="40"/>
-      <c r="D642" s="43"/>
+    <row r="642" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="B642" s="39"/>
+      <c r="D642" s="48"/>
       <c r="E642" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F642" s="19" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G642" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="K642" s="2"/>
-      <c r="L642" s="2"/>
-    </row>
-    <row r="643" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B643" s="40"/>
-      <c r="D643" s="43"/>
+        <v>526</v>
+      </c>
+      <c r="I642" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="K642" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L642" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M642" s="19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B643" s="39"/>
+      <c r="D643" s="48"/>
       <c r="E643" s="19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F643" s="19" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G643" s="19" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="K643" s="2"/>
       <c r="L643" s="2"/>
     </row>
-    <row r="644" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B644" s="40"/>
-      <c r="D644" s="43"/>
-      <c r="E644" s="19">
-        <v>5</v>
-      </c>
-      <c r="F644" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="G644" s="19" t="s">
-        <v>525</v>
-      </c>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B644" s="31"/>
       <c r="K644" s="2"/>
       <c r="L644" s="2"/>
     </row>
-    <row r="645" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B645" s="39"/>
-      <c r="D645" s="43"/>
+    <row r="645" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="B645" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C645" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D645" s="48" t="s">
+        <v>533</v>
+      </c>
       <c r="E645" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F645" s="19" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G645" s="19" t="s">
-        <v>527</v>
+        <v>535</v>
+      </c>
+      <c r="I645" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K645" s="2"/>
       <c r="L645" s="2"/>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B646" s="39"/>
-      <c r="D646" s="43"/>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B646" s="40"/>
+      <c r="D646" s="48"/>
       <c r="E646" s="19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F646" s="19" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G646" s="19" t="s">
-        <v>427</v>
+        <v>537</v>
+      </c>
+      <c r="I646" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K646" s="2"/>
       <c r="L646" s="2"/>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B647" s="31"/>
-      <c r="K647" s="2"/>
-      <c r="L647" s="2"/>
-    </row>
-    <row r="648" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="B648" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C648" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D648" s="43" t="s">
-        <v>534</v>
-      </c>
-      <c r="E648" s="19">
-        <v>1</v>
-      </c>
-      <c r="F648" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="G648" s="19" t="s">
-        <v>536</v>
-      </c>
+    <row r="647" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B647" s="40"/>
+      <c r="D647" s="48"/>
+      <c r="E647" s="19">
+        <v>3</v>
+      </c>
+      <c r="F647" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G647" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="I647" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="K647" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L647" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B648" s="31"/>
       <c r="K648" s="2"/>
       <c r="L648" s="2"/>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B649" s="40"/>
-      <c r="D649" s="43"/>
+    <row r="649" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B649" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C649" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D649" s="48" t="s">
+        <v>540</v>
+      </c>
       <c r="E649" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F649" s="19" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G649" s="19" t="s">
-        <v>538</v>
+        <v>542</v>
+      </c>
+      <c r="I649" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K649" s="2"/>
       <c r="L649" s="2"/>
     </row>
-    <row r="650" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B650" s="40"/>
-      <c r="D650" s="43"/>
+      <c r="D650" s="48"/>
       <c r="E650" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F650" s="19" t="s">
-        <v>115</v>
+        <v>543</v>
       </c>
       <c r="G650" s="19" t="s">
-        <v>539</v>
+        <v>544</v>
+      </c>
+      <c r="I650" s="19" t="s">
+        <v>589</v>
       </c>
       <c r="K650" s="2"/>
       <c r="L650" s="2"/>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B651" s="31"/>
-      <c r="K651" s="2"/>
-      <c r="L651" s="2"/>
-    </row>
-    <row r="652" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="B652" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C652" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D652" s="43" t="s">
-        <v>541</v>
-      </c>
-      <c r="E652" s="19">
-        <v>1</v>
-      </c>
-      <c r="F652" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="G652" s="19" t="s">
-        <v>543</v>
-      </c>
+    <row r="651" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B651" s="40"/>
+      <c r="D651" s="48"/>
+      <c r="E651" s="19">
+        <v>3</v>
+      </c>
+      <c r="F651" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="G651" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="I651" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="K651" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L651" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B652" s="31"/>
       <c r="K652" s="2"/>
       <c r="L652" s="2"/>
     </row>
-    <row r="653" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B653" s="40"/>
-      <c r="D653" s="43"/>
+    <row r="653" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="B653" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C653" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D653" s="48" t="s">
+        <v>548</v>
+      </c>
       <c r="E653" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F653" s="19" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G653" s="19" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K653" s="2"/>
       <c r="L653" s="2"/>
     </row>
-    <row r="654" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A654" s="46" t="s">
+        <v>622</v>
+      </c>
       <c r="B654" s="40"/>
-      <c r="D654" s="43"/>
+      <c r="D654" s="48"/>
       <c r="E654" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F654" s="19" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G654" s="19" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K654" s="2"/>
       <c r="L654" s="2"/>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B655" s="31"/>
+    <row r="655" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B655" s="40"/>
+      <c r="D655" s="48"/>
+      <c r="E655" s="19">
+        <v>3</v>
+      </c>
+      <c r="F655" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="G655" s="19" t="s">
+        <v>550</v>
+      </c>
       <c r="K655" s="2"/>
       <c r="L655" s="2"/>
     </row>
-    <row r="656" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="B656" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C656" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D656" s="43" t="s">
-        <v>549</v>
-      </c>
+    <row r="656" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B656" s="39"/>
+      <c r="D656" s="48"/>
       <c r="E656" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F656" s="19" t="s">
-        <v>542</v>
+        <v>76</v>
       </c>
       <c r="G656" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="K656" s="2"/>
-      <c r="L656" s="2"/>
-    </row>
-    <row r="657" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="B657" s="40"/>
-      <c r="D657" s="43"/>
-      <c r="E657" s="19">
-        <v>2</v>
-      </c>
-      <c r="F657" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="G657" s="19" t="s">
-        <v>551</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="K656" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L656" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B657" s="39"/>
       <c r="K657" s="2"/>
       <c r="L657" s="2"/>
     </row>
-    <row r="658" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B658" s="40"/>
-      <c r="D658" s="43"/>
+    <row r="658" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="B658" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C658" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D658" s="48" t="s">
+        <v>554</v>
+      </c>
       <c r="E658" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F658" s="19" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G658" s="19" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="K658" s="2"/>
       <c r="L658" s="2"/>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B659" s="39"/>
-      <c r="D659" s="43"/>
+    <row r="659" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A659" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="B659" s="40"/>
+      <c r="D659" s="48"/>
       <c r="E659" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F659" s="19" t="s">
-        <v>76</v>
+        <v>555</v>
       </c>
       <c r="G659" s="19" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K659" s="2"/>
       <c r="L659" s="2"/>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B660" s="39"/>
-      <c r="K660" s="2"/>
-      <c r="L660" s="2"/>
-    </row>
-    <row r="661" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B660" s="40"/>
+      <c r="D660" s="48"/>
+      <c r="E660" s="19">
+        <v>3</v>
+      </c>
+      <c r="F660" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G660" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="K660" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L660" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="28" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B661" s="40" t="s">
         <v>29</v>
@@ -14687,39 +15013,39 @@
       <c r="C661" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D661" s="43" t="s">
-        <v>555</v>
+      <c r="D661" s="48" t="s">
+        <v>557</v>
       </c>
       <c r="E661" s="19">
         <v>1</v>
       </c>
       <c r="F661" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="G661" s="19" t="s">
         <v>542</v>
-      </c>
-      <c r="G661" s="19" t="s">
-        <v>543</v>
       </c>
       <c r="K661" s="2"/>
       <c r="L661" s="2"/>
     </row>
-    <row r="662" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="40"/>
-      <c r="D662" s="43"/>
+      <c r="D662" s="48"/>
       <c r="E662" s="19">
         <v>2</v>
       </c>
       <c r="F662" s="19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G662" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K662" s="2"/>
       <c r="L662" s="2"/>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B663" s="40"/>
-      <c r="D663" s="43"/>
+      <c r="D663" s="48"/>
       <c r="E663" s="19">
         <v>3</v>
       </c>
@@ -14727,356 +15053,333 @@
         <v>76</v>
       </c>
       <c r="G663" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="K663" s="2"/>
-      <c r="L663" s="2"/>
-    </row>
-    <row r="664" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="K663" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L663" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B664" s="39"/>
+      <c r="L664" s="2"/>
+    </row>
+    <row r="665" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A665" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="B665" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C665" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D665" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="B664" s="40" t="s">
+      <c r="E665" s="19">
+        <v>1</v>
+      </c>
+      <c r="F665" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="G665" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="L665" s="2"/>
+    </row>
+    <row r="666" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B666" s="40"/>
+      <c r="D666" s="48"/>
+      <c r="E666" s="19">
+        <v>2</v>
+      </c>
+      <c r="F666" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="G666" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="L666" s="2"/>
+    </row>
+    <row r="667" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B667" s="40"/>
+      <c r="D667" s="48"/>
+      <c r="E667" s="19">
+        <v>3</v>
+      </c>
+      <c r="F667" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G667" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="K667" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L667" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B668" s="39"/>
+      <c r="L668" s="2"/>
+    </row>
+    <row r="669" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A669" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="B669" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C664" s="25" t="s">
+      <c r="C669" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D664" s="43" t="s">
-        <v>558</v>
-      </c>
-      <c r="E664" s="19">
+      <c r="D669" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="E669" s="19">
         <v>1</v>
       </c>
-      <c r="F664" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="G664" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="K664" s="2"/>
-      <c r="L664" s="2"/>
-    </row>
-    <row r="665" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B665" s="40"/>
-      <c r="D665" s="43"/>
-      <c r="E665" s="19">
+      <c r="F669" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="G669" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="L669" s="2"/>
+    </row>
+    <row r="670" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B670" s="40"/>
+      <c r="D670" s="48"/>
+      <c r="E670" s="19">
         <v>2</v>
       </c>
-      <c r="F665" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="G665" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="K665" s="2"/>
-      <c r="L665" s="2"/>
-    </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B666" s="40"/>
-      <c r="D666" s="43"/>
-      <c r="E666" s="19">
+      <c r="F670" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="G670" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="H670" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="L670" s="2"/>
+    </row>
+    <row r="671" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B671" s="40"/>
+      <c r="D671" s="48"/>
+      <c r="E671" s="19">
         <v>3</v>
       </c>
-      <c r="F666" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G666" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="L666" s="2"/>
-    </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B667" s="39"/>
-      <c r="L667" s="2"/>
-    </row>
-    <row r="668" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A668" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="B668" s="40" t="s">
+      <c r="F671" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="G671" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="K671" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="L671" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B672" s="31"/>
+      <c r="L672" s="2"/>
+    </row>
+    <row r="673" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A673" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="B673" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C668" s="25" t="s">
+      <c r="C673" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D668" s="43" t="s">
-        <v>561</v>
-      </c>
-      <c r="E668" s="19">
+      <c r="D673" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="E673" s="19">
         <v>1</v>
       </c>
-      <c r="F668" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="G668" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="L668" s="2"/>
-    </row>
-    <row r="669" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B669" s="40"/>
-      <c r="D669" s="43"/>
-      <c r="E669" s="19">
-        <v>2</v>
-      </c>
-      <c r="F669" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="G669" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="L669" s="2"/>
-    </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B670" s="40"/>
-      <c r="D670" s="43"/>
-      <c r="E670" s="19">
-        <v>3</v>
-      </c>
-      <c r="F670" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G670" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="L670" s="2"/>
-    </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B671" s="39"/>
-      <c r="L671" s="2"/>
-    </row>
-    <row r="672" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A672" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="B672" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C672" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D672" s="43" t="s">
-        <v>564</v>
-      </c>
-      <c r="E672" s="19">
-        <v>1</v>
-      </c>
-      <c r="F672" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="G672" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="L672" s="2"/>
-    </row>
-    <row r="673" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B673" s="40"/>
-      <c r="D673" s="43"/>
-      <c r="E673" s="19">
-        <v>2</v>
-      </c>
       <c r="F673" s="19" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="G673" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="H673" s="19" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="L673" s="2"/>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B674" s="40"/>
-      <c r="D674" s="43"/>
+      <c r="D674" s="48"/>
       <c r="E674" s="19">
+        <v>2</v>
+      </c>
+      <c r="F674" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="G674" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="L674" s="2"/>
+    </row>
+    <row r="675" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B675" s="40"/>
+      <c r="D675" s="48"/>
+      <c r="E675" s="19">
         <v>3</v>
       </c>
-      <c r="F674" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="G674" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="L674" s="2"/>
-    </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B675" s="31"/>
-      <c r="L675" s="2"/>
-    </row>
-    <row r="676" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A676" s="28" t="s">
+      <c r="F675" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="G675" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="K675" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="L675" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B676" s="31"/>
+      <c r="L676" s="2"/>
+    </row>
+    <row r="677" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A677" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="B677" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C677" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D677" s="48" t="s">
         <v>579</v>
       </c>
-      <c r="B676" s="40" t="s">
+      <c r="E677" s="19">
+        <v>1</v>
+      </c>
+      <c r="F677" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="G677" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="L677" s="2"/>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B678" s="40"/>
+      <c r="D678" s="48"/>
+      <c r="E678" s="19">
+        <v>2</v>
+      </c>
+      <c r="F678" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="G678" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="L678" s="2"/>
+    </row>
+    <row r="679" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B679" s="40"/>
+      <c r="D679" s="48"/>
+      <c r="E679" s="19">
+        <v>3</v>
+      </c>
+      <c r="F679" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="G679" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="K679" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="L679" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B680" s="31"/>
+      <c r="L680" s="2"/>
+    </row>
+    <row r="681" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A681" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="B681" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C676" s="25" t="s">
+      <c r="C681" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D676" s="43" t="s">
-        <v>572</v>
-      </c>
-      <c r="E676" s="19">
+      <c r="D681" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="E681" s="19">
         <v>1</v>
       </c>
-      <c r="F676" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="G676" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="L676" s="2"/>
-    </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B677" s="40"/>
-      <c r="D677" s="43"/>
-      <c r="E677" s="19">
+      <c r="F681" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="G681" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="L681" s="2"/>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B682" s="40"/>
+      <c r="D682" s="48"/>
+      <c r="E682" s="19">
         <v>2</v>
       </c>
-      <c r="F677" s="19" t="s">
+      <c r="F682" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="G682" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="G677" s="19" t="s">
+      <c r="L682" s="2"/>
+    </row>
+    <row r="683" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B683" s="40"/>
+      <c r="D683" s="48"/>
+      <c r="E683" s="19">
+        <v>3</v>
+      </c>
+      <c r="F683" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="L677" s="2"/>
-    </row>
-    <row r="678" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B678" s="40"/>
-      <c r="D678" s="43"/>
-      <c r="E678" s="19">
-        <v>3</v>
-      </c>
-      <c r="F678" s="19" t="s">
+      <c r="G683" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="G678" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="K678" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="L678" s="2" t="s">
+      <c r="K683" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="L683" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B679" s="31"/>
-      <c r="L679" s="2"/>
-    </row>
-    <row r="680" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A680" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="B680" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C680" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D680" s="43" t="s">
-        <v>580</v>
-      </c>
-      <c r="E680" s="19">
-        <v>1</v>
-      </c>
-      <c r="F680" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="G680" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="L680" s="2"/>
-    </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B681" s="40"/>
-      <c r="D681" s="43"/>
-      <c r="E681" s="19">
-        <v>2</v>
-      </c>
-      <c r="F681" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="G681" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="L681" s="2"/>
-    </row>
-    <row r="682" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B682" s="40"/>
-      <c r="D682" s="43"/>
-      <c r="E682" s="19">
-        <v>3</v>
-      </c>
-      <c r="F682" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="G682" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="K682" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="L682" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B683" s="31"/>
-      <c r="L683" s="2"/>
-    </row>
-    <row r="684" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A684" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="B684" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C684" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D684" s="43" t="s">
-        <v>585</v>
-      </c>
-      <c r="E684" s="19">
-        <v>1</v>
-      </c>
-      <c r="F684" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="G684" s="19" t="s">
-        <v>587</v>
-      </c>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B684" s="31"/>
       <c r="L684" s="2"/>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B685" s="40"/>
-      <c r="D685" s="43"/>
-      <c r="E685" s="19">
-        <v>2</v>
-      </c>
-      <c r="F685" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="G685" s="19" t="s">
-        <v>576</v>
-      </c>
+      <c r="B685" s="31"/>
       <c r="L685" s="2"/>
     </row>
-    <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B686" s="40"/>
-      <c r="D686" s="43"/>
-      <c r="E686" s="19">
-        <v>3</v>
-      </c>
-      <c r="F686" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="G686" s="19" t="s">
-        <v>578</v>
-      </c>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B686" s="31"/>
       <c r="L686" s="2"/>
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.25">
@@ -15124,15 +15427,12 @@
       <c r="L697" s="2"/>
     </row>
     <row r="698" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B698" s="31"/>
       <c r="L698" s="2"/>
     </row>
     <row r="699" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B699" s="31"/>
       <c r="L699" s="2"/>
     </row>
     <row r="700" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B700" s="31"/>
       <c r="L700" s="2"/>
     </row>
     <row r="701" spans="2:12" x14ac:dyDescent="0.25">
@@ -15155,15 +15455,6 @@
     </row>
     <row r="707" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L707" s="2"/>
-    </row>
-    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L708" s="2"/>
-    </row>
-    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L709" s="2"/>
-    </row>
-    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L710" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="95">
@@ -15243,41 +15534,41 @@
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D640:D646"/>
-    <mergeCell ref="D648:D650"/>
-    <mergeCell ref="D652:D654"/>
-    <mergeCell ref="D656:D659"/>
+    <mergeCell ref="D637:D643"/>
+    <mergeCell ref="D645:D647"/>
+    <mergeCell ref="D649:D651"/>
+    <mergeCell ref="D653:D656"/>
     <mergeCell ref="D581:D585"/>
-    <mergeCell ref="D622:D627"/>
-    <mergeCell ref="D629:D632"/>
-    <mergeCell ref="D634:D638"/>
-    <mergeCell ref="D616:D620"/>
+    <mergeCell ref="D620:D624"/>
+    <mergeCell ref="D626:D629"/>
+    <mergeCell ref="D631:D635"/>
+    <mergeCell ref="D615:D618"/>
     <mergeCell ref="D601:D603"/>
     <mergeCell ref="D605:D608"/>
-    <mergeCell ref="D610:D614"/>
-    <mergeCell ref="D680:D682"/>
-    <mergeCell ref="D684:D686"/>
+    <mergeCell ref="D610:D613"/>
+    <mergeCell ref="D677:D679"/>
+    <mergeCell ref="D681:D683"/>
+    <mergeCell ref="D658:D660"/>
     <mergeCell ref="D661:D663"/>
-    <mergeCell ref="D664:D666"/>
-    <mergeCell ref="D668:D670"/>
-    <mergeCell ref="D672:D674"/>
-    <mergeCell ref="D676:D678"/>
+    <mergeCell ref="D665:D667"/>
+    <mergeCell ref="D669:D671"/>
+    <mergeCell ref="D673:D675"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B616:B618 B622:B624 B629:B631 B634:B636 B640:B644 B648:B650 B652:B654 B656:B658 B661:B666 B668:B670 B672:B674 B676:B678 B680:B682 B684:B686" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B626:B628 B631:B633 B637:B641 B645:B647 B649:B651 B653:B655 B658:B663 B665:B667 B669:B671 B673:B675 B677:B679 B681:B683 B615:B616 B620:B621" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C169:C201 C207:C235 C239:C260 C262:C286 C288:C309 C312:C332 C334:C355 C357:C378 C380:C401 C2:C164 C403:C1048576" xr:uid="{4613EE89-5E19-42FA-AB1F-2526DEDE59AC}">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K569:K665 K542:K547 K549:K558 K560:K567 K487:K489 K491:K503 K505:K540" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K505:K540 K542:K547 K549:K558 K560:K567 K487:K489 K491:K503 K590:K628 K569:K572 K574:K588 K630:K633 K635:K641 K643:K646 K648:K650 K661:K662 K652:K655 K657:K659" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K76:K486 K2:K74 K541 K548 K559 K568 K490 K505 K498 K512 K516 K524 K528 K534" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K76:K486 K2:K74 K541 K548 K559 K568 K490 K505 K498 K512 K516 K524 K528 K534 K629 K573 K592 K599 K603 K608 K613 K617 K624 K634 K642 K647 K651 K660 K656 K663 K667 K671 K635" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L74 L76:L710" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L74 L76:L634 L636:L707" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15312,7 +15603,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="48" t="s">
         <v>283</v>
       </c>
       <c r="E2" s="19">
@@ -15328,7 +15619,7 @@
       <c r="A3" s="29"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="43"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -15344,7 +15635,7 @@
       <c r="A4" s="29"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="43"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -15360,7 +15651,7 @@
       <c r="A5" s="29"/>
       <c r="B5" s="32"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="43"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -15376,7 +15667,7 @@
       <c r="A6" s="29"/>
       <c r="B6" s="32"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="43"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -15392,7 +15683,7 @@
       <c r="A7" s="29"/>
       <c r="B7" s="32"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="43"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="19">
         <v>6</v>
       </c>
@@ -15424,7 +15715,7 @@
       <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="48" t="s">
         <v>287</v>
       </c>
       <c r="E9" s="19">
@@ -15440,7 +15731,7 @@
       <c r="A10" s="29"/>
       <c r="B10" s="32"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="19">
         <v>2</v>
       </c>
@@ -15456,7 +15747,7 @@
       <c r="A11" s="29"/>
       <c r="B11" s="32"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="19">
         <v>3</v>
       </c>
@@ -15472,7 +15763,7 @@
       <c r="A12" s="29"/>
       <c r="B12" s="32"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="19">
         <v>4</v>
       </c>
@@ -15488,7 +15779,7 @@
       <c r="A13" s="29"/>
       <c r="B13" s="32"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="19">
         <v>5</v>
       </c>
@@ -15504,7 +15795,7 @@
       <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="19">
         <v>6</v>
       </c>
@@ -15520,7 +15811,7 @@
       <c r="A15" s="29"/>
       <c r="B15" s="32"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="43"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="19">
         <v>7</v>
       </c>
@@ -15550,7 +15841,7 @@
       <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="48" t="s">
         <v>290</v>
       </c>
       <c r="E17" s="19">
@@ -15566,7 +15857,7 @@
       <c r="A18" s="29"/>
       <c r="B18" s="32"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="19">
         <v>2</v>
       </c>
@@ -15582,7 +15873,7 @@
       <c r="A19" s="29"/>
       <c r="B19" s="32"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="19">
         <v>3</v>
       </c>
@@ -15598,7 +15889,7 @@
       <c r="A20" s="29"/>
       <c r="B20" s="32"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="19">
         <v>4</v>
       </c>
@@ -15614,7 +15905,7 @@
       <c r="A21" s="29"/>
       <c r="B21" s="32"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="43"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="19">
         <v>5</v>
       </c>
@@ -15630,7 +15921,7 @@
       <c r="A22" s="29"/>
       <c r="B22" s="32"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="19">
         <v>6</v>
       </c>
@@ -15643,7 +15934,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="43"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="19">
         <v>7</v>
       </c>

--- a/Test Execution/Rijo/Test Case - Theatre.xlsx
+++ b/Test Execution/Rijo/Test Case - Theatre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522217DF-BC07-436A-839B-55CA0CC4C515}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546562E-865F-4704-BE19-72748A6F3F83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="662">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2459,12 +2459,6 @@
     <t>Navigate to Theatre&gt;&gt;Menu&gt;&gt;Transations&gt;&gt;Issued To Patient &gt;&gt;Enter Patient Id of IN-Patient</t>
   </si>
   <si>
-    <t>Doubt</t>
-  </si>
-  <si>
-    <t>Doubt(Loose?)</t>
-  </si>
-  <si>
     <t>Unable to enter quantity</t>
   </si>
   <si>
@@ -2496,6 +2490,93 @@
   </si>
   <si>
     <t xml:space="preserve">Unable to select from and to date </t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_097</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to view Pending Requisition</t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Click on Pending Requisition</t>
+  </si>
+  <si>
+    <t>Theatre page should be opened</t>
+  </si>
+  <si>
+    <t>User should be able to select data</t>
+  </si>
+  <si>
+    <t>Select From and To date&gt;&gt;Select Patient  from the dropdown list</t>
+  </si>
+  <si>
+    <t>Enter Patient Id&gt;&gt;Click on Search</t>
+  </si>
+  <si>
+    <t>Pending request for the selected patient should be displayed</t>
+  </si>
+  <si>
+    <t>Enter Patient Id&gt;&gt;Click on Search&gt;&gt;Click on Refresh</t>
+  </si>
+  <si>
+    <t>Navigate to Theatre&gt;&gt;Click on Booking List</t>
+  </si>
+  <si>
+    <t>Booking List page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to Print Booking List</t>
+  </si>
+  <si>
+    <t>Page should be displayed with selected bookin g details</t>
+  </si>
+  <si>
+    <t>Click on Select&gt;&gt;Click on print</t>
+  </si>
+  <si>
+    <t>Page should be printed</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_098</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_099</t>
+  </si>
+  <si>
+    <t>Click on Select&gt;&gt;Click on Send Email</t>
+  </si>
+  <si>
+    <t>Page should be navigate to Mail Book List page</t>
+  </si>
+  <si>
+    <t>Select Doctor from the dropdown list&gt;&gt;Select required doctor</t>
+  </si>
+  <si>
+    <t>Doctor should be selected and email address should be auto populated</t>
+  </si>
+  <si>
+    <t>Click on Continue</t>
+  </si>
+  <si>
+    <t>Mail should be send</t>
+  </si>
+  <si>
+    <t>Mail sending failed</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to Mail Booking List</t>
+  </si>
+  <si>
+    <t>Verify whether the user is able to View Treatment Summary</t>
+  </si>
+  <si>
+    <t>Treatment summary details of the patient should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Treatment Summary&gt;&gt;Click on Close</t>
+  </si>
+  <si>
+    <t>MED_THEATRE_TC_100</t>
   </si>
 </sst>
 </file>
@@ -2561,8 +2642,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2607,7 +2687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2773,20 +2853,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2799,6 +2870,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,7 +2990,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,7 +3055,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3040,7 +3120,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,7 +3185,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,19 +3802,19 @@
       </c>
       <c r="B2" s="18">
         <f>Theatre!P2</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="18">
         <f>Theatre!P3</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="18">
         <f>Theatre!S2</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" s="18">
         <f>Theatre!S3</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="18">
         <f>Theatre!S4</f>
@@ -3751,19 +3831,19 @@
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:G3" si="0">SUM(B2:B2)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
@@ -3787,16 +3867,16 @@
       <c r="B6" s="15"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3810,11 +3890,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S707"/>
+  <dimension ref="A1:S708"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3892,7 +3972,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="46" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="19">
@@ -3917,21 +3997,21 @@
       </c>
       <c r="P2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="27">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="50"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -3956,21 +4036,21 @@
       </c>
       <c r="P3" s="17">
         <f>COUNTA(L:L)-1</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="27">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="50"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -4003,7 +4083,7 @@
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="50"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -4032,7 +4112,7 @@
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="50"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -4168,7 +4248,7 @@
       <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="19">
@@ -4182,7 +4262,7 @@
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
@@ -4200,7 +4280,7 @@
     </row>
     <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="19">
         <v>3</v>
       </c>
@@ -4221,7 +4301,7 @@
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="19">
         <v>5</v>
       </c>
@@ -4256,7 +4336,7 @@
       <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="45" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="19">
@@ -4271,7 +4351,7 @@
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="32"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="19">
         <v>2</v>
       </c>
@@ -4290,7 +4370,7 @@
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="19">
         <v>3</v>
       </c>
@@ -4312,7 +4392,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="32"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="19">
         <v>4</v>
       </c>
@@ -4331,7 +4411,7 @@
     <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="32"/>
-      <c r="D22" s="48"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="19">
         <v>5</v>
       </c>
@@ -4366,7 +4446,7 @@
       <c r="C24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="45" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="19">
@@ -4383,7 +4463,7 @@
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
-      <c r="D25" s="48"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="19">
         <v>2</v>
       </c>
@@ -4401,7 +4481,7 @@
     </row>
     <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="19">
         <v>3</v>
       </c>
@@ -4422,7 +4502,7 @@
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="19">
         <v>4</v>
       </c>
@@ -4440,7 +4520,7 @@
     </row>
     <row r="28" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="19">
         <v>5</v>
       </c>
@@ -4458,7 +4538,7 @@
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="19">
         <v>6</v>
       </c>
@@ -4476,7 +4556,7 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="19">
         <v>7</v>
       </c>
@@ -4511,7 +4591,7 @@
       <c r="C32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="19">
@@ -4525,7 +4605,7 @@
     </row>
     <row r="33" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4543,7 +4623,7 @@
     </row>
     <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4564,7 +4644,7 @@
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4582,7 +4662,7 @@
     </row>
     <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
-      <c r="D36" s="48"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -4600,7 +4680,7 @@
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
-      <c r="D37" s="48"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -4618,7 +4698,7 @@
     </row>
     <row r="38" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
-      <c r="D38" s="48"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -4636,7 +4716,7 @@
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
-      <c r="D39" s="48"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -4654,7 +4734,7 @@
     </row>
     <row r="40" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
-      <c r="D40" s="48"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -4689,7 +4769,7 @@
       <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="45" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="19">
@@ -4703,7 +4783,7 @@
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
-      <c r="D43" s="48"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="19">
         <v>2</v>
       </c>
@@ -4721,7 +4801,7 @@
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="19">
         <v>3</v>
       </c>
@@ -4739,7 +4819,7 @@
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
-      <c r="D45" s="48"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="19">
         <v>4</v>
       </c>
@@ -4757,7 +4837,7 @@
     </row>
     <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
-      <c r="D46" s="48"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4783,7 +4863,7 @@
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
-      <c r="D47" s="48"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="19">
         <v>6</v>
       </c>
@@ -4801,7 +4881,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
-      <c r="D48" s="48"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="19">
         <v>7</v>
       </c>
@@ -4816,7 +4896,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
-      <c r="D49" s="48"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="19">
         <v>8</v>
       </c>
@@ -4831,7 +4911,7 @@
     </row>
     <row r="50" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
-      <c r="D50" s="48"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="19">
         <v>9</v>
       </c>
@@ -4861,7 +4941,7 @@
       <c r="C52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="19">
@@ -4875,7 +4955,7 @@
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
-      <c r="D53" s="48"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -4893,7 +4973,7 @@
     </row>
     <row r="54" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32"/>
-      <c r="D54" s="48"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="19">
         <v>3</v>
       </c>
@@ -4911,7 +4991,7 @@
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
-      <c r="D55" s="48"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="19">
         <v>4</v>
       </c>
@@ -4929,7 +5009,7 @@
     </row>
     <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="32"/>
-      <c r="D56" s="48"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="19">
         <v>5</v>
       </c>
@@ -4950,7 +5030,7 @@
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="32"/>
-      <c r="D57" s="48"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="19">
         <v>6</v>
       </c>
@@ -4976,7 +5056,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="32"/>
-      <c r="D58" s="48"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="19">
         <v>7</v>
       </c>
@@ -4991,7 +5071,7 @@
     </row>
     <row r="59" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="32"/>
-      <c r="D59" s="48"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -5006,7 +5086,7 @@
     </row>
     <row r="60" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="32"/>
-      <c r="D60" s="48"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="19">
         <v>9</v>
       </c>
@@ -5021,7 +5101,7 @@
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
-      <c r="D61" s="48"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="19">
         <v>10</v>
       </c>
@@ -5051,7 +5131,7 @@
       <c r="C63" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="19">
@@ -5065,7 +5145,7 @@
     </row>
     <row r="64" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="32"/>
-      <c r="D64" s="48"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="19">
         <v>2</v>
       </c>
@@ -5083,7 +5163,7 @@
     </row>
     <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
-      <c r="D65" s="48"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="19">
         <v>3</v>
       </c>
@@ -5101,7 +5181,7 @@
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
-      <c r="D66" s="48"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="19">
         <v>4</v>
       </c>
@@ -5119,7 +5199,7 @@
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="32"/>
-      <c r="D67" s="48"/>
+      <c r="D67" s="45"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -5154,7 +5234,7 @@
       <c r="C69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="45" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="19">
@@ -5168,7 +5248,7 @@
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="32"/>
-      <c r="D70" s="48"/>
+      <c r="D70" s="45"/>
       <c r="E70" s="19">
         <v>2</v>
       </c>
@@ -5186,7 +5266,7 @@
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="32"/>
-      <c r="D71" s="48"/>
+      <c r="D71" s="45"/>
       <c r="E71" s="19">
         <v>3</v>
       </c>
@@ -5204,7 +5284,7 @@
     </row>
     <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="32"/>
-      <c r="D72" s="48"/>
+      <c r="D72" s="45"/>
       <c r="E72" s="19">
         <v>4</v>
       </c>
@@ -5222,7 +5302,7 @@
     </row>
     <row r="73" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32"/>
-      <c r="D73" s="48"/>
+      <c r="D73" s="45"/>
       <c r="E73" s="19">
         <v>5</v>
       </c>
@@ -5240,7 +5320,7 @@
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
-      <c r="D74" s="48"/>
+      <c r="D74" s="45"/>
       <c r="E74" s="19">
         <v>6</v>
       </c>
@@ -5273,7 +5353,7 @@
       <c r="C76" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="45" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="19">
@@ -5287,7 +5367,7 @@
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="32"/>
-      <c r="D77" s="48"/>
+      <c r="D77" s="45"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -5305,7 +5385,7 @@
     </row>
     <row r="78" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32"/>
-      <c r="D78" s="48"/>
+      <c r="D78" s="45"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -5323,7 +5403,7 @@
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="32"/>
-      <c r="D79" s="48"/>
+      <c r="D79" s="45"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -5358,7 +5438,7 @@
       <c r="C81" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D81" s="45" t="s">
         <v>97</v>
       </c>
       <c r="E81" s="19">
@@ -5372,7 +5452,7 @@
     </row>
     <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
-      <c r="D82" s="48"/>
+      <c r="D82" s="45"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
@@ -5390,7 +5470,7 @@
     </row>
     <row r="83" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
-      <c r="D83" s="48"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="19">
         <v>3</v>
       </c>
@@ -5408,7 +5488,7 @@
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
-      <c r="D84" s="48"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="19">
         <v>4</v>
       </c>
@@ -5444,7 +5524,7 @@
       <c r="C86" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D86" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="19">
@@ -5458,7 +5538,7 @@
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
-      <c r="D87" s="48"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -5473,7 +5553,7 @@
     </row>
     <row r="88" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
-      <c r="D88" s="48"/>
+      <c r="D88" s="45"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -5488,7 +5568,7 @@
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
-      <c r="D89" s="48"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="19">
         <v>4</v>
       </c>
@@ -5503,7 +5583,7 @@
     </row>
     <row r="90" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
-      <c r="D90" s="48"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="19">
         <v>5</v>
       </c>
@@ -5521,7 +5601,7 @@
     </row>
     <row r="91" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="32"/>
-      <c r="D91" s="48"/>
+      <c r="D91" s="45"/>
       <c r="E91" s="19">
         <v>6</v>
       </c>
@@ -5539,7 +5619,7 @@
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
-      <c r="D92" s="48"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="19">
         <v>7</v>
       </c>
@@ -5567,7 +5647,7 @@
       <c r="C94" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="48" t="s">
+      <c r="D94" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E94" s="19">
@@ -5581,7 +5661,7 @@
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
-      <c r="D95" s="48"/>
+      <c r="D95" s="45"/>
       <c r="E95" s="19">
         <v>2</v>
       </c>
@@ -5596,7 +5676,7 @@
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
-      <c r="D96" s="48"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="19">
         <v>3</v>
       </c>
@@ -5611,7 +5691,7 @@
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
-      <c r="D97" s="48"/>
+      <c r="D97" s="45"/>
       <c r="E97" s="19">
         <v>4</v>
       </c>
@@ -5626,7 +5706,7 @@
     </row>
     <row r="98" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
-      <c r="D98" s="48"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="19">
         <v>5</v>
       </c>
@@ -5644,7 +5724,7 @@
     </row>
     <row r="99" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
-      <c r="D99" s="48"/>
+      <c r="D99" s="45"/>
       <c r="E99" s="19">
         <v>6</v>
       </c>
@@ -5662,7 +5742,7 @@
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
-      <c r="D100" s="48"/>
+      <c r="D100" s="45"/>
       <c r="E100" s="19">
         <v>7</v>
       </c>
@@ -5677,7 +5757,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
-      <c r="D101" s="48"/>
+      <c r="D101" s="45"/>
       <c r="E101" s="19">
         <v>8</v>
       </c>
@@ -5705,7 +5785,7 @@
       <c r="C103" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="48" t="s">
+      <c r="D103" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E103" s="19">
@@ -5719,7 +5799,7 @@
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="32"/>
-      <c r="D104" s="48"/>
+      <c r="D104" s="45"/>
       <c r="E104" s="19">
         <v>2</v>
       </c>
@@ -5734,7 +5814,7 @@
     </row>
     <row r="105" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
-      <c r="D105" s="48"/>
+      <c r="D105" s="45"/>
       <c r="E105" s="19">
         <v>3</v>
       </c>
@@ -5749,7 +5829,7 @@
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
-      <c r="D106" s="48"/>
+      <c r="D106" s="45"/>
       <c r="E106" s="19">
         <v>4</v>
       </c>
@@ -5764,7 +5844,7 @@
     </row>
     <row r="107" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
-      <c r="D107" s="48"/>
+      <c r="D107" s="45"/>
       <c r="E107" s="19">
         <v>5</v>
       </c>
@@ -5782,7 +5862,7 @@
     </row>
     <row r="108" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="D108" s="48"/>
+      <c r="D108" s="45"/>
       <c r="E108" s="19">
         <v>6</v>
       </c>
@@ -5800,7 +5880,7 @@
     </row>
     <row r="109" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-      <c r="D109" s="48"/>
+      <c r="D109" s="45"/>
       <c r="E109" s="19">
         <v>7</v>
       </c>
@@ -5815,7 +5895,7 @@
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
-      <c r="D110" s="48"/>
+      <c r="D110" s="45"/>
       <c r="E110" s="19">
         <v>8</v>
       </c>
@@ -5843,7 +5923,7 @@
       <c r="C112" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="48" t="s">
+      <c r="D112" s="45" t="s">
         <v>117</v>
       </c>
       <c r="E112" s="19">
@@ -5857,7 +5937,7 @@
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="32"/>
-      <c r="D113" s="48"/>
+      <c r="D113" s="45"/>
       <c r="E113" s="19">
         <v>2</v>
       </c>
@@ -5872,7 +5952,7 @@
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
-      <c r="D114" s="48"/>
+      <c r="D114" s="45"/>
       <c r="E114" s="19">
         <v>3</v>
       </c>
@@ -5887,7 +5967,7 @@
     </row>
     <row r="115" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
-      <c r="D115" s="48"/>
+      <c r="D115" s="45"/>
       <c r="E115" s="19">
         <v>4</v>
       </c>
@@ -5902,7 +5982,7 @@
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
-      <c r="D116" s="48"/>
+      <c r="D116" s="45"/>
       <c r="E116" s="19">
         <v>5</v>
       </c>
@@ -5917,7 +5997,7 @@
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
-      <c r="D117" s="48"/>
+      <c r="D117" s="45"/>
       <c r="E117" s="19">
         <v>6</v>
       </c>
@@ -5945,7 +6025,7 @@
       <c r="C119" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="48" t="s">
+      <c r="D119" s="45" t="s">
         <v>119</v>
       </c>
       <c r="E119" s="19">
@@ -5959,7 +6039,7 @@
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
-      <c r="D120" s="48"/>
+      <c r="D120" s="45"/>
       <c r="E120" s="19">
         <v>2</v>
       </c>
@@ -5974,7 +6054,7 @@
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="32"/>
-      <c r="D121" s="48"/>
+      <c r="D121" s="45"/>
       <c r="E121" s="19">
         <v>3</v>
       </c>
@@ -5989,7 +6069,7 @@
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
-      <c r="D122" s="48"/>
+      <c r="D122" s="45"/>
       <c r="E122" s="19">
         <v>4</v>
       </c>
@@ -6004,7 +6084,7 @@
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
-      <c r="D123" s="48"/>
+      <c r="D123" s="45"/>
       <c r="E123" s="19">
         <v>5</v>
       </c>
@@ -6019,7 +6099,7 @@
     </row>
     <row r="124" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
-      <c r="D124" s="48"/>
+      <c r="D124" s="45"/>
       <c r="E124" s="19">
         <v>6</v>
       </c>
@@ -6034,7 +6114,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
-      <c r="D125" s="48"/>
+      <c r="D125" s="45"/>
       <c r="E125" s="19">
         <v>7</v>
       </c>
@@ -6062,7 +6142,7 @@
       <c r="C127" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="48" t="s">
+      <c r="D127" s="45" t="s">
         <v>119</v>
       </c>
       <c r="E127" s="19">
@@ -6076,7 +6156,7 @@
     </row>
     <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="32"/>
-      <c r="D128" s="48"/>
+      <c r="D128" s="45"/>
       <c r="E128" s="19">
         <v>2</v>
       </c>
@@ -6091,7 +6171,7 @@
     </row>
     <row r="129" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="32"/>
-      <c r="D129" s="48"/>
+      <c r="D129" s="45"/>
       <c r="E129" s="19">
         <v>3</v>
       </c>
@@ -6106,7 +6186,7 @@
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="32"/>
-      <c r="D130" s="48"/>
+      <c r="D130" s="45"/>
       <c r="E130" s="19">
         <v>4</v>
       </c>
@@ -6121,7 +6201,7 @@
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="32"/>
-      <c r="D131" s="48"/>
+      <c r="D131" s="45"/>
       <c r="E131" s="19">
         <v>5</v>
       </c>
@@ -6136,7 +6216,7 @@
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="32"/>
-      <c r="D132" s="48"/>
+      <c r="D132" s="45"/>
       <c r="E132" s="19">
         <v>6</v>
       </c>
@@ -6151,7 +6231,7 @@
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="32"/>
-      <c r="D133" s="48"/>
+      <c r="D133" s="45"/>
       <c r="E133" s="19">
         <v>7</v>
       </c>
@@ -6179,7 +6259,7 @@
       <c r="C135" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="48" t="s">
+      <c r="D135" s="45" t="s">
         <v>129</v>
       </c>
       <c r="E135" s="19">
@@ -6193,7 +6273,7 @@
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="32"/>
-      <c r="D136" s="48"/>
+      <c r="D136" s="45"/>
       <c r="E136" s="19">
         <v>2</v>
       </c>
@@ -6208,7 +6288,7 @@
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="32"/>
-      <c r="D137" s="48"/>
+      <c r="D137" s="45"/>
       <c r="E137" s="19">
         <v>3</v>
       </c>
@@ -6223,7 +6303,7 @@
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="32"/>
-      <c r="D138" s="48"/>
+      <c r="D138" s="45"/>
       <c r="E138" s="19">
         <v>4</v>
       </c>
@@ -6238,7 +6318,7 @@
     </row>
     <row r="139" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" s="32"/>
-      <c r="D139" s="48"/>
+      <c r="D139" s="45"/>
       <c r="E139" s="19">
         <v>5</v>
       </c>
@@ -6256,7 +6336,7 @@
     </row>
     <row r="140" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B140" s="32"/>
-      <c r="D140" s="48"/>
+      <c r="D140" s="45"/>
       <c r="E140" s="19">
         <v>6</v>
       </c>
@@ -6274,7 +6354,7 @@
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="32"/>
-      <c r="D141" s="48"/>
+      <c r="D141" s="45"/>
       <c r="E141" s="19">
         <v>7</v>
       </c>
@@ -6292,7 +6372,7 @@
     </row>
     <row r="142" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B142" s="32"/>
-      <c r="D142" s="48"/>
+      <c r="D142" s="45"/>
       <c r="E142" s="19">
         <v>8</v>
       </c>
@@ -6310,7 +6390,7 @@
     </row>
     <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="32"/>
-      <c r="D143" s="48"/>
+      <c r="D143" s="45"/>
       <c r="E143" s="19">
         <v>9</v>
       </c>
@@ -6328,7 +6408,7 @@
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="32"/>
-      <c r="D144" s="48"/>
+      <c r="D144" s="45"/>
       <c r="E144" s="19">
         <v>10</v>
       </c>
@@ -6356,7 +6436,7 @@
       <c r="C146" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="48" t="s">
+      <c r="D146" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E146" s="19">
@@ -6370,7 +6450,7 @@
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="32"/>
-      <c r="D147" s="48"/>
+      <c r="D147" s="45"/>
       <c r="E147" s="19">
         <v>2</v>
       </c>
@@ -6385,7 +6465,7 @@
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="32"/>
-      <c r="D148" s="48"/>
+      <c r="D148" s="45"/>
       <c r="E148" s="19">
         <v>3</v>
       </c>
@@ -6400,7 +6480,7 @@
     </row>
     <row r="149" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="32"/>
-      <c r="D149" s="48"/>
+      <c r="D149" s="45"/>
       <c r="E149" s="19">
         <v>4</v>
       </c>
@@ -6415,7 +6495,7 @@
     </row>
     <row r="150" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="32"/>
-      <c r="D150" s="48"/>
+      <c r="D150" s="45"/>
       <c r="E150" s="19">
         <v>5</v>
       </c>
@@ -6433,7 +6513,7 @@
     </row>
     <row r="151" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="32"/>
-      <c r="D151" s="48"/>
+      <c r="D151" s="45"/>
       <c r="E151" s="19">
         <v>6</v>
       </c>
@@ -6451,7 +6531,7 @@
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="32"/>
-      <c r="D152" s="48"/>
+      <c r="D152" s="45"/>
       <c r="E152" s="19">
         <v>7</v>
       </c>
@@ -6469,7 +6549,7 @@
     </row>
     <row r="153" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="32"/>
-      <c r="D153" s="48"/>
+      <c r="D153" s="45"/>
       <c r="E153" s="19">
         <v>8</v>
       </c>
@@ -6487,7 +6567,7 @@
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="32"/>
-      <c r="D154" s="48"/>
+      <c r="D154" s="45"/>
       <c r="E154" s="19">
         <v>9</v>
       </c>
@@ -6505,7 +6585,7 @@
     </row>
     <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="32"/>
-      <c r="D155" s="48"/>
+      <c r="D155" s="45"/>
       <c r="E155" s="19">
         <v>10</v>
       </c>
@@ -6520,7 +6600,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B156" s="32"/>
-      <c r="D156" s="48"/>
+      <c r="D156" s="45"/>
       <c r="E156" s="19">
         <v>11</v>
       </c>
@@ -6550,7 +6630,7 @@
       <c r="C158" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="48" t="s">
+      <c r="D158" s="45" t="s">
         <v>150</v>
       </c>
       <c r="E158" s="19">
@@ -6564,7 +6644,7 @@
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="32"/>
-      <c r="D159" s="48"/>
+      <c r="D159" s="45"/>
       <c r="E159" s="19">
         <v>2</v>
       </c>
@@ -6579,7 +6659,7 @@
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="32"/>
-      <c r="D160" s="48"/>
+      <c r="D160" s="45"/>
       <c r="E160" s="19">
         <v>3</v>
       </c>
@@ -6594,7 +6674,7 @@
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="32"/>
-      <c r="D161" s="48"/>
+      <c r="D161" s="45"/>
       <c r="E161" s="19">
         <v>4</v>
       </c>
@@ -6609,7 +6689,7 @@
     </row>
     <row r="162" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" s="32"/>
-      <c r="D162" s="48"/>
+      <c r="D162" s="45"/>
       <c r="E162" s="19">
         <v>5</v>
       </c>
@@ -6627,7 +6707,7 @@
     </row>
     <row r="163" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B163" s="32"/>
-      <c r="D163" s="48"/>
+      <c r="D163" s="45"/>
       <c r="E163" s="19">
         <v>6</v>
       </c>
@@ -6645,7 +6725,7 @@
     </row>
     <row r="164" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="32"/>
-      <c r="D164" s="48"/>
+      <c r="D164" s="45"/>
       <c r="E164" s="19">
         <v>7</v>
       </c>
@@ -6665,7 +6745,7 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="48"/>
+      <c r="D165" s="45"/>
       <c r="E165" s="19">
         <v>8</v>
       </c>
@@ -6685,7 +6765,7 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="48"/>
+      <c r="D166" s="45"/>
       <c r="E166" s="19">
         <v>9</v>
       </c>
@@ -6705,7 +6785,7 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="48"/>
+      <c r="D167" s="45"/>
       <c r="E167" s="19">
         <v>10</v>
       </c>
@@ -6722,7 +6802,7 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="48"/>
+      <c r="D168" s="45"/>
       <c r="E168" s="19">
         <v>11</v>
       </c>
@@ -6752,7 +6832,7 @@
       <c r="C170" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="48" t="s">
+      <c r="D170" s="45" t="s">
         <v>195</v>
       </c>
       <c r="E170" s="19">
@@ -6766,7 +6846,7 @@
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="32"/>
-      <c r="D171" s="48"/>
+      <c r="D171" s="45"/>
       <c r="E171" s="19">
         <v>2</v>
       </c>
@@ -6781,7 +6861,7 @@
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="32"/>
-      <c r="D172" s="48"/>
+      <c r="D172" s="45"/>
       <c r="E172" s="19">
         <v>3</v>
       </c>
@@ -6796,7 +6876,7 @@
     </row>
     <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="32"/>
-      <c r="D173" s="48"/>
+      <c r="D173" s="45"/>
       <c r="E173" s="19">
         <v>4</v>
       </c>
@@ -6811,7 +6891,7 @@
     </row>
     <row r="174" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B174" s="32"/>
-      <c r="D174" s="48"/>
+      <c r="D174" s="45"/>
       <c r="E174" s="19">
         <v>5</v>
       </c>
@@ -6829,7 +6909,7 @@
     </row>
     <row r="175" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B175" s="32"/>
-      <c r="D175" s="48"/>
+      <c r="D175" s="45"/>
       <c r="E175" s="19">
         <v>6</v>
       </c>
@@ -6847,7 +6927,7 @@
     </row>
     <row r="176" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="32"/>
-      <c r="D176" s="48"/>
+      <c r="D176" s="45"/>
       <c r="E176" s="19">
         <v>7</v>
       </c>
@@ -6865,7 +6945,7 @@
     </row>
     <row r="177" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="32"/>
-      <c r="D177" s="48"/>
+      <c r="D177" s="45"/>
       <c r="E177" s="19">
         <v>8</v>
       </c>
@@ -6883,7 +6963,7 @@
     </row>
     <row r="178" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="32"/>
-      <c r="D178" s="48"/>
+      <c r="D178" s="45"/>
       <c r="E178" s="19">
         <v>9</v>
       </c>
@@ -6901,7 +6981,7 @@
     </row>
     <row r="179" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="32"/>
-      <c r="D179" s="48"/>
+      <c r="D179" s="45"/>
       <c r="E179" s="19">
         <v>10</v>
       </c>
@@ -6916,7 +6996,7 @@
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="32"/>
-      <c r="D180" s="48"/>
+      <c r="D180" s="45"/>
       <c r="E180" s="19">
         <v>11</v>
       </c>
@@ -6944,7 +7024,7 @@
       <c r="C182" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="48" t="s">
+      <c r="D182" s="45" t="s">
         <v>198</v>
       </c>
       <c r="E182" s="19">
@@ -6958,7 +7038,7 @@
     </row>
     <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="32"/>
-      <c r="D183" s="48"/>
+      <c r="D183" s="45"/>
       <c r="E183" s="19">
         <v>2</v>
       </c>
@@ -6973,7 +7053,7 @@
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="32"/>
-      <c r="D184" s="48"/>
+      <c r="D184" s="45"/>
       <c r="E184" s="19">
         <v>3</v>
       </c>
@@ -6988,7 +7068,7 @@
     </row>
     <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="32"/>
-      <c r="D185" s="48"/>
+      <c r="D185" s="45"/>
       <c r="E185" s="19">
         <v>4</v>
       </c>
@@ -7003,7 +7083,7 @@
     </row>
     <row r="186" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B186" s="32"/>
-      <c r="D186" s="48"/>
+      <c r="D186" s="45"/>
       <c r="E186" s="19">
         <v>5</v>
       </c>
@@ -7021,7 +7101,7 @@
     </row>
     <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="32"/>
-      <c r="D187" s="48"/>
+      <c r="D187" s="45"/>
       <c r="E187" s="19">
         <v>6</v>
       </c>
@@ -7039,7 +7119,7 @@
     </row>
     <row r="188" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B188" s="32"/>
-      <c r="D188" s="48"/>
+      <c r="D188" s="45"/>
       <c r="E188" s="19">
         <v>7</v>
       </c>
@@ -7057,7 +7137,7 @@
     </row>
     <row r="189" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="32"/>
-      <c r="D189" s="48"/>
+      <c r="D189" s="45"/>
       <c r="E189" s="19">
         <v>8</v>
       </c>
@@ -7075,7 +7155,7 @@
     </row>
     <row r="190" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="32"/>
-      <c r="D190" s="48"/>
+      <c r="D190" s="45"/>
       <c r="E190" s="19">
         <v>9</v>
       </c>
@@ -7093,7 +7173,7 @@
     </row>
     <row r="191" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B191" s="32"/>
-      <c r="D191" s="48"/>
+      <c r="D191" s="45"/>
       <c r="E191" s="19">
         <v>10</v>
       </c>
@@ -7108,7 +7188,7 @@
     </row>
     <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="32"/>
-      <c r="D192" s="48"/>
+      <c r="D192" s="45"/>
       <c r="E192" s="19">
         <v>11</v>
       </c>
@@ -7123,7 +7203,7 @@
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="32"/>
-      <c r="D193" s="48"/>
+      <c r="D193" s="45"/>
       <c r="E193" s="19">
         <v>11</v>
       </c>
@@ -7153,7 +7233,7 @@
       <c r="C195" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="48" t="s">
+      <c r="D195" s="45" t="s">
         <v>199</v>
       </c>
       <c r="E195" s="19">
@@ -7167,7 +7247,7 @@
     </row>
     <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="32"/>
-      <c r="D196" s="48"/>
+      <c r="D196" s="45"/>
       <c r="E196" s="19">
         <v>2</v>
       </c>
@@ -7182,7 +7262,7 @@
     </row>
     <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="32"/>
-      <c r="D197" s="48"/>
+      <c r="D197" s="45"/>
       <c r="E197" s="19">
         <v>3</v>
       </c>
@@ -7197,7 +7277,7 @@
     </row>
     <row r="198" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="32"/>
-      <c r="D198" s="48"/>
+      <c r="D198" s="45"/>
       <c r="E198" s="19">
         <v>4</v>
       </c>
@@ -7212,7 +7292,7 @@
     </row>
     <row r="199" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B199" s="32"/>
-      <c r="D199" s="48"/>
+      <c r="D199" s="45"/>
       <c r="E199" s="19">
         <v>5</v>
       </c>
@@ -7230,7 +7310,7 @@
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="32"/>
-      <c r="D200" s="48"/>
+      <c r="D200" s="45"/>
       <c r="E200" s="19">
         <v>6</v>
       </c>
@@ -7248,7 +7328,7 @@
     </row>
     <row r="201" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B201" s="32"/>
-      <c r="D201" s="48"/>
+      <c r="D201" s="45"/>
       <c r="E201" s="19">
         <v>7</v>
       </c>
@@ -7268,7 +7348,7 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="48"/>
+      <c r="D202" s="45"/>
       <c r="E202" s="19">
         <v>8</v>
       </c>
@@ -7288,7 +7368,7 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="48"/>
+      <c r="D203" s="45"/>
       <c r="E203" s="19">
         <v>9</v>
       </c>
@@ -7308,7 +7388,7 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="48"/>
+      <c r="D204" s="45"/>
       <c r="E204" s="19">
         <v>10</v>
       </c>
@@ -7325,7 +7405,7 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="48"/>
+      <c r="D205" s="45"/>
       <c r="E205" s="19">
         <v>11</v>
       </c>
@@ -7342,7 +7422,7 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="48"/>
+      <c r="D206" s="45"/>
       <c r="E206" s="19">
         <v>12</v>
       </c>
@@ -7372,7 +7452,7 @@
       <c r="C208" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D208" s="48" t="s">
+      <c r="D208" s="45" t="s">
         <v>201</v>
       </c>
       <c r="E208" s="19">
@@ -7386,7 +7466,7 @@
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="32"/>
-      <c r="D209" s="48"/>
+      <c r="D209" s="45"/>
       <c r="E209" s="19">
         <v>2</v>
       </c>
@@ -7401,7 +7481,7 @@
     </row>
     <row r="210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="32"/>
-      <c r="D210" s="48"/>
+      <c r="D210" s="45"/>
       <c r="E210" s="19">
         <v>3</v>
       </c>
@@ -7416,7 +7496,7 @@
     </row>
     <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="32"/>
-      <c r="D211" s="48"/>
+      <c r="D211" s="45"/>
       <c r="E211" s="19">
         <v>4</v>
       </c>
@@ -7431,7 +7511,7 @@
     </row>
     <row r="212" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B212" s="32"/>
-      <c r="D212" s="48"/>
+      <c r="D212" s="45"/>
       <c r="E212" s="19">
         <v>5</v>
       </c>
@@ -7449,7 +7529,7 @@
     </row>
     <row r="213" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B213" s="32"/>
-      <c r="D213" s="48"/>
+      <c r="D213" s="45"/>
       <c r="E213" s="19">
         <v>6</v>
       </c>
@@ -7467,7 +7547,7 @@
     </row>
     <row r="214" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="32"/>
-      <c r="D214" s="48"/>
+      <c r="D214" s="45"/>
       <c r="E214" s="19">
         <v>7</v>
       </c>
@@ -7482,7 +7562,7 @@
     </row>
     <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="32"/>
-      <c r="D215" s="48"/>
+      <c r="D215" s="45"/>
       <c r="E215" s="19">
         <v>8</v>
       </c>
@@ -7497,7 +7577,7 @@
     </row>
     <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="32"/>
-      <c r="D216" s="48"/>
+      <c r="D216" s="45"/>
       <c r="E216" s="19">
         <v>9</v>
       </c>
@@ -7525,7 +7605,7 @@
       <c r="C218" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D218" s="48" t="s">
+      <c r="D218" s="45" t="s">
         <v>204</v>
       </c>
       <c r="E218" s="19">
@@ -7539,7 +7619,7 @@
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="32"/>
-      <c r="D219" s="48"/>
+      <c r="D219" s="45"/>
       <c r="E219" s="19">
         <v>2</v>
       </c>
@@ -7554,7 +7634,7 @@
     </row>
     <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="32"/>
-      <c r="D220" s="48"/>
+      <c r="D220" s="45"/>
       <c r="E220" s="19">
         <v>3</v>
       </c>
@@ -7569,7 +7649,7 @@
     </row>
     <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="32"/>
-      <c r="D221" s="48"/>
+      <c r="D221" s="45"/>
       <c r="E221" s="19">
         <v>4</v>
       </c>
@@ -7584,7 +7664,7 @@
     </row>
     <row r="222" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" s="32"/>
-      <c r="D222" s="48"/>
+      <c r="D222" s="45"/>
       <c r="E222" s="19">
         <v>5</v>
       </c>
@@ -7602,7 +7682,7 @@
     </row>
     <row r="223" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="32"/>
-      <c r="D223" s="48"/>
+      <c r="D223" s="45"/>
       <c r="E223" s="19">
         <v>6</v>
       </c>
@@ -7620,7 +7700,7 @@
     </row>
     <row r="224" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="32"/>
-      <c r="D224" s="48"/>
+      <c r="D224" s="45"/>
       <c r="E224" s="19">
         <v>7</v>
       </c>
@@ -7635,7 +7715,7 @@
     </row>
     <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="32"/>
-      <c r="D225" s="48"/>
+      <c r="D225" s="45"/>
       <c r="E225" s="19">
         <v>8</v>
       </c>
@@ -7650,7 +7730,7 @@
     </row>
     <row r="226" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="32"/>
-      <c r="D226" s="48"/>
+      <c r="D226" s="45"/>
       <c r="E226" s="19">
         <v>9</v>
       </c>
@@ -7665,7 +7745,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B227" s="32"/>
-      <c r="D227" s="48"/>
+      <c r="D227" s="45"/>
       <c r="E227" s="19">
         <v>10</v>
       </c>
@@ -7695,7 +7775,7 @@
       <c r="C229" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D229" s="48" t="s">
+      <c r="D229" s="45" t="s">
         <v>205</v>
       </c>
       <c r="E229" s="19">
@@ -7709,7 +7789,7 @@
     </row>
     <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="32"/>
-      <c r="D230" s="48"/>
+      <c r="D230" s="45"/>
       <c r="E230" s="19">
         <v>2</v>
       </c>
@@ -7724,7 +7804,7 @@
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="32"/>
-      <c r="D231" s="48"/>
+      <c r="D231" s="45"/>
       <c r="E231" s="19">
         <v>3</v>
       </c>
@@ -7739,7 +7819,7 @@
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="32"/>
-      <c r="D232" s="48"/>
+      <c r="D232" s="45"/>
       <c r="E232" s="19">
         <v>4</v>
       </c>
@@ -7754,7 +7834,7 @@
     </row>
     <row r="233" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B233" s="32"/>
-      <c r="D233" s="48"/>
+      <c r="D233" s="45"/>
       <c r="E233" s="19">
         <v>5</v>
       </c>
@@ -7772,7 +7852,7 @@
     </row>
     <row r="234" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B234" s="32"/>
-      <c r="D234" s="48"/>
+      <c r="D234" s="45"/>
       <c r="E234" s="19">
         <v>6</v>
       </c>
@@ -7790,7 +7870,7 @@
     </row>
     <row r="235" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B235" s="32"/>
-      <c r="D235" s="48"/>
+      <c r="D235" s="45"/>
       <c r="E235" s="19">
         <v>7</v>
       </c>
@@ -7807,7 +7887,7 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="48"/>
+      <c r="D236" s="45"/>
       <c r="E236" s="19">
         <v>8</v>
       </c>
@@ -7824,7 +7904,7 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="48"/>
+      <c r="D237" s="45"/>
       <c r="E237" s="19">
         <v>9</v>
       </c>
@@ -7841,7 +7921,7 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="48"/>
+      <c r="D238" s="45"/>
       <c r="E238" s="19">
         <v>10</v>
       </c>
@@ -7871,7 +7951,7 @@
       <c r="C240" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D240" s="48" t="s">
+      <c r="D240" s="45" t="s">
         <v>188</v>
       </c>
       <c r="E240" s="19">
@@ -7885,7 +7965,7 @@
     </row>
     <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="32"/>
-      <c r="D241" s="48"/>
+      <c r="D241" s="45"/>
       <c r="E241" s="19">
         <v>2</v>
       </c>
@@ -7900,7 +7980,7 @@
     </row>
     <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="32"/>
-      <c r="D242" s="48"/>
+      <c r="D242" s="45"/>
       <c r="E242" s="19">
         <v>3</v>
       </c>
@@ -7915,7 +7995,7 @@
     </row>
     <row r="243" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="32"/>
-      <c r="D243" s="48"/>
+      <c r="D243" s="45"/>
       <c r="E243" s="19">
         <v>4</v>
       </c>
@@ -7930,7 +8010,7 @@
     </row>
     <row r="244" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B244" s="32"/>
-      <c r="D244" s="48"/>
+      <c r="D244" s="45"/>
       <c r="E244" s="19">
         <v>5</v>
       </c>
@@ -7948,7 +8028,7 @@
     </row>
     <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="32"/>
-      <c r="D245" s="48"/>
+      <c r="D245" s="45"/>
       <c r="E245" s="19">
         <v>6</v>
       </c>
@@ -7976,7 +8056,7 @@
       <c r="C247" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D247" s="48" t="s">
+      <c r="D247" s="45" t="s">
         <v>192</v>
       </c>
       <c r="E247" s="19">
@@ -7990,7 +8070,7 @@
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="32"/>
-      <c r="D248" s="48"/>
+      <c r="D248" s="45"/>
       <c r="E248" s="19">
         <v>2</v>
       </c>
@@ -8005,7 +8085,7 @@
     </row>
     <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="32"/>
-      <c r="D249" s="48"/>
+      <c r="D249" s="45"/>
       <c r="E249" s="19">
         <v>3</v>
       </c>
@@ -8020,7 +8100,7 @@
     </row>
     <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="32"/>
-      <c r="D250" s="48"/>
+      <c r="D250" s="45"/>
       <c r="E250" s="19">
         <v>4</v>
       </c>
@@ -8035,7 +8115,7 @@
     </row>
     <row r="251" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B251" s="32"/>
-      <c r="D251" s="48"/>
+      <c r="D251" s="45"/>
       <c r="E251" s="19">
         <v>5</v>
       </c>
@@ -8053,7 +8133,7 @@
     </row>
     <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="32"/>
-      <c r="D252" s="48"/>
+      <c r="D252" s="45"/>
       <c r="E252" s="19">
         <v>6</v>
       </c>
@@ -8068,7 +8148,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B253" s="32"/>
-      <c r="D253" s="48"/>
+      <c r="D253" s="45"/>
       <c r="E253" s="19">
         <v>7</v>
       </c>
@@ -8098,7 +8178,7 @@
       <c r="C255" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D255" s="48" t="s">
+      <c r="D255" s="45" t="s">
         <v>193</v>
       </c>
       <c r="E255" s="19">
@@ -8112,7 +8192,7 @@
     </row>
     <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="32"/>
-      <c r="D256" s="48"/>
+      <c r="D256" s="45"/>
       <c r="E256" s="19">
         <v>2</v>
       </c>
@@ -8127,7 +8207,7 @@
     </row>
     <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="32"/>
-      <c r="D257" s="48"/>
+      <c r="D257" s="45"/>
       <c r="E257" s="19">
         <v>3</v>
       </c>
@@ -8142,7 +8222,7 @@
     </row>
     <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="32"/>
-      <c r="D258" s="48"/>
+      <c r="D258" s="45"/>
       <c r="E258" s="19">
         <v>4</v>
       </c>
@@ -8157,7 +8237,7 @@
     </row>
     <row r="259" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B259" s="32"/>
-      <c r="D259" s="48"/>
+      <c r="D259" s="45"/>
       <c r="E259" s="19">
         <v>5</v>
       </c>
@@ -8175,7 +8255,7 @@
     </row>
     <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B260" s="32"/>
-      <c r="D260" s="48"/>
+      <c r="D260" s="45"/>
       <c r="E260" s="19">
         <v>6</v>
       </c>
@@ -8192,7 +8272,7 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="48"/>
+      <c r="D261" s="45"/>
       <c r="E261" s="19">
         <v>7</v>
       </c>
@@ -8222,7 +8302,7 @@
       <c r="C263" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D263" s="48" t="s">
+      <c r="D263" s="45" t="s">
         <v>213</v>
       </c>
       <c r="E263" s="19">
@@ -8236,7 +8316,7 @@
     </row>
     <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="32"/>
-      <c r="D264" s="48"/>
+      <c r="D264" s="45"/>
       <c r="E264" s="19">
         <v>2</v>
       </c>
@@ -8251,7 +8331,7 @@
     </row>
     <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="32"/>
-      <c r="D265" s="48"/>
+      <c r="D265" s="45"/>
       <c r="E265" s="19">
         <v>3</v>
       </c>
@@ -8266,7 +8346,7 @@
     </row>
     <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="32"/>
-      <c r="D266" s="48"/>
+      <c r="D266" s="45"/>
       <c r="E266" s="19">
         <v>4</v>
       </c>
@@ -8281,7 +8361,7 @@
     </row>
     <row r="267" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B267" s="32"/>
-      <c r="D267" s="48"/>
+      <c r="D267" s="45"/>
       <c r="E267" s="19">
         <v>5</v>
       </c>
@@ -8299,7 +8379,7 @@
     </row>
     <row r="268" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B268" s="32"/>
-      <c r="D268" s="48"/>
+      <c r="D268" s="45"/>
       <c r="E268" s="19">
         <v>6</v>
       </c>
@@ -8314,7 +8394,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B269" s="32"/>
-      <c r="D269" s="48"/>
+      <c r="D269" s="45"/>
       <c r="E269" s="19">
         <v>7</v>
       </c>
@@ -8342,7 +8422,7 @@
       <c r="C271" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D271" s="48" t="s">
+      <c r="D271" s="45" t="s">
         <v>216</v>
       </c>
       <c r="E271" s="19">
@@ -8356,7 +8436,7 @@
     </row>
     <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="32"/>
-      <c r="D272" s="48"/>
+      <c r="D272" s="45"/>
       <c r="E272" s="19">
         <v>2</v>
       </c>
@@ -8371,7 +8451,7 @@
     </row>
     <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="32"/>
-      <c r="D273" s="48"/>
+      <c r="D273" s="45"/>
       <c r="E273" s="19">
         <v>3</v>
       </c>
@@ -8386,7 +8466,7 @@
     </row>
     <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="32"/>
-      <c r="D274" s="48"/>
+      <c r="D274" s="45"/>
       <c r="E274" s="19">
         <v>4</v>
       </c>
@@ -8401,7 +8481,7 @@
     </row>
     <row r="275" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B275" s="32"/>
-      <c r="D275" s="48"/>
+      <c r="D275" s="45"/>
       <c r="E275" s="19">
         <v>5</v>
       </c>
@@ -8419,7 +8499,7 @@
     </row>
     <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B276" s="32"/>
-      <c r="D276" s="48"/>
+      <c r="D276" s="45"/>
       <c r="E276" s="19">
         <v>6</v>
       </c>
@@ -8434,7 +8514,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B277" s="32"/>
-      <c r="D277" s="48"/>
+      <c r="D277" s="45"/>
       <c r="E277" s="19">
         <v>7</v>
       </c>
@@ -8449,7 +8529,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B278" s="32"/>
-      <c r="D278" s="48"/>
+      <c r="D278" s="45"/>
       <c r="E278" s="19">
         <v>8</v>
       </c>
@@ -8479,7 +8559,7 @@
       <c r="C280" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D280" s="48" t="s">
+      <c r="D280" s="45" t="s">
         <v>217</v>
       </c>
       <c r="E280" s="19">
@@ -8493,7 +8573,7 @@
     </row>
     <row r="281" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="32"/>
-      <c r="D281" s="48"/>
+      <c r="D281" s="45"/>
       <c r="E281" s="19">
         <v>2</v>
       </c>
@@ -8508,7 +8588,7 @@
     </row>
     <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="32"/>
-      <c r="D282" s="48"/>
+      <c r="D282" s="45"/>
       <c r="E282" s="19">
         <v>3</v>
       </c>
@@ -8523,7 +8603,7 @@
     </row>
     <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="32"/>
-      <c r="D283" s="48"/>
+      <c r="D283" s="45"/>
       <c r="E283" s="19">
         <v>4</v>
       </c>
@@ -8538,7 +8618,7 @@
     </row>
     <row r="284" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B284" s="32"/>
-      <c r="D284" s="48"/>
+      <c r="D284" s="45"/>
       <c r="E284" s="19">
         <v>5</v>
       </c>
@@ -8556,7 +8636,7 @@
     </row>
     <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="32"/>
-      <c r="D285" s="48"/>
+      <c r="D285" s="45"/>
       <c r="E285" s="19">
         <v>6</v>
       </c>
@@ -8571,7 +8651,7 @@
     </row>
     <row r="286" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="32"/>
-      <c r="D286" s="48"/>
+      <c r="D286" s="45"/>
       <c r="E286" s="19">
         <v>7</v>
       </c>
@@ -8588,7 +8668,7 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="48"/>
+      <c r="D287" s="45"/>
       <c r="E287" s="19">
         <v>8</v>
       </c>
@@ -8618,7 +8698,7 @@
       <c r="C289" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D289" s="48" t="s">
+      <c r="D289" s="45" t="s">
         <v>224</v>
       </c>
       <c r="E289" s="19">
@@ -8632,7 +8712,7 @@
     </row>
     <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="32"/>
-      <c r="D290" s="48"/>
+      <c r="D290" s="45"/>
       <c r="E290" s="19">
         <v>2</v>
       </c>
@@ -8647,7 +8727,7 @@
     </row>
     <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="32"/>
-      <c r="D291" s="48"/>
+      <c r="D291" s="45"/>
       <c r="E291" s="19">
         <v>3</v>
       </c>
@@ -8662,7 +8742,7 @@
     </row>
     <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="32"/>
-      <c r="D292" s="48"/>
+      <c r="D292" s="45"/>
       <c r="E292" s="19">
         <v>4</v>
       </c>
@@ -8677,7 +8757,7 @@
     </row>
     <row r="293" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B293" s="32"/>
-      <c r="D293" s="48"/>
+      <c r="D293" s="45"/>
       <c r="E293" s="19">
         <v>5</v>
       </c>
@@ -8692,7 +8772,7 @@
     </row>
     <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="32"/>
-      <c r="D294" s="48"/>
+      <c r="D294" s="45"/>
       <c r="E294" s="19">
         <v>6</v>
       </c>
@@ -8720,7 +8800,7 @@
       <c r="C296" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D296" s="48" t="s">
+      <c r="D296" s="45" t="s">
         <v>227</v>
       </c>
       <c r="E296" s="19">
@@ -8734,7 +8814,7 @@
     </row>
     <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B297" s="32"/>
-      <c r="D297" s="48"/>
+      <c r="D297" s="45"/>
       <c r="E297" s="19">
         <v>2</v>
       </c>
@@ -8749,7 +8829,7 @@
     </row>
     <row r="298" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="32"/>
-      <c r="D298" s="48"/>
+      <c r="D298" s="45"/>
       <c r="E298" s="19">
         <v>3</v>
       </c>
@@ -8764,7 +8844,7 @@
     </row>
     <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="32"/>
-      <c r="D299" s="48"/>
+      <c r="D299" s="45"/>
       <c r="E299" s="19">
         <v>4</v>
       </c>
@@ -8779,7 +8859,7 @@
     </row>
     <row r="300" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B300" s="32"/>
-      <c r="D300" s="48"/>
+      <c r="D300" s="45"/>
       <c r="E300" s="19">
         <v>5</v>
       </c>
@@ -8794,7 +8874,7 @@
     </row>
     <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="32"/>
-      <c r="D301" s="48"/>
+      <c r="D301" s="45"/>
       <c r="E301" s="19">
         <v>6</v>
       </c>
@@ -8809,7 +8889,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B302" s="32"/>
-      <c r="D302" s="48"/>
+      <c r="D302" s="45"/>
       <c r="E302" s="19">
         <v>7</v>
       </c>
@@ -8839,7 +8919,7 @@
       <c r="C304" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="48" t="s">
+      <c r="D304" s="45" t="s">
         <v>228</v>
       </c>
       <c r="E304" s="19">
@@ -8853,7 +8933,7 @@
     </row>
     <row r="305" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="32"/>
-      <c r="D305" s="48"/>
+      <c r="D305" s="45"/>
       <c r="E305" s="19">
         <v>2</v>
       </c>
@@ -8868,7 +8948,7 @@
     </row>
     <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="32"/>
-      <c r="D306" s="48"/>
+      <c r="D306" s="45"/>
       <c r="E306" s="19">
         <v>3</v>
       </c>
@@ -8883,7 +8963,7 @@
     </row>
     <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="32"/>
-      <c r="D307" s="48"/>
+      <c r="D307" s="45"/>
       <c r="E307" s="19">
         <v>4</v>
       </c>
@@ -8898,7 +8978,7 @@
     </row>
     <row r="308" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B308" s="32"/>
-      <c r="D308" s="48"/>
+      <c r="D308" s="45"/>
       <c r="E308" s="19">
         <v>5</v>
       </c>
@@ -8913,7 +8993,7 @@
     </row>
     <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="32"/>
-      <c r="D309" s="48"/>
+      <c r="D309" s="45"/>
       <c r="E309" s="19">
         <v>6</v>
       </c>
@@ -8930,7 +9010,7 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="48"/>
+      <c r="D310" s="45"/>
       <c r="E310" s="19">
         <v>7</v>
       </c>
@@ -8968,7 +9048,7 @@
       <c r="C312" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="48" t="s">
+      <c r="D312" s="45" t="s">
         <v>238</v>
       </c>
       <c r="E312" s="19">
@@ -8982,7 +9062,7 @@
     </row>
     <row r="313" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="32"/>
-      <c r="D313" s="48"/>
+      <c r="D313" s="45"/>
       <c r="E313" s="19">
         <v>2</v>
       </c>
@@ -8997,7 +9077,7 @@
     </row>
     <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="32"/>
-      <c r="D314" s="48"/>
+      <c r="D314" s="45"/>
       <c r="E314" s="19">
         <v>3</v>
       </c>
@@ -9012,7 +9092,7 @@
     </row>
     <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="32"/>
-      <c r="D315" s="48"/>
+      <c r="D315" s="45"/>
       <c r="E315" s="19">
         <v>4</v>
       </c>
@@ -9027,7 +9107,7 @@
     </row>
     <row r="316" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B316" s="32"/>
-      <c r="D316" s="48"/>
+      <c r="D316" s="45"/>
       <c r="E316" s="19">
         <v>5</v>
       </c>
@@ -9045,7 +9125,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B317" s="32"/>
-      <c r="D317" s="48"/>
+      <c r="D317" s="45"/>
       <c r="E317" s="19">
         <v>6</v>
       </c>
@@ -9073,7 +9153,7 @@
       <c r="C319" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D319" s="48" t="s">
+      <c r="D319" s="45" t="s">
         <v>241</v>
       </c>
       <c r="E319" s="19">
@@ -9087,7 +9167,7 @@
     </row>
     <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B320" s="32"/>
-      <c r="D320" s="48"/>
+      <c r="D320" s="45"/>
       <c r="E320" s="19">
         <v>2</v>
       </c>
@@ -9102,7 +9182,7 @@
     </row>
     <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="32"/>
-      <c r="D321" s="48"/>
+      <c r="D321" s="45"/>
       <c r="E321" s="19">
         <v>3</v>
       </c>
@@ -9117,7 +9197,7 @@
     </row>
     <row r="322" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="32"/>
-      <c r="D322" s="48"/>
+      <c r="D322" s="45"/>
       <c r="E322" s="19">
         <v>4</v>
       </c>
@@ -9132,7 +9212,7 @@
     </row>
     <row r="323" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B323" s="32"/>
-      <c r="D323" s="48"/>
+      <c r="D323" s="45"/>
       <c r="E323" s="19">
         <v>5</v>
       </c>
@@ -9150,7 +9230,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B324" s="32"/>
-      <c r="D324" s="48"/>
+      <c r="D324" s="45"/>
       <c r="E324" s="19">
         <v>6</v>
       </c>
@@ -9165,7 +9245,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B325" s="32"/>
-      <c r="D325" s="48"/>
+      <c r="D325" s="45"/>
       <c r="E325" s="19">
         <v>7</v>
       </c>
@@ -9195,7 +9275,7 @@
       <c r="C327" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D327" s="48" t="s">
+      <c r="D327" s="45" t="s">
         <v>242</v>
       </c>
       <c r="E327" s="19">
@@ -9209,7 +9289,7 @@
     </row>
     <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="32"/>
-      <c r="D328" s="48"/>
+      <c r="D328" s="45"/>
       <c r="E328" s="19">
         <v>2</v>
       </c>
@@ -9224,7 +9304,7 @@
     </row>
     <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="32"/>
-      <c r="D329" s="48"/>
+      <c r="D329" s="45"/>
       <c r="E329" s="19">
         <v>3</v>
       </c>
@@ -9239,7 +9319,7 @@
     </row>
     <row r="330" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="32"/>
-      <c r="D330" s="48"/>
+      <c r="D330" s="45"/>
       <c r="E330" s="19">
         <v>4</v>
       </c>
@@ -9254,7 +9334,7 @@
     </row>
     <row r="331" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B331" s="32"/>
-      <c r="D331" s="48"/>
+      <c r="D331" s="45"/>
       <c r="E331" s="19">
         <v>5</v>
       </c>
@@ -9272,7 +9352,7 @@
     </row>
     <row r="332" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="32"/>
-      <c r="D332" s="48"/>
+      <c r="D332" s="45"/>
       <c r="E332" s="19">
         <v>6</v>
       </c>
@@ -9289,7 +9369,7 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="48"/>
+      <c r="D333" s="45"/>
       <c r="E333" s="19">
         <v>7</v>
       </c>
@@ -9319,7 +9399,7 @@
       <c r="C335" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D335" s="48" t="s">
+      <c r="D335" s="45" t="s">
         <v>247</v>
       </c>
       <c r="E335" s="19">
@@ -9333,7 +9413,7 @@
     </row>
     <row r="336" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="32"/>
-      <c r="D336" s="48"/>
+      <c r="D336" s="45"/>
       <c r="E336" s="19">
         <v>2</v>
       </c>
@@ -9348,7 +9428,7 @@
     </row>
     <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="32"/>
-      <c r="D337" s="48"/>
+      <c r="D337" s="45"/>
       <c r="E337" s="19">
         <v>3</v>
       </c>
@@ -9363,7 +9443,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B338" s="32"/>
-      <c r="D338" s="48"/>
+      <c r="D338" s="45"/>
       <c r="E338" s="19">
         <v>4</v>
       </c>
@@ -9378,7 +9458,7 @@
     </row>
     <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="32"/>
-      <c r="D339" s="48"/>
+      <c r="D339" s="45"/>
       <c r="E339" s="19">
         <v>5</v>
       </c>
@@ -9393,7 +9473,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B340" s="32"/>
-      <c r="D340" s="48"/>
+      <c r="D340" s="45"/>
       <c r="E340" s="19">
         <v>6</v>
       </c>
@@ -9421,7 +9501,7 @@
       <c r="C342" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D342" s="48" t="s">
+      <c r="D342" s="45" t="s">
         <v>249</v>
       </c>
       <c r="E342" s="19">
@@ -9435,7 +9515,7 @@
     </row>
     <row r="343" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="32"/>
-      <c r="D343" s="48"/>
+      <c r="D343" s="45"/>
       <c r="E343" s="19">
         <v>2</v>
       </c>
@@ -9450,7 +9530,7 @@
     </row>
     <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="32"/>
-      <c r="D344" s="48"/>
+      <c r="D344" s="45"/>
       <c r="E344" s="19">
         <v>3</v>
       </c>
@@ -9465,7 +9545,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B345" s="32"/>
-      <c r="D345" s="48"/>
+      <c r="D345" s="45"/>
       <c r="E345" s="19">
         <v>4</v>
       </c>
@@ -9480,7 +9560,7 @@
     </row>
     <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="32"/>
-      <c r="D346" s="48"/>
+      <c r="D346" s="45"/>
       <c r="E346" s="19">
         <v>5</v>
       </c>
@@ -9495,7 +9575,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B347" s="32"/>
-      <c r="D347" s="48"/>
+      <c r="D347" s="45"/>
       <c r="E347" s="19">
         <v>6</v>
       </c>
@@ -9510,7 +9590,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B348" s="32"/>
-      <c r="D348" s="48"/>
+      <c r="D348" s="45"/>
       <c r="E348" s="19">
         <v>7</v>
       </c>
@@ -9540,7 +9620,7 @@
       <c r="C350" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="48" t="s">
+      <c r="D350" s="45" t="s">
         <v>250</v>
       </c>
       <c r="E350" s="19">
@@ -9554,7 +9634,7 @@
     </row>
     <row r="351" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="32"/>
-      <c r="D351" s="48"/>
+      <c r="D351" s="45"/>
       <c r="E351" s="19">
         <v>2</v>
       </c>
@@ -9569,7 +9649,7 @@
     </row>
     <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="32"/>
-      <c r="D352" s="48"/>
+      <c r="D352" s="45"/>
       <c r="E352" s="19">
         <v>3</v>
       </c>
@@ -9584,7 +9664,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B353" s="32"/>
-      <c r="D353" s="48"/>
+      <c r="D353" s="45"/>
       <c r="E353" s="19">
         <v>4</v>
       </c>
@@ -9599,7 +9679,7 @@
     </row>
     <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="32"/>
-      <c r="D354" s="48"/>
+      <c r="D354" s="45"/>
       <c r="E354" s="19">
         <v>5</v>
       </c>
@@ -9614,7 +9694,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B355" s="32"/>
-      <c r="D355" s="48"/>
+      <c r="D355" s="45"/>
       <c r="E355" s="19">
         <v>6</v>
       </c>
@@ -9631,7 +9711,7 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="48"/>
+      <c r="D356" s="45"/>
       <c r="E356" s="19">
         <v>7</v>
       </c>
@@ -9659,7 +9739,7 @@
       <c r="C358" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D358" s="48" t="s">
+      <c r="D358" s="45" t="s">
         <v>258</v>
       </c>
       <c r="E358" s="19">
@@ -9673,7 +9753,7 @@
     </row>
     <row r="359" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="32"/>
-      <c r="D359" s="48"/>
+      <c r="D359" s="45"/>
       <c r="E359" s="19">
         <v>2</v>
       </c>
@@ -9688,7 +9768,7 @@
     </row>
     <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="32"/>
-      <c r="D360" s="48"/>
+      <c r="D360" s="45"/>
       <c r="E360" s="19">
         <v>3</v>
       </c>
@@ -9703,7 +9783,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B361" s="32"/>
-      <c r="D361" s="48"/>
+      <c r="D361" s="45"/>
       <c r="E361" s="19">
         <v>4</v>
       </c>
@@ -9718,7 +9798,7 @@
     </row>
     <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="32"/>
-      <c r="D362" s="48"/>
+      <c r="D362" s="45"/>
       <c r="E362" s="19">
         <v>5</v>
       </c>
@@ -9733,7 +9813,7 @@
     </row>
     <row r="363" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="32"/>
-      <c r="D363" s="48"/>
+      <c r="D363" s="45"/>
       <c r="E363" s="19">
         <v>6</v>
       </c>
@@ -9761,7 +9841,7 @@
       <c r="C365" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D365" s="48" t="s">
+      <c r="D365" s="45" t="s">
         <v>263</v>
       </c>
       <c r="E365" s="19">
@@ -9775,7 +9855,7 @@
     </row>
     <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="32"/>
-      <c r="D366" s="48"/>
+      <c r="D366" s="45"/>
       <c r="E366" s="19">
         <v>2</v>
       </c>
@@ -9790,7 +9870,7 @@
     </row>
     <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="32"/>
-      <c r="D367" s="48"/>
+      <c r="D367" s="45"/>
       <c r="E367" s="19">
         <v>3</v>
       </c>
@@ -9805,7 +9885,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B368" s="32"/>
-      <c r="D368" s="48"/>
+      <c r="D368" s="45"/>
       <c r="E368" s="19">
         <v>4</v>
       </c>
@@ -9820,7 +9900,7 @@
     </row>
     <row r="369" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="32"/>
-      <c r="D369" s="48"/>
+      <c r="D369" s="45"/>
       <c r="E369" s="19">
         <v>5</v>
       </c>
@@ -9835,7 +9915,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B370" s="32"/>
-      <c r="D370" s="48"/>
+      <c r="D370" s="45"/>
       <c r="E370" s="19">
         <v>6</v>
       </c>
@@ -9850,7 +9930,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B371" s="32"/>
-      <c r="D371" s="48"/>
+      <c r="D371" s="45"/>
       <c r="E371" s="19">
         <v>7</v>
       </c>
@@ -9880,7 +9960,7 @@
       <c r="C373" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D373" s="48" t="s">
+      <c r="D373" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E373" s="19">
@@ -9894,7 +9974,7 @@
     </row>
     <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="32"/>
-      <c r="D374" s="48"/>
+      <c r="D374" s="45"/>
       <c r="E374" s="19">
         <v>2</v>
       </c>
@@ -9909,7 +9989,7 @@
     </row>
     <row r="375" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B375" s="32"/>
-      <c r="D375" s="48"/>
+      <c r="D375" s="45"/>
       <c r="E375" s="19">
         <v>3</v>
       </c>
@@ -9924,7 +10004,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B376" s="32"/>
-      <c r="D376" s="48"/>
+      <c r="D376" s="45"/>
       <c r="E376" s="19">
         <v>4</v>
       </c>
@@ -9939,7 +10019,7 @@
     </row>
     <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B377" s="32"/>
-      <c r="D377" s="48"/>
+      <c r="D377" s="45"/>
       <c r="E377" s="19">
         <v>5</v>
       </c>
@@ -9954,7 +10034,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B378" s="32"/>
-      <c r="D378" s="48"/>
+      <c r="D378" s="45"/>
       <c r="E378" s="19">
         <v>6</v>
       </c>
@@ -9971,7 +10051,7 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="48"/>
+      <c r="D379" s="45"/>
       <c r="E379" s="19">
         <v>7</v>
       </c>
@@ -9999,7 +10079,7 @@
       <c r="C381" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D381" s="48" t="s">
+      <c r="D381" s="45" t="s">
         <v>283</v>
       </c>
       <c r="E381" s="19">
@@ -10013,7 +10093,7 @@
     </row>
     <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="32"/>
-      <c r="D382" s="48"/>
+      <c r="D382" s="45"/>
       <c r="E382" s="19">
         <v>2</v>
       </c>
@@ -10028,7 +10108,7 @@
     </row>
     <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="32"/>
-      <c r="D383" s="48"/>
+      <c r="D383" s="45"/>
       <c r="E383" s="19">
         <v>3</v>
       </c>
@@ -10043,7 +10123,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B384" s="32"/>
-      <c r="D384" s="48"/>
+      <c r="D384" s="45"/>
       <c r="E384" s="19">
         <v>4</v>
       </c>
@@ -10058,7 +10138,7 @@
     </row>
     <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="32"/>
-      <c r="D385" s="48"/>
+      <c r="D385" s="45"/>
       <c r="E385" s="19">
         <v>5</v>
       </c>
@@ -10073,7 +10153,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B386" s="32"/>
-      <c r="D386" s="48"/>
+      <c r="D386" s="45"/>
       <c r="E386" s="19">
         <v>6</v>
       </c>
@@ -10101,7 +10181,7 @@
       <c r="C388" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D388" s="48" t="s">
+      <c r="D388" s="45" t="s">
         <v>287</v>
       </c>
       <c r="E388" s="19">
@@ -10115,7 +10195,7 @@
     </row>
     <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="32"/>
-      <c r="D389" s="48"/>
+      <c r="D389" s="45"/>
       <c r="E389" s="19">
         <v>2</v>
       </c>
@@ -10130,7 +10210,7 @@
     </row>
     <row r="390" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="32"/>
-      <c r="D390" s="48"/>
+      <c r="D390" s="45"/>
       <c r="E390" s="19">
         <v>3</v>
       </c>
@@ -10145,7 +10225,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B391" s="32"/>
-      <c r="D391" s="48"/>
+      <c r="D391" s="45"/>
       <c r="E391" s="19">
         <v>4</v>
       </c>
@@ -10160,7 +10240,7 @@
     </row>
     <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="32"/>
-      <c r="D392" s="48"/>
+      <c r="D392" s="45"/>
       <c r="E392" s="19">
         <v>5</v>
       </c>
@@ -10175,7 +10255,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B393" s="32"/>
-      <c r="D393" s="48"/>
+      <c r="D393" s="45"/>
       <c r="E393" s="19">
         <v>6</v>
       </c>
@@ -10190,7 +10270,7 @@
     </row>
     <row r="394" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="32"/>
-      <c r="D394" s="48"/>
+      <c r="D394" s="45"/>
       <c r="E394" s="19">
         <v>7</v>
       </c>
@@ -10220,7 +10300,7 @@
       <c r="C396" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D396" s="48" t="s">
+      <c r="D396" s="45" t="s">
         <v>290</v>
       </c>
       <c r="E396" s="19">
@@ -10234,7 +10314,7 @@
     </row>
     <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="32"/>
-      <c r="D397" s="48"/>
+      <c r="D397" s="45"/>
       <c r="E397" s="19">
         <v>2</v>
       </c>
@@ -10249,7 +10329,7 @@
     </row>
     <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="32"/>
-      <c r="D398" s="48"/>
+      <c r="D398" s="45"/>
       <c r="E398" s="19">
         <v>3</v>
       </c>
@@ -10264,7 +10344,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B399" s="32"/>
-      <c r="D399" s="48"/>
+      <c r="D399" s="45"/>
       <c r="E399" s="19">
         <v>4</v>
       </c>
@@ -10279,7 +10359,7 @@
     </row>
     <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="32"/>
-      <c r="D400" s="48"/>
+      <c r="D400" s="45"/>
       <c r="E400" s="19">
         <v>5</v>
       </c>
@@ -10294,7 +10374,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B401" s="32"/>
-      <c r="D401" s="48"/>
+      <c r="D401" s="45"/>
       <c r="E401" s="19">
         <v>6</v>
       </c>
@@ -10311,7 +10391,7 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="48"/>
+      <c r="D402" s="45"/>
       <c r="E402" s="19">
         <v>7</v>
       </c>
@@ -10339,7 +10419,7 @@
       <c r="C404" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D404" s="48" t="s">
+      <c r="D404" s="45" t="s">
         <v>296</v>
       </c>
       <c r="E404" s="19">
@@ -10354,7 +10434,7 @@
     <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28"/>
       <c r="B405" s="32"/>
-      <c r="D405" s="48"/>
+      <c r="D405" s="45"/>
       <c r="E405" s="19">
         <v>2</v>
       </c>
@@ -10373,7 +10453,7 @@
     <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="28"/>
       <c r="B406" s="32"/>
-      <c r="D406" s="48"/>
+      <c r="D406" s="45"/>
       <c r="E406" s="19">
         <v>3</v>
       </c>
@@ -10392,7 +10472,7 @@
     <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="28"/>
       <c r="B407" s="32"/>
-      <c r="D407" s="48"/>
+      <c r="D407" s="45"/>
       <c r="E407" s="19">
         <v>4</v>
       </c>
@@ -10411,7 +10491,7 @@
     <row r="408" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28"/>
       <c r="B408" s="32"/>
-      <c r="D408" s="48"/>
+      <c r="D408" s="45"/>
       <c r="E408" s="19">
         <v>5</v>
       </c>
@@ -10447,7 +10527,7 @@
       <c r="C410" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D410" s="48" t="s">
+      <c r="D410" s="45" t="s">
         <v>302</v>
       </c>
       <c r="E410" s="19">
@@ -10462,7 +10542,7 @@
     <row r="411" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="28"/>
       <c r="B411" s="32"/>
-      <c r="D411" s="48"/>
+      <c r="D411" s="45"/>
       <c r="E411" s="19">
         <v>2</v>
       </c>
@@ -10481,7 +10561,7 @@
     <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="28"/>
       <c r="B412" s="32"/>
-      <c r="D412" s="48"/>
+      <c r="D412" s="45"/>
       <c r="E412" s="19">
         <v>3</v>
       </c>
@@ -10500,7 +10580,7 @@
     <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28"/>
       <c r="B413" s="32"/>
-      <c r="D413" s="48"/>
+      <c r="D413" s="45"/>
       <c r="E413" s="19">
         <v>4</v>
       </c>
@@ -10519,7 +10599,7 @@
     <row r="414" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="28"/>
       <c r="B414" s="32"/>
-      <c r="D414" s="48"/>
+      <c r="D414" s="45"/>
       <c r="E414" s="19">
         <v>5</v>
       </c>
@@ -10556,7 +10636,7 @@
       <c r="C416" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D416" s="48" t="s">
+      <c r="D416" s="45" t="s">
         <v>325</v>
       </c>
       <c r="E416" s="19">
@@ -10571,7 +10651,7 @@
     <row r="417" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="28"/>
       <c r="B417" s="32"/>
-      <c r="D417" s="48"/>
+      <c r="D417" s="45"/>
       <c r="E417" s="19">
         <v>2</v>
       </c>
@@ -10590,7 +10670,7 @@
     <row r="418" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="28"/>
       <c r="B418" s="32"/>
-      <c r="D418" s="48"/>
+      <c r="D418" s="45"/>
       <c r="E418" s="19">
         <v>3</v>
       </c>
@@ -10609,7 +10689,7 @@
     <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="28"/>
       <c r="B419" s="32"/>
-      <c r="D419" s="48"/>
+      <c r="D419" s="45"/>
       <c r="E419" s="19">
         <v>4</v>
       </c>
@@ -10628,7 +10708,7 @@
     <row r="420" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="28"/>
       <c r="B420" s="32"/>
-      <c r="D420" s="48"/>
+      <c r="D420" s="45"/>
       <c r="E420" s="19">
         <v>5</v>
       </c>
@@ -10663,7 +10743,7 @@
       <c r="C422" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D422" s="48" t="s">
+      <c r="D422" s="45" t="s">
         <v>308</v>
       </c>
       <c r="E422" s="19">
@@ -10678,7 +10758,7 @@
     <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="28"/>
       <c r="B423" s="32"/>
-      <c r="D423" s="48"/>
+      <c r="D423" s="45"/>
       <c r="E423" s="19">
         <v>2</v>
       </c>
@@ -10697,7 +10777,7 @@
     <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="28"/>
       <c r="B424" s="32"/>
-      <c r="D424" s="48"/>
+      <c r="D424" s="45"/>
       <c r="E424" s="19">
         <v>3</v>
       </c>
@@ -10716,7 +10796,7 @@
     <row r="425" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="28"/>
       <c r="B425" s="32"/>
-      <c r="D425" s="48"/>
+      <c r="D425" s="45"/>
       <c r="E425" s="19">
         <v>4</v>
       </c>
@@ -10735,7 +10815,7 @@
     <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="28"/>
       <c r="B426" s="32"/>
-      <c r="D426" s="48"/>
+      <c r="D426" s="45"/>
       <c r="E426" s="19">
         <v>5</v>
       </c>
@@ -10770,7 +10850,7 @@
       <c r="C428" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D428" s="48" t="s">
+      <c r="D428" s="45" t="s">
         <v>311</v>
       </c>
       <c r="E428" s="19">
@@ -10785,7 +10865,7 @@
     <row r="429" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="28"/>
       <c r="B429" s="32"/>
-      <c r="D429" s="48"/>
+      <c r="D429" s="45"/>
       <c r="E429" s="19">
         <v>2</v>
       </c>
@@ -10804,7 +10884,7 @@
     <row r="430" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="28"/>
       <c r="B430" s="32"/>
-      <c r="D430" s="48"/>
+      <c r="D430" s="45"/>
       <c r="E430" s="19">
         <v>3</v>
       </c>
@@ -10823,7 +10903,7 @@
     <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="28"/>
       <c r="B431" s="32"/>
-      <c r="D431" s="48"/>
+      <c r="D431" s="45"/>
       <c r="E431" s="19">
         <v>4</v>
       </c>
@@ -10842,7 +10922,7 @@
     <row r="432" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="28"/>
       <c r="B432" s="32"/>
-      <c r="D432" s="48"/>
+      <c r="D432" s="45"/>
       <c r="E432" s="19">
         <v>5</v>
       </c>
@@ -10879,7 +10959,7 @@
       <c r="C434" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D434" s="48" t="s">
+      <c r="D434" s="45" t="s">
         <v>306</v>
       </c>
       <c r="E434" s="19">
@@ -10893,7 +10973,7 @@
     </row>
     <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="32"/>
-      <c r="D435" s="48"/>
+      <c r="D435" s="45"/>
       <c r="E435" s="19">
         <v>2</v>
       </c>
@@ -10911,7 +10991,7 @@
     </row>
     <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="32"/>
-      <c r="D436" s="48"/>
+      <c r="D436" s="45"/>
       <c r="E436" s="19">
         <v>3</v>
       </c>
@@ -10929,7 +11009,7 @@
     </row>
     <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="32"/>
-      <c r="D437" s="48"/>
+      <c r="D437" s="45"/>
       <c r="E437" s="19">
         <v>4</v>
       </c>
@@ -10947,7 +11027,7 @@
     </row>
     <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B438" s="32"/>
-      <c r="D438" s="48"/>
+      <c r="D438" s="45"/>
       <c r="E438" s="19">
         <v>5</v>
       </c>
@@ -10983,7 +11063,7 @@
       <c r="C440" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D440" s="48" t="s">
+      <c r="D440" s="45" t="s">
         <v>321</v>
       </c>
       <c r="E440" s="19">
@@ -10997,7 +11077,7 @@
     </row>
     <row r="441" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="32"/>
-      <c r="D441" s="48"/>
+      <c r="D441" s="45"/>
       <c r="E441" s="19">
         <v>2</v>
       </c>
@@ -11015,7 +11095,7 @@
     </row>
     <row r="442" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="32"/>
-      <c r="D442" s="48"/>
+      <c r="D442" s="45"/>
       <c r="E442" s="19">
         <v>3</v>
       </c>
@@ -11033,7 +11113,7 @@
     </row>
     <row r="443" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="32"/>
-      <c r="D443" s="48"/>
+      <c r="D443" s="45"/>
       <c r="E443" s="19">
         <v>4</v>
       </c>
@@ -11051,7 +11131,7 @@
     </row>
     <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="32"/>
-      <c r="D444" s="48"/>
+      <c r="D444" s="45"/>
       <c r="E444" s="19">
         <v>5</v>
       </c>
@@ -11086,7 +11166,7 @@
       <c r="C446" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D446" s="48" t="s">
+      <c r="D446" s="45" t="s">
         <v>316</v>
       </c>
       <c r="E446" s="19">
@@ -11100,7 +11180,7 @@
     </row>
     <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="32"/>
-      <c r="D447" s="48"/>
+      <c r="D447" s="45"/>
       <c r="E447" s="19">
         <v>2</v>
       </c>
@@ -11118,7 +11198,7 @@
     </row>
     <row r="448" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="32"/>
-      <c r="D448" s="48"/>
+      <c r="D448" s="45"/>
       <c r="E448" s="19">
         <v>3</v>
       </c>
@@ -11136,7 +11216,7 @@
     </row>
     <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="32"/>
-      <c r="D449" s="48"/>
+      <c r="D449" s="45"/>
       <c r="E449" s="19">
         <v>4</v>
       </c>
@@ -11154,7 +11234,7 @@
     </row>
     <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="32"/>
-      <c r="D450" s="48"/>
+      <c r="D450" s="45"/>
       <c r="E450" s="19">
         <v>5</v>
       </c>
@@ -11189,7 +11269,7 @@
       <c r="C452" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D452" s="48" t="s">
+      <c r="D452" s="45" t="s">
         <v>323</v>
       </c>
       <c r="E452" s="19">
@@ -11203,7 +11283,7 @@
     </row>
     <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="32"/>
-      <c r="D453" s="48"/>
+      <c r="D453" s="45"/>
       <c r="E453" s="19">
         <v>2</v>
       </c>
@@ -11221,7 +11301,7 @@
     </row>
     <row r="454" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="32"/>
-      <c r="D454" s="48"/>
+      <c r="D454" s="45"/>
       <c r="E454" s="19">
         <v>3</v>
       </c>
@@ -11239,7 +11319,7 @@
     </row>
     <row r="455" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="32"/>
-      <c r="D455" s="48"/>
+      <c r="D455" s="45"/>
       <c r="E455" s="19">
         <v>4</v>
       </c>
@@ -11257,7 +11337,7 @@
     </row>
     <row r="456" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B456" s="32"/>
-      <c r="D456" s="48"/>
+      <c r="D456" s="45"/>
       <c r="E456" s="19">
         <v>5</v>
       </c>
@@ -11292,7 +11372,7 @@
       <c r="C458" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D458" s="48" t="s">
+      <c r="D458" s="45" t="s">
         <v>331</v>
       </c>
       <c r="E458" s="19">
@@ -11306,7 +11386,7 @@
     </row>
     <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="32"/>
-      <c r="D459" s="48"/>
+      <c r="D459" s="45"/>
       <c r="E459" s="19">
         <v>2</v>
       </c>
@@ -11324,7 +11404,7 @@
     </row>
     <row r="460" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="32"/>
-      <c r="D460" s="48"/>
+      <c r="D460" s="45"/>
       <c r="E460" s="19">
         <v>3</v>
       </c>
@@ -11342,7 +11422,7 @@
     </row>
     <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="32"/>
-      <c r="D461" s="48"/>
+      <c r="D461" s="45"/>
       <c r="E461" s="19">
         <v>4</v>
       </c>
@@ -11360,7 +11440,7 @@
     </row>
     <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="32"/>
-      <c r="D462" s="48"/>
+      <c r="D462" s="45"/>
       <c r="E462" s="19">
         <v>5</v>
       </c>
@@ -11396,7 +11476,7 @@
       <c r="C464" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D464" s="48" t="s">
+      <c r="D464" s="45" t="s">
         <v>335</v>
       </c>
       <c r="E464" s="19">
@@ -11410,7 +11490,7 @@
     </row>
     <row r="465" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="32"/>
-      <c r="D465" s="48"/>
+      <c r="D465" s="45"/>
       <c r="E465" s="19">
         <v>2</v>
       </c>
@@ -11428,7 +11508,7 @@
     </row>
     <row r="466" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="32"/>
-      <c r="D466" s="48"/>
+      <c r="D466" s="45"/>
       <c r="E466" s="19">
         <v>3</v>
       </c>
@@ -11446,7 +11526,7 @@
     </row>
     <row r="467" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="32"/>
-      <c r="D467" s="48"/>
+      <c r="D467" s="45"/>
       <c r="E467" s="19">
         <v>4</v>
       </c>
@@ -11464,7 +11544,7 @@
     </row>
     <row r="468" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="32"/>
-      <c r="D468" s="48"/>
+      <c r="D468" s="45"/>
       <c r="E468" s="19">
         <v>5</v>
       </c>
@@ -11499,7 +11579,7 @@
       <c r="C470" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D470" s="48" t="s">
+      <c r="D470" s="45" t="s">
         <v>339</v>
       </c>
       <c r="E470" s="19">
@@ -11516,7 +11596,7 @@
     </row>
     <row r="471" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="32"/>
-      <c r="D471" s="48"/>
+      <c r="D471" s="45"/>
       <c r="E471" s="19">
         <v>2</v>
       </c>
@@ -11534,7 +11614,7 @@
     </row>
     <row r="472" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="32"/>
-      <c r="D472" s="48"/>
+      <c r="D472" s="45"/>
       <c r="E472" s="19">
         <v>3</v>
       </c>
@@ -11552,7 +11632,7 @@
     </row>
     <row r="473" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="32"/>
-      <c r="D473" s="48"/>
+      <c r="D473" s="45"/>
       <c r="E473" s="19">
         <v>4</v>
       </c>
@@ -11570,7 +11650,7 @@
     </row>
     <row r="474" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="32"/>
-      <c r="D474" s="48"/>
+      <c r="D474" s="45"/>
       <c r="E474" s="19">
         <v>5</v>
       </c>
@@ -11606,7 +11686,7 @@
       <c r="C476" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D476" s="48" t="s">
+      <c r="D476" s="45" t="s">
         <v>343</v>
       </c>
       <c r="E476" s="19">
@@ -11620,7 +11700,7 @@
     </row>
     <row r="477" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="32"/>
-      <c r="D477" s="48"/>
+      <c r="D477" s="45"/>
       <c r="E477" s="19">
         <v>2</v>
       </c>
@@ -11638,7 +11718,7 @@
     </row>
     <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="32"/>
-      <c r="D478" s="48"/>
+      <c r="D478" s="45"/>
       <c r="E478" s="19">
         <v>3</v>
       </c>
@@ -11656,7 +11736,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B479" s="32"/>
-      <c r="D479" s="48"/>
+      <c r="D479" s="45"/>
       <c r="E479" s="19">
         <v>4</v>
       </c>
@@ -11674,7 +11754,7 @@
     </row>
     <row r="480" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B480" s="32"/>
-      <c r="D480" s="48"/>
+      <c r="D480" s="45"/>
       <c r="E480" s="19">
         <v>5</v>
       </c>
@@ -11695,7 +11775,7 @@
     </row>
     <row r="481" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B481" s="32"/>
-      <c r="D481" s="48"/>
+      <c r="D481" s="45"/>
       <c r="E481" s="19">
         <v>6</v>
       </c>
@@ -11717,7 +11797,7 @@
     <row r="482" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A482" s="30"/>
       <c r="B482" s="32"/>
-      <c r="D482" s="48"/>
+      <c r="D482" s="45"/>
       <c r="E482" s="19">
         <v>7</v>
       </c>
@@ -11758,7 +11838,7 @@
       <c r="C484" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D484" s="48" t="s">
+      <c r="D484" s="45" t="s">
         <v>357</v>
       </c>
       <c r="E484" s="19">
@@ -11772,7 +11852,7 @@
     </row>
     <row r="485" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="32"/>
-      <c r="D485" s="48"/>
+      <c r="D485" s="45"/>
       <c r="E485" s="19">
         <v>2</v>
       </c>
@@ -11790,7 +11870,7 @@
     </row>
     <row r="486" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="32"/>
-      <c r="D486" s="48"/>
+      <c r="D486" s="45"/>
       <c r="E486" s="19">
         <v>3</v>
       </c>
@@ -11808,7 +11888,7 @@
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B487" s="32"/>
-      <c r="D487" s="48"/>
+      <c r="D487" s="45"/>
       <c r="E487" s="19">
         <v>4</v>
       </c>
@@ -11826,7 +11906,7 @@
     </row>
     <row r="488" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B488" s="32"/>
-      <c r="D488" s="48"/>
+      <c r="D488" s="45"/>
       <c r="E488" s="19">
         <v>5</v>
       </c>
@@ -11847,7 +11927,7 @@
     </row>
     <row r="489" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="32"/>
-      <c r="D489" s="48"/>
+      <c r="D489" s="45"/>
       <c r="E489" s="19">
         <v>6</v>
       </c>
@@ -11869,7 +11949,7 @@
     <row r="490" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A490" s="30"/>
       <c r="B490" s="32"/>
-      <c r="D490" s="48"/>
+      <c r="D490" s="45"/>
       <c r="E490" s="19">
         <v>7</v>
       </c>
@@ -11910,7 +11990,7 @@
       <c r="C492" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D492" s="48" t="s">
+      <c r="D492" s="45" t="s">
         <v>360</v>
       </c>
       <c r="E492" s="19">
@@ -11924,7 +12004,7 @@
     </row>
     <row r="493" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="32"/>
-      <c r="D493" s="48"/>
+      <c r="D493" s="45"/>
       <c r="E493" s="19">
         <v>2</v>
       </c>
@@ -11942,7 +12022,7 @@
     </row>
     <row r="494" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="32"/>
-      <c r="D494" s="48"/>
+      <c r="D494" s="45"/>
       <c r="E494" s="19">
         <v>3</v>
       </c>
@@ -11960,7 +12040,7 @@
     </row>
     <row r="495" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B495" s="32"/>
-      <c r="D495" s="48"/>
+      <c r="D495" s="45"/>
       <c r="E495" s="19">
         <v>4</v>
       </c>
@@ -11978,7 +12058,7 @@
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B496" s="32"/>
-      <c r="D496" s="48"/>
+      <c r="D496" s="45"/>
       <c r="E496" s="19">
         <v>5</v>
       </c>
@@ -11996,7 +12076,7 @@
     </row>
     <row r="497" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="32"/>
-      <c r="D497" s="48"/>
+      <c r="D497" s="45"/>
       <c r="E497" s="19">
         <v>6</v>
       </c>
@@ -12015,7 +12095,7 @@
     <row r="498" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="30"/>
       <c r="B498" s="32"/>
-      <c r="D498" s="48"/>
+      <c r="D498" s="45"/>
       <c r="E498" s="19">
         <v>7</v>
       </c>
@@ -12041,7 +12121,7 @@
       <c r="L499" s="2"/>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A500" s="43" t="s">
+      <c r="A500" s="48" t="s">
         <v>368</v>
       </c>
       <c r="B500" s="32" t="s">
@@ -12050,7 +12130,7 @@
       <c r="C500" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D500" s="48" t="s">
+      <c r="D500" s="45" t="s">
         <v>371</v>
       </c>
       <c r="E500" s="19">
@@ -12064,7 +12144,7 @@
     </row>
     <row r="501" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="32"/>
-      <c r="D501" s="48"/>
+      <c r="D501" s="45"/>
       <c r="E501" s="19">
         <v>2</v>
       </c>
@@ -12082,7 +12162,7 @@
     </row>
     <row r="502" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B502" s="32"/>
-      <c r="D502" s="48"/>
+      <c r="D502" s="45"/>
       <c r="E502" s="19">
         <v>3</v>
       </c>
@@ -12100,7 +12180,7 @@
     </row>
     <row r="503" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="32"/>
-      <c r="D503" s="48"/>
+      <c r="D503" s="45"/>
       <c r="E503" s="19">
         <v>4</v>
       </c>
@@ -12118,7 +12198,7 @@
     </row>
     <row r="504" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="32"/>
-      <c r="D504" s="48"/>
+      <c r="D504" s="45"/>
       <c r="E504" s="19">
         <v>5</v>
       </c>
@@ -12140,14 +12220,14 @@
     </row>
     <row r="505" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B505" s="32"/>
-      <c r="D505" s="48"/>
-      <c r="E505" s="42">
+      <c r="D505" s="45"/>
+      <c r="E505" s="33">
         <v>6</v>
       </c>
-      <c r="F505" s="42" t="s">
+      <c r="F505" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G505" s="42" t="s">
+      <c r="G505" s="33" t="s">
         <v>374</v>
       </c>
       <c r="K505" s="25" t="s">
@@ -12171,7 +12251,7 @@
       <c r="C507" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D507" s="48" t="s">
+      <c r="D507" s="45" t="s">
         <v>375</v>
       </c>
       <c r="E507" s="19">
@@ -12185,7 +12265,7 @@
     </row>
     <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="32"/>
-      <c r="D508" s="48"/>
+      <c r="D508" s="45"/>
       <c r="E508" s="19">
         <v>2</v>
       </c>
@@ -12203,7 +12283,7 @@
     </row>
     <row r="509" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="32"/>
-      <c r="D509" s="48"/>
+      <c r="D509" s="45"/>
       <c r="E509" s="19">
         <v>3</v>
       </c>
@@ -12221,7 +12301,7 @@
     </row>
     <row r="510" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="32"/>
-      <c r="D510" s="48"/>
+      <c r="D510" s="45"/>
       <c r="E510" s="19">
         <v>4</v>
       </c>
@@ -12239,7 +12319,7 @@
     </row>
     <row r="511" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="32"/>
-      <c r="D511" s="48"/>
+      <c r="D511" s="45"/>
       <c r="E511" s="19">
         <v>5</v>
       </c>
@@ -12257,7 +12337,7 @@
     </row>
     <row r="512" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B512" s="32"/>
-      <c r="D512" s="48"/>
+      <c r="D512" s="45"/>
       <c r="E512" s="19">
         <v>6</v>
       </c>
@@ -12292,7 +12372,7 @@
       <c r="C514" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D514" s="48" t="s">
+      <c r="D514" s="45" t="s">
         <v>396</v>
       </c>
       <c r="E514" s="19">
@@ -12312,7 +12392,7 @@
     </row>
     <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="32"/>
-      <c r="D515" s="48"/>
+      <c r="D515" s="45"/>
       <c r="E515" s="19">
         <v>2</v>
       </c>
@@ -12333,7 +12413,7 @@
     </row>
     <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="32"/>
-      <c r="D516" s="48"/>
+      <c r="D516" s="45"/>
       <c r="E516" s="19">
         <v>3</v>
       </c>
@@ -12368,7 +12448,7 @@
       <c r="C518" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D518" s="48" t="s">
+      <c r="D518" s="45" t="s">
         <v>406</v>
       </c>
       <c r="E518" s="19">
@@ -12388,7 +12468,7 @@
     </row>
     <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="32"/>
-      <c r="D519" s="48"/>
+      <c r="D519" s="45"/>
       <c r="E519" s="19">
         <v>2</v>
       </c>
@@ -12409,7 +12489,7 @@
     </row>
     <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="32"/>
-      <c r="D520" s="48"/>
+      <c r="D520" s="45"/>
       <c r="E520" s="19">
         <v>3</v>
       </c>
@@ -12427,7 +12507,7 @@
     </row>
     <row r="521" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B521" s="32"/>
-      <c r="D521" s="48"/>
+      <c r="D521" s="45"/>
       <c r="E521" s="19">
         <v>4</v>
       </c>
@@ -12449,7 +12529,7 @@
     <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="30"/>
       <c r="B522" s="32"/>
-      <c r="D522" s="48"/>
+      <c r="D522" s="45"/>
       <c r="E522" s="19">
         <v>5</v>
       </c>
@@ -12467,7 +12547,7 @@
     </row>
     <row r="523" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B523" s="32"/>
-      <c r="D523" s="48"/>
+      <c r="D523" s="45"/>
       <c r="E523" s="19">
         <v>6</v>
       </c>
@@ -12488,7 +12568,7 @@
     </row>
     <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B524" s="32"/>
-      <c r="D524" s="48"/>
+      <c r="D524" s="45"/>
       <c r="E524" s="19">
         <v>7</v>
       </c>
@@ -12523,7 +12603,7 @@
       <c r="C526" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D526" s="48" t="s">
+      <c r="D526" s="45" t="s">
         <v>409</v>
       </c>
       <c r="E526" s="19">
@@ -12543,7 +12623,7 @@
     </row>
     <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="32"/>
-      <c r="D527" s="48"/>
+      <c r="D527" s="45"/>
       <c r="E527" s="19">
         <v>2</v>
       </c>
@@ -12564,7 +12644,7 @@
     </row>
     <row r="528" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="32"/>
-      <c r="D528" s="48"/>
+      <c r="D528" s="45"/>
       <c r="E528" s="19">
         <v>3</v>
       </c>
@@ -12599,7 +12679,7 @@
       <c r="C530" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D530" s="48" t="s">
+      <c r="D530" s="45" t="s">
         <v>412</v>
       </c>
       <c r="E530" s="19">
@@ -12619,7 +12699,7 @@
     </row>
     <row r="531" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="32"/>
-      <c r="D531" s="48"/>
+      <c r="D531" s="45"/>
       <c r="E531" s="19">
         <v>2</v>
       </c>
@@ -12640,7 +12720,7 @@
     </row>
     <row r="532" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B532" s="32"/>
-      <c r="D532" s="48"/>
+      <c r="D532" s="45"/>
       <c r="E532" s="19">
         <v>5</v>
       </c>
@@ -12658,7 +12738,7 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B533" s="32"/>
-      <c r="D533" s="48"/>
+      <c r="D533" s="45"/>
       <c r="E533" s="19">
         <v>6</v>
       </c>
@@ -12677,7 +12757,7 @@
     <row r="534" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="30"/>
       <c r="B534" s="32"/>
-      <c r="D534" s="48"/>
+      <c r="D534" s="45"/>
       <c r="E534" s="19">
         <v>7</v>
       </c>
@@ -12715,7 +12795,7 @@
       <c r="C536" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D536" s="48" t="s">
+      <c r="D536" s="45" t="s">
         <v>420</v>
       </c>
       <c r="E536" s="19">
@@ -12732,7 +12812,7 @@
     </row>
     <row r="537" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B537" s="32"/>
-      <c r="D537" s="48"/>
+      <c r="D537" s="45"/>
       <c r="E537" s="19">
         <v>2</v>
       </c>
@@ -12753,7 +12833,7 @@
     </row>
     <row r="538" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="32"/>
-      <c r="D538" s="48"/>
+      <c r="D538" s="45"/>
       <c r="E538" s="19">
         <v>3</v>
       </c>
@@ -12771,7 +12851,7 @@
     </row>
     <row r="539" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B539" s="32"/>
-      <c r="D539" s="48"/>
+      <c r="D539" s="45"/>
       <c r="E539" s="19">
         <v>4</v>
       </c>
@@ -12793,7 +12873,7 @@
     <row r="540" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="30"/>
       <c r="B540" s="32"/>
-      <c r="D540" s="48"/>
+      <c r="D540" s="45"/>
       <c r="E540" s="19">
         <v>5</v>
       </c>
@@ -12812,7 +12892,7 @@
     <row r="541" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="30"/>
       <c r="B541" s="32"/>
-      <c r="D541" s="48"/>
+      <c r="D541" s="45"/>
       <c r="E541" s="19">
         <v>6</v>
       </c>
@@ -12847,7 +12927,7 @@
       <c r="C543" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D543" s="48" t="s">
+      <c r="D543" s="45" t="s">
         <v>424</v>
       </c>
       <c r="E543" s="19">
@@ -12867,7 +12947,7 @@
     </row>
     <row r="544" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="32"/>
-      <c r="D544" s="48"/>
+      <c r="D544" s="45"/>
       <c r="E544" s="19">
         <v>2</v>
       </c>
@@ -12888,7 +12968,7 @@
     </row>
     <row r="545" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B545" s="32"/>
-      <c r="D545" s="48"/>
+      <c r="D545" s="45"/>
       <c r="E545" s="19">
         <v>3</v>
       </c>
@@ -12909,7 +12989,7 @@
     </row>
     <row r="546" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B546" s="32"/>
-      <c r="D546" s="48"/>
+      <c r="D546" s="45"/>
       <c r="E546" s="19">
         <v>4</v>
       </c>
@@ -12931,7 +13011,7 @@
     <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="30"/>
       <c r="B547" s="32"/>
-      <c r="D547" s="48"/>
+      <c r="D547" s="45"/>
       <c r="E547" s="19">
         <v>5</v>
       </c>
@@ -12950,7 +13030,7 @@
     <row r="548" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="30"/>
       <c r="B548" s="32"/>
-      <c r="D548" s="48"/>
+      <c r="D548" s="45"/>
       <c r="E548" s="19">
         <v>6</v>
       </c>
@@ -12991,7 +13071,7 @@
       <c r="C550" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D550" s="48" t="s">
+      <c r="D550" s="45" t="s">
         <v>432</v>
       </c>
       <c r="E550" s="19">
@@ -13011,7 +13091,7 @@
     </row>
     <row r="551" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="32"/>
-      <c r="D551" s="48"/>
+      <c r="D551" s="45"/>
       <c r="E551" s="19">
         <v>2</v>
       </c>
@@ -13032,7 +13112,7 @@
     </row>
     <row r="552" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="32"/>
-      <c r="D552" s="48"/>
+      <c r="D552" s="45"/>
       <c r="E552" s="19">
         <v>3</v>
       </c>
@@ -13053,7 +13133,7 @@
     </row>
     <row r="553" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B553" s="32"/>
-      <c r="D553" s="48"/>
+      <c r="D553" s="45"/>
       <c r="E553" s="19">
         <v>4</v>
       </c>
@@ -13075,7 +13155,7 @@
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="30"/>
       <c r="B554" s="32"/>
-      <c r="D554" s="48"/>
+      <c r="D554" s="45"/>
       <c r="E554" s="19">
         <v>5</v>
       </c>
@@ -13094,7 +13174,7 @@
     <row r="555" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="30"/>
       <c r="B555" s="32"/>
-      <c r="D555" s="48"/>
+      <c r="D555" s="45"/>
       <c r="E555" s="19">
         <v>6</v>
       </c>
@@ -13112,7 +13192,7 @@
     </row>
     <row r="556" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="32"/>
-      <c r="D556" s="48"/>
+      <c r="D556" s="45"/>
       <c r="E556" s="19">
         <v>7</v>
       </c>
@@ -13133,7 +13213,7 @@
     </row>
     <row r="557" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B557" s="32"/>
-      <c r="D557" s="48"/>
+      <c r="D557" s="45"/>
       <c r="E557" s="19">
         <v>8</v>
       </c>
@@ -13155,7 +13235,7 @@
     <row r="558" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="30"/>
       <c r="B558" s="32"/>
-      <c r="D558" s="48"/>
+      <c r="D558" s="45"/>
       <c r="E558" s="19">
         <v>9</v>
       </c>
@@ -13176,7 +13256,7 @@
     </row>
     <row r="559" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B559" s="32"/>
-      <c r="D559" s="48"/>
+      <c r="D559" s="45"/>
       <c r="E559" s="19">
         <v>10</v>
       </c>
@@ -13214,7 +13294,7 @@
       <c r="C561" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D561" s="48" t="s">
+      <c r="D561" s="45" t="s">
         <v>434</v>
       </c>
       <c r="E561" s="19">
@@ -13234,7 +13314,7 @@
     </row>
     <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B562" s="32"/>
-      <c r="D562" s="48"/>
+      <c r="D562" s="45"/>
       <c r="E562" s="19">
         <v>2</v>
       </c>
@@ -13255,7 +13335,7 @@
     </row>
     <row r="563" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="32"/>
-      <c r="D563" s="48"/>
+      <c r="D563" s="45"/>
       <c r="E563" s="19">
         <v>3</v>
       </c>
@@ -13276,7 +13356,7 @@
     </row>
     <row r="564" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B564" s="32"/>
-      <c r="D564" s="48"/>
+      <c r="D564" s="45"/>
       <c r="E564" s="19">
         <v>4</v>
       </c>
@@ -13298,7 +13378,7 @@
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="30"/>
       <c r="B565" s="32"/>
-      <c r="D565" s="48"/>
+      <c r="D565" s="45"/>
       <c r="E565" s="19">
         <v>5</v>
       </c>
@@ -13317,7 +13397,7 @@
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="30"/>
       <c r="B566" s="32"/>
-      <c r="D566" s="48"/>
+      <c r="D566" s="45"/>
       <c r="E566" s="19">
         <v>6</v>
       </c>
@@ -13335,7 +13415,7 @@
     </row>
     <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="32"/>
-      <c r="D567" s="48"/>
+      <c r="D567" s="45"/>
       <c r="E567" s="19">
         <v>7</v>
       </c>
@@ -13353,7 +13433,7 @@
     </row>
     <row r="568" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B568" s="32"/>
-      <c r="D568" s="48"/>
+      <c r="D568" s="45"/>
       <c r="E568" s="19">
         <v>8</v>
       </c>
@@ -13388,7 +13468,7 @@
       <c r="C570" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D570" s="48" t="s">
+      <c r="D570" s="45" t="s">
         <v>446</v>
       </c>
       <c r="E570" s="19">
@@ -13408,7 +13488,7 @@
     </row>
     <row r="571" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B571" s="32"/>
-      <c r="D571" s="48"/>
+      <c r="D571" s="45"/>
       <c r="E571" s="19">
         <v>2</v>
       </c>
@@ -13429,7 +13509,7 @@
     </row>
     <row r="572" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B572" s="32"/>
-      <c r="D572" s="48"/>
+      <c r="D572" s="45"/>
       <c r="E572" s="19">
         <v>3</v>
       </c>
@@ -13447,7 +13527,7 @@
     </row>
     <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="32"/>
-      <c r="D573" s="48"/>
+      <c r="D573" s="45"/>
       <c r="E573" s="19">
         <v>4</v>
       </c>
@@ -13473,7 +13553,7 @@
       <c r="L574" s="2"/>
     </row>
     <row r="575" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="28" t="s">
+      <c r="A575" s="41" t="s">
         <v>455</v>
       </c>
       <c r="B575" s="32" t="s">
@@ -13482,7 +13562,7 @@
       <c r="C575" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D575" s="48" t="s">
+      <c r="D575" s="45" t="s">
         <v>450</v>
       </c>
       <c r="E575" s="19">
@@ -13499,7 +13579,7 @@
     </row>
     <row r="576" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="32"/>
-      <c r="D576" s="48"/>
+      <c r="D576" s="45"/>
       <c r="E576" s="19">
         <v>2</v>
       </c>
@@ -13517,7 +13597,7 @@
     </row>
     <row r="577" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B577" s="32"/>
-      <c r="D577" s="48"/>
+      <c r="D577" s="45"/>
       <c r="E577" s="19">
         <v>3</v>
       </c>
@@ -13532,7 +13612,7 @@
     </row>
     <row r="578" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B578" s="32"/>
-      <c r="D578" s="48"/>
+      <c r="D578" s="45"/>
       <c r="E578" s="19">
         <v>4</v>
       </c>
@@ -13547,7 +13627,7 @@
     </row>
     <row r="579" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="32"/>
-      <c r="D579" s="48"/>
+      <c r="D579" s="45"/>
       <c r="E579" s="19">
         <v>5</v>
       </c>
@@ -13566,7 +13646,7 @@
       <c r="L580" s="2"/>
     </row>
     <row r="581" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A581" s="28" t="s">
+      <c r="A581" s="41" t="s">
         <v>461</v>
       </c>
       <c r="B581" s="32" t="s">
@@ -13575,7 +13655,7 @@
       <c r="C581" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D581" s="48" t="s">
+      <c r="D581" s="45" t="s">
         <v>456</v>
       </c>
       <c r="E581" s="19">
@@ -13592,7 +13672,7 @@
     </row>
     <row r="582" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="32"/>
-      <c r="D582" s="48"/>
+      <c r="D582" s="45"/>
       <c r="E582" s="19">
         <v>2</v>
       </c>
@@ -13610,7 +13690,7 @@
     </row>
     <row r="583" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B583" s="32"/>
-      <c r="D583" s="48"/>
+      <c r="D583" s="45"/>
       <c r="E583" s="19">
         <v>3</v>
       </c>
@@ -13628,7 +13708,7 @@
     </row>
     <row r="584" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B584" s="32"/>
-      <c r="D584" s="48"/>
+      <c r="D584" s="45"/>
       <c r="E584" s="19">
         <v>4</v>
       </c>
@@ -13643,7 +13723,7 @@
     </row>
     <row r="585" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B585" s="32"/>
-      <c r="D585" s="48"/>
+      <c r="D585" s="45"/>
       <c r="E585" s="19">
         <v>5</v>
       </c>
@@ -13671,7 +13751,7 @@
       <c r="C587" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D587" s="48" t="s">
+      <c r="D587" s="45" t="s">
         <v>462</v>
       </c>
       <c r="E587" s="19">
@@ -13691,7 +13771,7 @@
     </row>
     <row r="588" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B588" s="32"/>
-      <c r="D588" s="48"/>
+      <c r="D588" s="45"/>
       <c r="E588" s="19">
         <v>2</v>
       </c>
@@ -13712,7 +13792,7 @@
     </row>
     <row r="589" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B589" s="32"/>
-      <c r="D589" s="48"/>
+      <c r="D589" s="45"/>
       <c r="E589" s="19">
         <v>3</v>
       </c>
@@ -13723,18 +13803,18 @@
         <v>448</v>
       </c>
       <c r="I589" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L589" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M589" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="590" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="32"/>
-      <c r="D590" s="48"/>
+      <c r="D590" s="45"/>
       <c r="E590" s="19">
         <v>4</v>
       </c>
@@ -13749,7 +13829,7 @@
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B591" s="32"/>
-      <c r="D591" s="48"/>
+      <c r="D591" s="45"/>
       <c r="E591" s="19">
         <v>5</v>
       </c>
@@ -13764,7 +13844,7 @@
     </row>
     <row r="592" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="32"/>
-      <c r="D592" s="48"/>
+      <c r="D592" s="45"/>
       <c r="E592" s="19">
         <v>6</v>
       </c>
@@ -13794,7 +13874,7 @@
       <c r="C594" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D594" s="48" t="s">
+      <c r="D594" s="45" t="s">
         <v>467</v>
       </c>
       <c r="E594" s="19">
@@ -13814,7 +13894,7 @@
     </row>
     <row r="595" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B595" s="32"/>
-      <c r="D595" s="48"/>
+      <c r="D595" s="45"/>
       <c r="E595" s="19">
         <v>2</v>
       </c>
@@ -13835,7 +13915,7 @@
     </row>
     <row r="596" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B596" s="32"/>
-      <c r="D596" s="48"/>
+      <c r="D596" s="45"/>
       <c r="E596" s="19">
         <v>3</v>
       </c>
@@ -13846,10 +13926,10 @@
         <v>448</v>
       </c>
       <c r="I596" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J596" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K596" s="2"/>
       <c r="L596" s="2" t="s">
@@ -13858,7 +13938,7 @@
     </row>
     <row r="597" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B597" s="32"/>
-      <c r="D597" s="48"/>
+      <c r="D597" s="45"/>
       <c r="E597" s="19">
         <v>4</v>
       </c>
@@ -13873,7 +13953,7 @@
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B598" s="32"/>
-      <c r="D598" s="48"/>
+      <c r="D598" s="45"/>
       <c r="E598" s="19">
         <v>5</v>
       </c>
@@ -13888,7 +13968,7 @@
     </row>
     <row r="599" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B599" s="31"/>
-      <c r="D599" s="48"/>
+      <c r="D599" s="45"/>
       <c r="E599" s="19">
         <v>6</v>
       </c>
@@ -13918,7 +13998,7 @@
       <c r="C601" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D601" s="48" t="s">
+      <c r="D601" s="45" t="s">
         <v>471</v>
       </c>
       <c r="E601" s="19">
@@ -13938,7 +14018,7 @@
     </row>
     <row r="602" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B602" s="38"/>
-      <c r="D602" s="48"/>
+      <c r="D602" s="45"/>
       <c r="E602" s="19">
         <v>2</v>
       </c>
@@ -13949,17 +14029,17 @@
         <v>475</v>
       </c>
       <c r="J602" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
       <c r="M602" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="603" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B603" s="38"/>
-      <c r="D603" s="48"/>
+      <c r="D603" s="45"/>
       <c r="E603" s="19">
         <v>3</v>
       </c>
@@ -13970,7 +14050,7 @@
         <v>477</v>
       </c>
       <c r="J603" s="19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K603" s="25" t="s">
         <v>592</v>
@@ -13994,7 +14074,7 @@
       <c r="C605" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D605" s="48" t="s">
+      <c r="D605" s="45" t="s">
         <v>479</v>
       </c>
       <c r="E605" s="19">
@@ -14014,7 +14094,7 @@
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B606" s="38"/>
-      <c r="D606" s="48"/>
+      <c r="D606" s="45"/>
       <c r="E606" s="19">
         <v>2</v>
       </c>
@@ -14035,7 +14115,7 @@
     </row>
     <row r="607" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B607" s="38"/>
-      <c r="D607" s="48"/>
+      <c r="D607" s="45"/>
       <c r="E607" s="19">
         <v>3</v>
       </c>
@@ -14053,7 +14133,7 @@
     </row>
     <row r="608" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="31"/>
-      <c r="D608" s="48"/>
+      <c r="D608" s="45"/>
       <c r="E608" s="19">
         <v>4</v>
       </c>
@@ -14089,7 +14169,7 @@
       <c r="C610" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D610" s="48" t="s">
+      <c r="D610" s="45" t="s">
         <v>490</v>
       </c>
       <c r="E610" s="19">
@@ -14109,7 +14189,7 @@
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B611" s="38"/>
-      <c r="D611" s="48"/>
+      <c r="D611" s="45"/>
       <c r="E611" s="19">
         <v>2</v>
       </c>
@@ -14130,7 +14210,7 @@
     </row>
     <row r="612" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B612" s="38"/>
-      <c r="D612" s="48"/>
+      <c r="D612" s="45"/>
       <c r="E612" s="19">
         <v>3</v>
       </c>
@@ -14148,7 +14228,7 @@
     </row>
     <row r="613" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="31"/>
-      <c r="D613" s="48"/>
+      <c r="D613" s="45"/>
       <c r="E613" s="19">
         <v>4</v>
       </c>
@@ -14159,7 +14239,7 @@
         <v>493</v>
       </c>
       <c r="I613" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K613" s="25" t="s">
         <v>592</v>
@@ -14168,7 +14248,7 @@
         <v>14</v>
       </c>
       <c r="M613" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.25">
@@ -14186,7 +14266,7 @@
       <c r="C615" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D615" s="48" t="s">
+      <c r="D615" s="45" t="s">
         <v>495</v>
       </c>
       <c r="E615" s="19">
@@ -14206,7 +14286,7 @@
     </row>
     <row r="616" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B616" s="38"/>
-      <c r="D616" s="48"/>
+      <c r="D616" s="45"/>
       <c r="E616" s="19">
         <v>2</v>
       </c>
@@ -14224,7 +14304,7 @@
     </row>
     <row r="617" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B617" s="37"/>
-      <c r="D617" s="48"/>
+      <c r="D617" s="45"/>
       <c r="E617" s="19">
         <v>3</v>
       </c>
@@ -14246,7 +14326,7 @@
     </row>
     <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B618" s="37"/>
-      <c r="D618" s="48"/>
+      <c r="D618" s="45"/>
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
@@ -14265,7 +14345,7 @@
       <c r="C620" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D620" s="48" t="s">
+      <c r="D620" s="45" t="s">
         <v>502</v>
       </c>
       <c r="E620" s="19">
@@ -14285,7 +14365,7 @@
     </row>
     <row r="621" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B621" s="40"/>
-      <c r="D621" s="48"/>
+      <c r="D621" s="45"/>
       <c r="E621" s="19">
         <v>2</v>
       </c>
@@ -14303,7 +14383,7 @@
     </row>
     <row r="622" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B622" s="39"/>
-      <c r="D622" s="48"/>
+      <c r="D622" s="45"/>
       <c r="E622" s="19">
         <v>3</v>
       </c>
@@ -14321,7 +14401,7 @@
     </row>
     <row r="623" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B623" s="39"/>
-      <c r="D623" s="48"/>
+      <c r="D623" s="45"/>
       <c r="E623" s="19">
         <v>4</v>
       </c>
@@ -14339,7 +14419,7 @@
     </row>
     <row r="624" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="31"/>
-      <c r="D624" s="48"/>
+      <c r="D624" s="45"/>
       <c r="E624" s="19">
         <v>5</v>
       </c>
@@ -14374,7 +14454,7 @@
       <c r="C626" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D626" s="48" t="s">
+      <c r="D626" s="45" t="s">
         <v>508</v>
       </c>
       <c r="E626" s="19">
@@ -14394,7 +14474,7 @@
     </row>
     <row r="627" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B627" s="40"/>
-      <c r="D627" s="48"/>
+      <c r="D627" s="45"/>
       <c r="E627" s="19">
         <v>2</v>
       </c>
@@ -14411,15 +14491,13 @@
       <c r="L627" s="2"/>
     </row>
     <row r="628" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A628" s="45" t="s">
-        <v>623</v>
-      </c>
+      <c r="A628" s="49"/>
       <c r="B628" s="40"/>
-      <c r="D628" s="48"/>
+      <c r="D628" s="45"/>
       <c r="E628" s="19">
         <v>3</v>
       </c>
-      <c r="F628" s="44" t="s">
+      <c r="F628" s="50" t="s">
         <v>512</v>
       </c>
       <c r="G628" s="19" t="s">
@@ -14433,7 +14511,7 @@
     </row>
     <row r="629" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B629" s="39"/>
-      <c r="D629" s="48"/>
+      <c r="D629" s="45"/>
       <c r="E629" s="19">
         <v>4</v>
       </c>
@@ -14468,7 +14546,7 @@
       <c r="C631" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D631" s="48" t="s">
+      <c r="D631" s="45" t="s">
         <v>515</v>
       </c>
       <c r="E631" s="19">
@@ -14488,7 +14566,7 @@
     </row>
     <row r="632" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B632" s="40"/>
-      <c r="D632" s="48"/>
+      <c r="D632" s="45"/>
       <c r="E632" s="19">
         <v>2</v>
       </c>
@@ -14506,7 +14584,7 @@
     </row>
     <row r="633" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B633" s="40"/>
-      <c r="D633" s="48"/>
+      <c r="D633" s="45"/>
       <c r="E633" s="19">
         <v>3</v>
       </c>
@@ -14524,7 +14602,7 @@
     </row>
     <row r="634" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B634" s="39"/>
-      <c r="D634" s="48"/>
+      <c r="D634" s="45"/>
       <c r="E634" s="19">
         <v>4</v>
       </c>
@@ -14535,19 +14613,19 @@
         <v>514</v>
       </c>
       <c r="I634" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K634" s="25"/>
       <c r="L634" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M634" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="635" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B635" s="39"/>
-      <c r="D635" s="48"/>
+      <c r="D635" s="45"/>
       <c r="E635" s="19">
         <v>5</v>
       </c>
@@ -14576,7 +14654,7 @@
       <c r="C637" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D637" s="48" t="s">
+      <c r="D637" s="45" t="s">
         <v>519</v>
       </c>
       <c r="E637" s="19">
@@ -14597,7 +14675,7 @@
     <row r="638" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="28"/>
       <c r="B638" s="40"/>
-      <c r="D638" s="48"/>
+      <c r="D638" s="45"/>
       <c r="E638" s="19">
         <v>2</v>
       </c>
@@ -14616,7 +14694,7 @@
     <row r="639" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A639" s="28"/>
       <c r="B639" s="40"/>
-      <c r="D639" s="48"/>
+      <c r="D639" s="45"/>
       <c r="E639" s="19">
         <v>3</v>
       </c>
@@ -14634,7 +14712,7 @@
     </row>
     <row r="640" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B640" s="40"/>
-      <c r="D640" s="48"/>
+      <c r="D640" s="45"/>
       <c r="E640" s="19">
         <v>4</v>
       </c>
@@ -14652,7 +14730,7 @@
     </row>
     <row r="641" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B641" s="40"/>
-      <c r="D641" s="48"/>
+      <c r="D641" s="45"/>
       <c r="E641" s="19">
         <v>5</v>
       </c>
@@ -14670,7 +14748,7 @@
     </row>
     <row r="642" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B642" s="39"/>
-      <c r="D642" s="48"/>
+      <c r="D642" s="45"/>
       <c r="E642" s="19">
         <v>6</v>
       </c>
@@ -14681,7 +14759,7 @@
         <v>526</v>
       </c>
       <c r="I642" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K642" s="25" t="s">
         <v>592</v>
@@ -14690,12 +14768,12 @@
         <v>14</v>
       </c>
       <c r="M642" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B643" s="39"/>
-      <c r="D643" s="48"/>
+      <c r="D643" s="45"/>
       <c r="E643" s="19">
         <v>7</v>
       </c>
@@ -14723,7 +14801,7 @@
       <c r="C645" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D645" s="48" t="s">
+      <c r="D645" s="45" t="s">
         <v>533</v>
       </c>
       <c r="E645" s="19">
@@ -14743,7 +14821,7 @@
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B646" s="40"/>
-      <c r="D646" s="48"/>
+      <c r="D646" s="45"/>
       <c r="E646" s="19">
         <v>2</v>
       </c>
@@ -14761,7 +14839,7 @@
     </row>
     <row r="647" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="40"/>
-      <c r="D647" s="48"/>
+      <c r="D647" s="45"/>
       <c r="E647" s="19">
         <v>3</v>
       </c>
@@ -14796,7 +14874,7 @@
       <c r="C649" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D649" s="48" t="s">
+      <c r="D649" s="45" t="s">
         <v>540</v>
       </c>
       <c r="E649" s="19">
@@ -14816,7 +14894,7 @@
     </row>
     <row r="650" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B650" s="40"/>
-      <c r="D650" s="48"/>
+      <c r="D650" s="45"/>
       <c r="E650" s="19">
         <v>2</v>
       </c>
@@ -14834,7 +14912,7 @@
     </row>
     <row r="651" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B651" s="40"/>
-      <c r="D651" s="48"/>
+      <c r="D651" s="45"/>
       <c r="E651" s="19">
         <v>3</v>
       </c>
@@ -14869,7 +14947,7 @@
       <c r="C653" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D653" s="48" t="s">
+      <c r="D653" s="45" t="s">
         <v>548</v>
       </c>
       <c r="E653" s="19">
@@ -14885,11 +14963,9 @@
       <c r="L653" s="2"/>
     </row>
     <row r="654" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A654" s="46" t="s">
-        <v>622</v>
-      </c>
+      <c r="A654" s="49"/>
       <c r="B654" s="40"/>
-      <c r="D654" s="48"/>
+      <c r="D654" s="45"/>
       <c r="E654" s="19">
         <v>2</v>
       </c>
@@ -14904,7 +14980,7 @@
     </row>
     <row r="655" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B655" s="40"/>
-      <c r="D655" s="48"/>
+      <c r="D655" s="45"/>
       <c r="E655" s="19">
         <v>3</v>
       </c>
@@ -14919,7 +14995,7 @@
     </row>
     <row r="656" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B656" s="39"/>
-      <c r="D656" s="48"/>
+      <c r="D656" s="45"/>
       <c r="E656" s="19">
         <v>4</v>
       </c>
@@ -14951,7 +15027,7 @@
       <c r="C658" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D658" s="48" t="s">
+      <c r="D658" s="45" t="s">
         <v>554</v>
       </c>
       <c r="E658" s="19">
@@ -14967,11 +15043,9 @@
       <c r="L658" s="2"/>
     </row>
     <row r="659" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A659" s="46" t="s">
-        <v>622</v>
-      </c>
+      <c r="A659" s="49"/>
       <c r="B659" s="40"/>
-      <c r="D659" s="48"/>
+      <c r="D659" s="45"/>
       <c r="E659" s="19">
         <v>2</v>
       </c>
@@ -14986,7 +15060,7 @@
     </row>
     <row r="660" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B660" s="40"/>
-      <c r="D660" s="48"/>
+      <c r="D660" s="45"/>
       <c r="E660" s="19">
         <v>3</v>
       </c>
@@ -15013,7 +15087,7 @@
       <c r="C661" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D661" s="48" t="s">
+      <c r="D661" s="45" t="s">
         <v>557</v>
       </c>
       <c r="E661" s="19">
@@ -15030,7 +15104,7 @@
     </row>
     <row r="662" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="40"/>
-      <c r="D662" s="48"/>
+      <c r="D662" s="45"/>
       <c r="E662" s="19">
         <v>2</v>
       </c>
@@ -15045,7 +15119,7 @@
     </row>
     <row r="663" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B663" s="40"/>
-      <c r="D663" s="48"/>
+      <c r="D663" s="45"/>
       <c r="E663" s="19">
         <v>3</v>
       </c>
@@ -15076,7 +15150,7 @@
       <c r="C665" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D665" s="48" t="s">
+      <c r="D665" s="45" t="s">
         <v>560</v>
       </c>
       <c r="E665" s="19">
@@ -15092,7 +15166,7 @@
     </row>
     <row r="666" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B666" s="40"/>
-      <c r="D666" s="48"/>
+      <c r="D666" s="45"/>
       <c r="E666" s="19">
         <v>2</v>
       </c>
@@ -15106,7 +15180,7 @@
     </row>
     <row r="667" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B667" s="40"/>
-      <c r="D667" s="48"/>
+      <c r="D667" s="45"/>
       <c r="E667" s="19">
         <v>3</v>
       </c>
@@ -15137,7 +15211,7 @@
       <c r="C669" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D669" s="48" t="s">
+      <c r="D669" s="45" t="s">
         <v>563</v>
       </c>
       <c r="E669" s="19">
@@ -15153,7 +15227,7 @@
     </row>
     <row r="670" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B670" s="40"/>
-      <c r="D670" s="48"/>
+      <c r="D670" s="45"/>
       <c r="E670" s="19">
         <v>2</v>
       </c>
@@ -15170,7 +15244,7 @@
     </row>
     <row r="671" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B671" s="40"/>
-      <c r="D671" s="48"/>
+      <c r="D671" s="45"/>
       <c r="E671" s="19">
         <v>3</v>
       </c>
@@ -15201,7 +15275,7 @@
       <c r="C673" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D673" s="48" t="s">
+      <c r="D673" s="45" t="s">
         <v>571</v>
       </c>
       <c r="E673" s="19">
@@ -15217,7 +15291,7 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B674" s="40"/>
-      <c r="D674" s="48"/>
+      <c r="D674" s="45"/>
       <c r="E674" s="19">
         <v>2</v>
       </c>
@@ -15231,7 +15305,7 @@
     </row>
     <row r="675" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B675" s="40"/>
-      <c r="D675" s="48"/>
+      <c r="D675" s="45"/>
       <c r="E675" s="19">
         <v>3</v>
       </c>
@@ -15262,7 +15336,7 @@
       <c r="C677" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D677" s="48" t="s">
+      <c r="D677" s="45" t="s">
         <v>579</v>
       </c>
       <c r="E677" s="19">
@@ -15278,7 +15352,7 @@
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B678" s="40"/>
-      <c r="D678" s="48"/>
+      <c r="D678" s="45"/>
       <c r="E678" s="19">
         <v>2</v>
       </c>
@@ -15292,7 +15366,7 @@
     </row>
     <row r="679" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B679" s="40"/>
-      <c r="D679" s="48"/>
+      <c r="D679" s="45"/>
       <c r="E679" s="19">
         <v>3</v>
       </c>
@@ -15323,7 +15397,7 @@
       <c r="C681" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D681" s="48" t="s">
+      <c r="D681" s="45" t="s">
         <v>584</v>
       </c>
       <c r="E681" s="19">
@@ -15339,7 +15413,7 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B682" s="40"/>
-      <c r="D682" s="48"/>
+      <c r="D682" s="45"/>
       <c r="E682" s="19">
         <v>2</v>
       </c>
@@ -15353,7 +15427,7 @@
     </row>
     <row r="683" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B683" s="40"/>
-      <c r="D683" s="48"/>
+      <c r="D683" s="45"/>
       <c r="E683" s="19">
         <v>3</v>
       </c>
@@ -15371,81 +15445,319 @@
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B684" s="31"/>
+      <c r="B684" s="43"/>
+      <c r="D684" s="42"/>
       <c r="L684" s="2"/>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B685" s="31"/>
+    <row r="685" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="B685" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C685" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D685" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="E685" s="19">
+        <v>1</v>
+      </c>
+      <c r="F685" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="G685" s="19" t="s">
+        <v>636</v>
+      </c>
       <c r="L685" s="2"/>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B686" s="31"/>
+      <c r="D686" s="45"/>
+      <c r="E686" s="19">
+        <v>2</v>
+      </c>
+      <c r="F686" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="G686" s="19" t="s">
+        <v>637</v>
+      </c>
       <c r="L686" s="2"/>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B687" s="31"/>
-      <c r="L687" s="2"/>
+      <c r="D687" s="45"/>
+      <c r="E687" s="19">
+        <v>3</v>
+      </c>
+      <c r="F687" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="G687" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="K687" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="L687" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B688" s="31"/>
+      <c r="D688" s="45"/>
       <c r="L688" s="2"/>
     </row>
-    <row r="689" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B689" s="31"/>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A689" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="B689" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C689" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D689" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="E689" s="19">
+        <v>1</v>
+      </c>
+      <c r="F689" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="G689" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="L689" s="2"/>
     </row>
-    <row r="690" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B690" s="31"/>
+      <c r="D690" s="45"/>
+      <c r="E690" s="19">
+        <v>2</v>
+      </c>
+      <c r="F690" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="G690" s="19" t="s">
+        <v>637</v>
+      </c>
       <c r="L690" s="2"/>
     </row>
-    <row r="691" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B691" s="31"/>
+      <c r="D691" s="45"/>
+      <c r="E691" s="19">
+        <v>3</v>
+      </c>
+      <c r="F691" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="G691" s="19" t="s">
+        <v>645</v>
+      </c>
       <c r="L691" s="2"/>
     </row>
-    <row r="692" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B692" s="31"/>
-      <c r="L692" s="2"/>
-    </row>
-    <row r="693" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D692" s="45"/>
+      <c r="E692" s="19">
+        <v>4</v>
+      </c>
+      <c r="F692" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="G692" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="K692" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="L692" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B693" s="31"/>
       <c r="L693" s="2"/>
     </row>
-    <row r="694" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B694" s="31"/>
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A694" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="B694" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C694" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D694" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="E694" s="19">
+        <v>1</v>
+      </c>
+      <c r="F694" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="G694" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="L694" s="2"/>
     </row>
-    <row r="695" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B695" s="31"/>
+      <c r="D695" s="45"/>
+      <c r="E695" s="19">
+        <v>2</v>
+      </c>
+      <c r="F695" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="G695" s="19" t="s">
+        <v>637</v>
+      </c>
       <c r="L695" s="2"/>
     </row>
-    <row r="696" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B696" s="31"/>
+      <c r="D696" s="45"/>
+      <c r="E696" s="19">
+        <v>3</v>
+      </c>
+      <c r="F696" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="G696" s="19" t="s">
+        <v>645</v>
+      </c>
       <c r="L696" s="2"/>
     </row>
-    <row r="697" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B697" s="31"/>
+      <c r="D697" s="45"/>
+      <c r="E697" s="19">
+        <v>4</v>
+      </c>
+      <c r="F697" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="G697" s="19" t="s">
+        <v>651</v>
+      </c>
       <c r="L697" s="2"/>
     </row>
-    <row r="698" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B698" s="31"/>
+      <c r="E698" s="19">
+        <v>5</v>
+      </c>
+      <c r="F698" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="G698" s="19" t="s">
+        <v>653</v>
+      </c>
       <c r="L698" s="2"/>
     </row>
-    <row r="699" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L699" s="2"/>
-    </row>
-    <row r="700" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E699" s="19">
+        <v>6</v>
+      </c>
+      <c r="F699" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="G699" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="H699" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="K699" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="L699" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L700" s="2"/>
     </row>
-    <row r="701" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A701" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="B701" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C701" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D701" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="E701" s="19">
+        <v>1</v>
+      </c>
+      <c r="F701" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="G701" s="19" t="s">
+        <v>643</v>
+      </c>
       <c r="L701" s="2"/>
     </row>
-    <row r="702" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B702" s="42"/>
+      <c r="D702" s="45"/>
+      <c r="E702" s="19">
+        <v>2</v>
+      </c>
+      <c r="F702" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="G702" s="19" t="s">
+        <v>637</v>
+      </c>
       <c r="L702" s="2"/>
     </row>
-    <row r="703" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B703" s="42"/>
+      <c r="D703" s="45"/>
+      <c r="E703" s="19">
+        <v>3</v>
+      </c>
+      <c r="F703" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="G703" s="19" t="s">
+        <v>645</v>
+      </c>
       <c r="L703" s="2"/>
     </row>
-    <row r="704" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L704" s="2"/>
+    <row r="704" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B704" s="42"/>
+      <c r="D704" s="45"/>
+      <c r="E704" s="19">
+        <v>4</v>
+      </c>
+      <c r="F704" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="G704" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="K704" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="L704" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="705" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L705" s="2"/>
@@ -15456,52 +15768,50 @@
     <row r="707" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L707" s="2"/>
     </row>
+    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L708" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="D543:D548"/>
-    <mergeCell ref="D550:D559"/>
-    <mergeCell ref="D587:D592"/>
-    <mergeCell ref="D594:D599"/>
-    <mergeCell ref="D561:D568"/>
-    <mergeCell ref="D570:D573"/>
-    <mergeCell ref="D575:D579"/>
-    <mergeCell ref="D492:D498"/>
-    <mergeCell ref="D500:D505"/>
-    <mergeCell ref="D507:D512"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="D536:D541"/>
-    <mergeCell ref="D470:D474"/>
-    <mergeCell ref="D476:D482"/>
-    <mergeCell ref="D484:D490"/>
-    <mergeCell ref="D446:D450"/>
-    <mergeCell ref="D452:D456"/>
-    <mergeCell ref="D458:D462"/>
-    <mergeCell ref="D464:D468"/>
-    <mergeCell ref="D434:D438"/>
-    <mergeCell ref="D428:D432"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D317"/>
-    <mergeCell ref="D416:D420"/>
-    <mergeCell ref="D319:D325"/>
-    <mergeCell ref="D327:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="D296:D302"/>
-    <mergeCell ref="D263:D269"/>
-    <mergeCell ref="D271:D278"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="D218:D227"/>
-    <mergeCell ref="D229:D238"/>
-    <mergeCell ref="D240:D245"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="D255:D261"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="D182:D193"/>
-    <mergeCell ref="D195:D206"/>
-    <mergeCell ref="D208:D216"/>
+  <mergeCells count="99">
+    <mergeCell ref="D685:D688"/>
+    <mergeCell ref="D689:D692"/>
+    <mergeCell ref="D694:D697"/>
+    <mergeCell ref="D701:D704"/>
+    <mergeCell ref="D677:D679"/>
+    <mergeCell ref="D681:D683"/>
+    <mergeCell ref="D658:D660"/>
+    <mergeCell ref="D661:D663"/>
+    <mergeCell ref="D665:D667"/>
+    <mergeCell ref="D669:D671"/>
+    <mergeCell ref="D673:D675"/>
+    <mergeCell ref="D637:D643"/>
+    <mergeCell ref="D645:D647"/>
+    <mergeCell ref="D649:D651"/>
+    <mergeCell ref="D653:D656"/>
+    <mergeCell ref="D581:D585"/>
+    <mergeCell ref="D620:D624"/>
+    <mergeCell ref="D626:D629"/>
+    <mergeCell ref="D631:D635"/>
+    <mergeCell ref="D615:D618"/>
+    <mergeCell ref="D601:D603"/>
+    <mergeCell ref="D605:D608"/>
+    <mergeCell ref="D610:D613"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D518:D524"/>
+    <mergeCell ref="D526:D528"/>
+    <mergeCell ref="D530:D534"/>
+    <mergeCell ref="D410:D414"/>
+    <mergeCell ref="D404:D408"/>
+    <mergeCell ref="D422:D426"/>
+    <mergeCell ref="D396:D402"/>
+    <mergeCell ref="D358:D363"/>
+    <mergeCell ref="D365:D371"/>
+    <mergeCell ref="D373:D379"/>
+    <mergeCell ref="D381:D386"/>
+    <mergeCell ref="D388:D394"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D24:D30"/>
     <mergeCell ref="D32:D40"/>
     <mergeCell ref="D42:D50"/>
     <mergeCell ref="D440:D444"/>
@@ -15518,45 +15828,54 @@
     <mergeCell ref="D103:D110"/>
     <mergeCell ref="D112:D117"/>
     <mergeCell ref="D280:D287"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D518:D524"/>
-    <mergeCell ref="D526:D528"/>
-    <mergeCell ref="D530:D534"/>
-    <mergeCell ref="D410:D414"/>
-    <mergeCell ref="D404:D408"/>
-    <mergeCell ref="D422:D426"/>
-    <mergeCell ref="D396:D402"/>
-    <mergeCell ref="D358:D363"/>
-    <mergeCell ref="D365:D371"/>
-    <mergeCell ref="D373:D379"/>
-    <mergeCell ref="D381:D386"/>
-    <mergeCell ref="D388:D394"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D637:D643"/>
-    <mergeCell ref="D645:D647"/>
-    <mergeCell ref="D649:D651"/>
-    <mergeCell ref="D653:D656"/>
-    <mergeCell ref="D581:D585"/>
-    <mergeCell ref="D620:D624"/>
-    <mergeCell ref="D626:D629"/>
-    <mergeCell ref="D631:D635"/>
-    <mergeCell ref="D615:D618"/>
-    <mergeCell ref="D601:D603"/>
-    <mergeCell ref="D605:D608"/>
-    <mergeCell ref="D610:D613"/>
-    <mergeCell ref="D677:D679"/>
-    <mergeCell ref="D681:D683"/>
-    <mergeCell ref="D658:D660"/>
-    <mergeCell ref="D661:D663"/>
-    <mergeCell ref="D665:D667"/>
-    <mergeCell ref="D669:D671"/>
-    <mergeCell ref="D673:D675"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="D296:D302"/>
+    <mergeCell ref="D263:D269"/>
+    <mergeCell ref="D271:D278"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="D218:D227"/>
+    <mergeCell ref="D229:D238"/>
+    <mergeCell ref="D240:D245"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="D255:D261"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="D182:D193"/>
+    <mergeCell ref="D195:D206"/>
+    <mergeCell ref="D208:D216"/>
+    <mergeCell ref="D434:D438"/>
+    <mergeCell ref="D428:D432"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D317"/>
+    <mergeCell ref="D416:D420"/>
+    <mergeCell ref="D319:D325"/>
+    <mergeCell ref="D327:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="D470:D474"/>
+    <mergeCell ref="D476:D482"/>
+    <mergeCell ref="D484:D490"/>
+    <mergeCell ref="D446:D450"/>
+    <mergeCell ref="D452:D456"/>
+    <mergeCell ref="D458:D462"/>
+    <mergeCell ref="D464:D468"/>
+    <mergeCell ref="D492:D498"/>
+    <mergeCell ref="D500:D505"/>
+    <mergeCell ref="D507:D512"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="D536:D541"/>
+    <mergeCell ref="D543:D548"/>
+    <mergeCell ref="D550:D559"/>
+    <mergeCell ref="D587:D592"/>
+    <mergeCell ref="D594:D599"/>
+    <mergeCell ref="D561:D568"/>
+    <mergeCell ref="D570:D573"/>
+    <mergeCell ref="D575:D579"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B626:B628 B631:B633 B637:B641 B645:B647 B649:B651 B653:B655 B658:B663 B665:B667 B669:B671 B673:B675 B677:B679 B681:B683 B615:B616 B620:B621" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B169:B201 B207:B235 B239:B260 B262:B286 B288:B309 B312:B332 B334:B355 B357:B378 B380:B401 B2:B164 B403:B592 B594:B598 B601:B603 B605:B607 B610:B612 B626:B628 B631:B633 B637:B641 B645:B647 B649:B651 B653:B655 B658:B663 B665:B667 B669:B671 B673:B675 B677:B679 B681:B685 B615:B616 B620:B621 B689 B694 B701" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C169:C201 C207:C235 C239:C260 C262:C286 C288:C309 C312:C332 C334:C355 C357:C378 C380:C401 C2:C164 C403:C1048576" xr:uid="{4613EE89-5E19-42FA-AB1F-2526DEDE59AC}">
@@ -15565,10 +15884,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K505:K540 K542:K547 K549:K558 K560:K567 K487:K489 K491:K503 K590:K628 K569:K572 K574:K588 K630:K633 K635:K641 K643:K646 K648:K650 K661:K662 K652:K655 K657:K659" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K76:K486 K2:K74 K541 K548 K559 K568 K490 K505 K498 K512 K516 K524 K528 K534 K629 K573 K592 K599 K603 K608 K613 K617 K624 K634 K642 K647 K651 K660 K656 K663 K667 K671 K635" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K76:K486 K2:K74 K541 K548 K559 K568 K490 K505 K498 K512 K516 K524 K528 K534 K629 K573 K592 K599 K603 K608 K613 K617 K624 K642 K647 K651 K660 K656 K663 K667 K671 K634:K635" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L74 L76:L634 L636:L707" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L74 L76:L634 L636:L708" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15603,7 +15922,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>283</v>
       </c>
       <c r="E2" s="19">
@@ -15619,7 +15938,7 @@
       <c r="A3" s="29"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="48"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -15635,7 +15954,7 @@
       <c r="A4" s="29"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="48"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -15651,7 +15970,7 @@
       <c r="A5" s="29"/>
       <c r="B5" s="32"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="48"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -15667,7 +15986,7 @@
       <c r="A6" s="29"/>
       <c r="B6" s="32"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="48"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -15683,7 +16002,7 @@
       <c r="A7" s="29"/>
       <c r="B7" s="32"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="48"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="19">
         <v>6</v>
       </c>
@@ -15715,7 +16034,7 @@
       <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="45" t="s">
         <v>287</v>
       </c>
       <c r="E9" s="19">
@@ -15731,7 +16050,7 @@
       <c r="A10" s="29"/>
       <c r="B10" s="32"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="48"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="19">
         <v>2</v>
       </c>
@@ -15747,7 +16066,7 @@
       <c r="A11" s="29"/>
       <c r="B11" s="32"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="48"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="19">
         <v>3</v>
       </c>
@@ -15763,7 +16082,7 @@
       <c r="A12" s="29"/>
       <c r="B12" s="32"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="48"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="19">
         <v>4</v>
       </c>
@@ -15779,7 +16098,7 @@
       <c r="A13" s="29"/>
       <c r="B13" s="32"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="48"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="19">
         <v>5</v>
       </c>
@@ -15795,7 +16114,7 @@
       <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="19">
         <v>6</v>
       </c>
@@ -15811,7 +16130,7 @@
       <c r="A15" s="29"/>
       <c r="B15" s="32"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="19">
         <v>7</v>
       </c>
@@ -15841,7 +16160,7 @@
       <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="45" t="s">
         <v>290</v>
       </c>
       <c r="E17" s="19">
@@ -15857,7 +16176,7 @@
       <c r="A18" s="29"/>
       <c r="B18" s="32"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="19">
         <v>2</v>
       </c>
@@ -15873,7 +16192,7 @@
       <c r="A19" s="29"/>
       <c r="B19" s="32"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="19">
         <v>3</v>
       </c>
@@ -15889,7 +16208,7 @@
       <c r="A20" s="29"/>
       <c r="B20" s="32"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="19">
         <v>4</v>
       </c>
@@ -15905,7 +16224,7 @@
       <c r="A21" s="29"/>
       <c r="B21" s="32"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="19">
         <v>5</v>
       </c>
@@ -15921,7 +16240,7 @@
       <c r="A22" s="29"/>
       <c r="B22" s="32"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="48"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="19">
         <v>6</v>
       </c>
@@ -15934,7 +16253,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="48"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="19">
         <v>7</v>
       </c>

--- a/Test Execution/Rijo/Test Case - Theatre.xlsx
+++ b/Test Execution/Rijo/Test Case - Theatre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Rijo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546562E-865F-4704-BE19-72748A6F3F83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF7E226-6997-4706-BD12-6DFA65352175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2859,6 +2859,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2870,15 +2879,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3867,16 +3867,16 @@
       <c r="B6" s="15"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3893,8 +3893,8 @@
   <dimension ref="A1:S708"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G292" sqref="G292"/>
+      <pane ySplit="1" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A685" sqref="A685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,7 +3972,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="19">
@@ -4011,7 +4011,7 @@
       <c r="A3" s="28"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="47"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="A4" s="28"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -4083,7 +4083,7 @@
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="32"/>
-      <c r="D5" s="47"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -4112,7 +4112,7 @@
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="32"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="19">
@@ -4262,7 +4262,7 @@
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="19">
         <v>3</v>
       </c>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
-      <c r="D16" s="45"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="19">
         <v>5</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="48" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="19">
@@ -4351,7 +4351,7 @@
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="32"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="19">
         <v>2</v>
       </c>
@@ -4370,7 +4370,7 @@
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="19">
         <v>3</v>
       </c>
@@ -4392,7 +4392,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="32"/>
-      <c r="D21" s="45"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="19">
         <v>4</v>
       </c>
@@ -4411,7 +4411,7 @@
     <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="32"/>
-      <c r="D22" s="45"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="19">
         <v>5</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="C24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="48" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="19">
@@ -4463,7 +4463,7 @@
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
-      <c r="D25" s="45"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="19">
         <v>2</v>
       </c>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
-      <c r="D26" s="45"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="19">
         <v>3</v>
       </c>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
-      <c r="D27" s="45"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="19">
         <v>4</v>
       </c>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="28" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
-      <c r="D28" s="45"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="19">
         <v>5</v>
       </c>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
-      <c r="D29" s="45"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="19">
         <v>6</v>
       </c>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
-      <c r="D30" s="45"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="19">
         <v>7</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="C32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="48" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="19">
@@ -4605,7 +4605,7 @@
     </row>
     <row r="33" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
-      <c r="D33" s="45"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="19">
         <v>2</v>
       </c>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
-      <c r="D34" s="45"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="19">
         <v>3</v>
       </c>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
-      <c r="D35" s="45"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="19">
         <v>4</v>
       </c>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
-      <c r="D36" s="45"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="19">
         <v>5</v>
       </c>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
-      <c r="D37" s="45"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="19">
         <v>6</v>
       </c>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="38" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
-      <c r="D38" s="45"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="19">
         <v>7</v>
       </c>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
-      <c r="D39" s="45"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="19">
         <v>8</v>
       </c>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="40" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="19">
         <v>9</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="48" t="s">
         <v>79</v>
       </c>
       <c r="E42" s="19">
@@ -4783,7 +4783,7 @@
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
-      <c r="D43" s="45"/>
+      <c r="D43" s="48"/>
       <c r="E43" s="19">
         <v>2</v>
       </c>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
-      <c r="D44" s="45"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="19">
         <v>3</v>
       </c>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
-      <c r="D45" s="45"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="19">
         <v>4</v>
       </c>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
-      <c r="D46" s="45"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="19">
         <v>5</v>
       </c>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
-      <c r="D47" s="45"/>
+      <c r="D47" s="48"/>
       <c r="E47" s="19">
         <v>6</v>
       </c>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
-      <c r="D48" s="45"/>
+      <c r="D48" s="48"/>
       <c r="E48" s="19">
         <v>7</v>
       </c>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="32"/>
-      <c r="D49" s="45"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="19">
         <v>8</v>
       </c>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="50" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="19">
         <v>9</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="C52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="48" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="19">
@@ -4955,7 +4955,7 @@
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
-      <c r="D53" s="45"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="19">
         <v>2</v>
       </c>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="54" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32"/>
-      <c r="D54" s="45"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="19">
         <v>3</v>
       </c>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="32"/>
-      <c r="D55" s="45"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="19">
         <v>4</v>
       </c>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="32"/>
-      <c r="D56" s="45"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="19">
         <v>5</v>
       </c>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="32"/>
-      <c r="D57" s="45"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="19">
         <v>6</v>
       </c>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="32"/>
-      <c r="D58" s="45"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="19">
         <v>7</v>
       </c>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="59" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="32"/>
-      <c r="D59" s="45"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="19">
         <v>8</v>
       </c>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="60" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="32"/>
-      <c r="D60" s="45"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="19">
         <v>9</v>
       </c>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="32"/>
-      <c r="D61" s="45"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="19">
         <v>10</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="C63" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="48" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="19">
@@ -5145,7 +5145,7 @@
     </row>
     <row r="64" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="32"/>
-      <c r="D64" s="45"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="19">
         <v>2</v>
       </c>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
-      <c r="D65" s="45"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="19">
         <v>3</v>
       </c>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
-      <c r="D66" s="45"/>
+      <c r="D66" s="48"/>
       <c r="E66" s="19">
         <v>4</v>
       </c>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="32"/>
-      <c r="D67" s="45"/>
+      <c r="D67" s="48"/>
       <c r="E67" s="19">
         <v>5</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="C69" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="48" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="19">
@@ -5248,7 +5248,7 @@
     </row>
     <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="32"/>
-      <c r="D70" s="45"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="19">
         <v>2</v>
       </c>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="32"/>
-      <c r="D71" s="45"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="19">
         <v>3</v>
       </c>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="32"/>
-      <c r="D72" s="45"/>
+      <c r="D72" s="48"/>
       <c r="E72" s="19">
         <v>4</v>
       </c>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="73" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32"/>
-      <c r="D73" s="45"/>
+      <c r="D73" s="48"/>
       <c r="E73" s="19">
         <v>5</v>
       </c>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
-      <c r="D74" s="45"/>
+      <c r="D74" s="48"/>
       <c r="E74" s="19">
         <v>6</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="C76" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="48" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="19">
@@ -5367,7 +5367,7 @@
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="32"/>
-      <c r="D77" s="45"/>
+      <c r="D77" s="48"/>
       <c r="E77" s="19">
         <v>2</v>
       </c>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="78" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32"/>
-      <c r="D78" s="45"/>
+      <c r="D78" s="48"/>
       <c r="E78" s="19">
         <v>3</v>
       </c>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B79" s="32"/>
-      <c r="D79" s="45"/>
+      <c r="D79" s="48"/>
       <c r="E79" s="19">
         <v>4</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="C81" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="48" t="s">
         <v>97</v>
       </c>
       <c r="E81" s="19">
@@ -5452,7 +5452,7 @@
     </row>
     <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="32"/>
-      <c r="D82" s="45"/>
+      <c r="D82" s="48"/>
       <c r="E82" s="19">
         <v>2</v>
       </c>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="83" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
-      <c r="D83" s="45"/>
+      <c r="D83" s="48"/>
       <c r="E83" s="19">
         <v>3</v>
       </c>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
-      <c r="D84" s="45"/>
+      <c r="D84" s="48"/>
       <c r="E84" s="19">
         <v>4</v>
       </c>
@@ -5524,7 +5524,7 @@
       <c r="C86" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="D86" s="48" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="19">
@@ -5538,7 +5538,7 @@
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
-      <c r="D87" s="45"/>
+      <c r="D87" s="48"/>
       <c r="E87" s="19">
         <v>2</v>
       </c>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="88" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
-      <c r="D88" s="45"/>
+      <c r="D88" s="48"/>
       <c r="E88" s="19">
         <v>3</v>
       </c>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
-      <c r="D89" s="45"/>
+      <c r="D89" s="48"/>
       <c r="E89" s="19">
         <v>4</v>
       </c>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="90" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
-      <c r="D90" s="45"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="19">
         <v>5</v>
       </c>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="91" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B91" s="32"/>
-      <c r="D91" s="45"/>
+      <c r="D91" s="48"/>
       <c r="E91" s="19">
         <v>6</v>
       </c>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
-      <c r="D92" s="45"/>
+      <c r="D92" s="48"/>
       <c r="E92" s="19">
         <v>7</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="C94" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="45" t="s">
+      <c r="D94" s="48" t="s">
         <v>111</v>
       </c>
       <c r="E94" s="19">
@@ -5661,7 +5661,7 @@
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
-      <c r="D95" s="45"/>
+      <c r="D95" s="48"/>
       <c r="E95" s="19">
         <v>2</v>
       </c>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
-      <c r="D96" s="45"/>
+      <c r="D96" s="48"/>
       <c r="E96" s="19">
         <v>3</v>
       </c>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
-      <c r="D97" s="45"/>
+      <c r="D97" s="48"/>
       <c r="E97" s="19">
         <v>4</v>
       </c>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="98" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
-      <c r="D98" s="45"/>
+      <c r="D98" s="48"/>
       <c r="E98" s="19">
         <v>5</v>
       </c>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="99" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
-      <c r="D99" s="45"/>
+      <c r="D99" s="48"/>
       <c r="E99" s="19">
         <v>6</v>
       </c>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
-      <c r="D100" s="45"/>
+      <c r="D100" s="48"/>
       <c r="E100" s="19">
         <v>7</v>
       </c>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
-      <c r="D101" s="45"/>
+      <c r="D101" s="48"/>
       <c r="E101" s="19">
         <v>8</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="C103" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="48" t="s">
         <v>111</v>
       </c>
       <c r="E103" s="19">
@@ -5799,7 +5799,7 @@
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="32"/>
-      <c r="D104" s="45"/>
+      <c r="D104" s="48"/>
       <c r="E104" s="19">
         <v>2</v>
       </c>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="105" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
-      <c r="D105" s="45"/>
+      <c r="D105" s="48"/>
       <c r="E105" s="19">
         <v>3</v>
       </c>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
-      <c r="D106" s="45"/>
+      <c r="D106" s="48"/>
       <c r="E106" s="19">
         <v>4</v>
       </c>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="107" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
-      <c r="D107" s="45"/>
+      <c r="D107" s="48"/>
       <c r="E107" s="19">
         <v>5</v>
       </c>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="108" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
-      <c r="D108" s="45"/>
+      <c r="D108" s="48"/>
       <c r="E108" s="19">
         <v>6</v>
       </c>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="109" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
-      <c r="D109" s="45"/>
+      <c r="D109" s="48"/>
       <c r="E109" s="19">
         <v>7</v>
       </c>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
-      <c r="D110" s="45"/>
+      <c r="D110" s="48"/>
       <c r="E110" s="19">
         <v>8</v>
       </c>
@@ -5923,7 +5923,7 @@
       <c r="C112" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="45" t="s">
+      <c r="D112" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E112" s="19">
@@ -5937,7 +5937,7 @@
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="32"/>
-      <c r="D113" s="45"/>
+      <c r="D113" s="48"/>
       <c r="E113" s="19">
         <v>2</v>
       </c>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="32"/>
-      <c r="D114" s="45"/>
+      <c r="D114" s="48"/>
       <c r="E114" s="19">
         <v>3</v>
       </c>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="115" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="32"/>
-      <c r="D115" s="45"/>
+      <c r="D115" s="48"/>
       <c r="E115" s="19">
         <v>4</v>
       </c>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="32"/>
-      <c r="D116" s="45"/>
+      <c r="D116" s="48"/>
       <c r="E116" s="19">
         <v>5</v>
       </c>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="32"/>
-      <c r="D117" s="45"/>
+      <c r="D117" s="48"/>
       <c r="E117" s="19">
         <v>6</v>
       </c>
@@ -6025,7 +6025,7 @@
       <c r="C119" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D119" s="45" t="s">
+      <c r="D119" s="48" t="s">
         <v>119</v>
       </c>
       <c r="E119" s="19">
@@ -6039,7 +6039,7 @@
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="32"/>
-      <c r="D120" s="45"/>
+      <c r="D120" s="48"/>
       <c r="E120" s="19">
         <v>2</v>
       </c>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="32"/>
-      <c r="D121" s="45"/>
+      <c r="D121" s="48"/>
       <c r="E121" s="19">
         <v>3</v>
       </c>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="32"/>
-      <c r="D122" s="45"/>
+      <c r="D122" s="48"/>
       <c r="E122" s="19">
         <v>4</v>
       </c>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="32"/>
-      <c r="D123" s="45"/>
+      <c r="D123" s="48"/>
       <c r="E123" s="19">
         <v>5</v>
       </c>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="124" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="32"/>
-      <c r="D124" s="45"/>
+      <c r="D124" s="48"/>
       <c r="E124" s="19">
         <v>6</v>
       </c>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="32"/>
-      <c r="D125" s="45"/>
+      <c r="D125" s="48"/>
       <c r="E125" s="19">
         <v>7</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="C127" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="45" t="s">
+      <c r="D127" s="48" t="s">
         <v>119</v>
       </c>
       <c r="E127" s="19">
@@ -6156,7 +6156,7 @@
     </row>
     <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="32"/>
-      <c r="D128" s="45"/>
+      <c r="D128" s="48"/>
       <c r="E128" s="19">
         <v>2</v>
       </c>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="129" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="32"/>
-      <c r="D129" s="45"/>
+      <c r="D129" s="48"/>
       <c r="E129" s="19">
         <v>3</v>
       </c>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="32"/>
-      <c r="D130" s="45"/>
+      <c r="D130" s="48"/>
       <c r="E130" s="19">
         <v>4</v>
       </c>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="32"/>
-      <c r="D131" s="45"/>
+      <c r="D131" s="48"/>
       <c r="E131" s="19">
         <v>5</v>
       </c>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="32"/>
-      <c r="D132" s="45"/>
+      <c r="D132" s="48"/>
       <c r="E132" s="19">
         <v>6</v>
       </c>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="32"/>
-      <c r="D133" s="45"/>
+      <c r="D133" s="48"/>
       <c r="E133" s="19">
         <v>7</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="C135" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="45" t="s">
+      <c r="D135" s="48" t="s">
         <v>129</v>
       </c>
       <c r="E135" s="19">
@@ -6273,7 +6273,7 @@
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="32"/>
-      <c r="D136" s="45"/>
+      <c r="D136" s="48"/>
       <c r="E136" s="19">
         <v>2</v>
       </c>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="32"/>
-      <c r="D137" s="45"/>
+      <c r="D137" s="48"/>
       <c r="E137" s="19">
         <v>3</v>
       </c>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="32"/>
-      <c r="D138" s="45"/>
+      <c r="D138" s="48"/>
       <c r="E138" s="19">
         <v>4</v>
       </c>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="139" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B139" s="32"/>
-      <c r="D139" s="45"/>
+      <c r="D139" s="48"/>
       <c r="E139" s="19">
         <v>5</v>
       </c>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="140" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B140" s="32"/>
-      <c r="D140" s="45"/>
+      <c r="D140" s="48"/>
       <c r="E140" s="19">
         <v>6</v>
       </c>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B141" s="32"/>
-      <c r="D141" s="45"/>
+      <c r="D141" s="48"/>
       <c r="E141" s="19">
         <v>7</v>
       </c>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="142" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B142" s="32"/>
-      <c r="D142" s="45"/>
+      <c r="D142" s="48"/>
       <c r="E142" s="19">
         <v>8</v>
       </c>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="32"/>
-      <c r="D143" s="45"/>
+      <c r="D143" s="48"/>
       <c r="E143" s="19">
         <v>9</v>
       </c>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="32"/>
-      <c r="D144" s="45"/>
+      <c r="D144" s="48"/>
       <c r="E144" s="19">
         <v>10</v>
       </c>
@@ -6436,7 +6436,7 @@
       <c r="C146" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="45" t="s">
+      <c r="D146" s="48" t="s">
         <v>133</v>
       </c>
       <c r="E146" s="19">
@@ -6450,7 +6450,7 @@
     </row>
     <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="32"/>
-      <c r="D147" s="45"/>
+      <c r="D147" s="48"/>
       <c r="E147" s="19">
         <v>2</v>
       </c>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="32"/>
-      <c r="D148" s="45"/>
+      <c r="D148" s="48"/>
       <c r="E148" s="19">
         <v>3</v>
       </c>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="149" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="32"/>
-      <c r="D149" s="45"/>
+      <c r="D149" s="48"/>
       <c r="E149" s="19">
         <v>4</v>
       </c>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="150" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="32"/>
-      <c r="D150" s="45"/>
+      <c r="D150" s="48"/>
       <c r="E150" s="19">
         <v>5</v>
       </c>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="151" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B151" s="32"/>
-      <c r="D151" s="45"/>
+      <c r="D151" s="48"/>
       <c r="E151" s="19">
         <v>6</v>
       </c>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="32"/>
-      <c r="D152" s="45"/>
+      <c r="D152" s="48"/>
       <c r="E152" s="19">
         <v>7</v>
       </c>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="153" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B153" s="32"/>
-      <c r="D153" s="45"/>
+      <c r="D153" s="48"/>
       <c r="E153" s="19">
         <v>8</v>
       </c>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="32"/>
-      <c r="D154" s="45"/>
+      <c r="D154" s="48"/>
       <c r="E154" s="19">
         <v>9</v>
       </c>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="32"/>
-      <c r="D155" s="45"/>
+      <c r="D155" s="48"/>
       <c r="E155" s="19">
         <v>10</v>
       </c>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B156" s="32"/>
-      <c r="D156" s="45"/>
+      <c r="D156" s="48"/>
       <c r="E156" s="19">
         <v>11</v>
       </c>
@@ -6630,7 +6630,7 @@
       <c r="C158" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="45" t="s">
+      <c r="D158" s="48" t="s">
         <v>150</v>
       </c>
       <c r="E158" s="19">
@@ -6644,7 +6644,7 @@
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B159" s="32"/>
-      <c r="D159" s="45"/>
+      <c r="D159" s="48"/>
       <c r="E159" s="19">
         <v>2</v>
       </c>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B160" s="32"/>
-      <c r="D160" s="45"/>
+      <c r="D160" s="48"/>
       <c r="E160" s="19">
         <v>3</v>
       </c>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="32"/>
-      <c r="D161" s="45"/>
+      <c r="D161" s="48"/>
       <c r="E161" s="19">
         <v>4</v>
       </c>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="162" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B162" s="32"/>
-      <c r="D162" s="45"/>
+      <c r="D162" s="48"/>
       <c r="E162" s="19">
         <v>5</v>
       </c>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="163" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B163" s="32"/>
-      <c r="D163" s="45"/>
+      <c r="D163" s="48"/>
       <c r="E163" s="19">
         <v>6</v>
       </c>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="164" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="32"/>
-      <c r="D164" s="45"/>
+      <c r="D164" s="48"/>
       <c r="E164" s="19">
         <v>7</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
-      <c r="D165" s="45"/>
+      <c r="D165" s="48"/>
       <c r="E165" s="19">
         <v>8</v>
       </c>
@@ -6765,7 +6765,7 @@
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
-      <c r="D166" s="45"/>
+      <c r="D166" s="48"/>
       <c r="E166" s="19">
         <v>9</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
-      <c r="D167" s="45"/>
+      <c r="D167" s="48"/>
       <c r="E167" s="19">
         <v>10</v>
       </c>
@@ -6802,7 +6802,7 @@
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
-      <c r="D168" s="45"/>
+      <c r="D168" s="48"/>
       <c r="E168" s="19">
         <v>11</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="C170" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="45" t="s">
+      <c r="D170" s="48" t="s">
         <v>195</v>
       </c>
       <c r="E170" s="19">
@@ -6846,7 +6846,7 @@
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="32"/>
-      <c r="D171" s="45"/>
+      <c r="D171" s="48"/>
       <c r="E171" s="19">
         <v>2</v>
       </c>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="32"/>
-      <c r="D172" s="45"/>
+      <c r="D172" s="48"/>
       <c r="E172" s="19">
         <v>3</v>
       </c>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B173" s="32"/>
-      <c r="D173" s="45"/>
+      <c r="D173" s="48"/>
       <c r="E173" s="19">
         <v>4</v>
       </c>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="174" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B174" s="32"/>
-      <c r="D174" s="45"/>
+      <c r="D174" s="48"/>
       <c r="E174" s="19">
         <v>5</v>
       </c>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="175" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B175" s="32"/>
-      <c r="D175" s="45"/>
+      <c r="D175" s="48"/>
       <c r="E175" s="19">
         <v>6</v>
       </c>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="176" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B176" s="32"/>
-      <c r="D176" s="45"/>
+      <c r="D176" s="48"/>
       <c r="E176" s="19">
         <v>7</v>
       </c>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="177" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B177" s="32"/>
-      <c r="D177" s="45"/>
+      <c r="D177" s="48"/>
       <c r="E177" s="19">
         <v>8</v>
       </c>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="178" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="32"/>
-      <c r="D178" s="45"/>
+      <c r="D178" s="48"/>
       <c r="E178" s="19">
         <v>9</v>
       </c>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="179" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="32"/>
-      <c r="D179" s="45"/>
+      <c r="D179" s="48"/>
       <c r="E179" s="19">
         <v>10</v>
       </c>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="32"/>
-      <c r="D180" s="45"/>
+      <c r="D180" s="48"/>
       <c r="E180" s="19">
         <v>11</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="C182" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="45" t="s">
+      <c r="D182" s="48" t="s">
         <v>198</v>
       </c>
       <c r="E182" s="19">
@@ -7038,7 +7038,7 @@
     </row>
     <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="32"/>
-      <c r="D183" s="45"/>
+      <c r="D183" s="48"/>
       <c r="E183" s="19">
         <v>2</v>
       </c>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B184" s="32"/>
-      <c r="D184" s="45"/>
+      <c r="D184" s="48"/>
       <c r="E184" s="19">
         <v>3</v>
       </c>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="32"/>
-      <c r="D185" s="45"/>
+      <c r="D185" s="48"/>
       <c r="E185" s="19">
         <v>4</v>
       </c>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="186" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B186" s="32"/>
-      <c r="D186" s="45"/>
+      <c r="D186" s="48"/>
       <c r="E186" s="19">
         <v>5</v>
       </c>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B187" s="32"/>
-      <c r="D187" s="45"/>
+      <c r="D187" s="48"/>
       <c r="E187" s="19">
         <v>6</v>
       </c>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="188" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B188" s="32"/>
-      <c r="D188" s="45"/>
+      <c r="D188" s="48"/>
       <c r="E188" s="19">
         <v>7</v>
       </c>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="189" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="32"/>
-      <c r="D189" s="45"/>
+      <c r="D189" s="48"/>
       <c r="E189" s="19">
         <v>8</v>
       </c>
@@ -7155,7 +7155,7 @@
     </row>
     <row r="190" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="32"/>
-      <c r="D190" s="45"/>
+      <c r="D190" s="48"/>
       <c r="E190" s="19">
         <v>9</v>
       </c>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="191" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B191" s="32"/>
-      <c r="D191" s="45"/>
+      <c r="D191" s="48"/>
       <c r="E191" s="19">
         <v>10</v>
       </c>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B192" s="32"/>
-      <c r="D192" s="45"/>
+      <c r="D192" s="48"/>
       <c r="E192" s="19">
         <v>11</v>
       </c>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="32"/>
-      <c r="D193" s="45"/>
+      <c r="D193" s="48"/>
       <c r="E193" s="19">
         <v>11</v>
       </c>
@@ -7233,7 +7233,7 @@
       <c r="C195" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="45" t="s">
+      <c r="D195" s="48" t="s">
         <v>199</v>
       </c>
       <c r="E195" s="19">
@@ -7247,7 +7247,7 @@
     </row>
     <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="32"/>
-      <c r="D196" s="45"/>
+      <c r="D196" s="48"/>
       <c r="E196" s="19">
         <v>2</v>
       </c>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="32"/>
-      <c r="D197" s="45"/>
+      <c r="D197" s="48"/>
       <c r="E197" s="19">
         <v>3</v>
       </c>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="198" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="32"/>
-      <c r="D198" s="45"/>
+      <c r="D198" s="48"/>
       <c r="E198" s="19">
         <v>4</v>
       </c>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="199" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B199" s="32"/>
-      <c r="D199" s="45"/>
+      <c r="D199" s="48"/>
       <c r="E199" s="19">
         <v>5</v>
       </c>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="32"/>
-      <c r="D200" s="45"/>
+      <c r="D200" s="48"/>
       <c r="E200" s="19">
         <v>6</v>
       </c>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="201" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B201" s="32"/>
-      <c r="D201" s="45"/>
+      <c r="D201" s="48"/>
       <c r="E201" s="19">
         <v>7</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
-      <c r="D202" s="45"/>
+      <c r="D202" s="48"/>
       <c r="E202" s="19">
         <v>8</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
-      <c r="D203" s="45"/>
+      <c r="D203" s="48"/>
       <c r="E203" s="19">
         <v>9</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
-      <c r="D204" s="45"/>
+      <c r="D204" s="48"/>
       <c r="E204" s="19">
         <v>10</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
-      <c r="D205" s="45"/>
+      <c r="D205" s="48"/>
       <c r="E205" s="19">
         <v>11</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
-      <c r="D206" s="45"/>
+      <c r="D206" s="48"/>
       <c r="E206" s="19">
         <v>12</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="C208" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D208" s="45" t="s">
+      <c r="D208" s="48" t="s">
         <v>201</v>
       </c>
       <c r="E208" s="19">
@@ -7466,7 +7466,7 @@
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="32"/>
-      <c r="D209" s="45"/>
+      <c r="D209" s="48"/>
       <c r="E209" s="19">
         <v>2</v>
       </c>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="32"/>
-      <c r="D210" s="45"/>
+      <c r="D210" s="48"/>
       <c r="E210" s="19">
         <v>3</v>
       </c>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="32"/>
-      <c r="D211" s="45"/>
+      <c r="D211" s="48"/>
       <c r="E211" s="19">
         <v>4</v>
       </c>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="212" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B212" s="32"/>
-      <c r="D212" s="45"/>
+      <c r="D212" s="48"/>
       <c r="E212" s="19">
         <v>5</v>
       </c>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="213" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B213" s="32"/>
-      <c r="D213" s="45"/>
+      <c r="D213" s="48"/>
       <c r="E213" s="19">
         <v>6</v>
       </c>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="214" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B214" s="32"/>
-      <c r="D214" s="45"/>
+      <c r="D214" s="48"/>
       <c r="E214" s="19">
         <v>7</v>
       </c>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="32"/>
-      <c r="D215" s="45"/>
+      <c r="D215" s="48"/>
       <c r="E215" s="19">
         <v>8</v>
       </c>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="32"/>
-      <c r="D216" s="45"/>
+      <c r="D216" s="48"/>
       <c r="E216" s="19">
         <v>9</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="C218" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D218" s="45" t="s">
+      <c r="D218" s="48" t="s">
         <v>204</v>
       </c>
       <c r="E218" s="19">
@@ -7619,7 +7619,7 @@
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="32"/>
-      <c r="D219" s="45"/>
+      <c r="D219" s="48"/>
       <c r="E219" s="19">
         <v>2</v>
       </c>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="220" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="32"/>
-      <c r="D220" s="45"/>
+      <c r="D220" s="48"/>
       <c r="E220" s="19">
         <v>3</v>
       </c>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="32"/>
-      <c r="D221" s="45"/>
+      <c r="D221" s="48"/>
       <c r="E221" s="19">
         <v>4</v>
       </c>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="222" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B222" s="32"/>
-      <c r="D222" s="45"/>
+      <c r="D222" s="48"/>
       <c r="E222" s="19">
         <v>5</v>
       </c>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="223" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="32"/>
-      <c r="D223" s="45"/>
+      <c r="D223" s="48"/>
       <c r="E223" s="19">
         <v>6</v>
       </c>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="224" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="32"/>
-      <c r="D224" s="45"/>
+      <c r="D224" s="48"/>
       <c r="E224" s="19">
         <v>7</v>
       </c>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="32"/>
-      <c r="D225" s="45"/>
+      <c r="D225" s="48"/>
       <c r="E225" s="19">
         <v>8</v>
       </c>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="226" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="32"/>
-      <c r="D226" s="45"/>
+      <c r="D226" s="48"/>
       <c r="E226" s="19">
         <v>9</v>
       </c>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B227" s="32"/>
-      <c r="D227" s="45"/>
+      <c r="D227" s="48"/>
       <c r="E227" s="19">
         <v>10</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="C229" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D229" s="45" t="s">
+      <c r="D229" s="48" t="s">
         <v>205</v>
       </c>
       <c r="E229" s="19">
@@ -7789,7 +7789,7 @@
     </row>
     <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="32"/>
-      <c r="D230" s="45"/>
+      <c r="D230" s="48"/>
       <c r="E230" s="19">
         <v>2</v>
       </c>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="32"/>
-      <c r="D231" s="45"/>
+      <c r="D231" s="48"/>
       <c r="E231" s="19">
         <v>3</v>
       </c>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="32"/>
-      <c r="D232" s="45"/>
+      <c r="D232" s="48"/>
       <c r="E232" s="19">
         <v>4</v>
       </c>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="233" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B233" s="32"/>
-      <c r="D233" s="45"/>
+      <c r="D233" s="48"/>
       <c r="E233" s="19">
         <v>5</v>
       </c>
@@ -7852,7 +7852,7 @@
     </row>
     <row r="234" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="B234" s="32"/>
-      <c r="D234" s="45"/>
+      <c r="D234" s="48"/>
       <c r="E234" s="19">
         <v>6</v>
       </c>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="235" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B235" s="32"/>
-      <c r="D235" s="45"/>
+      <c r="D235" s="48"/>
       <c r="E235" s="19">
         <v>7</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
-      <c r="D236" s="45"/>
+      <c r="D236" s="48"/>
       <c r="E236" s="19">
         <v>8</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="45"/>
+      <c r="D237" s="48"/>
       <c r="E237" s="19">
         <v>9</v>
       </c>
@@ -7921,7 +7921,7 @@
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
-      <c r="D238" s="45"/>
+      <c r="D238" s="48"/>
       <c r="E238" s="19">
         <v>10</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="C240" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D240" s="45" t="s">
+      <c r="D240" s="48" t="s">
         <v>188</v>
       </c>
       <c r="E240" s="19">
@@ -7965,7 +7965,7 @@
     </row>
     <row r="241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="32"/>
-      <c r="D241" s="45"/>
+      <c r="D241" s="48"/>
       <c r="E241" s="19">
         <v>2</v>
       </c>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="32"/>
-      <c r="D242" s="45"/>
+      <c r="D242" s="48"/>
       <c r="E242" s="19">
         <v>3</v>
       </c>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="243" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="32"/>
-      <c r="D243" s="45"/>
+      <c r="D243" s="48"/>
       <c r="E243" s="19">
         <v>4</v>
       </c>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="244" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B244" s="32"/>
-      <c r="D244" s="45"/>
+      <c r="D244" s="48"/>
       <c r="E244" s="19">
         <v>5</v>
       </c>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="32"/>
-      <c r="D245" s="45"/>
+      <c r="D245" s="48"/>
       <c r="E245" s="19">
         <v>6</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="C247" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D247" s="45" t="s">
+      <c r="D247" s="48" t="s">
         <v>192</v>
       </c>
       <c r="E247" s="19">
@@ -8070,7 +8070,7 @@
     </row>
     <row r="248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="32"/>
-      <c r="D248" s="45"/>
+      <c r="D248" s="48"/>
       <c r="E248" s="19">
         <v>2</v>
       </c>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="32"/>
-      <c r="D249" s="45"/>
+      <c r="D249" s="48"/>
       <c r="E249" s="19">
         <v>3</v>
       </c>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="32"/>
-      <c r="D250" s="45"/>
+      <c r="D250" s="48"/>
       <c r="E250" s="19">
         <v>4</v>
       </c>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="251" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B251" s="32"/>
-      <c r="D251" s="45"/>
+      <c r="D251" s="48"/>
       <c r="E251" s="19">
         <v>5</v>
       </c>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="32"/>
-      <c r="D252" s="45"/>
+      <c r="D252" s="48"/>
       <c r="E252" s="19">
         <v>6</v>
       </c>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B253" s="32"/>
-      <c r="D253" s="45"/>
+      <c r="D253" s="48"/>
       <c r="E253" s="19">
         <v>7</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="C255" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D255" s="45" t="s">
+      <c r="D255" s="48" t="s">
         <v>193</v>
       </c>
       <c r="E255" s="19">
@@ -8192,7 +8192,7 @@
     </row>
     <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="32"/>
-      <c r="D256" s="45"/>
+      <c r="D256" s="48"/>
       <c r="E256" s="19">
         <v>2</v>
       </c>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B257" s="32"/>
-      <c r="D257" s="45"/>
+      <c r="D257" s="48"/>
       <c r="E257" s="19">
         <v>3</v>
       </c>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="32"/>
-      <c r="D258" s="45"/>
+      <c r="D258" s="48"/>
       <c r="E258" s="19">
         <v>4</v>
       </c>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="259" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B259" s="32"/>
-      <c r="D259" s="45"/>
+      <c r="D259" s="48"/>
       <c r="E259" s="19">
         <v>5</v>
       </c>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B260" s="32"/>
-      <c r="D260" s="45"/>
+      <c r="D260" s="48"/>
       <c r="E260" s="19">
         <v>6</v>
       </c>
@@ -8272,7 +8272,7 @@
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="45"/>
+      <c r="D261" s="48"/>
       <c r="E261" s="19">
         <v>7</v>
       </c>
@@ -8302,7 +8302,7 @@
       <c r="C263" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D263" s="45" t="s">
+      <c r="D263" s="48" t="s">
         <v>213</v>
       </c>
       <c r="E263" s="19">
@@ -8316,7 +8316,7 @@
     </row>
     <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="32"/>
-      <c r="D264" s="45"/>
+      <c r="D264" s="48"/>
       <c r="E264" s="19">
         <v>2</v>
       </c>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B265" s="32"/>
-      <c r="D265" s="45"/>
+      <c r="D265" s="48"/>
       <c r="E265" s="19">
         <v>3</v>
       </c>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B266" s="32"/>
-      <c r="D266" s="45"/>
+      <c r="D266" s="48"/>
       <c r="E266" s="19">
         <v>4</v>
       </c>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="267" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B267" s="32"/>
-      <c r="D267" s="45"/>
+      <c r="D267" s="48"/>
       <c r="E267" s="19">
         <v>5</v>
       </c>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="268" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B268" s="32"/>
-      <c r="D268" s="45"/>
+      <c r="D268" s="48"/>
       <c r="E268" s="19">
         <v>6</v>
       </c>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B269" s="32"/>
-      <c r="D269" s="45"/>
+      <c r="D269" s="48"/>
       <c r="E269" s="19">
         <v>7</v>
       </c>
@@ -8422,7 +8422,7 @@
       <c r="C271" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D271" s="45" t="s">
+      <c r="D271" s="48" t="s">
         <v>216</v>
       </c>
       <c r="E271" s="19">
@@ -8436,7 +8436,7 @@
     </row>
     <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="32"/>
-      <c r="D272" s="45"/>
+      <c r="D272" s="48"/>
       <c r="E272" s="19">
         <v>2</v>
       </c>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="32"/>
-      <c r="D273" s="45"/>
+      <c r="D273" s="48"/>
       <c r="E273" s="19">
         <v>3</v>
       </c>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="32"/>
-      <c r="D274" s="45"/>
+      <c r="D274" s="48"/>
       <c r="E274" s="19">
         <v>4</v>
       </c>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="275" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B275" s="32"/>
-      <c r="D275" s="45"/>
+      <c r="D275" s="48"/>
       <c r="E275" s="19">
         <v>5</v>
       </c>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B276" s="32"/>
-      <c r="D276" s="45"/>
+      <c r="D276" s="48"/>
       <c r="E276" s="19">
         <v>6</v>
       </c>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B277" s="32"/>
-      <c r="D277" s="45"/>
+      <c r="D277" s="48"/>
       <c r="E277" s="19">
         <v>7</v>
       </c>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B278" s="32"/>
-      <c r="D278" s="45"/>
+      <c r="D278" s="48"/>
       <c r="E278" s="19">
         <v>8</v>
       </c>
@@ -8559,7 +8559,7 @@
       <c r="C280" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D280" s="45" t="s">
+      <c r="D280" s="48" t="s">
         <v>217</v>
       </c>
       <c r="E280" s="19">
@@ -8573,7 +8573,7 @@
     </row>
     <row r="281" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="32"/>
-      <c r="D281" s="45"/>
+      <c r="D281" s="48"/>
       <c r="E281" s="19">
         <v>2</v>
       </c>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="32"/>
-      <c r="D282" s="45"/>
+      <c r="D282" s="48"/>
       <c r="E282" s="19">
         <v>3</v>
       </c>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="32"/>
-      <c r="D283" s="45"/>
+      <c r="D283" s="48"/>
       <c r="E283" s="19">
         <v>4</v>
       </c>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="284" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B284" s="32"/>
-      <c r="D284" s="45"/>
+      <c r="D284" s="48"/>
       <c r="E284" s="19">
         <v>5</v>
       </c>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="32"/>
-      <c r="D285" s="45"/>
+      <c r="D285" s="48"/>
       <c r="E285" s="19">
         <v>6</v>
       </c>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="286" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="32"/>
-      <c r="D286" s="45"/>
+      <c r="D286" s="48"/>
       <c r="E286" s="19">
         <v>7</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
-      <c r="D287" s="45"/>
+      <c r="D287" s="48"/>
       <c r="E287" s="19">
         <v>8</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="C289" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D289" s="45" t="s">
+      <c r="D289" s="48" t="s">
         <v>224</v>
       </c>
       <c r="E289" s="19">
@@ -8712,7 +8712,7 @@
     </row>
     <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="32"/>
-      <c r="D290" s="45"/>
+      <c r="D290" s="48"/>
       <c r="E290" s="19">
         <v>2</v>
       </c>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="32"/>
-      <c r="D291" s="45"/>
+      <c r="D291" s="48"/>
       <c r="E291" s="19">
         <v>3</v>
       </c>
@@ -8742,7 +8742,7 @@
     </row>
     <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="32"/>
-      <c r="D292" s="45"/>
+      <c r="D292" s="48"/>
       <c r="E292" s="19">
         <v>4</v>
       </c>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="293" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B293" s="32"/>
-      <c r="D293" s="45"/>
+      <c r="D293" s="48"/>
       <c r="E293" s="19">
         <v>5</v>
       </c>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="32"/>
-      <c r="D294" s="45"/>
+      <c r="D294" s="48"/>
       <c r="E294" s="19">
         <v>6</v>
       </c>
@@ -8800,7 +8800,7 @@
       <c r="C296" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D296" s="45" t="s">
+      <c r="D296" s="48" t="s">
         <v>227</v>
       </c>
       <c r="E296" s="19">
@@ -8814,7 +8814,7 @@
     </row>
     <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B297" s="32"/>
-      <c r="D297" s="45"/>
+      <c r="D297" s="48"/>
       <c r="E297" s="19">
         <v>2</v>
       </c>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="298" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="32"/>
-      <c r="D298" s="45"/>
+      <c r="D298" s="48"/>
       <c r="E298" s="19">
         <v>3</v>
       </c>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="32"/>
-      <c r="D299" s="45"/>
+      <c r="D299" s="48"/>
       <c r="E299" s="19">
         <v>4</v>
       </c>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="300" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B300" s="32"/>
-      <c r="D300" s="45"/>
+      <c r="D300" s="48"/>
       <c r="E300" s="19">
         <v>5</v>
       </c>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B301" s="32"/>
-      <c r="D301" s="45"/>
+      <c r="D301" s="48"/>
       <c r="E301" s="19">
         <v>6</v>
       </c>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B302" s="32"/>
-      <c r="D302" s="45"/>
+      <c r="D302" s="48"/>
       <c r="E302" s="19">
         <v>7</v>
       </c>
@@ -8919,7 +8919,7 @@
       <c r="C304" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="45" t="s">
+      <c r="D304" s="48" t="s">
         <v>228</v>
       </c>
       <c r="E304" s="19">
@@ -8933,7 +8933,7 @@
     </row>
     <row r="305" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="32"/>
-      <c r="D305" s="45"/>
+      <c r="D305" s="48"/>
       <c r="E305" s="19">
         <v>2</v>
       </c>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="32"/>
-      <c r="D306" s="45"/>
+      <c r="D306" s="48"/>
       <c r="E306" s="19">
         <v>3</v>
       </c>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="32"/>
-      <c r="D307" s="45"/>
+      <c r="D307" s="48"/>
       <c r="E307" s="19">
         <v>4</v>
       </c>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="308" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B308" s="32"/>
-      <c r="D308" s="45"/>
+      <c r="D308" s="48"/>
       <c r="E308" s="19">
         <v>5</v>
       </c>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="309" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="32"/>
-      <c r="D309" s="45"/>
+      <c r="D309" s="48"/>
       <c r="E309" s="19">
         <v>6</v>
       </c>
@@ -9010,7 +9010,7 @@
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
-      <c r="D310" s="45"/>
+      <c r="D310" s="48"/>
       <c r="E310" s="19">
         <v>7</v>
       </c>
@@ -9048,7 +9048,7 @@
       <c r="C312" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="45" t="s">
+      <c r="D312" s="48" t="s">
         <v>238</v>
       </c>
       <c r="E312" s="19">
@@ -9062,7 +9062,7 @@
     </row>
     <row r="313" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="32"/>
-      <c r="D313" s="45"/>
+      <c r="D313" s="48"/>
       <c r="E313" s="19">
         <v>2</v>
       </c>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="32"/>
-      <c r="D314" s="45"/>
+      <c r="D314" s="48"/>
       <c r="E314" s="19">
         <v>3</v>
       </c>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="32"/>
-      <c r="D315" s="45"/>
+      <c r="D315" s="48"/>
       <c r="E315" s="19">
         <v>4</v>
       </c>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="316" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B316" s="32"/>
-      <c r="D316" s="45"/>
+      <c r="D316" s="48"/>
       <c r="E316" s="19">
         <v>5</v>
       </c>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B317" s="32"/>
-      <c r="D317" s="45"/>
+      <c r="D317" s="48"/>
       <c r="E317" s="19">
         <v>6</v>
       </c>
@@ -9153,7 +9153,7 @@
       <c r="C319" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D319" s="45" t="s">
+      <c r="D319" s="48" t="s">
         <v>241</v>
       </c>
       <c r="E319" s="19">
@@ -9167,7 +9167,7 @@
     </row>
     <row r="320" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B320" s="32"/>
-      <c r="D320" s="45"/>
+      <c r="D320" s="48"/>
       <c r="E320" s="19">
         <v>2</v>
       </c>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B321" s="32"/>
-      <c r="D321" s="45"/>
+      <c r="D321" s="48"/>
       <c r="E321" s="19">
         <v>3</v>
       </c>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="322" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="32"/>
-      <c r="D322" s="45"/>
+      <c r="D322" s="48"/>
       <c r="E322" s="19">
         <v>4</v>
       </c>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="323" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B323" s="32"/>
-      <c r="D323" s="45"/>
+      <c r="D323" s="48"/>
       <c r="E323" s="19">
         <v>5</v>
       </c>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B324" s="32"/>
-      <c r="D324" s="45"/>
+      <c r="D324" s="48"/>
       <c r="E324" s="19">
         <v>6</v>
       </c>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B325" s="32"/>
-      <c r="D325" s="45"/>
+      <c r="D325" s="48"/>
       <c r="E325" s="19">
         <v>7</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="C327" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D327" s="45" t="s">
+      <c r="D327" s="48" t="s">
         <v>242</v>
       </c>
       <c r="E327" s="19">
@@ -9289,7 +9289,7 @@
     </row>
     <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="32"/>
-      <c r="D328" s="45"/>
+      <c r="D328" s="48"/>
       <c r="E328" s="19">
         <v>2</v>
       </c>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="32"/>
-      <c r="D329" s="45"/>
+      <c r="D329" s="48"/>
       <c r="E329" s="19">
         <v>3</v>
       </c>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="330" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="32"/>
-      <c r="D330" s="45"/>
+      <c r="D330" s="48"/>
       <c r="E330" s="19">
         <v>4</v>
       </c>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="331" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B331" s="32"/>
-      <c r="D331" s="45"/>
+      <c r="D331" s="48"/>
       <c r="E331" s="19">
         <v>5</v>
       </c>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="332" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="32"/>
-      <c r="D332" s="45"/>
+      <c r="D332" s="48"/>
       <c r="E332" s="19">
         <v>6</v>
       </c>
@@ -9369,7 +9369,7 @@
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="45"/>
+      <c r="D333" s="48"/>
       <c r="E333" s="19">
         <v>7</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="C335" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D335" s="45" t="s">
+      <c r="D335" s="48" t="s">
         <v>247</v>
       </c>
       <c r="E335" s="19">
@@ -9413,7 +9413,7 @@
     </row>
     <row r="336" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="32"/>
-      <c r="D336" s="45"/>
+      <c r="D336" s="48"/>
       <c r="E336" s="19">
         <v>2</v>
       </c>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="32"/>
-      <c r="D337" s="45"/>
+      <c r="D337" s="48"/>
       <c r="E337" s="19">
         <v>3</v>
       </c>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B338" s="32"/>
-      <c r="D338" s="45"/>
+      <c r="D338" s="48"/>
       <c r="E338" s="19">
         <v>4</v>
       </c>
@@ -9458,7 +9458,7 @@
     </row>
     <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="32"/>
-      <c r="D339" s="45"/>
+      <c r="D339" s="48"/>
       <c r="E339" s="19">
         <v>5</v>
       </c>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B340" s="32"/>
-      <c r="D340" s="45"/>
+      <c r="D340" s="48"/>
       <c r="E340" s="19">
         <v>6</v>
       </c>
@@ -9501,7 +9501,7 @@
       <c r="C342" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D342" s="45" t="s">
+      <c r="D342" s="48" t="s">
         <v>249</v>
       </c>
       <c r="E342" s="19">
@@ -9515,7 +9515,7 @@
     </row>
     <row r="343" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="32"/>
-      <c r="D343" s="45"/>
+      <c r="D343" s="48"/>
       <c r="E343" s="19">
         <v>2</v>
       </c>
@@ -9530,7 +9530,7 @@
     </row>
     <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B344" s="32"/>
-      <c r="D344" s="45"/>
+      <c r="D344" s="48"/>
       <c r="E344" s="19">
         <v>3</v>
       </c>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B345" s="32"/>
-      <c r="D345" s="45"/>
+      <c r="D345" s="48"/>
       <c r="E345" s="19">
         <v>4</v>
       </c>
@@ -9560,7 +9560,7 @@
     </row>
     <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B346" s="32"/>
-      <c r="D346" s="45"/>
+      <c r="D346" s="48"/>
       <c r="E346" s="19">
         <v>5</v>
       </c>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B347" s="32"/>
-      <c r="D347" s="45"/>
+      <c r="D347" s="48"/>
       <c r="E347" s="19">
         <v>6</v>
       </c>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B348" s="32"/>
-      <c r="D348" s="45"/>
+      <c r="D348" s="48"/>
       <c r="E348" s="19">
         <v>7</v>
       </c>
@@ -9620,7 +9620,7 @@
       <c r="C350" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D350" s="45" t="s">
+      <c r="D350" s="48" t="s">
         <v>250</v>
       </c>
       <c r="E350" s="19">
@@ -9634,7 +9634,7 @@
     </row>
     <row r="351" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="32"/>
-      <c r="D351" s="45"/>
+      <c r="D351" s="48"/>
       <c r="E351" s="19">
         <v>2</v>
       </c>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B352" s="32"/>
-      <c r="D352" s="45"/>
+      <c r="D352" s="48"/>
       <c r="E352" s="19">
         <v>3</v>
       </c>
@@ -9664,7 +9664,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B353" s="32"/>
-      <c r="D353" s="45"/>
+      <c r="D353" s="48"/>
       <c r="E353" s="19">
         <v>4</v>
       </c>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="32"/>
-      <c r="D354" s="45"/>
+      <c r="D354" s="48"/>
       <c r="E354" s="19">
         <v>5</v>
       </c>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B355" s="32"/>
-      <c r="D355" s="45"/>
+      <c r="D355" s="48"/>
       <c r="E355" s="19">
         <v>6</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
-      <c r="D356" s="45"/>
+      <c r="D356" s="48"/>
       <c r="E356" s="19">
         <v>7</v>
       </c>
@@ -9739,7 +9739,7 @@
       <c r="C358" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D358" s="45" t="s">
+      <c r="D358" s="48" t="s">
         <v>258</v>
       </c>
       <c r="E358" s="19">
@@ -9753,7 +9753,7 @@
     </row>
     <row r="359" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="32"/>
-      <c r="D359" s="45"/>
+      <c r="D359" s="48"/>
       <c r="E359" s="19">
         <v>2</v>
       </c>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="32"/>
-      <c r="D360" s="45"/>
+      <c r="D360" s="48"/>
       <c r="E360" s="19">
         <v>3</v>
       </c>
@@ -9783,7 +9783,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B361" s="32"/>
-      <c r="D361" s="45"/>
+      <c r="D361" s="48"/>
       <c r="E361" s="19">
         <v>4</v>
       </c>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="32"/>
-      <c r="D362" s="45"/>
+      <c r="D362" s="48"/>
       <c r="E362" s="19">
         <v>5</v>
       </c>
@@ -9813,7 +9813,7 @@
     </row>
     <row r="363" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="32"/>
-      <c r="D363" s="45"/>
+      <c r="D363" s="48"/>
       <c r="E363" s="19">
         <v>6</v>
       </c>
@@ -9841,7 +9841,7 @@
       <c r="C365" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D365" s="45" t="s">
+      <c r="D365" s="48" t="s">
         <v>263</v>
       </c>
       <c r="E365" s="19">
@@ -9855,7 +9855,7 @@
     </row>
     <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="32"/>
-      <c r="D366" s="45"/>
+      <c r="D366" s="48"/>
       <c r="E366" s="19">
         <v>2</v>
       </c>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="32"/>
-      <c r="D367" s="45"/>
+      <c r="D367" s="48"/>
       <c r="E367" s="19">
         <v>3</v>
       </c>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B368" s="32"/>
-      <c r="D368" s="45"/>
+      <c r="D368" s="48"/>
       <c r="E368" s="19">
         <v>4</v>
       </c>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="369" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="32"/>
-      <c r="D369" s="45"/>
+      <c r="D369" s="48"/>
       <c r="E369" s="19">
         <v>5</v>
       </c>
@@ -9915,7 +9915,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B370" s="32"/>
-      <c r="D370" s="45"/>
+      <c r="D370" s="48"/>
       <c r="E370" s="19">
         <v>6</v>
       </c>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B371" s="32"/>
-      <c r="D371" s="45"/>
+      <c r="D371" s="48"/>
       <c r="E371" s="19">
         <v>7</v>
       </c>
@@ -9960,7 +9960,7 @@
       <c r="C373" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D373" s="45" t="s">
+      <c r="D373" s="48" t="s">
         <v>264</v>
       </c>
       <c r="E373" s="19">
@@ -9974,7 +9974,7 @@
     </row>
     <row r="374" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B374" s="32"/>
-      <c r="D374" s="45"/>
+      <c r="D374" s="48"/>
       <c r="E374" s="19">
         <v>2</v>
       </c>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="375" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B375" s="32"/>
-      <c r="D375" s="45"/>
+      <c r="D375" s="48"/>
       <c r="E375" s="19">
         <v>3</v>
       </c>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B376" s="32"/>
-      <c r="D376" s="45"/>
+      <c r="D376" s="48"/>
       <c r="E376" s="19">
         <v>4</v>
       </c>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="377" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B377" s="32"/>
-      <c r="D377" s="45"/>
+      <c r="D377" s="48"/>
       <c r="E377" s="19">
         <v>5</v>
       </c>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B378" s="32"/>
-      <c r="D378" s="45"/>
+      <c r="D378" s="48"/>
       <c r="E378" s="19">
         <v>6</v>
       </c>
@@ -10051,7 +10051,7 @@
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
-      <c r="D379" s="45"/>
+      <c r="D379" s="48"/>
       <c r="E379" s="19">
         <v>7</v>
       </c>
@@ -10079,7 +10079,7 @@
       <c r="C381" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D381" s="45" t="s">
+      <c r="D381" s="48" t="s">
         <v>283</v>
       </c>
       <c r="E381" s="19">
@@ -10093,7 +10093,7 @@
     </row>
     <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B382" s="32"/>
-      <c r="D382" s="45"/>
+      <c r="D382" s="48"/>
       <c r="E382" s="19">
         <v>2</v>
       </c>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="32"/>
-      <c r="D383" s="45"/>
+      <c r="D383" s="48"/>
       <c r="E383" s="19">
         <v>3</v>
       </c>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B384" s="32"/>
-      <c r="D384" s="45"/>
+      <c r="D384" s="48"/>
       <c r="E384" s="19">
         <v>4</v>
       </c>
@@ -10138,7 +10138,7 @@
     </row>
     <row r="385" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="32"/>
-      <c r="D385" s="45"/>
+      <c r="D385" s="48"/>
       <c r="E385" s="19">
         <v>5</v>
       </c>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B386" s="32"/>
-      <c r="D386" s="45"/>
+      <c r="D386" s="48"/>
       <c r="E386" s="19">
         <v>6</v>
       </c>
@@ -10181,7 +10181,7 @@
       <c r="C388" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D388" s="45" t="s">
+      <c r="D388" s="48" t="s">
         <v>287</v>
       </c>
       <c r="E388" s="19">
@@ -10195,7 +10195,7 @@
     </row>
     <row r="389" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="32"/>
-      <c r="D389" s="45"/>
+      <c r="D389" s="48"/>
       <c r="E389" s="19">
         <v>2</v>
       </c>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="390" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="32"/>
-      <c r="D390" s="45"/>
+      <c r="D390" s="48"/>
       <c r="E390" s="19">
         <v>3</v>
       </c>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B391" s="32"/>
-      <c r="D391" s="45"/>
+      <c r="D391" s="48"/>
       <c r="E391" s="19">
         <v>4</v>
       </c>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="32"/>
-      <c r="D392" s="45"/>
+      <c r="D392" s="48"/>
       <c r="E392" s="19">
         <v>5</v>
       </c>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B393" s="32"/>
-      <c r="D393" s="45"/>
+      <c r="D393" s="48"/>
       <c r="E393" s="19">
         <v>6</v>
       </c>
@@ -10270,7 +10270,7 @@
     </row>
     <row r="394" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="32"/>
-      <c r="D394" s="45"/>
+      <c r="D394" s="48"/>
       <c r="E394" s="19">
         <v>7</v>
       </c>
@@ -10300,7 +10300,7 @@
       <c r="C396" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D396" s="45" t="s">
+      <c r="D396" s="48" t="s">
         <v>290</v>
       </c>
       <c r="E396" s="19">
@@ -10314,7 +10314,7 @@
     </row>
     <row r="397" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="32"/>
-      <c r="D397" s="45"/>
+      <c r="D397" s="48"/>
       <c r="E397" s="19">
         <v>2</v>
       </c>
@@ -10329,7 +10329,7 @@
     </row>
     <row r="398" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="32"/>
-      <c r="D398" s="45"/>
+      <c r="D398" s="48"/>
       <c r="E398" s="19">
         <v>3</v>
       </c>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B399" s="32"/>
-      <c r="D399" s="45"/>
+      <c r="D399" s="48"/>
       <c r="E399" s="19">
         <v>4</v>
       </c>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B400" s="32"/>
-      <c r="D400" s="45"/>
+      <c r="D400" s="48"/>
       <c r="E400" s="19">
         <v>5</v>
       </c>
@@ -10374,7 +10374,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B401" s="32"/>
-      <c r="D401" s="45"/>
+      <c r="D401" s="48"/>
       <c r="E401" s="19">
         <v>6</v>
       </c>
@@ -10391,7 +10391,7 @@
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
-      <c r="D402" s="45"/>
+      <c r="D402" s="48"/>
       <c r="E402" s="19">
         <v>7</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="C404" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D404" s="45" t="s">
+      <c r="D404" s="48" t="s">
         <v>296</v>
       </c>
       <c r="E404" s="19">
@@ -10434,7 +10434,7 @@
     <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28"/>
       <c r="B405" s="32"/>
-      <c r="D405" s="45"/>
+      <c r="D405" s="48"/>
       <c r="E405" s="19">
         <v>2</v>
       </c>
@@ -10453,7 +10453,7 @@
     <row r="406" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="28"/>
       <c r="B406" s="32"/>
-      <c r="D406" s="45"/>
+      <c r="D406" s="48"/>
       <c r="E406" s="19">
         <v>3</v>
       </c>
@@ -10472,7 +10472,7 @@
     <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="28"/>
       <c r="B407" s="32"/>
-      <c r="D407" s="45"/>
+      <c r="D407" s="48"/>
       <c r="E407" s="19">
         <v>4</v>
       </c>
@@ -10491,7 +10491,7 @@
     <row r="408" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28"/>
       <c r="B408" s="32"/>
-      <c r="D408" s="45"/>
+      <c r="D408" s="48"/>
       <c r="E408" s="19">
         <v>5</v>
       </c>
@@ -10527,7 +10527,7 @@
       <c r="C410" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D410" s="45" t="s">
+      <c r="D410" s="48" t="s">
         <v>302</v>
       </c>
       <c r="E410" s="19">
@@ -10542,7 +10542,7 @@
     <row r="411" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="28"/>
       <c r="B411" s="32"/>
-      <c r="D411" s="45"/>
+      <c r="D411" s="48"/>
       <c r="E411" s="19">
         <v>2</v>
       </c>
@@ -10561,7 +10561,7 @@
     <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="28"/>
       <c r="B412" s="32"/>
-      <c r="D412" s="45"/>
+      <c r="D412" s="48"/>
       <c r="E412" s="19">
         <v>3</v>
       </c>
@@ -10580,7 +10580,7 @@
     <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28"/>
       <c r="B413" s="32"/>
-      <c r="D413" s="45"/>
+      <c r="D413" s="48"/>
       <c r="E413" s="19">
         <v>4</v>
       </c>
@@ -10599,7 +10599,7 @@
     <row r="414" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="28"/>
       <c r="B414" s="32"/>
-      <c r="D414" s="45"/>
+      <c r="D414" s="48"/>
       <c r="E414" s="19">
         <v>5</v>
       </c>
@@ -10636,7 +10636,7 @@
       <c r="C416" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D416" s="45" t="s">
+      <c r="D416" s="48" t="s">
         <v>325</v>
       </c>
       <c r="E416" s="19">
@@ -10651,7 +10651,7 @@
     <row r="417" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="28"/>
       <c r="B417" s="32"/>
-      <c r="D417" s="45"/>
+      <c r="D417" s="48"/>
       <c r="E417" s="19">
         <v>2</v>
       </c>
@@ -10670,7 +10670,7 @@
     <row r="418" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="28"/>
       <c r="B418" s="32"/>
-      <c r="D418" s="45"/>
+      <c r="D418" s="48"/>
       <c r="E418" s="19">
         <v>3</v>
       </c>
@@ -10689,7 +10689,7 @@
     <row r="419" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="28"/>
       <c r="B419" s="32"/>
-      <c r="D419" s="45"/>
+      <c r="D419" s="48"/>
       <c r="E419" s="19">
         <v>4</v>
       </c>
@@ -10708,7 +10708,7 @@
     <row r="420" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="28"/>
       <c r="B420" s="32"/>
-      <c r="D420" s="45"/>
+      <c r="D420" s="48"/>
       <c r="E420" s="19">
         <v>5</v>
       </c>
@@ -10743,7 +10743,7 @@
       <c r="C422" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D422" s="45" t="s">
+      <c r="D422" s="48" t="s">
         <v>308</v>
       </c>
       <c r="E422" s="19">
@@ -10758,7 +10758,7 @@
     <row r="423" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="28"/>
       <c r="B423" s="32"/>
-      <c r="D423" s="45"/>
+      <c r="D423" s="48"/>
       <c r="E423" s="19">
         <v>2</v>
       </c>
@@ -10777,7 +10777,7 @@
     <row r="424" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="28"/>
       <c r="B424" s="32"/>
-      <c r="D424" s="45"/>
+      <c r="D424" s="48"/>
       <c r="E424" s="19">
         <v>3</v>
       </c>
@@ -10796,7 +10796,7 @@
     <row r="425" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="28"/>
       <c r="B425" s="32"/>
-      <c r="D425" s="45"/>
+      <c r="D425" s="48"/>
       <c r="E425" s="19">
         <v>4</v>
       </c>
@@ -10815,7 +10815,7 @@
     <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="28"/>
       <c r="B426" s="32"/>
-      <c r="D426" s="45"/>
+      <c r="D426" s="48"/>
       <c r="E426" s="19">
         <v>5</v>
       </c>
@@ -10850,7 +10850,7 @@
       <c r="C428" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D428" s="45" t="s">
+      <c r="D428" s="48" t="s">
         <v>311</v>
       </c>
       <c r="E428" s="19">
@@ -10865,7 +10865,7 @@
     <row r="429" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="28"/>
       <c r="B429" s="32"/>
-      <c r="D429" s="45"/>
+      <c r="D429" s="48"/>
       <c r="E429" s="19">
         <v>2</v>
       </c>
@@ -10884,7 +10884,7 @@
     <row r="430" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="28"/>
       <c r="B430" s="32"/>
-      <c r="D430" s="45"/>
+      <c r="D430" s="48"/>
       <c r="E430" s="19">
         <v>3</v>
       </c>
@@ -10903,7 +10903,7 @@
     <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="28"/>
       <c r="B431" s="32"/>
-      <c r="D431" s="45"/>
+      <c r="D431" s="48"/>
       <c r="E431" s="19">
         <v>4</v>
       </c>
@@ -10922,7 +10922,7 @@
     <row r="432" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="28"/>
       <c r="B432" s="32"/>
-      <c r="D432" s="45"/>
+      <c r="D432" s="48"/>
       <c r="E432" s="19">
         <v>5</v>
       </c>
@@ -10959,7 +10959,7 @@
       <c r="C434" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D434" s="45" t="s">
+      <c r="D434" s="48" t="s">
         <v>306</v>
       </c>
       <c r="E434" s="19">
@@ -10973,7 +10973,7 @@
     </row>
     <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B435" s="32"/>
-      <c r="D435" s="45"/>
+      <c r="D435" s="48"/>
       <c r="E435" s="19">
         <v>2</v>
       </c>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B436" s="32"/>
-      <c r="D436" s="45"/>
+      <c r="D436" s="48"/>
       <c r="E436" s="19">
         <v>3</v>
       </c>
@@ -11009,7 +11009,7 @@
     </row>
     <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B437" s="32"/>
-      <c r="D437" s="45"/>
+      <c r="D437" s="48"/>
       <c r="E437" s="19">
         <v>4</v>
       </c>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B438" s="32"/>
-      <c r="D438" s="45"/>
+      <c r="D438" s="48"/>
       <c r="E438" s="19">
         <v>5</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="C440" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D440" s="45" t="s">
+      <c r="D440" s="48" t="s">
         <v>321</v>
       </c>
       <c r="E440" s="19">
@@ -11077,7 +11077,7 @@
     </row>
     <row r="441" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B441" s="32"/>
-      <c r="D441" s="45"/>
+      <c r="D441" s="48"/>
       <c r="E441" s="19">
         <v>2</v>
       </c>
@@ -11095,7 +11095,7 @@
     </row>
     <row r="442" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B442" s="32"/>
-      <c r="D442" s="45"/>
+      <c r="D442" s="48"/>
       <c r="E442" s="19">
         <v>3</v>
       </c>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="443" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="32"/>
-      <c r="D443" s="45"/>
+      <c r="D443" s="48"/>
       <c r="E443" s="19">
         <v>4</v>
       </c>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B444" s="32"/>
-      <c r="D444" s="45"/>
+      <c r="D444" s="48"/>
       <c r="E444" s="19">
         <v>5</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="C446" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D446" s="45" t="s">
+      <c r="D446" s="48" t="s">
         <v>316</v>
       </c>
       <c r="E446" s="19">
@@ -11180,7 +11180,7 @@
     </row>
     <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B447" s="32"/>
-      <c r="D447" s="45"/>
+      <c r="D447" s="48"/>
       <c r="E447" s="19">
         <v>2</v>
       </c>
@@ -11198,7 +11198,7 @@
     </row>
     <row r="448" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B448" s="32"/>
-      <c r="D448" s="45"/>
+      <c r="D448" s="48"/>
       <c r="E448" s="19">
         <v>3</v>
       </c>
@@ -11216,7 +11216,7 @@
     </row>
     <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="32"/>
-      <c r="D449" s="45"/>
+      <c r="D449" s="48"/>
       <c r="E449" s="19">
         <v>4</v>
       </c>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="450" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B450" s="32"/>
-      <c r="D450" s="45"/>
+      <c r="D450" s="48"/>
       <c r="E450" s="19">
         <v>5</v>
       </c>
@@ -11269,7 +11269,7 @@
       <c r="C452" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D452" s="45" t="s">
+      <c r="D452" s="48" t="s">
         <v>323</v>
       </c>
       <c r="E452" s="19">
@@ -11283,7 +11283,7 @@
     </row>
     <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B453" s="32"/>
-      <c r="D453" s="45"/>
+      <c r="D453" s="48"/>
       <c r="E453" s="19">
         <v>2</v>
       </c>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="454" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="32"/>
-      <c r="D454" s="45"/>
+      <c r="D454" s="48"/>
       <c r="E454" s="19">
         <v>3</v>
       </c>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="455" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B455" s="32"/>
-      <c r="D455" s="45"/>
+      <c r="D455" s="48"/>
       <c r="E455" s="19">
         <v>4</v>
       </c>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="456" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B456" s="32"/>
-      <c r="D456" s="45"/>
+      <c r="D456" s="48"/>
       <c r="E456" s="19">
         <v>5</v>
       </c>
@@ -11372,7 +11372,7 @@
       <c r="C458" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D458" s="45" t="s">
+      <c r="D458" s="48" t="s">
         <v>331</v>
       </c>
       <c r="E458" s="19">
@@ -11386,7 +11386,7 @@
     </row>
     <row r="459" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B459" s="32"/>
-      <c r="D459" s="45"/>
+      <c r="D459" s="48"/>
       <c r="E459" s="19">
         <v>2</v>
       </c>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="460" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B460" s="32"/>
-      <c r="D460" s="45"/>
+      <c r="D460" s="48"/>
       <c r="E460" s="19">
         <v>3</v>
       </c>
@@ -11422,7 +11422,7 @@
     </row>
     <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B461" s="32"/>
-      <c r="D461" s="45"/>
+      <c r="D461" s="48"/>
       <c r="E461" s="19">
         <v>4</v>
       </c>
@@ -11440,7 +11440,7 @@
     </row>
     <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B462" s="32"/>
-      <c r="D462" s="45"/>
+      <c r="D462" s="48"/>
       <c r="E462" s="19">
         <v>5</v>
       </c>
@@ -11476,7 +11476,7 @@
       <c r="C464" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D464" s="45" t="s">
+      <c r="D464" s="48" t="s">
         <v>335</v>
       </c>
       <c r="E464" s="19">
@@ -11490,7 +11490,7 @@
     </row>
     <row r="465" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="32"/>
-      <c r="D465" s="45"/>
+      <c r="D465" s="48"/>
       <c r="E465" s="19">
         <v>2</v>
       </c>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="466" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="32"/>
-      <c r="D466" s="45"/>
+      <c r="D466" s="48"/>
       <c r="E466" s="19">
         <v>3</v>
       </c>
@@ -11526,7 +11526,7 @@
     </row>
     <row r="467" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="32"/>
-      <c r="D467" s="45"/>
+      <c r="D467" s="48"/>
       <c r="E467" s="19">
         <v>4</v>
       </c>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="468" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="32"/>
-      <c r="D468" s="45"/>
+      <c r="D468" s="48"/>
       <c r="E468" s="19">
         <v>5</v>
       </c>
@@ -11579,7 +11579,7 @@
       <c r="C470" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D470" s="45" t="s">
+      <c r="D470" s="48" t="s">
         <v>339</v>
       </c>
       <c r="E470" s="19">
@@ -11596,7 +11596,7 @@
     </row>
     <row r="471" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="32"/>
-      <c r="D471" s="45"/>
+      <c r="D471" s="48"/>
       <c r="E471" s="19">
         <v>2</v>
       </c>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="472" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="32"/>
-      <c r="D472" s="45"/>
+      <c r="D472" s="48"/>
       <c r="E472" s="19">
         <v>3</v>
       </c>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="473" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="32"/>
-      <c r="D473" s="45"/>
+      <c r="D473" s="48"/>
       <c r="E473" s="19">
         <v>4</v>
       </c>
@@ -11650,7 +11650,7 @@
     </row>
     <row r="474" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="32"/>
-      <c r="D474" s="45"/>
+      <c r="D474" s="48"/>
       <c r="E474" s="19">
         <v>5</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="C476" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D476" s="45" t="s">
+      <c r="D476" s="48" t="s">
         <v>343</v>
       </c>
       <c r="E476" s="19">
@@ -11700,7 +11700,7 @@
     </row>
     <row r="477" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="32"/>
-      <c r="D477" s="45"/>
+      <c r="D477" s="48"/>
       <c r="E477" s="19">
         <v>2</v>
       </c>
@@ -11718,7 +11718,7 @@
     </row>
     <row r="478" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="32"/>
-      <c r="D478" s="45"/>
+      <c r="D478" s="48"/>
       <c r="E478" s="19">
         <v>3</v>
       </c>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B479" s="32"/>
-      <c r="D479" s="45"/>
+      <c r="D479" s="48"/>
       <c r="E479" s="19">
         <v>4</v>
       </c>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="480" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B480" s="32"/>
-      <c r="D480" s="45"/>
+      <c r="D480" s="48"/>
       <c r="E480" s="19">
         <v>5</v>
       </c>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="481" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B481" s="32"/>
-      <c r="D481" s="45"/>
+      <c r="D481" s="48"/>
       <c r="E481" s="19">
         <v>6</v>
       </c>
@@ -11797,7 +11797,7 @@
     <row r="482" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A482" s="30"/>
       <c r="B482" s="32"/>
-      <c r="D482" s="45"/>
+      <c r="D482" s="48"/>
       <c r="E482" s="19">
         <v>7</v>
       </c>
@@ -11838,7 +11838,7 @@
       <c r="C484" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D484" s="45" t="s">
+      <c r="D484" s="48" t="s">
         <v>357</v>
       </c>
       <c r="E484" s="19">
@@ -11852,7 +11852,7 @@
     </row>
     <row r="485" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B485" s="32"/>
-      <c r="D485" s="45"/>
+      <c r="D485" s="48"/>
       <c r="E485" s="19">
         <v>2</v>
       </c>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="486" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B486" s="32"/>
-      <c r="D486" s="45"/>
+      <c r="D486" s="48"/>
       <c r="E486" s="19">
         <v>3</v>
       </c>
@@ -11888,7 +11888,7 @@
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B487" s="32"/>
-      <c r="D487" s="45"/>
+      <c r="D487" s="48"/>
       <c r="E487" s="19">
         <v>4</v>
       </c>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="488" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B488" s="32"/>
-      <c r="D488" s="45"/>
+      <c r="D488" s="48"/>
       <c r="E488" s="19">
         <v>5</v>
       </c>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="489" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="32"/>
-      <c r="D489" s="45"/>
+      <c r="D489" s="48"/>
       <c r="E489" s="19">
         <v>6</v>
       </c>
@@ -11949,7 +11949,7 @@
     <row r="490" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A490" s="30"/>
       <c r="B490" s="32"/>
-      <c r="D490" s="45"/>
+      <c r="D490" s="48"/>
       <c r="E490" s="19">
         <v>7</v>
       </c>
@@ -11990,7 +11990,7 @@
       <c r="C492" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D492" s="45" t="s">
+      <c r="D492" s="48" t="s">
         <v>360</v>
       </c>
       <c r="E492" s="19">
@@ -12004,7 +12004,7 @@
     </row>
     <row r="493" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B493" s="32"/>
-      <c r="D493" s="45"/>
+      <c r="D493" s="48"/>
       <c r="E493" s="19">
         <v>2</v>
       </c>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="494" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B494" s="32"/>
-      <c r="D494" s="45"/>
+      <c r="D494" s="48"/>
       <c r="E494" s="19">
         <v>3</v>
       </c>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="495" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B495" s="32"/>
-      <c r="D495" s="45"/>
+      <c r="D495" s="48"/>
       <c r="E495" s="19">
         <v>4</v>
       </c>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B496" s="32"/>
-      <c r="D496" s="45"/>
+      <c r="D496" s="48"/>
       <c r="E496" s="19">
         <v>5</v>
       </c>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="497" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B497" s="32"/>
-      <c r="D497" s="45"/>
+      <c r="D497" s="48"/>
       <c r="E497" s="19">
         <v>6</v>
       </c>
@@ -12095,7 +12095,7 @@
     <row r="498" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="30"/>
       <c r="B498" s="32"/>
-      <c r="D498" s="45"/>
+      <c r="D498" s="48"/>
       <c r="E498" s="19">
         <v>7</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="L499" s="2"/>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A500" s="48" t="s">
+      <c r="A500" s="44" t="s">
         <v>368</v>
       </c>
       <c r="B500" s="32" t="s">
@@ -12130,7 +12130,7 @@
       <c r="C500" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D500" s="45" t="s">
+      <c r="D500" s="48" t="s">
         <v>371</v>
       </c>
       <c r="E500" s="19">
@@ -12144,7 +12144,7 @@
     </row>
     <row r="501" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="32"/>
-      <c r="D501" s="45"/>
+      <c r="D501" s="48"/>
       <c r="E501" s="19">
         <v>2</v>
       </c>
@@ -12162,7 +12162,7 @@
     </row>
     <row r="502" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B502" s="32"/>
-      <c r="D502" s="45"/>
+      <c r="D502" s="48"/>
       <c r="E502" s="19">
         <v>3</v>
       </c>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="503" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="32"/>
-      <c r="D503" s="45"/>
+      <c r="D503" s="48"/>
       <c r="E503" s="19">
         <v>4</v>
       </c>
@@ -12198,7 +12198,7 @@
     </row>
     <row r="504" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="32"/>
-      <c r="D504" s="45"/>
+      <c r="D504" s="48"/>
       <c r="E504" s="19">
         <v>5</v>
       </c>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="505" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B505" s="32"/>
-      <c r="D505" s="45"/>
+      <c r="D505" s="48"/>
       <c r="E505" s="33">
         <v>6</v>
       </c>
@@ -12251,7 +12251,7 @@
       <c r="C507" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D507" s="45" t="s">
+      <c r="D507" s="48" t="s">
         <v>375</v>
       </c>
       <c r="E507" s="19">
@@ -12265,7 +12265,7 @@
     </row>
     <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B508" s="32"/>
-      <c r="D508" s="45"/>
+      <c r="D508" s="48"/>
       <c r="E508" s="19">
         <v>2</v>
       </c>
@@ -12283,7 +12283,7 @@
     </row>
     <row r="509" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B509" s="32"/>
-      <c r="D509" s="45"/>
+      <c r="D509" s="48"/>
       <c r="E509" s="19">
         <v>3</v>
       </c>
@@ -12301,7 +12301,7 @@
     </row>
     <row r="510" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B510" s="32"/>
-      <c r="D510" s="45"/>
+      <c r="D510" s="48"/>
       <c r="E510" s="19">
         <v>4</v>
       </c>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="511" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B511" s="32"/>
-      <c r="D511" s="45"/>
+      <c r="D511" s="48"/>
       <c r="E511" s="19">
         <v>5</v>
       </c>
@@ -12337,7 +12337,7 @@
     </row>
     <row r="512" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B512" s="32"/>
-      <c r="D512" s="45"/>
+      <c r="D512" s="48"/>
       <c r="E512" s="19">
         <v>6</v>
       </c>
@@ -12372,7 +12372,7 @@
       <c r="C514" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D514" s="45" t="s">
+      <c r="D514" s="48" t="s">
         <v>396</v>
       </c>
       <c r="E514" s="19">
@@ -12392,7 +12392,7 @@
     </row>
     <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B515" s="32"/>
-      <c r="D515" s="45"/>
+      <c r="D515" s="48"/>
       <c r="E515" s="19">
         <v>2</v>
       </c>
@@ -12413,7 +12413,7 @@
     </row>
     <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B516" s="32"/>
-      <c r="D516" s="45"/>
+      <c r="D516" s="48"/>
       <c r="E516" s="19">
         <v>3</v>
       </c>
@@ -12448,7 +12448,7 @@
       <c r="C518" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D518" s="45" t="s">
+      <c r="D518" s="48" t="s">
         <v>406</v>
       </c>
       <c r="E518" s="19">
@@ -12468,7 +12468,7 @@
     </row>
     <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B519" s="32"/>
-      <c r="D519" s="45"/>
+      <c r="D519" s="48"/>
       <c r="E519" s="19">
         <v>2</v>
       </c>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B520" s="32"/>
-      <c r="D520" s="45"/>
+      <c r="D520" s="48"/>
       <c r="E520" s="19">
         <v>3</v>
       </c>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="521" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B521" s="32"/>
-      <c r="D521" s="45"/>
+      <c r="D521" s="48"/>
       <c r="E521" s="19">
         <v>4</v>
       </c>
@@ -12529,7 +12529,7 @@
     <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="30"/>
       <c r="B522" s="32"/>
-      <c r="D522" s="45"/>
+      <c r="D522" s="48"/>
       <c r="E522" s="19">
         <v>5</v>
       </c>
@@ -12547,7 +12547,7 @@
     </row>
     <row r="523" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B523" s="32"/>
-      <c r="D523" s="45"/>
+      <c r="D523" s="48"/>
       <c r="E523" s="19">
         <v>6</v>
       </c>
@@ -12568,7 +12568,7 @@
     </row>
     <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B524" s="32"/>
-      <c r="D524" s="45"/>
+      <c r="D524" s="48"/>
       <c r="E524" s="19">
         <v>7</v>
       </c>
@@ -12603,7 +12603,7 @@
       <c r="C526" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D526" s="45" t="s">
+      <c r="D526" s="48" t="s">
         <v>409</v>
       </c>
       <c r="E526" s="19">
@@ -12623,7 +12623,7 @@
     </row>
     <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B527" s="32"/>
-      <c r="D527" s="45"/>
+      <c r="D527" s="48"/>
       <c r="E527" s="19">
         <v>2</v>
       </c>
@@ -12644,7 +12644,7 @@
     </row>
     <row r="528" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B528" s="32"/>
-      <c r="D528" s="45"/>
+      <c r="D528" s="48"/>
       <c r="E528" s="19">
         <v>3</v>
       </c>
@@ -12679,7 +12679,7 @@
       <c r="C530" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D530" s="45" t="s">
+      <c r="D530" s="48" t="s">
         <v>412</v>
       </c>
       <c r="E530" s="19">
@@ -12699,7 +12699,7 @@
     </row>
     <row r="531" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B531" s="32"/>
-      <c r="D531" s="45"/>
+      <c r="D531" s="48"/>
       <c r="E531" s="19">
         <v>2</v>
       </c>
@@ -12720,7 +12720,7 @@
     </row>
     <row r="532" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B532" s="32"/>
-      <c r="D532" s="45"/>
+      <c r="D532" s="48"/>
       <c r="E532" s="19">
         <v>5</v>
       </c>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B533" s="32"/>
-      <c r="D533" s="45"/>
+      <c r="D533" s="48"/>
       <c r="E533" s="19">
         <v>6</v>
       </c>
@@ -12757,7 +12757,7 @@
     <row r="534" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="30"/>
       <c r="B534" s="32"/>
-      <c r="D534" s="45"/>
+      <c r="D534" s="48"/>
       <c r="E534" s="19">
         <v>7</v>
       </c>
@@ -12795,7 +12795,7 @@
       <c r="C536" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D536" s="45" t="s">
+      <c r="D536" s="48" t="s">
         <v>420</v>
       </c>
       <c r="E536" s="19">
@@ -12812,7 +12812,7 @@
     </row>
     <row r="537" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B537" s="32"/>
-      <c r="D537" s="45"/>
+      <c r="D537" s="48"/>
       <c r="E537" s="19">
         <v>2</v>
       </c>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="538" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B538" s="32"/>
-      <c r="D538" s="45"/>
+      <c r="D538" s="48"/>
       <c r="E538" s="19">
         <v>3</v>
       </c>
@@ -12851,7 +12851,7 @@
     </row>
     <row r="539" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B539" s="32"/>
-      <c r="D539" s="45"/>
+      <c r="D539" s="48"/>
       <c r="E539" s="19">
         <v>4</v>
       </c>
@@ -12873,7 +12873,7 @@
     <row r="540" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="30"/>
       <c r="B540" s="32"/>
-      <c r="D540" s="45"/>
+      <c r="D540" s="48"/>
       <c r="E540" s="19">
         <v>5</v>
       </c>
@@ -12892,7 +12892,7 @@
     <row r="541" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="30"/>
       <c r="B541" s="32"/>
-      <c r="D541" s="45"/>
+      <c r="D541" s="48"/>
       <c r="E541" s="19">
         <v>6</v>
       </c>
@@ -12927,7 +12927,7 @@
       <c r="C543" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D543" s="45" t="s">
+      <c r="D543" s="48" t="s">
         <v>424</v>
       </c>
       <c r="E543" s="19">
@@ -12947,7 +12947,7 @@
     </row>
     <row r="544" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B544" s="32"/>
-      <c r="D544" s="45"/>
+      <c r="D544" s="48"/>
       <c r="E544" s="19">
         <v>2</v>
       </c>
@@ -12968,7 +12968,7 @@
     </row>
     <row r="545" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B545" s="32"/>
-      <c r="D545" s="45"/>
+      <c r="D545" s="48"/>
       <c r="E545" s="19">
         <v>3</v>
       </c>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="546" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B546" s="32"/>
-      <c r="D546" s="45"/>
+      <c r="D546" s="48"/>
       <c r="E546" s="19">
         <v>4</v>
       </c>
@@ -13011,7 +13011,7 @@
     <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" s="30"/>
       <c r="B547" s="32"/>
-      <c r="D547" s="45"/>
+      <c r="D547" s="48"/>
       <c r="E547" s="19">
         <v>5</v>
       </c>
@@ -13030,7 +13030,7 @@
     <row r="548" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="30"/>
       <c r="B548" s="32"/>
-      <c r="D548" s="45"/>
+      <c r="D548" s="48"/>
       <c r="E548" s="19">
         <v>6</v>
       </c>
@@ -13071,7 +13071,7 @@
       <c r="C550" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D550" s="45" t="s">
+      <c r="D550" s="48" t="s">
         <v>432</v>
       </c>
       <c r="E550" s="19">
@@ -13091,7 +13091,7 @@
     </row>
     <row r="551" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B551" s="32"/>
-      <c r="D551" s="45"/>
+      <c r="D551" s="48"/>
       <c r="E551" s="19">
         <v>2</v>
       </c>
@@ -13112,7 +13112,7 @@
     </row>
     <row r="552" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B552" s="32"/>
-      <c r="D552" s="45"/>
+      <c r="D552" s="48"/>
       <c r="E552" s="19">
         <v>3</v>
       </c>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="553" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B553" s="32"/>
-      <c r="D553" s="45"/>
+      <c r="D553" s="48"/>
       <c r="E553" s="19">
         <v>4</v>
       </c>
@@ -13155,7 +13155,7 @@
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" s="30"/>
       <c r="B554" s="32"/>
-      <c r="D554" s="45"/>
+      <c r="D554" s="48"/>
       <c r="E554" s="19">
         <v>5</v>
       </c>
@@ -13174,7 +13174,7 @@
     <row r="555" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="30"/>
       <c r="B555" s="32"/>
-      <c r="D555" s="45"/>
+      <c r="D555" s="48"/>
       <c r="E555" s="19">
         <v>6</v>
       </c>
@@ -13192,7 +13192,7 @@
     </row>
     <row r="556" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B556" s="32"/>
-      <c r="D556" s="45"/>
+      <c r="D556" s="48"/>
       <c r="E556" s="19">
         <v>7</v>
       </c>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="557" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B557" s="32"/>
-      <c r="D557" s="45"/>
+      <c r="D557" s="48"/>
       <c r="E557" s="19">
         <v>8</v>
       </c>
@@ -13235,7 +13235,7 @@
     <row r="558" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="30"/>
       <c r="B558" s="32"/>
-      <c r="D558" s="45"/>
+      <c r="D558" s="48"/>
       <c r="E558" s="19">
         <v>9</v>
       </c>
@@ -13256,7 +13256,7 @@
     </row>
     <row r="559" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B559" s="32"/>
-      <c r="D559" s="45"/>
+      <c r="D559" s="48"/>
       <c r="E559" s="19">
         <v>10</v>
       </c>
@@ -13294,7 +13294,7 @@
       <c r="C561" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D561" s="45" t="s">
+      <c r="D561" s="48" t="s">
         <v>434</v>
       </c>
       <c r="E561" s="19">
@@ -13314,7 +13314,7 @@
     </row>
     <row r="562" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B562" s="32"/>
-      <c r="D562" s="45"/>
+      <c r="D562" s="48"/>
       <c r="E562" s="19">
         <v>2</v>
       </c>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="563" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="32"/>
-      <c r="D563" s="45"/>
+      <c r="D563" s="48"/>
       <c r="E563" s="19">
         <v>3</v>
       </c>
@@ -13356,7 +13356,7 @@
     </row>
     <row r="564" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B564" s="32"/>
-      <c r="D564" s="45"/>
+      <c r="D564" s="48"/>
       <c r="E564" s="19">
         <v>4</v>
       </c>
@@ -13378,7 +13378,7 @@
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="30"/>
       <c r="B565" s="32"/>
-      <c r="D565" s="45"/>
+      <c r="D565" s="48"/>
       <c r="E565" s="19">
         <v>5</v>
       </c>
@@ -13397,7 +13397,7 @@
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="30"/>
       <c r="B566" s="32"/>
-      <c r="D566" s="45"/>
+      <c r="D566" s="48"/>
       <c r="E566" s="19">
         <v>6</v>
       </c>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B567" s="32"/>
-      <c r="D567" s="45"/>
+      <c r="D567" s="48"/>
       <c r="E567" s="19">
         <v>7</v>
       </c>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="568" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B568" s="32"/>
-      <c r="D568" s="45"/>
+      <c r="D568" s="48"/>
       <c r="E568" s="19">
         <v>8</v>
       </c>
@@ -13468,7 +13468,7 @@
       <c r="C570" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D570" s="45" t="s">
+      <c r="D570" s="48" t="s">
         <v>446</v>
       </c>
       <c r="E570" s="19">
@@ -13488,7 +13488,7 @@
     </row>
     <row r="571" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B571" s="32"/>
-      <c r="D571" s="45"/>
+      <c r="D571" s="48"/>
       <c r="E571" s="19">
         <v>2</v>
       </c>
@@ -13509,7 +13509,7 @@
     </row>
     <row r="572" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B572" s="32"/>
-      <c r="D572" s="45"/>
+      <c r="D572" s="48"/>
       <c r="E572" s="19">
         <v>3</v>
       </c>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="573" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B573" s="32"/>
-      <c r="D573" s="45"/>
+      <c r="D573" s="48"/>
       <c r="E573" s="19">
         <v>4</v>
       </c>
@@ -13562,7 +13562,7 @@
       <c r="C575" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D575" s="45" t="s">
+      <c r="D575" s="48" t="s">
         <v>450</v>
       </c>
       <c r="E575" s="19">
@@ -13579,7 +13579,7 @@
     </row>
     <row r="576" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B576" s="32"/>
-      <c r="D576" s="45"/>
+      <c r="D576" s="48"/>
       <c r="E576" s="19">
         <v>2</v>
       </c>
@@ -13597,7 +13597,7 @@
     </row>
     <row r="577" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B577" s="32"/>
-      <c r="D577" s="45"/>
+      <c r="D577" s="48"/>
       <c r="E577" s="19">
         <v>3</v>
       </c>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="578" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B578" s="32"/>
-      <c r="D578" s="45"/>
+      <c r="D578" s="48"/>
       <c r="E578" s="19">
         <v>4</v>
       </c>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="579" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B579" s="32"/>
-      <c r="D579" s="45"/>
+      <c r="D579" s="48"/>
       <c r="E579" s="19">
         <v>5</v>
       </c>
@@ -13655,7 +13655,7 @@
       <c r="C581" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D581" s="45" t="s">
+      <c r="D581" s="48" t="s">
         <v>456</v>
       </c>
       <c r="E581" s="19">
@@ -13672,7 +13672,7 @@
     </row>
     <row r="582" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B582" s="32"/>
-      <c r="D582" s="45"/>
+      <c r="D582" s="48"/>
       <c r="E582" s="19">
         <v>2</v>
       </c>
@@ -13690,7 +13690,7 @@
     </row>
     <row r="583" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B583" s="32"/>
-      <c r="D583" s="45"/>
+      <c r="D583" s="48"/>
       <c r="E583" s="19">
         <v>3</v>
       </c>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="584" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B584" s="32"/>
-      <c r="D584" s="45"/>
+      <c r="D584" s="48"/>
       <c r="E584" s="19">
         <v>4</v>
       </c>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="585" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B585" s="32"/>
-      <c r="D585" s="45"/>
+      <c r="D585" s="48"/>
       <c r="E585" s="19">
         <v>5</v>
       </c>
@@ -13751,7 +13751,7 @@
       <c r="C587" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D587" s="45" t="s">
+      <c r="D587" s="48" t="s">
         <v>462</v>
       </c>
       <c r="E587" s="19">
@@ -13771,7 +13771,7 @@
     </row>
     <row r="588" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B588" s="32"/>
-      <c r="D588" s="45"/>
+      <c r="D588" s="48"/>
       <c r="E588" s="19">
         <v>2</v>
       </c>
@@ -13792,7 +13792,7 @@
     </row>
     <row r="589" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B589" s="32"/>
-      <c r="D589" s="45"/>
+      <c r="D589" s="48"/>
       <c r="E589" s="19">
         <v>3</v>
       </c>
@@ -13814,7 +13814,7 @@
     </row>
     <row r="590" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B590" s="32"/>
-      <c r="D590" s="45"/>
+      <c r="D590" s="48"/>
       <c r="E590" s="19">
         <v>4</v>
       </c>
@@ -13829,7 +13829,7 @@
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B591" s="32"/>
-      <c r="D591" s="45"/>
+      <c r="D591" s="48"/>
       <c r="E591" s="19">
         <v>5</v>
       </c>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="592" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B592" s="32"/>
-      <c r="D592" s="45"/>
+      <c r="D592" s="48"/>
       <c r="E592" s="19">
         <v>6</v>
       </c>
@@ -13874,7 +13874,7 @@
       <c r="C594" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D594" s="45" t="s">
+      <c r="D594" s="48" t="s">
         <v>467</v>
       </c>
       <c r="E594" s="19">
@@ -13894,7 +13894,7 @@
     </row>
     <row r="595" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B595" s="32"/>
-      <c r="D595" s="45"/>
+      <c r="D595" s="48"/>
       <c r="E595" s="19">
         <v>2</v>
       </c>
@@ -13915,7 +13915,7 @@
     </row>
     <row r="596" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B596" s="32"/>
-      <c r="D596" s="45"/>
+      <c r="D596" s="48"/>
       <c r="E596" s="19">
         <v>3</v>
       </c>
@@ -13938,7 +13938,7 @@
     </row>
     <row r="597" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B597" s="32"/>
-      <c r="D597" s="45"/>
+      <c r="D597" s="48"/>
       <c r="E597" s="19">
         <v>4</v>
       </c>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B598" s="32"/>
-      <c r="D598" s="45"/>
+      <c r="D598" s="48"/>
       <c r="E598" s="19">
         <v>5</v>
       </c>
@@ -13968,7 +13968,7 @@
     </row>
     <row r="599" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B599" s="31"/>
-      <c r="D599" s="45"/>
+      <c r="D599" s="48"/>
       <c r="E599" s="19">
         <v>6</v>
       </c>
@@ -13998,7 +13998,7 @@
       <c r="C601" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D601" s="45" t="s">
+      <c r="D601" s="48" t="s">
         <v>471</v>
       </c>
       <c r="E601" s="19">
@@ -14018,7 +14018,7 @@
     </row>
     <row r="602" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B602" s="38"/>
-      <c r="D602" s="45"/>
+      <c r="D602" s="48"/>
       <c r="E602" s="19">
         <v>2</v>
       </c>
@@ -14039,7 +14039,7 @@
     </row>
     <row r="603" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B603" s="38"/>
-      <c r="D603" s="45"/>
+      <c r="D603" s="48"/>
       <c r="E603" s="19">
         <v>3</v>
       </c>
@@ -14074,7 +14074,7 @@
       <c r="C605" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D605" s="45" t="s">
+      <c r="D605" s="48" t="s">
         <v>479</v>
       </c>
       <c r="E605" s="19">
@@ -14094,7 +14094,7 @@
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B606" s="38"/>
-      <c r="D606" s="45"/>
+      <c r="D606" s="48"/>
       <c r="E606" s="19">
         <v>2</v>
       </c>
@@ -14115,7 +14115,7 @@
     </row>
     <row r="607" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B607" s="38"/>
-      <c r="D607" s="45"/>
+      <c r="D607" s="48"/>
       <c r="E607" s="19">
         <v>3</v>
       </c>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="608" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="31"/>
-      <c r="D608" s="45"/>
+      <c r="D608" s="48"/>
       <c r="E608" s="19">
         <v>4</v>
       </c>
@@ -14169,7 +14169,7 @@
       <c r="C610" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D610" s="45" t="s">
+      <c r="D610" s="48" t="s">
         <v>490</v>
       </c>
       <c r="E610" s="19">
@@ -14189,7 +14189,7 @@
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B611" s="38"/>
-      <c r="D611" s="45"/>
+      <c r="D611" s="48"/>
       <c r="E611" s="19">
         <v>2</v>
       </c>
@@ -14210,7 +14210,7 @@
     </row>
     <row r="612" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B612" s="38"/>
-      <c r="D612" s="45"/>
+      <c r="D612" s="48"/>
       <c r="E612" s="19">
         <v>3</v>
       </c>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="613" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="31"/>
-      <c r="D613" s="45"/>
+      <c r="D613" s="48"/>
       <c r="E613" s="19">
         <v>4</v>
       </c>
@@ -14266,7 +14266,7 @@
       <c r="C615" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D615" s="45" t="s">
+      <c r="D615" s="48" t="s">
         <v>495</v>
       </c>
       <c r="E615" s="19">
@@ -14286,7 +14286,7 @@
     </row>
     <row r="616" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B616" s="38"/>
-      <c r="D616" s="45"/>
+      <c r="D616" s="48"/>
       <c r="E616" s="19">
         <v>2</v>
       </c>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="617" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B617" s="37"/>
-      <c r="D617" s="45"/>
+      <c r="D617" s="48"/>
       <c r="E617" s="19">
         <v>3</v>
       </c>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B618" s="37"/>
-      <c r="D618" s="45"/>
+      <c r="D618" s="48"/>
       <c r="K618" s="2"/>
       <c r="L618" s="2"/>
     </row>
@@ -14345,7 +14345,7 @@
       <c r="C620" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D620" s="45" t="s">
+      <c r="D620" s="48" t="s">
         <v>502</v>
       </c>
       <c r="E620" s="19">
@@ -14365,7 +14365,7 @@
     </row>
     <row r="621" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B621" s="40"/>
-      <c r="D621" s="45"/>
+      <c r="D621" s="48"/>
       <c r="E621" s="19">
         <v>2</v>
       </c>
@@ -14383,7 +14383,7 @@
     </row>
     <row r="622" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B622" s="39"/>
-      <c r="D622" s="45"/>
+      <c r="D622" s="48"/>
       <c r="E622" s="19">
         <v>3</v>
       </c>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="623" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B623" s="39"/>
-      <c r="D623" s="45"/>
+      <c r="D623" s="48"/>
       <c r="E623" s="19">
         <v>4</v>
       </c>
@@ -14419,7 +14419,7 @@
     </row>
     <row r="624" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="31"/>
-      <c r="D624" s="45"/>
+      <c r="D624" s="48"/>
       <c r="E624" s="19">
         <v>5</v>
       </c>
@@ -14454,7 +14454,7 @@
       <c r="C626" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D626" s="45" t="s">
+      <c r="D626" s="48" t="s">
         <v>508</v>
       </c>
       <c r="E626" s="19">
@@ -14474,7 +14474,7 @@
     </row>
     <row r="627" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B627" s="40"/>
-      <c r="D627" s="45"/>
+      <c r="D627" s="48"/>
       <c r="E627" s="19">
         <v>2</v>
       </c>
@@ -14491,13 +14491,13 @@
       <c r="L627" s="2"/>
     </row>
     <row r="628" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A628" s="49"/>
+      <c r="A628" s="45"/>
       <c r="B628" s="40"/>
-      <c r="D628" s="45"/>
+      <c r="D628" s="48"/>
       <c r="E628" s="19">
         <v>3</v>
       </c>
-      <c r="F628" s="50" t="s">
+      <c r="F628" s="46" t="s">
         <v>512</v>
       </c>
       <c r="G628" s="19" t="s">
@@ -14511,7 +14511,7 @@
     </row>
     <row r="629" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B629" s="39"/>
-      <c r="D629" s="45"/>
+      <c r="D629" s="48"/>
       <c r="E629" s="19">
         <v>4</v>
       </c>
@@ -14546,7 +14546,7 @@
       <c r="C631" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D631" s="45" t="s">
+      <c r="D631" s="48" t="s">
         <v>515</v>
       </c>
       <c r="E631" s="19">
@@ -14566,7 +14566,7 @@
     </row>
     <row r="632" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B632" s="40"/>
-      <c r="D632" s="45"/>
+      <c r="D632" s="48"/>
       <c r="E632" s="19">
         <v>2</v>
       </c>
@@ -14584,7 +14584,7 @@
     </row>
     <row r="633" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B633" s="40"/>
-      <c r="D633" s="45"/>
+      <c r="D633" s="48"/>
       <c r="E633" s="19">
         <v>3</v>
       </c>
@@ -14602,7 +14602,7 @@
     </row>
     <row r="634" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B634" s="39"/>
-      <c r="D634" s="45"/>
+      <c r="D634" s="48"/>
       <c r="E634" s="19">
         <v>4</v>
       </c>
@@ -14625,7 +14625,7 @@
     </row>
     <row r="635" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B635" s="39"/>
-      <c r="D635" s="45"/>
+      <c r="D635" s="48"/>
       <c r="E635" s="19">
         <v>5</v>
       </c>
@@ -14654,7 +14654,7 @@
       <c r="C637" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D637" s="45" t="s">
+      <c r="D637" s="48" t="s">
         <v>519</v>
       </c>
       <c r="E637" s="19">
@@ -14675,7 +14675,7 @@
     <row r="638" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="28"/>
       <c r="B638" s="40"/>
-      <c r="D638" s="45"/>
+      <c r="D638" s="48"/>
       <c r="E638" s="19">
         <v>2</v>
       </c>
@@ -14694,7 +14694,7 @@
     <row r="639" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A639" s="28"/>
       <c r="B639" s="40"/>
-      <c r="D639" s="45"/>
+      <c r="D639" s="48"/>
       <c r="E639" s="19">
         <v>3</v>
       </c>
@@ -14712,7 +14712,7 @@
     </row>
     <row r="640" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B640" s="40"/>
-      <c r="D640" s="45"/>
+      <c r="D640" s="48"/>
       <c r="E640" s="19">
         <v>4</v>
       </c>
@@ -14730,7 +14730,7 @@
     </row>
     <row r="641" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B641" s="40"/>
-      <c r="D641" s="45"/>
+      <c r="D641" s="48"/>
       <c r="E641" s="19">
         <v>5</v>
       </c>
@@ -14748,7 +14748,7 @@
     </row>
     <row r="642" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B642" s="39"/>
-      <c r="D642" s="45"/>
+      <c r="D642" s="48"/>
       <c r="E642" s="19">
         <v>6</v>
       </c>
@@ -14773,7 +14773,7 @@
     </row>
     <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B643" s="39"/>
-      <c r="D643" s="45"/>
+      <c r="D643" s="48"/>
       <c r="E643" s="19">
         <v>7</v>
       </c>
@@ -14801,7 +14801,7 @@
       <c r="C645" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D645" s="45" t="s">
+      <c r="D645" s="48" t="s">
         <v>533</v>
       </c>
       <c r="E645" s="19">
@@ -14821,7 +14821,7 @@
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B646" s="40"/>
-      <c r="D646" s="45"/>
+      <c r="D646" s="48"/>
       <c r="E646" s="19">
         <v>2</v>
       </c>
@@ -14839,7 +14839,7 @@
     </row>
     <row r="647" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="40"/>
-      <c r="D647" s="45"/>
+      <c r="D647" s="48"/>
       <c r="E647" s="19">
         <v>3</v>
       </c>
@@ -14874,7 +14874,7 @@
       <c r="C649" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D649" s="45" t="s">
+      <c r="D649" s="48" t="s">
         <v>540</v>
       </c>
       <c r="E649" s="19">
@@ -14894,7 +14894,7 @@
     </row>
     <row r="650" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B650" s="40"/>
-      <c r="D650" s="45"/>
+      <c r="D650" s="48"/>
       <c r="E650" s="19">
         <v>2</v>
       </c>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="651" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B651" s="40"/>
-      <c r="D651" s="45"/>
+      <c r="D651" s="48"/>
       <c r="E651" s="19">
         <v>3</v>
       </c>
@@ -14947,7 +14947,7 @@
       <c r="C653" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D653" s="45" t="s">
+      <c r="D653" s="48" t="s">
         <v>548</v>
       </c>
       <c r="E653" s="19">
@@ -14963,9 +14963,9 @@
       <c r="L653" s="2"/>
     </row>
     <row r="654" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A654" s="49"/>
+      <c r="A654" s="45"/>
       <c r="B654" s="40"/>
-      <c r="D654" s="45"/>
+      <c r="D654" s="48"/>
       <c r="E654" s="19">
         <v>2</v>
       </c>
@@ -14980,7 +14980,7 @@
     </row>
     <row r="655" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B655" s="40"/>
-      <c r="D655" s="45"/>
+      <c r="D655" s="48"/>
       <c r="E655" s="19">
         <v>3</v>
       </c>
@@ -14995,7 +14995,7 @@
     </row>
     <row r="656" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B656" s="39"/>
-      <c r="D656" s="45"/>
+      <c r="D656" s="48"/>
       <c r="E656" s="19">
         <v>4</v>
       </c>
@@ -15027,7 +15027,7 @@
       <c r="C658" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D658" s="45" t="s">
+      <c r="D658" s="48" t="s">
         <v>554</v>
       </c>
       <c r="E658" s="19">
@@ -15043,9 +15043,9 @@
       <c r="L658" s="2"/>
     </row>
     <row r="659" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A659" s="49"/>
+      <c r="A659" s="45"/>
       <c r="B659" s="40"/>
-      <c r="D659" s="45"/>
+      <c r="D659" s="48"/>
       <c r="E659" s="19">
         <v>2</v>
       </c>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="660" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B660" s="40"/>
-      <c r="D660" s="45"/>
+      <c r="D660" s="48"/>
       <c r="E660" s="19">
         <v>3</v>
       </c>
@@ -15087,7 +15087,7 @@
       <c r="C661" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D661" s="45" t="s">
+      <c r="D661" s="48" t="s">
         <v>557</v>
       </c>
       <c r="E661" s="19">
@@ -15104,7 +15104,7 @@
     </row>
     <row r="662" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="40"/>
-      <c r="D662" s="45"/>
+      <c r="D662" s="48"/>
       <c r="E662" s="19">
         <v>2</v>
       </c>
@@ -15119,7 +15119,7 @@
     </row>
     <row r="663" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B663" s="40"/>
-      <c r="D663" s="45"/>
+      <c r="D663" s="48"/>
       <c r="E663" s="19">
         <v>3</v>
       </c>
@@ -15150,7 +15150,7 @@
       <c r="C665" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D665" s="45" t="s">
+      <c r="D665" s="48" t="s">
         <v>560</v>
       </c>
       <c r="E665" s="19">
@@ -15166,7 +15166,7 @@
     </row>
     <row r="666" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B666" s="40"/>
-      <c r="D666" s="45"/>
+      <c r="D666" s="48"/>
       <c r="E666" s="19">
         <v>2</v>
       </c>
@@ -15180,7 +15180,7 @@
     </row>
     <row r="667" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B667" s="40"/>
-      <c r="D667" s="45"/>
+      <c r="D667" s="48"/>
       <c r="E667" s="19">
         <v>3</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="C669" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D669" s="45" t="s">
+      <c r="D669" s="48" t="s">
         <v>563</v>
       </c>
       <c r="E669" s="19">
@@ -15227,7 +15227,7 @@
     </row>
     <row r="670" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B670" s="40"/>
-      <c r="D670" s="45"/>
+      <c r="D670" s="48"/>
       <c r="E670" s="19">
         <v>2</v>
       </c>
@@ -15244,7 +15244,7 @@
     </row>
     <row r="671" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B671" s="40"/>
-      <c r="D671" s="45"/>
+      <c r="D671" s="48"/>
       <c r="E671" s="19">
         <v>3</v>
       </c>
@@ -15275,7 +15275,7 @@
       <c r="C673" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D673" s="45" t="s">
+      <c r="D673" s="48" t="s">
         <v>571</v>
       </c>
       <c r="E673" s="19">
@@ -15291,7 +15291,7 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B674" s="40"/>
-      <c r="D674" s="45"/>
+      <c r="D674" s="48"/>
       <c r="E674" s="19">
         <v>2</v>
       </c>
@@ -15305,7 +15305,7 @@
     </row>
     <row r="675" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B675" s="40"/>
-      <c r="D675" s="45"/>
+      <c r="D675" s="48"/>
       <c r="E675" s="19">
         <v>3</v>
       </c>
@@ -15336,7 +15336,7 @@
       <c r="C677" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D677" s="45" t="s">
+      <c r="D677" s="48" t="s">
         <v>579</v>
       </c>
       <c r="E677" s="19">
@@ -15352,7 +15352,7 @@
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B678" s="40"/>
-      <c r="D678" s="45"/>
+      <c r="D678" s="48"/>
       <c r="E678" s="19">
         <v>2</v>
       </c>
@@ -15366,7 +15366,7 @@
     </row>
     <row r="679" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B679" s="40"/>
-      <c r="D679" s="45"/>
+      <c r="D679" s="48"/>
       <c r="E679" s="19">
         <v>3</v>
       </c>
@@ -15397,7 +15397,7 @@
       <c r="C681" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D681" s="45" t="s">
+      <c r="D681" s="48" t="s">
         <v>584</v>
       </c>
       <c r="E681" s="19">
@@ -15413,7 +15413,7 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B682" s="40"/>
-      <c r="D682" s="45"/>
+      <c r="D682" s="48"/>
       <c r="E682" s="19">
         <v>2</v>
       </c>
@@ -15427,7 +15427,7 @@
     </row>
     <row r="683" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B683" s="40"/>
-      <c r="D683" s="45"/>
+      <c r="D683" s="48"/>
       <c r="E683" s="19">
         <v>3</v>
       </c>
@@ -15459,7 +15459,7 @@
       <c r="C685" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="D685" s="45" t="s">
+      <c r="D685" s="48" t="s">
         <v>634</v>
       </c>
       <c r="E685" s="19">
@@ -15475,7 +15475,7 @@
     </row>
     <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B686" s="31"/>
-      <c r="D686" s="45"/>
+      <c r="D686" s="48"/>
       <c r="E686" s="19">
         <v>2</v>
       </c>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="687" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B687" s="31"/>
-      <c r="D687" s="45"/>
+      <c r="D687" s="48"/>
       <c r="E687" s="19">
         <v>3</v>
       </c>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B688" s="31"/>
-      <c r="D688" s="45"/>
+      <c r="D688" s="48"/>
       <c r="L688" s="2"/>
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.25">
@@ -15521,7 +15521,7 @@
       <c r="C689" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="D689" s="45" t="s">
+      <c r="D689" s="48" t="s">
         <v>644</v>
       </c>
       <c r="E689" s="19">
@@ -15537,7 +15537,7 @@
     </row>
     <row r="690" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B690" s="31"/>
-      <c r="D690" s="45"/>
+      <c r="D690" s="48"/>
       <c r="E690" s="19">
         <v>2</v>
       </c>
@@ -15551,7 +15551,7 @@
     </row>
     <row r="691" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B691" s="31"/>
-      <c r="D691" s="45"/>
+      <c r="D691" s="48"/>
       <c r="E691" s="19">
         <v>3</v>
       </c>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="692" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B692" s="31"/>
-      <c r="D692" s="45"/>
+      <c r="D692" s="48"/>
       <c r="E692" s="19">
         <v>4</v>
       </c>
@@ -15596,7 +15596,7 @@
       <c r="C694" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="D694" s="45" t="s">
+      <c r="D694" s="48" t="s">
         <v>657</v>
       </c>
       <c r="E694" s="19">
@@ -15612,7 +15612,7 @@
     </row>
     <row r="695" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B695" s="31"/>
-      <c r="D695" s="45"/>
+      <c r="D695" s="48"/>
       <c r="E695" s="19">
         <v>2</v>
       </c>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="696" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B696" s="31"/>
-      <c r="D696" s="45"/>
+      <c r="D696" s="48"/>
       <c r="E696" s="19">
         <v>3</v>
       </c>
@@ -15640,7 +15640,7 @@
     </row>
     <row r="697" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B697" s="31"/>
-      <c r="D697" s="45"/>
+      <c r="D697" s="48"/>
       <c r="E697" s="19">
         <v>4</v>
       </c>
@@ -15698,7 +15698,7 @@
       <c r="C701" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="D701" s="45" t="s">
+      <c r="D701" s="48" t="s">
         <v>658</v>
       </c>
       <c r="E701" s="19">
@@ -15714,7 +15714,7 @@
     </row>
     <row r="702" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B702" s="42"/>
-      <c r="D702" s="45"/>
+      <c r="D702" s="48"/>
       <c r="E702" s="19">
         <v>2</v>
       </c>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="703" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B703" s="42"/>
-      <c r="D703" s="45"/>
+      <c r="D703" s="48"/>
       <c r="E703" s="19">
         <v>3</v>
       </c>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="704" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B704" s="42"/>
-      <c r="D704" s="45"/>
+      <c r="D704" s="48"/>
       <c r="E704" s="19">
         <v>4</v>
       </c>
@@ -15773,29 +15773,66 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D685:D688"/>
-    <mergeCell ref="D689:D692"/>
-    <mergeCell ref="D694:D697"/>
-    <mergeCell ref="D701:D704"/>
-    <mergeCell ref="D677:D679"/>
-    <mergeCell ref="D681:D683"/>
-    <mergeCell ref="D658:D660"/>
-    <mergeCell ref="D661:D663"/>
-    <mergeCell ref="D665:D667"/>
-    <mergeCell ref="D669:D671"/>
-    <mergeCell ref="D673:D675"/>
-    <mergeCell ref="D637:D643"/>
-    <mergeCell ref="D645:D647"/>
-    <mergeCell ref="D649:D651"/>
-    <mergeCell ref="D653:D656"/>
-    <mergeCell ref="D581:D585"/>
-    <mergeCell ref="D620:D624"/>
-    <mergeCell ref="D626:D629"/>
-    <mergeCell ref="D631:D635"/>
-    <mergeCell ref="D615:D618"/>
-    <mergeCell ref="D601:D603"/>
-    <mergeCell ref="D605:D608"/>
-    <mergeCell ref="D610:D613"/>
+    <mergeCell ref="D543:D548"/>
+    <mergeCell ref="D550:D559"/>
+    <mergeCell ref="D587:D592"/>
+    <mergeCell ref="D594:D599"/>
+    <mergeCell ref="D561:D568"/>
+    <mergeCell ref="D570:D573"/>
+    <mergeCell ref="D575:D579"/>
+    <mergeCell ref="D492:D498"/>
+    <mergeCell ref="D500:D505"/>
+    <mergeCell ref="D507:D512"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="D536:D541"/>
+    <mergeCell ref="D470:D474"/>
+    <mergeCell ref="D476:D482"/>
+    <mergeCell ref="D484:D490"/>
+    <mergeCell ref="D446:D450"/>
+    <mergeCell ref="D452:D456"/>
+    <mergeCell ref="D458:D462"/>
+    <mergeCell ref="D464:D468"/>
+    <mergeCell ref="D434:D438"/>
+    <mergeCell ref="D428:D432"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D317"/>
+    <mergeCell ref="D416:D420"/>
+    <mergeCell ref="D319:D325"/>
+    <mergeCell ref="D327:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D356"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="D296:D302"/>
+    <mergeCell ref="D263:D269"/>
+    <mergeCell ref="D271:D278"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="D218:D227"/>
+    <mergeCell ref="D229:D238"/>
+    <mergeCell ref="D240:D245"/>
+    <mergeCell ref="D247:D253"/>
+    <mergeCell ref="D255:D261"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="D182:D193"/>
+    <mergeCell ref="D195:D206"/>
+    <mergeCell ref="D208:D216"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="D440:D444"/>
+    <mergeCell ref="D170:D180"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="D127:D133"/>
+    <mergeCell ref="D135:D144"/>
+    <mergeCell ref="D146:D156"/>
+    <mergeCell ref="D158:D168"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="D103:D110"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D280:D287"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D518:D524"/>
     <mergeCell ref="D526:D528"/>
@@ -15812,66 +15849,29 @@
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="D440:D444"/>
-    <mergeCell ref="D170:D180"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="D127:D133"/>
-    <mergeCell ref="D135:D144"/>
-    <mergeCell ref="D146:D156"/>
-    <mergeCell ref="D158:D168"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D280:D287"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="D296:D302"/>
-    <mergeCell ref="D263:D269"/>
-    <mergeCell ref="D271:D278"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="D218:D227"/>
-    <mergeCell ref="D229:D238"/>
-    <mergeCell ref="D240:D245"/>
-    <mergeCell ref="D247:D253"/>
-    <mergeCell ref="D255:D261"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="D119:D125"/>
-    <mergeCell ref="D182:D193"/>
-    <mergeCell ref="D195:D206"/>
-    <mergeCell ref="D208:D216"/>
-    <mergeCell ref="D434:D438"/>
-    <mergeCell ref="D428:D432"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D317"/>
-    <mergeCell ref="D416:D420"/>
-    <mergeCell ref="D319:D325"/>
-    <mergeCell ref="D327:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D356"/>
-    <mergeCell ref="D470:D474"/>
-    <mergeCell ref="D476:D482"/>
-    <mergeCell ref="D484:D490"/>
-    <mergeCell ref="D446:D450"/>
-    <mergeCell ref="D452:D456"/>
-    <mergeCell ref="D458:D462"/>
-    <mergeCell ref="D464:D468"/>
-    <mergeCell ref="D492:D498"/>
-    <mergeCell ref="D500:D505"/>
-    <mergeCell ref="D507:D512"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="D536:D541"/>
-    <mergeCell ref="D543:D548"/>
-    <mergeCell ref="D550:D559"/>
-    <mergeCell ref="D587:D592"/>
-    <mergeCell ref="D594:D599"/>
-    <mergeCell ref="D561:D568"/>
-    <mergeCell ref="D570:D573"/>
-    <mergeCell ref="D575:D579"/>
+    <mergeCell ref="D637:D643"/>
+    <mergeCell ref="D645:D647"/>
+    <mergeCell ref="D649:D651"/>
+    <mergeCell ref="D653:D656"/>
+    <mergeCell ref="D581:D585"/>
+    <mergeCell ref="D620:D624"/>
+    <mergeCell ref="D626:D629"/>
+    <mergeCell ref="D631:D635"/>
+    <mergeCell ref="D615:D618"/>
+    <mergeCell ref="D601:D603"/>
+    <mergeCell ref="D605:D608"/>
+    <mergeCell ref="D610:D613"/>
+    <mergeCell ref="D658:D660"/>
+    <mergeCell ref="D661:D663"/>
+    <mergeCell ref="D665:D667"/>
+    <mergeCell ref="D669:D671"/>
+    <mergeCell ref="D673:D675"/>
+    <mergeCell ref="D685:D688"/>
+    <mergeCell ref="D689:D692"/>
+    <mergeCell ref="D694:D697"/>
+    <mergeCell ref="D701:D704"/>
+    <mergeCell ref="D677:D679"/>
+    <mergeCell ref="D681:D683"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="5">
@@ -15922,7 +15922,7 @@
       <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="48" t="s">
         <v>283</v>
       </c>
       <c r="E2" s="19">
@@ -15938,7 +15938,7 @@
       <c r="A3" s="29"/>
       <c r="B3" s="32"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="45"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="19">
         <v>2</v>
       </c>
@@ -15954,7 +15954,7 @@
       <c r="A4" s="29"/>
       <c r="B4" s="32"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="45"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="19">
         <v>3</v>
       </c>
@@ -15970,7 +15970,7 @@
       <c r="A5" s="29"/>
       <c r="B5" s="32"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="45"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="19">
         <v>4</v>
       </c>
@@ -15986,7 +15986,7 @@
       <c r="A6" s="29"/>
       <c r="B6" s="32"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="45"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="19">
         <v>5</v>
       </c>
@@ -16002,7 +16002,7 @@
       <c r="A7" s="29"/>
       <c r="B7" s="32"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="45"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="19">
         <v>6</v>
       </c>
@@ -16034,7 +16034,7 @@
       <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="48" t="s">
         <v>287</v>
       </c>
       <c r="E9" s="19">
@@ -16050,7 +16050,7 @@
       <c r="A10" s="29"/>
       <c r="B10" s="32"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="45"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="19">
         <v>2</v>
       </c>
@@ -16066,7 +16066,7 @@
       <c r="A11" s="29"/>
       <c r="B11" s="32"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="19">
         <v>3</v>
       </c>
@@ -16082,7 +16082,7 @@
       <c r="A12" s="29"/>
       <c r="B12" s="32"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="45"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="19">
         <v>4</v>
       </c>
@@ -16098,7 +16098,7 @@
       <c r="A13" s="29"/>
       <c r="B13" s="32"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="19">
         <v>5</v>
       </c>
@@ -16114,7 +16114,7 @@
       <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="19">
         <v>6</v>
       </c>
@@ -16130,7 +16130,7 @@
       <c r="A15" s="29"/>
       <c r="B15" s="32"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="19">
         <v>7</v>
       </c>
@@ -16160,7 +16160,7 @@
       <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="48" t="s">
         <v>290</v>
       </c>
       <c r="E17" s="19">
@@ -16176,7 +16176,7 @@
       <c r="A18" s="29"/>
       <c r="B18" s="32"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="45"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="19">
         <v>2</v>
       </c>
@@ -16192,7 +16192,7 @@
       <c r="A19" s="29"/>
       <c r="B19" s="32"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="19">
         <v>3</v>
       </c>
@@ -16208,7 +16208,7 @@
       <c r="A20" s="29"/>
       <c r="B20" s="32"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="19">
         <v>4</v>
       </c>
@@ -16224,7 +16224,7 @@
       <c r="A21" s="29"/>
       <c r="B21" s="32"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="45"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="19">
         <v>5</v>
       </c>
@@ -16240,7 +16240,7 @@
       <c r="A22" s="29"/>
       <c r="B22" s="32"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="45"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="19">
         <v>6</v>
       </c>
@@ -16253,7 +16253,7 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="45"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="19">
         <v>7</v>
       </c>
